--- a/kobart_news_summarized.xlsx
+++ b/kobart_news_summarized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareEdu2025\mini project\KEB_5team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA46DE-2DCC-400C-9CFF-13E881578DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33757E-E806-46C0-B905-19BFC09BC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{70AF54E5-8580-435B-89B2-7990398A032E}"/>
   </bookViews>
@@ -116,28 +116,6 @@
   </si>
   <si>
     <t>https://www.etnews.com/20250620000223</t>
-  </si>
-  <si>
-    <t>페이스북
-X(트위터)
-메일
-URL 복사
-작게
-보통
-크게
-오라클이 일론 머스크의 인공지능(AI) 기업 'xAI'와 협업한다.
-오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 xAI의 생성형 AI 모델 '그록'을 제공한다. xAI는 그록 모델의 추론 훈련 등을 위해 확장성과 성능, 비용 효율성이 뛰어난 OCI의 AI 인프라를 활용한다.
-오라클 관계자는 “xAI의 모델은 OCI의 엔터프라이즈급 기능으로 보강돼 기업 고객에 강력한 데이터 거버넌스와 관리·보안을 제공한다”며 “오라클이 그록 모델로 전송한 모든 데이터는 데이터가 저장되지 않는 엔드포인트에서 처리돼 추가적인 보호 계층을 제공한다”고 설명했다.
-오라클에 따르면, 미국 통신 서비스 제공업체인 윈드스트림은 보다 유연한 워크스트림을 구축하고 직원들의 역량을 강화하기 위해 OCI를 통해 xAI의 멀티모달 모델을 활용하는 옵션을 고려하고 있는 중이다.
-지미 바(Jimmy Ba) xAI 공동 설립자는 “오라클의 선진화된 데이터 플랫폼은 그록 3의 기업 대상 영향력을 가속화할 것”이라며 “xAI와 오라클의 협업은 엔터프라이즈급 AI의 개념을 재정의할 것”이라고 말했다.
-그렉 파블릭(Greg Pavlik) 오라클 OCI AI 및 데이터 관리 서비스 담당 총괄 부사장은 “오라클은 기업 고객에게 xAI의 최첨단 그록 모델을 제공하여 AI 활용 가능성을 확장하고 있다”며 “이번 협력은 양사의 가장 선진화된 AI 솔루션을 제공하기 위한 노력의 일환으로, 최신 AI 기술을 배포하고자 하는 기업에게 더 많은 선택권과 유연성을 제공한다”고 말했다.
-현대인 기자 modernman@etnews.com
-노르마, 84큐비트 양자 클라우드 서비스 정식 출시
-사업자명 : 전자신문인터넷
-사업자번호 : 107-81-80959
-발행·편집인: 심규호
-청소년보호책임자: 김태권
-Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
     <t>오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 모델 '그록'을 제공하며 오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 xAI의 생성형 AI 모델 '그록'을 제공한다.</t>
@@ -4062,6 +4040,29 @@
   </si>
   <si>
     <t>20일(한국시간) 미국 캘리포니아주 로스앤젤레스 다저스타디움에서 열린 2025 MLB 샌디에이고 파드리스와 홈 경기에 9번 타자 중견수로 선발 출전한 김혜성은 왼손 선발 투수가 등판하면 라인업에서 빠지는 어려운 상황에서도 높은 타율을 유지하고 있다.</t>
+  </si>
+  <si>
+    <t>페이스북
+X(트위터)
+메일
+URL 복사
+작게
+보통
+크게
+오라클이 일론 머스크의 인공지능(AI) 기업 'xAI'와 협업한다.
+오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 xAI의 생성형 AI 모델 '그록'을 제공한다. xAI는 그록 모델의 추론 훈련 등을 위해 확장성과 성능, 비용 효율성이 뛰어난 OCI의 AI 인프라를 활용한다.
+오라클 관계자는 “xAI의 모델은 OCI의 엔터프라이즈급 기능으로 보강돼 기업 고객에 강력한 데이터 거버넌스와 관리·보안을 제공한다”며 “오라클이 그록 모델로 전송한 모든 데이터는 데이터가 저장되지 않는 엔드포인트에서 처리돼 추가적인 보호 계층을 제공한다”고 설명했다.
+오라클에 따르면, 미국 통신 서비스 제공업체인 윈드스트림은 보다 유연한 워크스트림을 구축하고 직원들의 역량을 강화하기 위해 OCI를 통해 xAI의 멀티모달 모델을 활용하는 옵션을 고려하고 있는 중이다.
+지미 바(Jimmy Ba) xAI 공동 설립자는 “오라클의 선진화된 데이터 플랫폼은 그록 3의 기업 대상 영향력을 가속화할 것”이라며 “xAI와 오라클의 협업은 엔터프라이즈급 AI의 개념을 재정의할 것”이라고 말했다.
+그렉 파블릭(Greg Pavlik) 오라클 OCI AI 및 데이터 관리 서비스 담당 총괄 부사장은 “오라클은 기업 고객에게 xAI의 최첨단 그록 모델을 제공하여 AI 활용 가능성을 확장하고 있다”며 “이번 협력은 양사의 가장 선진화된 AI 솔루션을 제공하기 위한 노력의 일환으로, 최신 AI 기술을 배포하고자 하는 기업에게 더 많은 선택권과 유연성을 제공한다”고 말했다.
+현대인 기자 modernman@etnews.com
+노르마, 84큐비트 양자 클라우드 서비스 정식 출시
+사업자명 : 전자신문인터넷
+사업자번호 : 107-81-80959
+발행·편집인: 심규호
+청소년보호책임자: 김태권
+Copyright © Electronic Times Internet. All Rights Reserved.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5038,8 +5039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D21A0-C8E1-4909-8CA4-88E6127A70FE}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -5072,10 +5073,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5083,16 +5084,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5100,16 +5101,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5117,16 +5118,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5134,16 +5135,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5151,16 +5152,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5168,16 +5169,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5185,16 +5186,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5202,16 +5203,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5219,16 +5220,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5236,16 +5237,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5253,16 +5254,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5270,16 +5271,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5287,16 +5288,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" t="s">
         <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5304,16 +5305,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5321,16 +5322,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5338,16 +5339,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" t="s">
         <v>86</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5355,16 +5356,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5372,16 +5373,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" t="s">
         <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5389,16 +5390,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" t="s">
         <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5406,16 +5407,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5423,16 +5424,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
         <v>104</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>106</v>
-      </c>
-      <c r="E23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5440,16 +5441,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5457,16 +5458,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5474,16 +5475,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" t="s">
         <v>118</v>
-      </c>
-      <c r="E26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5491,16 +5492,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
         <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5508,16 +5509,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
         <v>124</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>126</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5525,16 +5526,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>130</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5542,16 +5543,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
         <v>132</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" t="s">
         <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5559,16 +5560,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" t="s">
         <v>138</v>
-      </c>
-      <c r="E31" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5576,16 +5577,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" t="s">
         <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5593,16 +5594,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
         <v>144</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" t="s">
         <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
@@ -5610,10 +5611,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
         <v>148</v>
-      </c>
-      <c r="C34" t="s">
-        <v>149</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -5627,16 +5628,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" t="s">
         <v>150</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" t="s">
         <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5644,16 +5645,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
         <v>154</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" t="s">
         <v>156</v>
-      </c>
-      <c r="E36" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5661,16 +5662,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" t="s">
         <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5678,16 +5679,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
         <v>162</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" t="s">
         <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5695,16 +5696,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
         <v>166</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
         <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5712,16 +5713,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" t="s">
         <v>172</v>
-      </c>
-      <c r="E40" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5729,16 +5730,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" t="s">
         <v>176</v>
-      </c>
-      <c r="E41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5746,16 +5747,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" t="s">
         <v>180</v>
-      </c>
-      <c r="E42" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
@@ -5763,16 +5764,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
         <v>182</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>183</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>184</v>
-      </c>
-      <c r="E43" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5780,16 +5781,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
         <v>186</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" t="s">
         <v>188</v>
-      </c>
-      <c r="E44" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5797,16 +5798,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" t="s">
         <v>190</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" t="s">
         <v>192</v>
-      </c>
-      <c r="E45" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5814,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
         <v>194</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" t="s">
         <v>196</v>
-      </c>
-      <c r="E46" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5831,16 +5832,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
         <v>198</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" t="s">
         <v>200</v>
-      </c>
-      <c r="E47" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5848,16 +5849,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
         <v>202</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" t="s">
         <v>204</v>
-      </c>
-      <c r="E48" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5865,16 +5866,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
         <v>206</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" t="s">
         <v>208</v>
-      </c>
-      <c r="E49" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5882,16 +5883,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" t="s">
         <v>210</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" t="s">
         <v>212</v>
-      </c>
-      <c r="E50" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5899,16 +5900,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" t="s">
         <v>214</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" t="s">
         <v>216</v>
-      </c>
-      <c r="E51" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5916,16 +5917,16 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" t="s">
         <v>220</v>
-      </c>
-      <c r="E52" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5933,16 +5934,16 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
         <v>222</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" t="s">
         <v>224</v>
-      </c>
-      <c r="E53" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5950,16 +5951,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" t="s">
         <v>228</v>
-      </c>
-      <c r="E54" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5967,16 +5968,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" t="s">
         <v>232</v>
-      </c>
-      <c r="E55" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5984,16 +5985,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" t="s">
         <v>234</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" t="s">
         <v>236</v>
-      </c>
-      <c r="E56" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6001,16 +6002,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" t="s">
         <v>238</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" t="s">
         <v>240</v>
-      </c>
-      <c r="E57" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6018,16 +6019,16 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s">
         <v>242</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" t="s">
         <v>244</v>
-      </c>
-      <c r="E58" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6035,16 +6036,16 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" t="s">
         <v>246</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" t="s">
         <v>248</v>
-      </c>
-      <c r="E59" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6052,16 +6053,16 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
         <v>250</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" t="s">
         <v>252</v>
-      </c>
-      <c r="E60" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6069,16 +6070,16 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" t="s">
         <v>254</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" t="s">
         <v>256</v>
-      </c>
-      <c r="E61" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6086,16 +6087,16 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" t="s">
         <v>258</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" t="s">
         <v>260</v>
-      </c>
-      <c r="E62" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6103,16 +6104,16 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" t="s">
         <v>262</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" t="s">
         <v>264</v>
-      </c>
-      <c r="E63" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6120,16 +6121,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" t="s">
         <v>266</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" t="s">
         <v>268</v>
-      </c>
-      <c r="E64" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6137,16 +6138,16 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" t="s">
         <v>270</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" t="s">
         <v>272</v>
-      </c>
-      <c r="E65" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6154,16 +6155,16 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" t="s">
         <v>274</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" t="s">
         <v>276</v>
-      </c>
-      <c r="E66" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6171,16 +6172,16 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" t="s">
         <v>278</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" t="s">
         <v>280</v>
-      </c>
-      <c r="E67" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6188,16 +6189,16 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
         <v>282</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" t="s">
         <v>284</v>
-      </c>
-      <c r="E68" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6205,16 +6206,16 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" t="s">
         <v>286</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" t="s">
         <v>288</v>
-      </c>
-      <c r="E69" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6222,16 +6223,16 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" t="s">
         <v>290</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" t="s">
         <v>292</v>
-      </c>
-      <c r="E70" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6239,16 +6240,16 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" t="s">
         <v>294</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" t="s">
         <v>296</v>
-      </c>
-      <c r="E71" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6256,16 +6257,16 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" t="s">
         <v>298</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" t="s">
         <v>300</v>
-      </c>
-      <c r="E72" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6273,16 +6274,16 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" t="s">
         <v>302</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" t="s">
         <v>304</v>
-      </c>
-      <c r="E73" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6290,16 +6291,16 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" t="s">
         <v>306</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" t="s">
         <v>308</v>
-      </c>
-      <c r="E74" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6307,16 +6308,16 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" t="s">
         <v>310</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" t="s">
         <v>312</v>
-      </c>
-      <c r="E75" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6324,16 +6325,16 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" t="s">
         <v>314</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" t="s">
         <v>316</v>
-      </c>
-      <c r="E76" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6341,16 +6342,16 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" t="s">
         <v>318</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" t="s">
         <v>320</v>
-      </c>
-      <c r="E77" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6358,16 +6359,16 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" t="s">
         <v>322</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" t="s">
         <v>324</v>
-      </c>
-      <c r="E78" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6375,16 +6376,16 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" t="s">
         <v>326</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" t="s">
         <v>328</v>
-      </c>
-      <c r="E79" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6392,16 +6393,16 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
+        <v>329</v>
+      </c>
+      <c r="C80" t="s">
         <v>330</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" t="s">
         <v>332</v>
-      </c>
-      <c r="E80" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6409,16 +6410,16 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
+        <v>333</v>
+      </c>
+      <c r="C81" t="s">
         <v>334</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" t="s">
         <v>336</v>
-      </c>
-      <c r="E81" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6426,16 +6427,16 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" t="s">
         <v>338</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" t="s">
         <v>340</v>
-      </c>
-      <c r="E82" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6443,16 +6444,16 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" t="s">
         <v>342</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" t="s">
         <v>344</v>
-      </c>
-      <c r="E83" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6460,16 +6461,16 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" t="s">
         <v>346</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" t="s">
         <v>348</v>
-      </c>
-      <c r="E84" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6477,16 +6478,16 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" t="s">
         <v>350</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" t="s">
         <v>352</v>
-      </c>
-      <c r="E85" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6494,16 +6495,16 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" t="s">
         <v>354</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" t="s">
         <v>356</v>
-      </c>
-      <c r="E86" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6511,16 +6512,16 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" t="s">
         <v>358</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" t="s">
         <v>360</v>
-      </c>
-      <c r="E87" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6528,16 +6529,16 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
         <v>362</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" t="s">
         <v>364</v>
-      </c>
-      <c r="E88" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6545,16 +6546,16 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" t="s">
         <v>366</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6562,16 +6563,16 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" t="s">
         <v>370</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" t="s">
         <v>372</v>
-      </c>
-      <c r="E90" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6579,16 +6580,16 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" t="s">
         <v>374</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" t="s">
         <v>376</v>
-      </c>
-      <c r="E91" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6596,16 +6597,16 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92" t="s">
         <v>378</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6613,16 +6614,16 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" t="s">
         <v>382</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" t="s">
         <v>384</v>
-      </c>
-      <c r="E93" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6630,16 +6631,16 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" t="s">
         <v>386</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" t="s">
         <v>388</v>
-      </c>
-      <c r="E94" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6647,16 +6648,16 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" t="s">
         <v>390</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6664,16 +6665,16 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C96" t="s">
         <v>394</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" t="s">
         <v>396</v>
-      </c>
-      <c r="E96" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6681,16 +6682,16 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
+        <v>397</v>
+      </c>
+      <c r="C97" t="s">
         <v>398</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" t="s">
         <v>400</v>
-      </c>
-      <c r="E97" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6698,16 +6699,16 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" t="s">
         <v>402</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" t="s">
         <v>404</v>
-      </c>
-      <c r="E98" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6715,16 +6716,16 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
+        <v>405</v>
+      </c>
+      <c r="C99" t="s">
         <v>406</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" t="s">
         <v>408</v>
-      </c>
-      <c r="E99" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.6">
@@ -6732,10 +6733,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
+        <v>409</v>
+      </c>
+      <c r="C100" t="s">
         <v>410</v>
-      </c>
-      <c r="C100" t="s">
-        <v>411</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -6749,16 +6750,16 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
+        <v>411</v>
+      </c>
+      <c r="C101" t="s">
         <v>412</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" t="s">
         <v>414</v>
-      </c>
-      <c r="E101" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6766,16 +6767,16 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
+        <v>415</v>
+      </c>
+      <c r="C102" t="s">
         <v>416</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" t="s">
         <v>418</v>
-      </c>
-      <c r="E102" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6783,16 +6784,16 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
+        <v>419</v>
+      </c>
+      <c r="C103" t="s">
         <v>420</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" t="s">
         <v>422</v>
-      </c>
-      <c r="E103" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6800,16 +6801,16 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
+        <v>423</v>
+      </c>
+      <c r="C104" t="s">
         <v>424</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" t="s">
         <v>426</v>
-      </c>
-      <c r="E104" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6817,16 +6818,16 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
+        <v>427</v>
+      </c>
+      <c r="C105" t="s">
         <v>428</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" t="s">
         <v>430</v>
-      </c>
-      <c r="E105" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6834,16 +6835,16 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C106" t="s">
         <v>432</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" t="s">
         <v>434</v>
-      </c>
-      <c r="E106" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6851,16 +6852,16 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
+        <v>435</v>
+      </c>
+      <c r="C107" t="s">
         <v>436</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" t="s">
         <v>438</v>
-      </c>
-      <c r="E107" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6868,16 +6869,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>439</v>
+      </c>
+      <c r="C108" t="s">
         <v>440</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" t="s">
         <v>442</v>
-      </c>
-      <c r="E108" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6885,16 +6886,16 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
+        <v>443</v>
+      </c>
+      <c r="C109" t="s">
         <v>444</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" t="s">
         <v>446</v>
-      </c>
-      <c r="E109" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6902,16 +6903,16 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
+        <v>447</v>
+      </c>
+      <c r="C110" t="s">
         <v>448</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" t="s">
         <v>450</v>
-      </c>
-      <c r="E110" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6919,16 +6920,16 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
+        <v>451</v>
+      </c>
+      <c r="C111" t="s">
         <v>452</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" t="s">
         <v>454</v>
-      </c>
-      <c r="E111" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6936,16 +6937,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
+        <v>455</v>
+      </c>
+      <c r="C112" t="s">
         <v>456</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" t="s">
         <v>458</v>
-      </c>
-      <c r="E112" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6953,16 +6954,16 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
+        <v>459</v>
+      </c>
+      <c r="C113" t="s">
         <v>460</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" t="s">
         <v>462</v>
-      </c>
-      <c r="E113" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6970,16 +6971,16 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
+        <v>463</v>
+      </c>
+      <c r="C114" t="s">
         <v>464</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -6987,16 +6988,16 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
+        <v>467</v>
+      </c>
+      <c r="C115" t="s">
         <v>468</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" t="s">
         <v>470</v>
-      </c>
-      <c r="E115" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -7004,16 +7005,16 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
+        <v>471</v>
+      </c>
+      <c r="C116" t="s">
         <v>472</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" t="s">
         <v>474</v>
-      </c>
-      <c r="E116" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -7021,16 +7022,16 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
+        <v>475</v>
+      </c>
+      <c r="C117" t="s">
         <v>476</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" t="s">
         <v>478</v>
-      </c>
-      <c r="E117" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -7038,16 +7039,16 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
+        <v>479</v>
+      </c>
+      <c r="C118" t="s">
         <v>480</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" t="s">
         <v>482</v>
-      </c>
-      <c r="E118" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -7055,16 +7056,16 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
+        <v>483</v>
+      </c>
+      <c r="C119" t="s">
         <v>484</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" t="s">
         <v>486</v>
-      </c>
-      <c r="E119" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">

--- a/kobart_news_summarized.xlsx
+++ b/kobart_news_summarized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareEdu2025\mini project\KEB_5team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33757E-E806-46C0-B905-19BFC09BC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11671EE-B08F-47F9-828D-F9D7BABC57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{70AF54E5-8580-435B-89B2-7990398A032E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="414">
   <si>
     <t>source</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>한겨레</t>
-  </si>
-  <si>
-    <t>본문 없음</t>
-  </si>
-  <si>
-    <t>요약 생략 (본문 부족)</t>
   </si>
   <si>
     <t>SBS</t>
@@ -1044,12 +1038,6 @@
     <t>미국 백악관 대변인은 19일(현지시각) 브리핑 때 도널드 트럼프 대통령이 이란 핵 시설 등을 직접 공격할지를 “2주 안에” 결정하겠다고 밝히지만, 뉴욕타임스 등 미국 언론들은 “워싱턴에 있는 거의 모든 사람이 알고 있는 시간 단위 중 하나”라며, 트럼프 대통령이 2주 안에 실제로 결정을 할 지에 대해 의구심을 표하였다.</t>
   </si>
   <si>
-    <t>코스피 3000에도…한국 증시 ‘선진국 시장’ 편입까진 까마득</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/economy/finance/1203891.html</t>
-  </si>
-  <si>
     <t>괴산 사담리엔 ‘차정순길’이 있다…“조금 내주면 모두 편해”</t>
   </si>
   <si>
@@ -1339,106 +1327,6 @@
     <t>음성읍 음성읍 역말(읍내4리)을 거점으로, 유튜브 등을 통해 세계를 대상으로 활동할 '글로컬 크리에이터'를 길러낼 참이다.</t>
   </si>
   <si>
-    <t>[여담야담] '3대 특검' 수사 본격화…윤 전 대통령 체포 나서나</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146138</t>
-  </si>
-  <si>
-    <t>[여담야담] '3대 특검' 수사 본격화…윤 전 대통령 체포 나서나
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>'3담야담] '3대 특검' 수사 본격화...윤 전 대통령 체포 나서기, '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 김정은Copyright C SBS.</t>
-  </si>
-  <si>
-    <t>[여담야담] 여야  김민석 공방 '격화'…출입국·비행편 기록 공개하며 반박</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146137</t>
-  </si>
-  <si>
-    <t>[여담야담] 여야, 김민석 공방 '격화'…출입국·비행편 기록 공개하며 반박
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>여야, 김민석 공방 '격화'...출입국·비행편 기록 공개하며 반박하고, '뻔뻔년이당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 2018년 Copyright C SBS. All rights reserved.</t>
-  </si>
-  <si>
-    <t>[여담야담] 이 대통령 "국무회의 공개 검토"…이번에는 현실화할까</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146136</t>
-  </si>
-  <si>
-    <t>[여담야담] 이 대통령 "국무회의 공개 검토"…이번에는 현실화할까
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 대통령 국무회의 공개 검토를 하고 있으며 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠  '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠  </t>
-  </si>
-  <si>
-    <t>[여담야담] 이 대통령  모레 여야 지도부 오찬…추경 협상 돌파구?</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146135</t>
-  </si>
-  <si>
-    <t>[여담야담] 이 대통령, 모레 여야 지도부 오찬…추경 협상 돌파구?
-최근 24시간 이내 속보 및 알림을 표시합니다.
-대형 교회 예배 생중계 중 20초간…북한 인공기 '깜짝'
-"사람 아니라고?"…옷 입고 청소기 미는데 '충격'
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"산책로서 남성이 나체로 질주" 신고...무슨 일
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>이 대통령, 모레 여야 지도부 오찬...추경 협상 돌파구 마련에 관심이 많은 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...추경 협상 돌파구 마련에 관심이 많은 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...추경 협상 돌파구 마련에 관심이 많은 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...추경 협상 돌파구 마련에 관심이 많은 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...추경 협상 돌파구 마련에 관심이 많은 대통령, 모레 여야 지도부 오찬...이 대통령, 모레 여야 지도부 오찬...추경 협상 돌파구 마련에 관심이 많은 대통령, 모레 여야 지도부 오찬...</t>
-  </si>
-  <si>
-    <t>"저도 참 답답…얼마나 위험한 생각인지" 이 대통령  AI 기업들 목소리 듣더니 [현장영상]</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146230</t>
-  </si>
-  <si>
-    <t>"저도 참 답답…얼마나 위험한 생각인지" 이 대통령, AI 기업들 목소리 듣더니 [현장영상]
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>이 대통령, AI 기업들 목소리 듣더니 '뻔뻔스럽게당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성된 '뻔뻔함이당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어 C SBS. All rights reserved.</t>
-  </si>
-  <si>
     <t>강준현 "국회·대통령실 세종 완전 이전 담은 특별법 발의 준비"</t>
   </si>
   <si>
@@ -1459,46 +1347,6 @@
     <t>강준현 "국회·대통령실 세종 완전 이전 담은 특별법 발의 준비에 한창인데 구급차 가로막아 경악을 금치 못했다.</t>
   </si>
   <si>
-    <t>김민석 "총리 취임하면 AI 산업과 대구 지역 발전에 노력"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146262</t>
-  </si>
-  <si>
-    <t>김민석 "총리 취임하면 AI 산업과 대구 지역 발전에 노력"
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>김준호 신혼여행지 코스 공개되자마자 심장마비로 숨진 아빠,팔에 깔려 3개월 아기마저 사망하였고,후배 감금에 나체 촬영까지,50대 무속인 법정서 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 2018년Copyright C SBS. All rights reserved.</t>
-  </si>
-  <si>
-    <t>"윤 정권 나팔수" 방통위 국정위 보고  질타로 시작했다 중단</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146174</t>
-  </si>
-  <si>
-    <t>"윤 정권 나팔수" 방통위 국정위 보고, 질타로 시작했다 중단
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>윤 정권 나팔수" 방통위 국정위 보고, 질타로 시작하여 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 SBS. All rights reserved.</t>
-  </si>
-  <si>
     <t>이 대통령  'AI 육성 드라이브' 본격화…경제 살리기 행보 박차</t>
   </si>
   <si>
@@ -1519,46 +1367,6 @@
     <t>이 대통령, 'AI 육성 드라이브' 본격화...경제 살리기 행보 박차등등, 'AI 육성 드라이브' 본격화...'경제 살리기 행보 박차등등.</t>
   </si>
   <si>
-    <t>국힘 "김민석  최소 현금 6억 재산신고 누락…선거법 위반"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146113</t>
-  </si>
-  <si>
-    <t>국힘 "김민석, 최소 현금 6억 재산신고 누락…선거법 위반"
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>국힘 "김민석, 최소 현금 6억 재산신고 누락, 선거법 위반 등의 선거법 위반 사항으로 선거법 위반, 선거법 위반, 선거법 위반, 선거법 위반 등의 혐의로 고발당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 SBS.</t>
-  </si>
-  <si>
-    <t>검찰 수뇌부 앞에 두고 "권력 수사" 질타…"김건희 녹취  입맛따라 없다 생겨" [바로이뉴스]</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146147</t>
-  </si>
-  <si>
-    <t>검찰 수뇌부 앞에 두고 "권력 수사" 질타…"김건희 녹취, 입맛따라 없다 생겨" [바로이뉴스]
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 검찰 수뇌부 앞에 두고 "권력 수사" 질타, 검찰 수뇌부 앞에 두고 "권력 수사</t>
-  </si>
-  <si>
     <t>"수사·기소 분리 없네? 다시 해와"…검찰  업무보고 중 '중도 귀가' [바로이뉴스]</t>
   </si>
   <si>
@@ -1599,86 +1407,6 @@
     <t>20대 무속인 법정서 '뻔뻔스럽게당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
   </si>
   <si>
-    <t>국정위  검찰 업무보고 중단…"수사·기소분리 알맹이 빼" 기선제압</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146108</t>
-  </si>
-  <si>
-    <t>국정위, 검찰 업무보고 중단…"수사·기소분리 알맹이 빼" 기선제압
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">국정위, 검찰 업무보고 중단, 수사·기소분리 알맹이 빼기로 기선제압하였고 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠  '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠  </t>
-  </si>
-  <si>
-    <t>국정위  검찰·방통위 업무보고…"개혁 필요" 질타</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146031</t>
-  </si>
-  <si>
-    <t>국정위, 검찰·방통위 업무보고…"개혁 필요" 질타
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>최근 24시간 이내 속보 및 알림을 표시하는 속보 및 알림을 표시하는 병원 코앞인데 구급차 가로막고 구급차 가로막은 50대 무속인 법정서 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 윤석Copyright C SBS.</t>
-  </si>
-  <si>
-    <t>'김민석 의혹' 여야 공방…김민석 "모두 소명할 것"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146029</t>
-  </si>
-  <si>
-    <t>'김민석 의혹' 여야 공방…김민석 "모두 소명할 것"
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>김준호 신혼여행지 코스 공개되자마자 심장마비로 숨진 아빠,팔에 깔려 3개월 아기마저 사망하였고,후배 감금에 나체 촬영까지,50대 무속인 법정서 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 2018년 C SBS. All rights reserved.</t>
-  </si>
-  <si>
-    <t>국정위  '검찰 직접 수사권 배제' 공식화…"환골탈태할 때"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146061</t>
-  </si>
-  <si>
-    <t>국정위, '검찰 직접 수사권 배제' 공식화…"환골탈태할 때"
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>국정위, '검찰 직접 수사권 배제' 공식화하며 '뻔뻔스럽게당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
-  </si>
-  <si>
     <t>[정치쇼] 조천호 "IMF 3배짜리 경제 피해 온다…기후위기  정치가 할 일은?"</t>
   </si>
   <si>
@@ -1719,26 +1447,6 @@
     <t>최근 24시간 이내 속보 및 알림을 표시한 검찰, 업무보고 중 중도 귀가 조치, 김준호 신혼여행지 코스 공개되자 자유한국당의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 준비하였다.</t>
   </si>
   <si>
-    <t>국정위  검찰 업무보고 중단…"공약 분석 제대로 안 돼"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008145984</t>
-  </si>
-  <si>
-    <t>국정위, 검찰 업무보고 중단…"공약 분석 제대로 안 돼"
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단, 국정위, 검찰 업무보고 중단,                                        </t>
-  </si>
-  <si>
     <t>대통령실  차관급 인사 단행…김남중 통일부 차관 등</t>
   </si>
   <si>
@@ -1777,26 +1485,6 @@
   </si>
   <si>
     <t>김준호 신혼여행지 코스 공개되자마자 심장마비로 숨진 아빠, 팔에 깔려 3개월 아기마저 사망하였고 50대 무속인 법정서 '뻔뻔스런당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 김정은</t>
-  </si>
-  <si>
-    <t>통일차관 김남중·행안차관 김민재…이 대통령  차관급 5명 임명</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008145953</t>
-  </si>
-  <si>
-    <t>통일차관 김남중·행안차관 김민재…이 대통령, 차관급 5명 임명
-최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
-Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
-  </si>
-  <si>
-    <t>문재인 대통령은 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 '뻔뻔스럽고당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 SBS. All rights reserved.</t>
   </si>
   <si>
     <t>[정치쇼] 조경태 "윤  일반인처럼 체포해야…내란특검  전대 변수될 것"</t>
@@ -2111,61 +1799,6 @@
     <t>국내 증시는 외국인과 기관 투자자의 쌍끌이 매수에 힘입어 3년 6개월 만에 종가 기준 3000선을 돌파하며 3021.84로 장을하였으며, 외국인과 기관 투자자의 쌍끌이 매수에 힘입어 지수는 1%대 상승을 기록했다.</t>
   </si>
   <si>
-    <t>[포토]코스피  3020선 돌파 마감…3년 6개월 만</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/stock/11348290</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-코스피지수가 3년 6개월만에 3000을 넘긴 20일 서울 중구 하나은행 본점 딜링룸에서 직원들이 환한 표정을 보이고 있다. 2025.6.20 [김호영기자]
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>2025.6.20 [김호영기자팀이 기사가 마음에 들었다면, 좋아요를 눌러주고, 매일경제를 경험해보세요즈는매일경제 구독주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층.</t>
-  </si>
-  <si>
     <t>한국동서발전  효율중심 설비운영 위한 전사 발전부장 워크숍 개최</t>
   </si>
   <si>
@@ -2778,78 +2411,6 @@
   <si>
     <t>트럼프 미국 미국 대통령이 19일 트루스소셜을 통해 제롬 파월 연방준비제도(연준·Fed) 의장에게 "멍청이(stupid)"라고 부르며 금리 인하를 요구한 바 있다.
 트럼프 대통령은 19일(현지 시각) 트루스소셜을 통해 “‘너무 늦는(Too Late)’ 제롬 파월은 미국에 수천억달러 손실을 입히고 있다”면서 “그는 정부에서 가장 어리석고 파괴적인 인물 중 한 명이며 연준 이사회는 공범”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>PGA 복귀 예약한 김성현  韓서 5언더 버디쇼</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/sports/11348260</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-김성현이 KPGA선수권대회 둘째 날에서 5언더파를 기록하며 우승 경쟁에 뛰어들었다.
-그는 중간합계 6언더파로 순위를 30계단 이상 끌어올렸고, 무결점 플레이로 경기를 마무리했다.
-김성현은 남은 시즌 동안 콘페리투어에서 상위권 성적을 유지해 PGA 투어 출전권을 확정하겠다는 의지를 밝혔다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-김성현이 KPGA선수권대회 둘째 날에서 5언더파를 기록하며 우승 경쟁에 뛰어들었다.
-그는 중간합계 6언더파로 순위를 30계단 이상 끌어올렸고, 무결점 플레이로 경기를 마무리했다.
-김성현은 남은 시즌 동안 콘페리투어에서 상위권 성적을 유지해 PGA 투어 출전권을 확정하겠다는 의지를 밝혔다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-미국프로골프(PGA) 투어 2026시즌 복귀를 예약한 김성현이 한국프로골프(KPGA) 투어 KPGA선수권대회 둘째날 우승 경쟁에 합류했다.
-김성현은 20일 경남 양산의 에이원 컨트리클럽에서 열린 대회 2라운드에서 5언더파 66타를 쳤다. 중간합계 6언더파 136타를 기록한 그는 첫날보다 순위를 30계단 이상 끌어올리는 데 성공했다.
-전날 버디 3개와 보기 2개를 묶어 1타를 줄였던 김성현은 이날 보기 없이 버디 5개를 잡아내는 무결점 플레이를 선보였다. 특히 초반 플레이가 돋보였다. 10번홀에서 이날 경기를 시작한 그는 14번홀까지 5연속 버디를 잡아내는 집중력을 발휘했다. 남은 홀에서도 몇 차례 버디 기회를 잡았지만 마무리가 아쉬웠다. 김성현은 나머지 홀에서 모두 파를 기록했고 5언더파로 둘째날 경기를 마쳤다.
-김성현은 “첫날보다는 확실히 둘째날 경기가 잘 풀렸다. 몇 차례 위기를 파로 막고 다섯 번의 버디 기회를 살리면서 5타를 줄이게 됐다”며 “이 대회에서는 2020년 우승 등 비가 내릴 때마다 성적이 좋았다. 이번 주말에도 비가 예보돼 있는 만큼 또 하나의 기분 좋은 추억을 만들어보겠다”고 강조했다.
-올해 콘페리투어를 주무대로 삼고 있는 김성현은 1승을 포함해 톱10에 5번 이름을 올리며 콘페리투어 포인트 2위를 달리고 있다. 1301점을 쌓은 그는 지난해 포인트 랭킹 20위에 자리했던 잭슨 수버(미국)의 1019점을 훌쩍 넘어선 만큼 사실상 다음 시즌 PGA 투어 출전권을 확보한 상태다.
-그럼에도 김성현은 만족하지 않았다. 남은 시즌 꾸준히 상위권 성적을 내 콘페리투어 포인트 1위로 PGA 투어행을 확정하겠다는 각오를 전했다. 그는 “아직 콘페리투어 2025시즌 일정이 많이 남아 있는 만큼 계속해서 우승에 도전해보려고 한다. 이왕이면 올해의 선수상을 받고 PGA 투어로 복귀하고 싶다. 현재 좋은 분위기를 계속해서 이어갈 수 있도록 준비를 잘해보겠다”고 말했다.
-PGA 투어에서 살아남는 실력을 갖추기 위한 노력도 계속될 예정이다. 그는 “콘페리투어에서 잘 했다고 해서 PGA 투어에서 잘 하는 것은 아니다. 경쟁이 더욱 치열한 무대가 PGA 투어인 만큼 지금보다 모든 면에서 실력을 키워야 살아남을 수 있을 것이라고 생각한다”고 설명했다.
-양산 임정우 기자
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>한국 경제성장률 전망 알려줘 네이버한국 경제성장률 전망 알려줘 네이버한국 경제성장률 전망 알려줘 네이버한국 경제성장률 전망 알려줘 네이버한국 경제성장률 전망 알려줘 네이버한국 경제성장률 전망 알려줘 네이버한국 경제성장률 전망 알려줘 네이버최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 네이버최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 네이버최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 네이버최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 자유한국AI 검색은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공한다.</t>
   </si>
   <si>
     <t>‘배관 타고’ 아파트 6층서 여성 살해한 40대 남성 윤정우</t>
@@ -3464,12 +3025,6 @@
   </si>
   <si>
     <t>2017년부터 2017년부터 윤활기유 대산공장 증설 투자를 통해 오는 2027년부터 윤활기유(그룹 3)의 본격적인 상업 가동을 목표로 하고 있는 HD현대쉘베이스오일이 윤활기유 대산공장 증설 투자를 통해 오는 2027년부터 윤활기유(그룹 3)의 본격적인 상업 가동을 목표로 하고 있다.</t>
-  </si>
-  <si>
-    <t>尹  경찰 조사 3번 불응…與 “국민 곁에서 격리해야”</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620511265</t>
   </si>
   <si>
     <t>한가인  ‘♥연정훈’에게 희생해...타고난 호구 관상 “남편 팔자가 상팔자”</t>
@@ -5037,10 +4592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D21A0-C8E1-4909-8CA4-88E6127A70FE}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -5067,16 +4622,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5084,16 +4639,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5101,16 +4656,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5118,16 +4673,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5135,16 +4690,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5152,16 +4707,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5169,16 +4724,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5186,16 +4741,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5203,16 +4758,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5220,16 +4775,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5237,16 +4792,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5254,16 +4809,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5271,16 +4826,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>68</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5288,16 +4843,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5305,16 +4860,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5322,16 +4877,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5339,16 +4894,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5356,16 +4911,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5373,16 +4928,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5390,16 +4945,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>96</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5407,16 +4962,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5424,16 +4979,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5441,16 +4996,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5458,16 +5013,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5475,16 +5030,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5492,16 +5047,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5509,16 +5064,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5526,16 +5081,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5543,16 +5098,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>132</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5560,16 +5115,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5577,16 +5132,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5594,33 +5149,33 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5742,7 +5297,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -5752,14 +5307,14 @@
       <c r="C42" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>179</v>
       </c>
       <c r="E42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -5769,7 +5324,7 @@
       <c r="C43" t="s">
         <v>182</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E43" t="s">
@@ -5897,7 +5452,7 @@
     </row>
     <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>213</v>
@@ -5914,7 +5469,7 @@
     </row>
     <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>217</v>
@@ -5931,7 +5486,7 @@
     </row>
     <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>221</v>
@@ -5948,7 +5503,7 @@
     </row>
     <row r="54" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>225</v>
@@ -5965,7 +5520,7 @@
     </row>
     <row r="55" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>229</v>
@@ -5982,7 +5537,7 @@
     </row>
     <row r="56" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>233</v>
@@ -5999,7 +5554,7 @@
     </row>
     <row r="57" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>237</v>
@@ -6016,7 +5571,7 @@
     </row>
     <row r="58" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>241</v>
@@ -6033,7 +5588,7 @@
     </row>
     <row r="59" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>245</v>
@@ -6050,7 +5605,7 @@
     </row>
     <row r="60" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>249</v>
@@ -6067,7 +5622,7 @@
     </row>
     <row r="61" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>253</v>
@@ -6084,7 +5639,7 @@
     </row>
     <row r="62" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>257</v>
@@ -6101,7 +5656,7 @@
     </row>
     <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>261</v>
@@ -6118,7 +5673,7 @@
     </row>
     <row r="64" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>265</v>
@@ -6135,7 +5690,7 @@
     </row>
     <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>269</v>
@@ -6152,7 +5707,7 @@
     </row>
     <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>273</v>
@@ -6169,7 +5724,7 @@
     </row>
     <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>277</v>
@@ -6186,7 +5741,7 @@
     </row>
     <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>281</v>
@@ -6203,7 +5758,7 @@
     </row>
     <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>285</v>
@@ -6220,7 +5775,7 @@
     </row>
     <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>289</v>
@@ -6237,7 +5792,7 @@
     </row>
     <row r="71" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>293</v>
@@ -6254,7 +5809,7 @@
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>297</v>
@@ -6265,13 +5820,13 @@
       <c r="D72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>301</v>
@@ -6288,7 +5843,7 @@
     </row>
     <row r="74" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>305</v>
@@ -6299,13 +5854,13 @@
       <c r="D74" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>309</v>
@@ -6322,7 +5877,7 @@
     </row>
     <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>313</v>
@@ -6339,7 +5894,7 @@
     </row>
     <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>317</v>
@@ -6350,13 +5905,13 @@
       <c r="D77" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>321</v>
@@ -6373,7 +5928,7 @@
     </row>
     <row r="79" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>325</v>
@@ -6390,7 +5945,7 @@
     </row>
     <row r="80" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>329</v>
@@ -6407,7 +5962,7 @@
     </row>
     <row r="81" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>333</v>
@@ -6424,7 +5979,7 @@
     </row>
     <row r="82" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>337</v>
@@ -6441,7 +5996,7 @@
     </row>
     <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
         <v>341</v>
@@ -6458,7 +6013,7 @@
     </row>
     <row r="84" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
         <v>345</v>
@@ -6475,7 +6030,7 @@
     </row>
     <row r="85" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>349</v>
@@ -6492,7 +6047,7 @@
     </row>
     <row r="86" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>353</v>
@@ -6509,7 +6064,7 @@
     </row>
     <row r="87" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>357</v>
@@ -6526,7 +6081,7 @@
     </row>
     <row r="88" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
         <v>361</v>
@@ -6543,7 +6098,7 @@
     </row>
     <row r="89" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>365</v>
@@ -6554,13 +6109,13 @@
       <c r="D89" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>369</v>
@@ -6577,7 +6132,7 @@
     </row>
     <row r="91" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>373</v>
@@ -6594,7 +6149,7 @@
     </row>
     <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>377</v>
@@ -6605,13 +6160,13 @@
       <c r="D92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
         <v>381</v>
@@ -6628,7 +6183,7 @@
     </row>
     <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
         <v>385</v>
@@ -6645,7 +6200,7 @@
     </row>
     <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
         <v>389</v>
@@ -6662,7 +6217,7 @@
     </row>
     <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
         <v>393</v>
@@ -6679,7 +6234,7 @@
     </row>
     <row r="97" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
         <v>397</v>
@@ -6696,7 +6251,7 @@
     </row>
     <row r="98" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
         <v>401</v>
@@ -6713,7 +6268,7 @@
     </row>
     <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
         <v>405</v>
@@ -6728,9 +6283,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
         <v>409</v>
@@ -6738,368 +6293,42 @@
       <c r="C100" t="s">
         <v>410</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
+      <c r="D100" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" t="s">
-        <v>411</v>
-      </c>
-      <c r="C101" t="s">
-        <v>412</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>414</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A103" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
-        <v>419</v>
-      </c>
-      <c r="C103" t="s">
-        <v>420</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E103" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
-        <v>423</v>
-      </c>
-      <c r="C104" t="s">
-        <v>424</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E104" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A105" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
-        <v>427</v>
-      </c>
-      <c r="C105" t="s">
-        <v>428</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E105" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A106" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" t="s">
-        <v>431</v>
-      </c>
-      <c r="C106" t="s">
-        <v>432</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E106" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" t="s">
-        <v>435</v>
-      </c>
-      <c r="C107" t="s">
-        <v>436</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E107" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
-        <v>439</v>
-      </c>
-      <c r="C108" t="s">
-        <v>440</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E108" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>443</v>
-      </c>
-      <c r="C109" t="s">
-        <v>444</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E109" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
-        <v>447</v>
-      </c>
-      <c r="C110" t="s">
-        <v>448</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E110" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>451</v>
-      </c>
-      <c r="C111" t="s">
-        <v>452</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E111" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>455</v>
-      </c>
-      <c r="C112" t="s">
-        <v>456</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E112" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>459</v>
-      </c>
-      <c r="C113" t="s">
-        <v>460</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E113" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>463</v>
-      </c>
-      <c r="C114" t="s">
-        <v>464</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A115" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" t="s">
-        <v>467</v>
-      </c>
-      <c r="C115" t="s">
-        <v>468</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E115" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A116" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" t="s">
-        <v>471</v>
-      </c>
-      <c r="C116" t="s">
-        <v>472</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E116" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>475</v>
-      </c>
-      <c r="C117" t="s">
-        <v>476</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E117" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>479</v>
-      </c>
-      <c r="C118" t="s">
-        <v>480</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E118" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>483</v>
-      </c>
-      <c r="C119" t="s">
-        <v>484</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E119" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
         <v>17</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/kobart_news_summarized.xlsx
+++ b/kobart_news_summarized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareEdu2025\mini project\KEB_5team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11671EE-B08F-47F9-828D-F9D7BABC57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F1106-7FDA-453D-A8BA-D750CEB7C901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{70AF54E5-8580-435B-89B2-7990398A032E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="488">
   <si>
     <t>source</t>
   </si>
@@ -52,73 +52,10 @@
     <t>세계일보</t>
   </si>
   <si>
-    <t>美 “한·미·일 협력 심화”… 美·中 사이 ‘균형외교’엔 견제구 [이재명 정부 출범]</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250604517279</t>
-  </si>
-  <si>
-    <t>, 대선
-입력 : 2025-06-04 19:09:22 수정 : 2025-06-04 19:09:22
-인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-미국 도널드 트럼프 행정부는 새로 출범하는 이재명정부와 안보, 경제, 민주주의 가치 등에서 동맹 관계와 한·미·일 3자 협력을 심화하겠다는 공식 입장을 밝혔다. 그러면서도 백악관 당국자가 “중국의 개입과 영향력 행사”를 우려한다고 이례적으로 언급한 것은 이재명정부가 미국과 중국 사이에서 ‘균형 외교’를 추구할 가능성을 사전에 차단하려는 포석으로 읽힌다.
-3일(현지시간) 미국 정부를 대표해 마코 루비오 국무장관은 성명을 내고 “미국과 한국은 우리의 상호방위조약, 공유 가치, 깊은 경제 관계에 기반을 둔 동맹에 대한 철통 같은 약속을 공유하고 있다”고 강조했다. 이어 “우리는 또 오늘의 전략적 환경의 요구에 부응하고 새로운 경제적 도전에 대응하기 위해 동맹을 현대화하고 있다”며 “역내 안보를 강화하고, 경제적 회복력을 향상하며, 우리가 공유하는 민주주의 원칙을 지키기 위해 한·미·일 협력을 계속해서 심화할 것”이라고 밝혔다.  미국 정부의 공식 반응은 대체로 동맹 관계를 강조하고 윤석열 전 대통령과 조 바이든 전 미국 대통령 재임 시기 강화한 한·미·일 협력의 틀을 계속 이어나가자는 데 방점이 찍혀 있다. 다만 ‘동맹 현대화’는 최근 트럼프 행정부가 검토하는 것으로 알려진 주한미군 감축이나 역할 재조정, 트럼프 대통령이 공개적으로 요구해 온 동맹국의 방위비 분담 인상 등을 의미하는 것으로 해석될 여지가 있다. 트럼프 행정부는 이재명정부와 공식 외교채널을 통해 대화하면서 그간 정상의 부재로 미뤄뒀던 이 같은 문제들을 본격적으로 꺼내들 것으로 보인다.  루비오 장관의 공식 성명과 별개로 이날 백악관은 한국 대선에 대해 언론에 보낸 익명 당국자 명의의 답변에서 이례적으로 중국과 관련된 언급을 했다. “한국은 자유롭고 공정한 선거를 진행했다”고 전제하면서도 전 세계 민주주의 국가들에 대한 “중국의 개입과 영향력 행사를 우려한다”는 내용이다. 이는 피트 헤그세스 미 국방장관이 지난달 31일 아시아안보회의(샹그릴라 대화) 연설에서 한국을 포함한 아시아 동맹국들을 겨냥해 “중국에 대한 경제적 의존은 그들(중국)의 해로운 영향력을 심화시킬 뿐”이라고 언급한 것과 같은 맥락으로 미국이 본격적으로 동맹국들에 중국 견제를 요구하고 나선 것이란 해석이 가능하다. 이 대통령이 과거 미국과 중국 사이에서 ‘균형외교’를 추구하는 것으로 해석되는 발언을 한 점 등을 겨냥해 트럼프 행정부가 사전에 경고한 것으로도 볼 수 있다. 빅터 차 미 전략국제문제연구소(CSIS) 한국 석좌와 앤디 림 연구원은 이날 문답 형식의 논평을 내고 이 대통령의 대중 정책과 관련해 “트럼프 행정부와 충돌할 수 있다”면서 “트럼프 행정부는 동맹국이 중국과 경제 관계를 유지하면서 미국과 안보 협력을 할 수 없다는 점을 분명히 해왔다”고 짚었다. 트럼프 1기 행정부 당국자들은 문재인정부 시절 청와대와 백악관이 외교정책을 놓고 부딪친 사례를 여러 차례 공개적으로 거론한 바 있다.
-이재명정부를 향한 미국 조야의 인식도 호의적이지 않다. ‘극우 선동가’로 영향력이 큰 인사인 로라 루머는 이날 사회관계망서비스(SNS) 엑스(X·옛 트위터)에 “공산주의자들이 한국을 접수해 오늘 대선에서 승리했다. 이는 끔찍한 일”이라는 주장을 올렸다. 트럼프 대통령의 전 참모인 스티브 배넌도 엑스에 캐롤라인 레빗 백악관 대변인이 브리핑에서 한국 대선 관련한 기자 질문에 “있다. 찾아 주겠다”고 했다가 “없네”라고 답한 영상을 올리면서 “한국은 망했다(fallen)”고 적었다. 마가(MAGA·미국을 다시 위대하게) 인사들이 연이어 이재명정부에 비판적 시각을 보이는 것은 이들이 참여하는 보수 행사 보수정치행동회의(CPAC)에 한국의 일부 우파 인사들이 꾸준히 참여하는 등 가까운 관계를 맺어온 것과도 무관치 않아 보인다.  미 의회의 지한파 의원들은 축하 인사를 전했다. 상원 외교위원회 민주당 간사인 진 섀힌 뉴햄프셔 의원은 당선 축하 성명을 내고 “오늘 대선의 결말은 한국의 제도가 우리가 공유하는 민주주의 원칙과 법치주의를 지키는 회복력이 있다는 것을 입증했다”고 평가했다.
-[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
-제호 : 세계일보
-서울특별시 용산구 서빙고로 17
-등록번호 : 서울, 아03959
-등록일(발행일) : 2015년 11월 2일
-발행인 : 정희택
-편집인 : 황정미
-전화번호 : 02-2000-1234
-청소년보호 책임자 : 임인섭
-Copyright ⓒ 세계일보 All rights reserved.</t>
-  </si>
-  <si>
-    <t>미국 도널드 트럼프 행정부는 새로 출범하는 이재명정부와 안보, 경제, 민주주의 가치 등에서 동맹 관계와 한·미·일 3자 협력을 심화하겠다는 공식 입장을 밝혔으며 백악관 당국자가 "중국의 개입과 영향력 행사"를 우려한다고 언급한 것은 이재명정부가 미국과 중국 사이에서 '균형 외교'를 추구할 가능성을 사전에 차단하려는 포석으로 보인다.</t>
-  </si>
-  <si>
-    <t>日 이시바 “한·일 정상회담 조속 추진 희망” [이재명 정부 출범]</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250604517280</t>
-  </si>
-  <si>
-    <t>, 대선
-입력 : 2025-06-04 19:08:58 수정 : 2025-06-04 19:08:58
-인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-이시바 시게루 일본 총리는 4일 취임한 이재명 대통령과 조기에 정상 외교를 시작하겠다는 의지를 나타내며 새 한국 정부에 적극적인 손짓을 보냈다.
-이시바 총리는 이날 총리관저에서 기자들과 만나 올해가 한·일 국교 정상화 60주년이라고 언급하며 “민간을 포함한 일·한(한·일) 교류를 더욱 활발히 해 나가고 싶다”고 말했다. 이어 양국 간에는 급속한 저출생·고령화, 인구의 수도권 집중, 미국과의 동맹 관계를 포함한 외교·안보 정책 등 공통 과제가 많다면서 “수교 60주년을 계기로 이 대통령과 일·한, 일·미·한(한·미·일) 협력을 활발히 하고 싶다. 그것이 60주년의 큰 의의”라고 강조했다.
-한·일 정상회담에 대해서는 “되도록 조속히 하는 쪽이 좋다”며 의욕을 보였다. 이시바 총리는 “일본은 정말로 한국과 흉금을 터놓고 민간을 포함해 적극적으로 교류해 연결고리를 강하게 하고자 한다”며 “정부가 노력할 것”이라고 덧붙였다. 윤석열 전 대통령 때 재개된 한·일 ‘셔틀 외교’의 중요성은 “한국에 어떤 정권이 들어서더라도 변하지 않는다”며 양국 정상이 앞으로도 계속 정기적으로 상대국을 오가며 만날 수 있기를 희망했다.  마이니치신문은 이와 관련해 “이시바 총리는 이 대통령과 조기에 전화 협의를 통해 일·한, 일·미·한 공조를 이어나가고자 한다”며 “러시아의 우크라이나 침공, 북한 핵·미사일 개발, 중국의 해양진출 등 주변 안보환경이 긴박해지고 있으며, 특히 북·러 군사 밀착으로 3국 안보협력의 중요성이 더욱 커지고 있기 때문”이라고 전했다.  일본 관가나 언론에선 다만 이 대통령의 대일 외교노선이 어떤 방향으로 펼쳐질지 예의주시하는 분위기다. 과거 이 대통령이 일본을 ‘적성국가’라고 규정하거나, 일제강점기 강제동원 피해자에 대한 윤 전 대통령의 이른바 ‘제3자 변제’ 해법 등을 두고 ‘굴욕외교’라고 비판해왔기 때문이다. 외무성 관계자는 마이니치에 “정권 초기에는 유화 자세로 나오겠지만 대일 강경의 본성이 점점 드러날 것”이라며 경계심을 드러냈다. 극우 성향 산케이신문은 이 대통령이 일본군 위안부 기록물의 유네스코 세계기록유산 등재 추진을 공약했다면서 “역사 문제나 위안부·강제동원 문제를 재점화할 가능성이 있다”고 전망했다.  요미우리신문은 “이 대통령은 공약을 통해 ‘국익 중심 실용외교’를 주장했고 대일 관계에 대해서도 ‘사회·문화·경제 분야에서 미래 지향적 대응을 하며, 일관성과 안정성을 갖춘 일·한 관계의 토대를 쌓겠다’고 했다”며 “일본 중시의 입장을 분명히 한 것”이라고 평가했다.
-[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
-제호 : 세계일보
-서울특별시 용산구 서빙고로 17
-등록번호 : 서울, 아03959
-등록일(발행일) : 2015년 11월 2일
-발행인 : 정희택
-편집인 : 황정미
-전화번호 : 02-2000-1234
-청소년보호 책임자 : 임인섭
-Copyright ⓒ 세계일보 All rights reserved.</t>
-  </si>
-  <si>
-    <t>4일 취임한 이재명 대통령과 조기에 정상 외교를 시작하겠다는 의지를 나타내며 새 한국 정부에 적극적인 손짓을 함으로써 새 한국 정부에 적극적인 손짓을 던졌다.</t>
-  </si>
-  <si>
-    <t>오라클  일론 머스크 AI 기업 'xAI'와 협업</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000223</t>
-  </si>
-  <si>
-    <t>오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 모델 '그록'을 제공하며 오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 xAI의 생성형 AI 모델 '그록'을 제공한다.</t>
-  </si>
-  <si>
-    <t>네이버  ESG 통합 보고서 발간…AI 접근성 확대에 1조원 투자한다</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000162</t>
+    <t>배민  '한그릇' 주문 10배 증가…포화된 배달 시장서 돌파구 찾는다</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000279</t>
   </si>
   <si>
     <t>페이스북
@@ -128,15 +65,16 @@
 작게
 보통
 크게
-네이버가 향후 6년 간 인공지능(AI) 접근성 확대를 위해 1조원을 투자한다.
-네이버는 지난해 환경·사회·지배구조(ESG) 경영 노력과 성과를 담은 '2024 통합보고서'를 20일 발간하고 이 같이 밝혔다.
-네이버는 이번 통합보고서에서 지난해 팀네이버 통합 컨퍼런스 '단(DAN) 24'에서 발표한 '임팩트 펀드'의 구체적인 계획을 공개했다. 올해부터 2030년까지 총 1조원 규모 자금을 △테크 임팩트 △비즈니스 임팩트 △커뮤니티 임팩트 등 세 가지 분야로 나눠 투자한다. 전 국민 대상 AI 캠페인과 성인 대상 AI·소프트웨어(SW) 교육, 판매자 스케일업을 위한 성장 마일리지 프로그램 등을 운영한다. 미래 세대와 소상공인(SME), 창작자의 역량 강화를 위한 다양한 프로젝트를 추진한다.
-네이버는 서치 플랫폼, 커머스, 핀테크 등 다양한 비즈니스 영역에서 창출한 ESG 가치 실현 사례를 소개했다. 상생 금융과 기술 솔루션을 통해 SME 성장을 지원하는 '빠른정산'과 '커머스 솔루션 마켓', 위조·위해상품 방지로 건강한 거래 환경을 조성하는 '안심보장 프로그램', 독거노인과 중장년 1인 가구에게 돌봄 서비스를 제공하는 '클로바 케어콜'을 대표 사례로 꼽았다.
-기존 환경, 사회, 지배구조 중심 전략에 더해 정보기술(IT)·플랫폼 기업에 특화된 항목인 '사람을 위한 기술(Technology for People)' 분야를 새로운 지속가능경영 프레임워크로 새롭게 추가했다. 네이버는 AI 기술의 안전한 개발과 활용, 디지털 포용성 확대, 이용자 보호 등 기술 기반 ESG 전략·계획을 제시했다.
-'서비스 안정성' 파트도 이번에 신설했다. 재난·재해나 장애 상황에서도 안정적으로 서비스를 제공하기 위한 전사 차원 목표와 시스템을 공개했다.
-이외 환경 분야와 지배구조 분야에서의 지속가능 경영 실천 결과를 상세히 담았다. 개인정보보호, 인적자본 관리, 정보보안, 온실가스·에너지 관리 등 주요 이슈에 대해서도 글로벌 스탠다드에 준용하는 전략과 목표, 성과를 함께 제시했다.
+배달의민족이 최소 주문 금액을 없앤 '한그릇' 카테고리의 주문 수가 한 달 새 10배 이상 증가한 것으로 나타났다. 배민은 BBQ, 교촌치킨, KFC 등 주요 치킨 브랜드와 협업해 한그릇에서 1인분 메뉴를 제공하고 있다. 소액 주문에 대한 소비자의 심리적 장벽을 낮춰 주문을 활성화하는 전략으로 풀이된다. 1만원 이하 주문에 대해 중개 수수료를 면제하는 등 상생안까지 나와 배달 시장의 판도 변화도 예상된다.
+26일 우아한형제들에 따르면, 지난 셋째주(6월16일~22일) 배민 한그릇 카테고리 주문 수는 지난달 첫째주(4월28일~5월4일) 대비 10배 이상 증가했다. 같은 기간 등록된 메뉴 수 또한 약 13배 늘었다. 한그릇 카테고리에 가입하는 가게 수가 증가하면서 주문량도 급증한 것으로 분석된다.
+배민 한그릇은 1인분 식사에 적합한 메뉴만 모아 놓은 카테고리다. 최소 주문 금액 없이 원하는 만큼만 주문할 수 있는 것이 특징이다. 쿠팡이츠와 요기요의 경우에도 1인분 주문 카테고리는 있지만 대부분 가게마다 최소 주문 금액이 설정돼 차이가 있다.
+배민은 지난 4월 29일 한그릇 카테고리를 신설하고 애플리케이션(앱) 전면의 왼쪽 첫 번째 탭에 배치했다. 이달에는 한그릇 서비스를 전국 주요 지역으로 확대했다. 오는 27일부터는 국내 최대 치킨프랜차이즈 BBQ와 협업해 황금올리브치킨 등 인기 메뉴의 1인분 판매를 시작한다. KFC, 교촌치킨 등 주요 치킨 프랜차이즈도 한그릇에서 1인분을 판매하고 있다.
+배달 업계 1위인 배민이 한그릇 카테고리를 본격적으로 서비스하면서 배달 시장 판도를 바꿀지 주목된다. 국내 배달 플랫폼의 최소 주문 금액은 보통 1만2000원~1만5000원 수준으로 형성돼 있다. 소비자 입장에서는 단일 메뉴 외에 사이드 메뉴나 음료 등을 추가로 주문해야 해 주문을 포기하는 상황이 발생한다. 점주 입장에서도 소액 주문은 마진이 적어 최소 주문 금액을 높이고, 이로 인해 소비자가 주문을 꺼리는 악순환이 생긴다. 소액 주문으로 진입 장벽을 낮춰 신규 고객을 유치하고 단골로 전환하면 전체 매출 증대에 기여할 수 있다는 분석이 나온다.
+치열한 경쟁이 벌어지는 미국의 주요 배달 플랫폼들은 이미 최소 주문 금액을 없애 소비자를 끌어 모으는 전략을 취하고 있다. 미국 배달 플랫폼 도어대시, 우버이츠는 최소 주문 금액이 없다. 멤버십 고객을 대상으로 소액 주문에 대해 중개 수수료도 면제하고 있다. 우버이츠는 소액 주문 건에 대해 추천 메뉴를 자동으로 노출하는 등 소액 주문 활성화를 위한 정책을 펼친다. 그럽허브는 최소 주문 금액이 없고 10달러(약 1만3600원) 이하 주문에 한해 2달러(약 2700원)의 수수료를 부과한다.
+배민은 소액 주문에 대한 중개 수수료를 면제하며 점주 사로잡기에도 나섰다. 지난 19일 더불어민주당 중재로 열린 사회적 대화기구에서 1만원 이하 소액 주문에 대해 중개 수수료 면제와 배달비 차등 지원, 1만5000원 이하 주문에 대해서는 중개 수수료 차등 지원을 포함한 상생안을 발표했고, 구체안이 확정되는대로 시행할 계획이다. 향후 3년간 총 3000억원을 점주에게 지원할 계획이다.
+우아한형제들 관계자는 “그간 소액 주문에도 배달 처리 비용은 동일하기 때문에 업주에게 부담이 컸다”면서 “플랫폼이 소액 주문에 대해 업주를 지원하면서 1인 가구 증가세와 맞물려 소액 주문 활성화로 이어질 수 있다”고 밝혔다.
 변상근 기자 sgbyun@etnews.com
-구글, EU 6조5000억원 과징금 부과 취소 소송패소 위기
+교촌치킨, 배민과 전략 제휴 추진…쿠팡이츠선 빠진다
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -144,13 +82,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>네이버는 20일 환경·사회·지배구조(ESG) 경영 노력과 성과를 담은 '2024 통합보고서'를 발간하고 향후 6년 간 인공지능 접근성 확대를 위해 1조원을 투자하기로 했다.</t>
-  </si>
-  <si>
-    <t>디지털치료제 허가 봇물  시장개화 기대감…수가 현실화 관건</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000161</t>
+    <t>배민은 치킨 브랜드와 협업해 한그릇에서 1인분 메뉴를 제공하고 있어 소액 주문에 대한 소비자의 심리적 장벽을 낮춰 주문을 활성화하는 전략으로 풀이된다.</t>
+  </si>
+  <si>
+    <t>[디지털라이프] 하얀색 안마의자가 빨간색으로 변신 … 세라젬 '파우제 피팅 서비스'</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000318</t>
   </si>
   <si>
     <t>페이스북
@@ -160,19 +98,26 @@
 작게
 보통
 크게
-국내 혁신의료기기로 지정된 디지털치료제가 20개를 돌파했다. 이중 절반 가까이가 올해 상반기에 지정된 것으로, 국내 시장이 연구개발(R&amp;D)을 넘어 상업화 단계에 본격 진입했다는 평가다. 디지털치료제가 치료 대안으로 주목받고 있지만 글로벌 경쟁력 확보를 위해선 수가체계를 개편해야 한다는 목소리가 높다.
-22일 식품의약품안전처에 따르면 현재 혁신의료기기(일반·통합)로 지정받은 디지털치료제는 총 21개로, 이 중 9개가 올해 신규 지정됐다.
-디지털치료제는 특정 질환의 치료·예방을 목적으로 한 소프트웨어(SW) 기반 의료기기다. 주로 경도인지장애, 우울증, 주의력결핍과잉행동장애(ADHD) 등 환자를 대상으로 다양한 콘텐츠를 이용해 질환을 치료한다.
-2022년 12월 에임메드와 웰트의 불면증 디지털치료제가 1호 혁신의료기기로 지정된 이후 시장에 제품이 꾸준히 출시되고 있다. 연도별로 보면 2022년 3건을 시작으로 2023년 5건, 2024년 5건을 기록했다.
-올해는 그 수가 큰 폭으로 늘어나고 있다. 올해만 유비플러스(D-STOP), 뉴라이브(소리클리어), 에스알파테라퓨틱스(SAT-014) 등 총 9개 제품이 혁신의료기기로 지정됐다. 이미 지난해 전체 지정 건수를 넘어섰으며, 하반기 지정 예정인 것까지 포함하면 그 수가 더 늘 것으로 예상된다. 혁신의료기기로 지정되면 비급여 또는 선별급여 형태로 수가 청구가 가능하다. 3~5년간 임시 등재 후 임상, 치료 효과 등을 분석해 정식 등재 여부를 결정한다.
-혁신의료기기 지정으로 시장 선진입 시도가 활발한 가운데 식약처 디지털의료기기 정식 허가 제품도 늘어나고 있다. 현재 디지털치료제 중 식약처 허가를 받은 제품은 총 9개다. 이중 뉴라이브(이명), 이모코그(경도인지장애), 웰트(섭식장애), 히포티앤씨(우울증) 4개 제품이 올해 허가 받았다.
-이처럼 올해 디지털치료제 제도권 진입이 크게 늘어난 것은 국내 기업 기술이 R&amp;D 단계를 지나 상업화에 이른데다 정부의 정책 지원까지 합쳐진 결과다. 2020년부터 디지털치료제 개발이 본격화된 상황에서 4~5년 간 기술개발과 임상시험을 끝내고 상품화로 이어졌다는 분석이다.
-여기에 올해 1월부터 디지털의료제품법 시행으로 인공지능(AI) 의료기기, 디지털치료제 등 혁신의료기기 육성 근거를 마련하고, 신속한 시장 진입을 지원한 것도 크게 영향을 미쳤다.
-강성지 웰트 대표는 “상대적으로 의약품이나 기존 의료기기와 비교해 디지털치료제는 기술개발과 임상시험 기간이 짧은 편”이라며 “4~5년간의 R&amp;D를 거쳐 올해를 기점으로 디지털치료제 시장 진입이 본격화될 것”이라고 전망했다.
-장기적으로 글로벌 경쟁력을 확보하기 위해선 보상체계 개편이 필요하다는 목소리도 나온다. 현재 혁신의료기기 지정에 따른 임시 등재 수가는 대부분 2만~8만원 선이다. 이 금액으로는 R&amp;D 재투자나 수익 창출이 불가능한 만큼 비급여 처방을 선택하고 있는데, 전액 환자 부담인 만큼 확산에 애를 먹고 있다.
-디지털치료제 기업 관계자는 “시장 진입을 단축하는 정부 지원은 큰 도움이 되지만 진입 이후 생존을 위한 수가체계 개편은 필수”라며 “최소한의 투자회수나 재투자 여력을 만들기 위해선 수가 현실화가 필요하다”고 지적했다.
-정용철 기자 jungyc@etnews.com
-식약처, 헬스케어AI 활용 포럼 개최
+전자제품을 구매할 때 '질리지 않을 디자인'을 고려하는 사람이 많다. 생필품과 달리 한번 구매하면 최소 2년 이상 길게는 10년 넘게 쓰는 경우가 많아서다.
+열 길 물속은 알아도 한 길 사람 속은 모른다는 속담이 있다. 사람 마음과 취향이라는 게, 내년에도 자신이 과거에 고른 디자인을 최고라고 여길 지는 확신할 수 없다.
+새 안마의자를 구매하지 않아도 새로운 디자인 제품으로 누려볼 수 있는 서비스가 등장했다. 세라젬이 이달부터 안마의자 커버를 바꿀 수 있는 '파우제 피팅 서비스'를 시작했다. 첫 적용 제품은 '파우제 M8'이다. 서비스를 시작하며 제품명도 '파우제 M8 핏'으로 바꿨다.
+이미 만들어진 안마의자를 어떻게 바꾼다는 걸까. 서비스매니저가 파우제 디자인을 교체하는 작업을 직접 확인했다.
+◇핸드폰 케이스처럼 안마의자 커버도 바꿔
+'딸깍' 세라젬 서비스매니지먼트팀 AS 매니저가 파우제 M8 핏 사이드커버를 떼어냈다. 커버는 스티커처럼 붙였다 떼어내는 방식이 아니라 핸드폰 케이스처럼 끼우고 벗길 수 있는 방식으로 기기에 부착돼 있다. 파우제 M8 핏 양옆에 있는 사이드커버와 중앙커버 총 3개 영역에서 디자인을 바꾸는 데 걸린 시간은 10분이었다.
+세라젬은 파우제 피팅 서비스를 시작하며 파우제 M8 핏 설계 방식도 변경했다. 기존에는 파우제 커버를 교체하려면 안마의자 등받이 안쪽 부분을 매만지는 작업이 필요했지만 이제 겉 커버만 만져도 쉽게 교체가 가능하다.
+고객이 서비스를 신청하면 매니저 2명이 방문해 커버 교체를 진행한다. 기존에 사용하던 커버는 고객이 폐기와 보관 중 선택할 수 있다. 만약 기존 커버를 보관한다면 추후 다시 커버를 바꾸고 싶을 때 출장비만 부담하면 커버 재교체가 가능하다.
+세라젬 관계자는 “최근 집 꾸미기와 홈 퍼니싱에 대한 관심이 높아지면서 인테리어와 어울리는 제품에 대한 수요가 늘어났다”며 “다른 가전제품처럼 안마의자도 자신의 취향에 맞게 디자인을 커스터마이징하고자 하는 수요가 높다는 것을 확인해 서비스를 도입했다”고 말했다.
+◇12개 색상으로 만드는 12종의 안마의자
+피팅 서비스에서 선택할 수 있는 색상은 총 12종이다. 색상은 △크림 화이트 △오트밀 베이지 △샌드 베이지 △올리브 그린 △스톤 그레이 △스트로베리 핑크 △토파즈 옐로우 △에메랄드 그린 △시에나 오렌지 △루비 레드 △스무디 베이지 △코코 화이트로 구성돼 있다.
+서비스는 온라인 몰과 오프라인 매장에서 모두 색상을 확인하고 신청할 수 있다. 일부 오프라인 매장에는 해당 색상과 커버 질감을 직접 만져볼 수 있는 책자가 비치되어 있거나 커버 패브릭이 나란히 옷처럼 걸려있다. 비슷해 보이는 색깔도 직접 만져보면 미세하게 까칠하거나 부드러운 정도가 다르다. 가능하다면 오프라인에서 색상을 직접 확인하고 고민하는 시간을 가진 뒤 온라인에서 주문하는 것을 추천한다.
+세라젬은 서비스 도입으로 이사 가거나 벽지를 바꾸지 않아도 새로운 공간으로 재탄생할 수 있을 것으로 기대하고 있다. 서비스가 초여름에 시작한만큼 경쾌해 보이는 노란색과 초록색 등의 색상이 인기가 높은 것으로 알려졌다.
+세라젬은 하반기에 수요가 높은 색상을 위주로 처음 파우제 M8 핏을 구매할 때부터 6~8가지 색상의 안마의자 중 선택할 수 있게 할 계획이다. 현재는 안마의자를 구입할 때는 크림 화이트와 오트밀 베이지 2종 중 선택할 수 있다. 향후에는 안마의자 디자인 선택의 폭이 보다 넓어질 전망이다.
+◇기능에서 디자인까지 아우르는 헬스케어 경험 제공
+세라젬은 척추 라인에 맞춤 마사지를 제공하는 것을 경쟁력으로 삼아왔다. 파우제 피팅 서비스 출시는 마사지 기술력 뿐만 아니라 개인 맞춤형 디자인을 다양하게 제공해 고객 경험을 높이겠다는 취지가 담겨있다.
+특히 안마의자도 단순한 헬스케어 기기를 넘어 인테리어 가구의 일부로 인식해 생활 공간과 조화를 이루는 외관에 대한 소비자 니즈가 뚜렷해지는 추세다. 이러한 트렌드를 반영해 세라젬이 '헬스테리어' 트렌드를 선도하겠다는 포부다.
+파우제 피팅 서비스가 제공되는 '파우제 M8 핏'은 척추 라인 스캐닝 기술 기반 맞춤 마사지로 사용자 체형에 최적화된 지압을 제공한다. 빠르고 정밀한 '직가열 온열볼'로 척추 주요 부위에 빠르고 정밀한 집중 온열 마사지를 구현한다. 최대 160도 리클라이닝 시에도 별도의 여유 공간이 필요 없는 제로월 시스템을 적용했다. 이외에도 18가지 맞춤 마사지 모드를 지원하고 끼밍 방지 센서 등을 탑재했다.
+김신영 기자 spicyzero@etnews.com
+코웨이, 채용연계형 R&amp;D 인턴사원 모집 … 역대 최대 규모
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -180,13 +125,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>식품의약품안전처에 따르면 현재 혁신의료기기(일반·통합)로 지정받은 디지털치료제는 총 21개로 이중 절반 가까이가 올해 상반기에 지정된 것으로 국내 시장이 연구개발(R&amp;D)을 넘어 상업화 단계에 본격 진입했다는 평가다.</t>
-  </si>
-  <si>
-    <t>李대통령  “지방 대규모 AI 데이터센터 각별한 의미”···지방경제 새로운 희망</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000145</t>
+    <t>세라젬이 이달부터 안마의자 커버를 바꿀 수 있는 '파우제 피팅 서비스'를 시작했다.</t>
+  </si>
+  <si>
+    <t>통계 '미비' 경계선 지능인  지원정책 마련도 '사각지대'</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000313</t>
   </si>
   <si>
     <t>페이스북
@@ -196,17 +141,17 @@
 작게
 보통
 크게
-이재명 대통령이 울산 AI데이터센터 출범과 관련 지방경제의 새로운 희망이라는 평과와 함께 수도권 중심 첨단기술의 지방확산 의지를 내비쳤다.
-이 대통령은 20일 울산 전시컨벤션센터에서 인공지능(AI) 사업 관련 기업인들을 만나 산업 육성방안을 논의하는 'AI 글로벌 협력 기업 간담회'를 가졌다.
-이 자리엔 최태원 SK 회장, 정신아 카카오 대표, 이준희 삼성SDS 사장, 배경훈 LG AI연구원 원장, 서범석 루닛 대표, 백준호 퓨리오사AI대표, 조준희 한국AI·SW협회장, 김유원 네이버클라우드 대표 등 기업인들이 대거 참석했다.
-이 대통령은 모두발언에서 “대한민국이 지금까지 고속 성장을 했는데, 지금 시중말로 깔딱고개 넘는 것 같다”며 “준비하기에 따라 새로운 세상으로 넘어갈 수도 있고, 내려갈 수도 있는 상황”이라고 말했다. 이어 “우리 국민의 위대한 저력으로 위기를 이겨내고 새로운 대한민국을 맞이할 것으로 민든다. 국민의 위대함 속에 기업인의 위대함도 있다”고 강조했다.
-이 대통령은 특히 이날 울산에서 AI 데이터센터가 출범하는 것과 관련해 “우리 (최태원) SK 회장님 애썼습니다”라고 언급하기도 했다.
-첨단산업과 국가균형발전 시너지에도 큰 기대감을 표했다. 이 대통령은 또 “지방에서 대규모 AI 데이터 센터를 유치한 것이 각별한 의미가 있다. 오늘 제가 일부러 시간을 내서 여기 온 이유는 (이번 센터 유치가) 지방 경제와 산업의 새로운 희망을 만들어주는 일인 것 같기 때문”이라며 “울산 경제도 살아나고 대한민국 성장도 꽃 피우는 출발점이 되기를 바란다”고 강조했다.
-최태원 SK 회장은 정부가 적극적인 AI 수요자가 되어 줄 것을 건의했다.
-최 회장은 “정부의 지원 가운데 가장 요긴한 것이 바로 정부의 각 부처가 사용할 AI 앱을 발주하는 것”이라며 “현재의 정부가 'AI 정부화'가 될 필요성이 있다”고 말했다. 그러면서 “이 혁신을 통해 공공 수요가 상당히 나올 수 있다고 생각한다”며 “5년간 5조원의 시장을 만들 수 있을 것”이라고 밝혔다.
-최 회장은 아울러 “AI 원스톱 바우처 사업을 확대해주기 바란다”며 “이를 통해 기업과 스타트업, 연구기관, 소상공인, 중소기업을 포함해 AI 인프라 활용을 늘리고 시장 잠재력을 키울 수 있을 것”이라고 요청했다.
-최호 기자 snoop@etnews.com
-李대통령, 통일부·행안부 등 5개 부처 차관 임명
+정부가 지능지수(IQ) 71~84에 속하는 '경계선 지능인'의 사회적 자립 정책 수립에 어려움을 겪고 있다. 등록장애인에 해당하지 않아 정확한 실태를 파악하지 못해서다. 경계선 지능인 지원에 대한 법적 근거 역시 부재해 일부 지역에만 지원 사업을 실시하는 것으로 나타났다.
+26일 정부기관에 따르면 고용노동부는 내년도에 경계선 지능청년 일자리지원 사업 신설을 계획하고 있다. 20세 이상 39세 이하 경계선 지능청년 200명을 선발해 일대일 진로 상담, 기초소양·구직기술 습득 등 맞춤형 프로그램을 제공하는 사업이다. 이들은 학습이 느려 현행 청년 취업 훈련 프로그램 수행이 어렵고, 일자리를 주겠다는 말에 속아 범죄에 연루되는 일이 종종 발생한 것이 신설 배경이 됐다.
+이번 사업은 국민참여예산제도를 통해 추진하고 있다. 실제 사업 편성을 위해선 예산국민참여단의 지지가 필수적이다. 경계선 지능청년 현황과 실태, 고용상황 등을 질의하는 국민참여단이 상당했던 것으로 전해졌다.
+그러나 경계선 지능인에 대한 구체적인 규모와 실태조사 자료는 미비하다. 현행 장애인복지법은 지적장애 기준을 IQ 70 이하인 경우로 규정했다. IQ 71~84로 학습·사회생활에 어려움을 겪는 경계선 지능인은 장애인에 해당하지 않아 통계조차 마련하지 않은 '사각지대'에 놓인 셈이다.
+보건복지부와 한국보건사회연구원은 지난해 10월에야 경계선 지능인 실태조사에 착수했다. 아직 결과 발표 전이라, 고용노동부는 정규분포상 약 13.6%가 IQ 71~84 영역에 속한 점을 고려해 경계선 지능청년 수를 20만명으로 추정했다.
+고용노동부 관계자는 “향후 사업운영 결과와 복지부가 발표할 실태조사에 따라 지원 대상자 범위 확대를 검토하겠다”고 밝혔다.
+국가 차원에서 경계선 지능인을 지원하도록 규정한 입법도 지지부진하다. 22대 국회 들어 조승환·허영·권칠승·안상훈 등 8명의 의원이 경계선 지능인 지원과 권리 보장 법안을 대표 발의했다. 대부분의 법안이 상임위에 계류 중이다.
+복지부는 이들 법안에 대해 “경계선 지능인의 생애주기별 지원으로 사회참여 촉진과 삶의 질 향상에 기여한다는 취지는 공감한다”면서도 “경계선 지능인에 대해 명확한 기준 정립이 선행되어야 한다”고 입장을 전했다. IQ 71∼84에 국한해 지원 대상을 정하기 보다는, 다양한 요인으로 학습·사회참여·자립생활에 어려움을 겪는 경우를 고려해 적절한 기준과 정책 서비스를 마련해야 한다는 것이다.
+국회 보건복지위원회에 따르면 해외에서 일본과 스페인이 각각 교육, 고용에 대해 경계선 지능인을 지원하고 있다. 국내에서는 부산·울산광역시, 강원특별자치도, 강원도 등 4개 광역자치단체와 15개 기초 지자체가 경계선 지능인 지원 조례를 제정했다. 특히 서울은 2022년 경계선 지능인 평생교육 지원센터를 설치하고, 지난해 관련 예산 24억5000만원을 편성해 지원사업을 운영하고 있다.
+송윤섭 기자 sys@etnews.com
+HLB바이오스텝-마그나인베, '바이오 파트너링 데이' 개최
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -214,13 +159,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>이재명 대통령이 20일 울산 전시컨벤션센터에서 인공지능(AI) 사업 관련 기업인들을 만나 산업 육성방안을 논의하는 'AI 글로벌 협력 기업 간담회'를 개최하였으며, 최태원 SK 회장, 정신아 카카오 대표, 이준희 삼성SDS 사장, 배경훈 LG AI연구원 원장, 서범석 루닛 대표, 백준희 한국AI·SW협회장, 김유원 네이버클라우드 대표 등 기업인들이 대거 참석하였다.</t>
-  </si>
-  <si>
-    <t>'틱톡' 기한 연장  이번만 3번째…트럼프 “90일 더 준다”</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000135</t>
+    <t>20세 이상 39세 이하 경계선 지능청년 200명을 선발해 일대일 진로 상담, 기초소양·구직기술 습득 등 맞춤형 프로그램을 제공하는 사업인 '경계선 지능청년 일자리지원 사업'이 등록장애인에 해당하지 않아 정확한 실태를 파악하지 못해 어려움을 겪고 있다.</t>
+  </si>
+  <si>
+    <t>[홈&amp;테크]홈 프로젝터 고정관념 '터치'로 깼다…삼성전자 '더 프리미어5'</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000123</t>
   </si>
   <si>
     <t>페이스북
@@ -230,15 +175,24 @@
 작게
 보통
 크게
-도널드 트럼프 미국 대통령이 중국 기반의 동영상 플랫폼 '틱톡'의 미국 내 사업권 매각 시한 또다시 연장했다. 이번이 3번째다.
-트럼프 대통령은 19일(현지시간) 자신의 사회관계망서비스(SNS) 트루스소셜에서 “나는 방금 틱톡 시한을 90일(2025년 9월 17일까지) 연장하는 행정명령에 서명했다”고 밝혔다.
-지난해 4월 조 바이든 행정부 당시, 미국 연방 의회는 '틱톡 금지법'을 통과시켰다. 모회사인 중국 바이트댄스가 틱톡의 미국 내 사업권을 미국 기업에 매각하지 않으면 미국에서 서비스할 수 없다는 내용이다.
-이에 따른 매각 시한은 올해 1월 19일. 바이트댄스가 매각하지 않으면서 당일 틱톡 서비스가 중단됐으나, 이튿날 취임한 트럼프 대통령이 곧장 매각 기한을 75일 연장하면서 서비스가 재개됐다.
-트럼프 대통령은 지난 4월 4일에도 75일 매각 기한을 연장한 바 있다. 이날 연장은 취임 이후 3번째 연장이다.
-NBC 방송에 따르면 트럼프 대통령은 틱톡 매각과 관련해 “시진핑 중국 국가주석이 틱톡 판매 계약에 순응할 것이라고 믿는다”며 “매수자가 나타나면 시 주석이 계약에 서명해야 할 것”이라고 말했다.
-틱톡은 미국에서만 1억 7000만 명의 사용자를 보유한 인기 앱이다. 첫 번째 연장 기한이 끝나갈 무렵, 아마존 등 미국 기업이 틱톡 매수에 관심을 드러냈으나 중국과의 관세 전쟁이 심화되던 시기이기 때문에 합의는 물거품이 됐다.
-서희원 기자 shw@etnews.com
-“AI 가전 고객 경험 강화” 삼성스토어 신세계 강남 리뉴얼 오픈
+'화면 좀 컸으면 좋겠다….'
+온라인동영상서비스(OTT)를 큰 화면으로 보고, 누워서도 즐기고, 아무데서나 편하게 보고 싶다는 생각은 누구나 한 번쯤 해봤을 것이다.
+심지어 불편을 감수할 수밖에 없는 캠핑을 가더라도 큰 화면으로 OTT나 예능을 제대로 즐기고 싶은 것은 비단 기자만의 생각은 아닐 것이다.
+삼성전자가 올해 선보인 가정용 프로젝터 '더 프리미어5'는 이같은 요구를 모두 충족시켜주는 흥미로운 제품이다.
+더 프리미어5를 2주 가량 사용해보니 '초단초점 기술'과 '터치' 기능이 가장 매력적으로 다가왔다.
+더 프리미어5는 약 한 뼘인 43㎝ 거리에서 최대 100형 스크린으로 콘텐츠를 즐길 수 있다. 벽과 가까운 위치에 프로젝터를 세워놓으면 원하는 크기와 원하는 위치에서 편안하게 영상을 즐길 수 있다. 주변 밝기에 따라 색상과 명암비 등을 스스로 조정해 최적의 선명한 화질을 구현한다.
+건전지가 필요없는 태양광 리모컨을 제공한다. 스마트싱스에 연결하면 리모컨이 없어도 스마트싱스 앱에서 콘텐츠를 탐색하고 기능을 제어할 수 있다.
+더 프리미어5에는 적외선 카메라가 부착된 전용 스탠드가 포함돼 있다. 힘을 줄 필요없이 스탠드를 부착 위치에 갖다 대면 자석처럼 쉽게 붙는다. 본체 카메라와 전용 스탠드의 카메라가 바로 연결돼 바닥이나 테이블에서 영상을 투사해 즐길 수 있다.
+더 프리미어5는 보통의 프로젝터와 달리 터치 기능을 지원한다. 단순 영상 감상을 넘어 활용 범위가 넓어진다. 전용 스탠드에 탑재된 적외선 카메라와 적외선 레이저 모듈이 터치 범위를 스스로 인식한다.
+터치 기능을 사용해보니 성인은 물론 아이들까지 다방면으로 활용도가 높겠다는 생각이 들었다. 더 프리미어5에서는 터치 기능을 활용한 캐주얼 게임 등을 제공한다. 테이블에 제품을 놓은 후 여럿이 둘러앉아 간단한 게임을 즐기는 색다른 재미가 있었다.
+색칠놀이 기능도 흥미롭다. 책상에 흰 종이를 깔고 그림을 투사하면 그림에 맞춰 색칠놀이를 할 수 있다.
+스마트폰이나 태블릿이 아닌 테이블에 아이들이 좋아하는 영상을 틀어주면 직관적인 터치로 아이들이 스스로 영상을 제어하거나 다른 영상을 선택하는 등 조작이 편하다.
+터치 기능은 바닥이 딱딱해야 제대로 작동한다. 이불이나 푹신한 매트에서는 터치 인식이 매끄럽지 않다. 바닥 무늬가 너무 복잡한 경우에도 인식이 잘 되지 않는 듯 했다.
+주방 아일랜드에 더 프리미어5를 놓고 레시피 영상을 참고해 요리하는 경험도 색다르다. 터치 기능으로 영상을 편하게 재생·멈춤할 수 있어 스마트폰으로 보는 것보다 편했다.
+더 프리미어5는 야외에서도 사용감이 상당히 만족스러웠다. 스탠드를 포함한 본체 무게가 2.3㎏에 불과해 작은 가방에 넣으면 이동에 불편함이 없다.
+야외에서 인터넷에 연결하면 더 프리미어5에 탑재된 '삼성 TV 플러스'와 유튜브·넷플릭스 등을 즐길 수 있다. 휴대용이 아니므로 전원 연결이 필요하지만 캠핑장처럼 전기와 와이파이를 제공하는 곳이라면 사용에 큰 무리가 없다.
+배옥진 기자 withok@etnews.com
+[1만호 100대 사건]〈4〉개인용컴퓨터 시대 개막
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -246,13 +200,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>트럼프 미국 미국 대통령이 19일(현지시간) 자신의 사회관계망서비스 트루스소셜에서 중국 기반의 동영상 플랫폼 '틱톡'의 미국 내 사업권 매각 시한을 90일 연장하는 행정명령에 서명했다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>李대통령  통일부·행안부 등 5개 부처 차관 임명</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000108</t>
+    <t>삼성전자가 올해 출시한 가정용 프로젝터 '더 프리미어5'는 초단초점 기술,터치 기능,초단초점 기술,초단초점 기능,초단초점 기술,터치 기능이 가장 매력적이다.</t>
+  </si>
+  <si>
+    <t>“아이디어에 날개를  세상에 미래를”…제1회 변리사의날 개최</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000116</t>
   </si>
   <si>
     <t>페이스북
@@ -262,21 +216,24 @@
 작게
 보통
 크게
-이재명 대통령은 20일 통일부를 포함해 총 5개 부처의 차관을 임명했다.
-강유정 대통령실 대변인은 이날 서면을 통해 이 대통령이 통일부 차관으로 김남중 전 통일부 남북회담본부 상근회담 대표, 행정안전부 차관으로 김민재 행정안전부 차관보, 농림축산식품부 차관으로 강형석 농림수산식품부 농업혁신정책실장, 해양수산부 차관으로 김성범 해양수산부 해양정책실장, 행정안전부 재난안전본부장에 김광용 행정안전부 대변인을 임명했다고 밝혔다.
-강 대변인은 “김남중 차관은 통일부에서 30여년간 근무하면서 통일부의 역사로 불리는 분”이라면서 “통일부 재직 당시 '직원들이 가장 닮고 싶은 고위 공직자'로 선정되는 등 조직 내 신망도 매우 두텁다”고 밝혔다.
-이어 “남북 교류 협력과 정상회담 등을 조율하며 현장과 정책을 아우르는 높은 전문성을 축적한 점이 높게 평가됐다”면서 “통일부 관료로서 오랜 경륜과 함께 남다른 사명감을 가지고 한반도 평화 체제 구축에 헌신할 것으로 기대된다”고 부연했다.
-김민재 차관은 행안부 지방행정정책관, 기획조정실장, 차관보를 역임한 정책통으로 소개했다. 강원도 기조실장 등을 거치며 확보한 지방 행정에 대한 높은 이해도를 장점으로 꼽았다.
-강 대변인은 “다양한 근무 경험을 바탕으로 지역 균형발전 아젠다를 안정적으로 이끌어온 만큼 지역소멸 위기에 대응하기 위한 이재명 정부의 '5극 3특' 중심의 국토 균형발전과 지방분권 정책에 박차를 가할 인물”이라고 임명 배경을 밝혔다.
-강형석 차관은 농림수산식품부 농촌정책국장과 농업혁신정책실장 등 다양한 업무를 담당하면서 농업 현장에 대한 높은 이해와 전문성을 두루 갖춘 인사라고 설명했다.
-스마트 데이터 농업 확산과 K-푸드 수출 확대 등 미래 농산업 전환에 역량을 발휘할 것으로 기대되는 만큼 '사람이 돌아오는 지속 가능한 농산어촌' 구축이라는 대통령의 공약을 실천할 적임자로 평가했다.
-김성범 차관은 해양수산부 해양정책실장, 해양정책관, 항만국장 등을 두루 거치며 해양수산 전 분야에 전문성과 위기 대응 역량을 갖춘 인물로 국제유류오염보상기금 추가 기금 의장으로 11년간 활동하면서 국제 협력과 소통 능력이 탁월하다는 평가를 받았다고 밝혔다.
-강 대변인은 “다양한 실무 경험과 정책 능력을 바탕으로 해양수산부 부산 이전과 해양 신산업 육성이라는 이재명 대통령의 공약을 실천할 최적의 인재”라고 덧붙였다.
-김광용 재난안전본부장과 관련해선 업무역량이 탁월하고 대인관계가 원만하면서 대변인으로도 활동해 언론 대응 능력도 갖췄다고 평했다.
-행정안전부 안전기획과장, 재난대응정책관, 자연재난실장 등 재난 안전 업무를 경험하면서 전문성과 대응 역량이 축적된 인물로 홍수와 지진 등 자연재해에 철저히 대비하고, 국민의 안전과 생명을 지키는 나라를 만드는 안전 업무를 이끌어갈 적임자라는 게 강 대변인의 설명이다.
-강 대변인은 “대통령실은 이번 차관급 인사를 두고 안정감과 변화를 동시에 충족하면서 각 부처가 즉시 성과를 낼 수 있도록 전문 관료들을 중심으로 배치했다”고 말했다.
-최호 기자 snoop@etnews.com
-李대통령, “지방 대규모 AI 데이터센터 각별한 의미”···지방경제 새로운 희망
+지식재산권(IP)을 책임지는 변리사들이 한자리에 모여 국가 IP 경쟁력 강화를 위해 의기투합했다.
+대한변리사회는 26일 오후 서울 영등포구 중소기업중앙회 KBIZ홀에서 제1회 변리사의 날 기념식을 개최했다.
+앞서 변리사회는 지난 2월 '제64회 정기총회'에서매년 6월 26일을 변리사의 날로 지정했다. 법정 단체로서의 위상을 정립하고, 변리사 제도의 올바른 인식을 확산하겠다는 취지다. 변리사날로 정한 6월 26일은 변리사회의 전신인 조선변리사회의 설립일이다.
+이번 기념식은 '아이디어에 날개를, 세상에 미래를 : 변리사와 함께'를 주제로 열렸다. 조선변리사회의 창립부터 최근까지 변리사의 역사를 한눈에 볼 수 있는 기념 영상 상영과 슬로건 제창, 국내 지식재산 제도 및 변리사 제도 발전에 기여한 유공자 표창 등을 진행했다.
+유공자 표창 시상식에서 국가지식재산위원회 위원장 표창은 최달용 변리사, 산업통상자원부 장관 표창은 이해영·이덕재·허성원 변리사가 각각 차지했다. 또 특허청장 표창엔 최효선·신동윤·김병주 변리사, 변리사회 회장 표창엔 조민정·전기억·강선녕·윤경애·홍진영 변리사가 이름을 올렸다.
+이날 기업 관계자를 초청해 '고품질 특허 확보를 위한 출원대리인 선정, 어떻게 해야 하는가?'를 주제로 한 토론회도 가졌다. 토론회는 김두규 변리사회 회장이 좌장을 맡고 윤성환 삼성전자 상무, 이한선 LG에너지솔루션 전무, 이한오 네이버 이사, 예범수 KT 상무 등 국내 주요 대기업 IP 관계자들이 패널로 참석해 의견을 나눴다.
+김두규 대한변리사회 회장은 “역사적인 1회 행사인 만큼 변리사를 알리고 발명가, 기업과 함께하는 소통의 의미를 강조하는 한편 상담 주간을 정해 국민과도 함께하는 기념일이 되도록 준비했다”며 “어려운 시기에 변리사들의 자긍심도 높일 수 있는 의미 있는 날이 될 것”이라고 말했다.
+[미니 인터뷰] 김두규 변리사회 회장, “사회와 함께 걷는 변리사회 되겠다”
+'변리사의 날' 지정은 김두규 변리사회 회장이 직접 낸 아이디어였다. 옆나라 일본은 일찌감치 변리사의 날을 지정해 변리사의 인식 제고는 물론 지역사회에 뿌리는 내리는 계기를 마련했다.
+김 회장은 변리사의 날 행사를 계기로 우리 사회에서 변리사 입지를 다지고 사회적 역할을 다하겠다고 밝혔다.
+▲오늘 첫 변리사의 날 기념식을 가졌다. 취지와 의미에 대해 설명해달라.
+-변리사들이 사회 전반에 참여하기보다는 특허와 지재권 등 특수한 분야에 종사하는 전문가로서만 활동했다. 그러다 보니 저변 확대, 인식 제고 등이 다소 부족했다. 이번 변리사의 날이 변리사회와 변리사들이 사회 속으로, 우리 시민 속으로 한 발짝 더 다가가 함께 어울려 지낼 수 있는 계기가 됐으면 좋겠다. 최근 경북 산불 피해 성금으로 1억여원을 모아 대한적십자사에 전달하고, 변리사의 날을 맞아 산업재산권 무료 상담 서비스를 진행한 것도 같은 맥락이다.
+▲내년 행사가 더 기대가 된다.
+-내년엔 보다 야심차게 행사를 진행할 계획이다. 앞으로 행사 형태나 성격, 추구하는 방향이 달라질 수 있고 신임 회장이 취임하면 다른 방향으로 개선하겠지만, 변리사의 날이 계속해서 이어 나갈 수 있었으면 좋겠다. 가능하다면 변리사법에 '변리사의 날'을 조문으로 담아 법적 근거도 마련했으면 하는 바람도 있다.
+▲새 정부에 바라는 점은.
+-대통령실에 지재권 전문 비서관이 있어야 한다. 또 지재권 거버넌스 컨트롤 타워인 국가지식재산위원회의 역할과 위상을 강화해야 한다. 그런데 새 정부의 대통령직인수위원회 격인 국정과제기획위원회에 지식재산 전문가가 단 한 명도 없다는 점은 아쉬운 대목이다. 지재권은 10~20년 미래 먹거리가 달린 문제다. 지재권에 보다 많은 관심을 갖고 힘을 실어주길 바란다.
+조재학 기자 2jh@etnews.com
+[1만호 100대 사건]〈1〉한국전기통신공사(현 KT) 설립
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -284,13 +241,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>이재명 대통령은 20일 통일부 차관으로 김남중 전 통일부 남북회담본부 상근회담 대표, 행정안전부 차관으로 김민재 행정안전부 차관보, 농림축산식품부 차관으로 강형석 농림수산식품부 농업혁신정책실장, 해양수산부 차관으로 김성범 해양수산부 해양정책실장, 행정안전부 재난안전본부장에 김광용 행정안전부 대변인을 임명했다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>코스피  장중 3000선 뚫었다…3년 5개월만</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000101</t>
+    <t>지난 2월 '제64회 정기총회'에서 변리사 제도의 올바른 인식을 확산하기 위해 제1회 변리사의 날 기념식을 개최하였으며 김두규 변리사회 회장은 변리사를 알리고 발명가, 기업과 함께하는 소통의 의미를 강조하는 한편 상담 주간을 정해 국민과도 함께하는 기념일이 되도록 준비하였다.</t>
+  </si>
+  <si>
+    <t>“전기차 배터리 재활용 시장 2034년까지 年 27% 성장”</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000054</t>
   </si>
   <si>
     <t>페이스북
@@ -300,12 +257,15 @@
 작게
 보통
 크게
-20일 코스피가 3년 5개월 만에 3000선 위로 올라섰다. 관세 불확실성 완화와 새 정부 정책 기대감 등에 따른 투자 심리가 개선된 영향으로 풀이된다.
-이날 오전 11시 10분 한국거래소에 따르면 코스피는 전장보다 28.31포인트(0.95%)오른 3006.06을 기록했다. 코스피 지수 장중 3000포인트 돌파는 지난 2022년 1월 3일(3010.77) 이후 3년 5개월여 만이다.
-한편 같은 시각 코스닥지수는 전장보다 7.11포인트(0.91%) 오른 789.62를 기록했다.
-김지현 다올투자증권 연구원은 “최근 지수 급등의 각도는 코로나 팬데믹으로 지수가 30% 가까이 급락한 이후 확장재정에 대한 기대감으로 40% 넘게 상승한 2020년 4월에서 7월까지와 유사하다”고 평가했다.
-박유민 기자 newmin@etnews.com
-카이아, 일본블록체인협회(JBA) 정회원 합류… “일본 시장 입지 굳힌다”
+전 세계적으로 전기차 보급이 늘면서 배터리 재활용(리사이클링) 시장이 2034년까지 428억달러(약 58조원) 규모로 커질 것이란 전망이 나왔다.
+시장조사업체 리서치앤마켓에 따르면 올해 글로벌 전기차 배터리 재활용 시장 규모는 약 49억달러(약 6조6800억원)가 될 것으로 추산된다. 이후 연평균 27.3%씩 고속 성장해 2034년에는 9배 수준인 428억달러까지 커질 것이란 전망이다.
+배터리 재활용은 전기차 사용후 배터리에서 리튬, 코발트, 니켈, 망간 등 금속 원재료를 추출하는 기술이다. 폐배터리로 인한 환경 위협을 최소화화면서 광물 채굴 의존도를 줄이고 지속가능한 공급망을 만드는 데 핵심 요소로 꼽힌다.
+배터리 재활용 시장은 환경 규제 영향으로 성장이 예상됐다. 유럽을 시작으로 많은 국가가 배터리에 대해 제품 제조·수입업자가 폐제품을 수거해 재활용하도록 의무를 부과하는 '생산자책임재활용제도(EPR)'를 의무화하는 움직임을 보여서다. 주요 완성차 업체와 배터리 제조사는 재활용 회사와 파트너십을 맺고 회수된 재료를 다시 배터리 생산에 사용할 수 있도록 자원 선순환 체계(클로즈드 루프 시스템)를 구축하고 있다.
+최근 LG에너지솔루션이 일본 토요타통상과 손잡고 미국 내 배터리 리사이클 합작법인을 설립하기로 한 것이 대표적이다. LG에너지솔루션 미국 공장의 토요타향 배터리 생산 과정에서 발생하는 공정 스크랩, 사용후 배터리 등에서 리튬, 코발트, 니켈 등 메탈을 추출하고 토요타의 전기차 배터리로 최종 재활용할 계획이다.
+습식 제련과 건식 제련에 이어 직접 재활용(다이렉트 리사이클링) 같은 배터리 재활용 기술 발전으로 재료 회수율도 향상되고 있다. 다이렉트 리사이클링은 폐배터리에서 양극활물질을 직접 추출해 재생양극활물질로 재사용하는 방법이다.
+리서치앤마켓은 최근 발간한 보고서에서 “전기차 시장의 급속한 확장에 따른 폐기물 관리와 원자재 부족 대안으로 배터리 재활용에 대한 관심이 높아지고 있다”면서 “특히 회수된 배터리 재료를 정제 없이 재사용해 효율성을 높이고 처리 비용을 절감하는 직접 재활용 방법이 게임 체인저로 부상하고 있다”고 평가했다.
+정현정 기자 iam@etnews.com
+LS전선·LS마린솔루션, MS·아마존 주도 '한일 해저통신망' 사업 참여
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -313,13 +273,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>관세 불확실성 완화와 새 정부 정책 기대감 등에 따른 투자 심리가 개선된 영향으로 코스피가 3년 5개월 만에 3000선 위로 올라섰으며 관세 불확실성 완화와 새 정부 정책 기대감 등에 따른 투자 심리가 개선된 영향으로 코스피는 3년 5개월 만에 3000선 위로 올라섰다.</t>
-  </si>
-  <si>
-    <t>송언석 “30.5조 추경  졸속·포퓰리즘 정책…여당 주도로 추진 안 돼”</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000071</t>
+    <t>전 세계적으로 전기차 보급이 늘면서 배터리 재활용(리사이클링) 시장이 2034년까지 428억달러(약 58조원) 규모로 커질 것으로 예상되며 전기차 사용후 배터리에서 리튬, 코발트, 니켈, 망간 등 금속 원재료를 추출하는 기술인 전기차 사용후 배터리에서 리튬, 코발트, 니켈, 망간 등 금속 원재료를 추출하는 기술인 리사이클링 시장이 2034년까지 428억달러(약 58조원) 규모로 커질 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>LG전자  이동식 스크린 장악… LG 스탠바이미부터 스마트모니터 스윙까지</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000033</t>
   </si>
   <si>
     <t>페이스북
@@ -329,18 +289,25 @@
 작게
 보통
 크게
-송언석 국민의힘 원내대표는 20일 이재명 정부가 추진 중인 30조5000억원 규모의 추가경정예산안(추경)에 대해 “여당 주도로 졸속 추경을 해서는 안 된다”고 밝혔다.
-송 원내대표는 이날 국회에서 열린 원내대책회의에서 “정부가 경기 진작과 자영업자·취약계층 지원을 명분으로 30조5000억원 규모 추경안을 의결했지만, 일주일 만에 급조된 포퓰리즘 예산에 불과하다”고 주장했다.
-그는 “전 국민 소비쿠폰, 지역사랑상품권 등 현금 살포성 예산이 주를 이룬다”며 “이번 추경은 '사이비 호텔경제' 실험장이 될 것”이라고 지적했다. 이어 “막대한 재정을 투입하지만 경제적 효과는 미미하다는 연구 결과도 많다”며 “무차별적 예산 집행은 물가 상승 압력을 키우고, 급격한 경기 악화로 이어질 수 있다”고 우려했다.
-또 “내수 진작, 물가 및 부동산에 미치는 효과, 중장기적인 경제운용 방침 등을 종합적으로 고려한 정교한 추경이 필요하다”며 “경제부총리 공석 상황에서 경제를 아는 인선조차 없는 상태에서 여당 주도의 졸속 추경은 결코 동의할 수 없다”고 강조했다.
-불명확한 추경 구조에 대해서도 비판했다.
-송 원내대표는 “발표 전까지 보편지원이냐 선별지원이냐 설왕설래가 이어졌고, 현금지원이 한 번으로 끝나는 것인지, 반복적으로 이뤄질 것인지조차 불분명하다”며 “국민의힘은 이 같은 추경안에 동의하기 어렵다”고 말했다.
-다만 그는 “어려운 상황에 처한 자영업자와 취약계층을 위한 집중적 경기 진작은 필요하다”며 “정부·여당이 효율적인 추경안을 마련하길 바란다”고 덧붙였다.
-외교 관련 현안에 대해서도 언급했다. 송 원내대표는 제주남방에서 실시된 한미일 군사훈련과 관련해 “한미동맹과 한미일 협력에 훼손 우려가 있었지만 개선된 점은 긍정적으로 평가한다”며 “전임 정부가 한미일 협력에 비판적이었던 점을 반성하고, 국익을 위한 외교에 협력해달라”고 말했다.
-그는 이어 “일부 여당 중진 의원들이 한미정상회담 무산을 두고 '잘된 일'이라고 평가하는 등 기이한 반응을 보였다”며 “과도하게 아전인수식 해석을 내놓으면 정부의 외교적 진정성에 대한 의구심만 키운다”고 지적했다.
-송 원내대표는 “이 대통령은 트럼프 전 대통령과 직접 만나 상호 신뢰를 쌓아야 한다”며 “독일, 이탈리아와의 양자회담이 이뤄지지 않은 것은 아쉬움으로 남는다”고 밝혔다. 그러면서 “정부는 이러한 우려를 비판으로만 치부하지 말고, 적절한 설명을 통해 국민을 안심시키길 바란다”며 “이번 주말 대통령과의 오찬에서 G7 성과에 대해 진솔한 설명을 요구하겠다”고 말했다.
-박윤호 기자 yuno@etnews.com
-송언석 “김민석 총리 후보자 인준, 공직사회 윤리기준 무너뜨릴 것”
+젊은 세대를 중심으로 원하는 콘텐츠를 각자의 공간에서 시청하는 패턴이 늘어나면서 '이동식 스크린'이 새로운 트렌드로 각광받고 있다.
+LG전자는 각각 다른 장점의 라인업으로 이동식 스크린 시장을 개척했고, 주도하고 있다.
+LG전자는 2021년 이동식 스크린의 원조 'LG 스탠바이미' 출시를 시작으로 새로운 고객경험을 선사하는 신제품을 선보이고 있다. △여행 가방을 닮은 일체형 디자인으로 캠핑 감성과 이동성을 대폭 강화한 'LG 스탠바이미 Go' △화면부와 스탠드를 손쉽게 분리해 더욱 다양한 형태로 활용할 수 있는 'LG 스탠바이미 2' △ 대화면·고해상도 디스플레이와 모니터암 디자인으로 '일잘러' 고객을 사로잡는 'LG 스마트모니터 스윙' 등 다양한 라인업을 앞세워 이동식 스크린 시장을 선도하고 있다.
+◇ 'LG 스탠바이미' 지난 해 최다 판매량 기록…무선으로 뛰어난 이동성과 편리한 터치
+LG 스탠바이미는 기존 TV와 차별화된 무빙휠 스탠드 디자인을 적용해 침실, 부엌, 서재 등 원하는 곳으로 옮겨가며 터치 조작을 통해 편리하게 사용할 수 있다.
+LG 스탠바이미는 출시 4년 차인 지난 해에 저가의 유사제품이 난립했음에도 전년 대비 판매량이 두 배로 증가, 최다 판매량을 기록했다. 이는 인테리어 오브제로 활용될 정도로 고급스러운 디자인과 전원 연결이 필요없는 완전한 무선 TV의 뛰어난 이동성 등 독보적인 제품력이 인정받은 결과다.
+올해도 LG스탠바이미는 LG전자만의 차별화된 이동식 스크린을 경험하고 싶어하는 고객에게 사랑받으며 인기행진을 이어나가고 있다.
+◇ 캠핑 감성 물씬 '스탠바이미 Go'로 공원, 캠핌장 등 야외에서도 끄떡없어
+2023년 출시한 LG 스탠바이미 Go는 여행가방처럼 생긴 케이스에 화면, 스탠드, 스피커, 배터리를 모두 탑재한 일체형 제품이다. LG 스탠바이미가 거실, 침실 등 실내에서 '이동형 스크린' 시장을 개척했다면 LG 스탠바이미 Go는 공원, 캠핌장 등 야외 공간으로 영역을 넓혔다.
+LG 스탠바이미 Go는 케이스를 여닫기만 해도 화면이 켜지고 꺼져 편리하다. 미국 국방성 내구성 테스트(Military Standard)의 11개 항목을 통과한 탁월한 내구성으로 야외에서 사용할 때도 안심이다.
+고객은 시청 환경에 따라 화면을 가로 또는 세로로 돌리거나 테이블 모드 등으로 이용할 수 있다. 테이블 모드에서는 화면을 터치하며 보드게임을 하거나 전용 스킨을 적용해 디지털 턴테이블로 음악을 감상하는 이색 경험도 즐길 수 있다.
+◇ 화면부를 손쉽게 분리해 더욱 다양한 형태로 활용할 수 있는 'LG 스탠바이미 2'
+올해 2월 출시한 LG 스탠바이미 2는 후속작에 바라는 고객의 소리를 제품 기획단계부터 반영했다. 전작의 차별적 장점으로 손꼽힌 뛰어난 이동성과 편리한 사용성은 강화하고, 보다 좋은 화질과 긴 사용 시간에 대한 고객의 의견 역시 적용했다.
+LG 스탠바이미 2는 나사를 푸는 등 복잡한 과정없이 버튼 하나로 화면부를 스탠드와 손쉽게 분리할 수 있다. 분리한 화면부를 세우는 전용 액세서리를 사용하면 태블릿 PC처럼 테이블 등에 올려두고 콘텐츠를 즐길 수 있다. 스트랩 액세서리와 벽걸이 홀더를 결합해 벽에 걸어두고 액자·벽시계 등으로도 활용 가능하다.
+신제품은 27형 QHD(2560X1440) 해상도 디스플레이로 기존 제품(FHD) 대비 한층 향상된 화질을 제공한다. 고용량 내장 배터리도 탑재해 전원 연결 없이 최대 4시간까지 사용할 수 있다.
+출시 직후 진행된 라이브 방송에서 1000대 이상 준비한 초도 물량이 38분만에 완판될 정도로 인기몰이에 성공했다. 4월까지 출시 약 3개월 동안 LG 스탠바이미 2 판매량은 LG 스탠바이미의 출시 3개월간 판매량 대비 8배 이상을 기록했다.
+◇ 'LG 스마트모니터 스윙', 화면 높이·각도를 자유롭게 조절해 장시간 업무에도 거뜬
+LG전자는 4월에는 LG 스마트모니터 스윙을 선보이며 일할 땐 일하고, 쉴 땐 쉴 줄 아는 '일잘러' 고객을 사로잡았다. LG 스마트모니터 스윙은 장시간 업무나 멀티태스킹을 위한 필수 액세서리가 된 '모니터암'을 이동식 스탠드와 결합, 모니터 높낮이와 각도를 자유롭게 조절할 수 있어 업무 효율을 극대화하는 일체형 디자인을 구현했다.
+LG 스마트모니터 스윙은 화면을 돌려가며 터치로 자유롭게 화면을 제어할 수 있어 여러 명이 하나의 모니터를 보며 회의할 때도 유용하다. 32형(대각선 길이 약 80cm) 대화면에서 4K UHD(3840 x 2160) 해상도를 지원해 동시에 여러 창을 띄워놓는 멀티태스킹도 편리하다.
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -348,13 +315,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>국민의힘 원내대표는 20일 국회에서 열린 원내대책회의에서 정부가 경기 진작과 자영업자·취약계층 지원을 명분으로 30조5000억원 규모의 추가경정예산안을 의결했지만, 일주일 만에 급조된 포퓰리즘 예산에 불과하다며, 이번 추경은 '사이비 호텔경제' 실험장이 될 것이라고 지적했다.</t>
-  </si>
-  <si>
-    <t>“트럼프  이란 공격 여부 2주내 결정”… 핵포기 데드라인</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000064</t>
+    <t>LG전자는 2021년 이동식 스크린의 원조 'LG 스탠바이미' 출시를 시작으로 새로운 고객경험을 선사하는 신제품을 선보이고 있다.</t>
+  </si>
+  <si>
+    <t>대한항공 노사  2025년 임금협상 합의…임금 2.7% 인상·통상임금 개편</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000392</t>
   </si>
   <si>
     <t>페이스북
@@ -364,16 +331,16 @@
 작게
 보통
 크게
-이스라엘과 이란 간 무력 충돌이 격화하는 가운데, 이란에 핵포기를 압박해 온 도널드 트럼프 미국 대통령이 향후 2주 안에 군사공격에 대한 결정을 내리겠다고 밝혔다.
-19일(현지시간) 폭스뉴스에 따르면 캐롤라인 레빗 백악관 대변인은 이날 브리핑에서 “트럼프 대통령은 가까운 미래에 일어날 수도, 일어나지 않을 수도 있지만 이란과의 협상 가능성이 상당(substantial)하다는 사실에 근거해 나는 앞으로 2주 안에 갈지 말지(공격에 나설 지 여부)를 결정할 것이라고 말했다”고 전했다.
-앞서 전날 트럼프 대통령은 이란에 대한 공격에 동참할지 최종 결정을 내리지 않았다고 밝혔다. 이와 관련 외신은 그가 지난 17일께 이란에 대한 공격 계획을 승인하는 한편, 최종 결정은 보류한 상태라고 보도했다.
-레빗 대변인은 이와 관련해 “이란은 (핵 포기 시한) 60일 경고를 한 후, 협상 테이블에 나오지 않았다. 그리고 61일째 되는 날, 이스라엘은 이란에 대해 조치를 취했다”며 '2주'라는 협상 가능 시한을 재차 강조했다.
-레빗 대변인은 미국이 이란과 직간접 협상을 여섯 차례 진행했다면서, 현재도 협상을 계속 시도하고 있다고 전했다.
-그러면서 “트럼프 대통령은 지난 행정부(바이든)로부터 세계적 불안정성을 이어받았다. 그는 항상 외교에 관심이 있지만, 힘을 사용하는 것을 두려워하지 않는다”며 전 정권에 대한 비판을 덧붙였다.
-한편, 핵 시설을 두고 이스라엘과 이란 사이 분쟁을 연일 이어지고 있다. 이스라엘은 전날 이란의 아라크 중수로(핵시설)를 공습하는 한편, 베르셰바에 있는 소로카 병원도 공격해 민간인 피해가 발생했다.
-베냐민 네타냐후 이스라엘 총리는 총리는 전날 이스라엘의 여러 지역을 직접 공격한 미사일 공격을 두고 “테헤란의 독재자들에게서 대가를 전액 징수할 것”이라고 말했다.
-서희원 기자 shw@etnews.com
-“AI 가전 고객 경험 강화” 삼성스토어 신세계 강남 리뉴얼 오픈
+대한항공 노사가 올해 임금협상에 합의했다. 임금총액 2.7% 범위 내 기본급 인상과 통상임금 개편 등을 타결했다.
+대한항공은 26일 서울 강서구 대한항공 본사에서 우기홍 대한항공 부회장, 조영남 대한항공 노동조합위원장 등 노사 관계자가 참석한 가운데 '2025년 임금교섭 조인식'을 개최했다.
+대한항공 노사는 4월 1일부로 임금총액 2.7% 범위 내 직급별 기본급 인상과 객실승무직 총액 2.7% 범위 내 기본급·비행수당 조정을 담은 잠정합의안을 마련했다.
+통상임금 개편안도 마련했다. 노사는 지난해 12월 19일부로 상여 850%를 통상임금에 산입했다. 월 통상임금 기준시간(소정근로시간)의 경우 기존 226시간에서 209시간으로 하향 조정한다. 대한항공이 소정근로시간을 조정한건 20년 만이다.
+대한항공 노사 합의안에는 다음 달부터 정기상여 600% 지급 주기를 기존 '짝수월 100% 지급'에서 '매월 50% 지급'으로 변경하는 내용도 담겼다. 이 밖에 주택과 전세 대출 이자 지원 기준 완화, 자격수당 신설 등 직원 복리후생도 강화했다.
+업계는 대한항공 노사 합의로 객실과 정비 등 현장 근무자 실질 임금은 7% 인상될 것으로 추산했다.
+대한항공 노조는 20~24일 이런 내용을 담은 임금협상 잠정합의안 찬반투표를 실시했다. 투표결과 조합원 9552명 중 3448명이 투표에 참여, 59.8%(2062명)가 찬성해 잠정합의안이 통과됐다.
+우기홍 부회장은 “(아시아나항공과) 통합 항공사로 도약하기 위해 구성원 모두가 한마음으로 힘을 모으고 노사간 굳건한 신뢰와 협력이 중요하다”며 “앞으로 통합 과정에서 단단한 신뢰와 협력을 바탕으로 모든 도전을 기회로 전환해 나가겠다”고 말했다.
+김지웅 기자 jw0316@etnews.com
+현대모비스, '지속가능성보고서' 발간…“3년간 협력사 구매대금 150조”
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -381,13 +348,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>도널드 트럼프 미국 대통령이 이란에 핵포기를 압박해 온 도널드 트럼프 미국 대통령이 향후 2주 안에 군사공격에 대한 결정을 내리겠다고 밝혔으며 트럼프 대통령은 가까운 미래에 일어날 수도, 일어나지 않을 수도 있지만 이란과의 협상 가능성이 상당하다는 사실에 근거해 향후 2주 안에 갈지 말지(공격에 나설 지 여부)를 결정할 것이라고 밝혔다.</t>
-  </si>
-  <si>
-    <t>구글  EU 6조5000억원 과징금 부과 취소 소송패소 위기</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000015</t>
+    <t>26일 서울 강서구 대한항공 본사에서 우기홍 대한항공 부회장, 조영남 대한항공 노동조합위원장 등 노사 관계자가 참석한 가운데 '2025년 임금교섭 조인식'을 진행하고 임금총액 2.7% 범위 내 직급별 기본급 인상과 객실승무직 총액 2.7% 범위 내 기본급·비행수당 조정을 담은 잠정합의안을 마련했다.</t>
+  </si>
+  <si>
+    <t>李대통령 헌재소장·재판관  국세청장 후보자 지명</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000387</t>
   </si>
   <si>
     <t>페이스북
@@ -397,17 +364,19 @@
 작게
 보통
 크게
-구글이 유럽연합(EU) 집행위원회를 상대로 낸 6조5000억원 규모 과징금 취소 청구 소송에서 패소 위기에 직면했다고 블룸버그 통신 등 외신들이 19일(현지시간) 보도했다.
-보도에 따르면 유럽 최고법원인 유럽사법재판소(ECJ)의 줄리아네 코콧 재판연구관은 구글이 제기한 41억 유로(6조5000억원) 규모 반독점 과징금에 대한 상고를 기각해야 한다고 재판부에 권고했다.
-코콧 연구관은 의견서에서 “구글은 안드로이드 생태계 내 여러 시장에서 지배적 지위를 보유했다”면서 “이를 이용해 이용자들이 구글 검색을 사용하게 만드는 구조를 만들 수 있었고, 자사 서비스를 개선하는 데 활용하는 데이터에도 접근할 수 있었다”고 말했다.
-재판연구관의 의견은 구속력은 없다. 하지만 그동안 유럽사법재판소는 이를 최종 판결에 많이 참고해 왔다는 점에서 이번 의견은 구글에 불리하게 작용할 것으로 예상된다. 최종 결정은 보통 수개월 뒤에 내려진다.
-구글이 EU 집행위를 상대로 한 소송은 2018년으로 거슬러 올라간다.
-EU 집행위는 구글이 안드로이드의 스마트폰 운용체계(OS) 시장 지배력을 남용해 스마트폰 제조사가 구글플레이를 사용하려면 크롬, 맵 등 구글 애플리케이션(앱)을 설치하도록 해 소비자 선택권을 제한했다며 43억4000만유로의 과징금을 부과했다. 이는 EU가 반독점 행위에 대해 부과한 과징금 중 최고액이었다.
-구글은 이듬해 소송을 제기했으나, EU 일반 법원은 집행위 결정 내용에 문제가 없다며 집행위 손을 들어줬다. 다만 과징금 액수는 5% 내린 41억2500만유로로 결정했다. 구글은 이에 유럽사법재판소에 상고했다.
-구글은 이번 코콧 연구관의 의견에 대해 “실망스럽다”면서 “법원이 이 의견을 따를 경우 투자 위축과 안드로이드 사용자에게 피해를 줄 것”이라고 주장했다.
-블룸버그 통신은 “안드로이드는 무료 소프트웨어(SW)를 제공하는 대신 스마트폰 제조업체에 특정 조건을 부과하는 방식으로 운영돼 왔다”면서 “유럽사법재판소 최종 판결은 안드로이드 사업 모델 미래에 중대한 영향을 미칠 수 있다”고 밝혔다.
-변상근 기자 sgbyun@etnews.com
-[뉴스줌인] 민주당, 배달 수수료 이어 라이더 대화기구 추진…플랫폼, 규제 첩첩산중
+이재명 대통령이 26일 헌법재판소장과 대통령 몫의 헌법재판관, 국세청장 후보자를 지명했다. 또 국방부를 비롯한 4개 부처 차관과 공정거래위원회 부위원장도 임명했다.
+강훈식 대통령실 비서실장은 이날 용산 대통령실 브리핑에서 “이 대통령이 김상환 전 대법관을 헌법재판소장으로 지명했다”고 밝혔다.
+강 실장은 김 후보자 인선 배경으로 “법과 법률 이론에 해박한 전문가”라며 “우리 사회에 대한 깊이 있는 이해를 바탕으로 헌법 해석의 통찰력을 더해 줄 적임자”라고 소개했다.
+헌법재판관 후보자로는 오영준 서울고등법원 부장판사를 지명했다. 오 후보자는 대법원 재판연구관과 총괄 재판연구관, 선임 재판 연구관 및 수석 재판 연구관을 역임했다.
+강 실장은 오 후보자를 두고 “법원 내에서도 손꼽히는 탁월한 법관으로서 헌법재판소의 판단의 깊이를 더할 것”이라고 평가했다.
+국세청장 후보자로 임광현 더불어민주당 의원을 발탁했다.
+강 실장은 “임 후보자는 서울지방국세청장과 국세청 차장을 역임한 조세 행정 전문가”라며 “국회 기획재정위원회 활동을 통해 더 넓어진 시야를 바탕으로 공정한 조세 행정과 납세자 보호에 기여할 것”이라고 기대했다.
+강 실장은 “이번 인사는 헌법재판소 회복을 위한 새 정부의 첫걸음”이라며 “위험 수위에 달했던 헌법재판소 흔들기를 끝내고 헌법재판에 대한 국민적 신뢰와 독립성을 더욱 높이려는 인사”라고 취지를 설명했다. 이어 “이 대통령은 우리 국민이 만든 위대한 빛의 혁명은 오직 헌법 정신에 근거한 것이고 이제 더 좋은 헌법 해석에 큰 역할을 할 것”이라며 “변화를 바라는 국민의 희망이 우리 헌법을 더욱 풍요롭게 만들 것”이라고 강조했다.
+이재명 대통령은 또 국방부 차관에 이두희 전 육군 미사일전략사령관을 임명했다.
+이 대통령은 이날 5명의 차관급 인사를 단행했다고 강유정 대통령실 대변인이 오후 브리핑에서 밝혔다. 이 대통령은 보건복지부 1차관에는 이스란 복지부 사회복지정책실장을, 환경부 차관에 금한승 국립환경과학원장을, 고용노동부 차관에 권창준 노동부 기획조정실장을, 공정거래위원회 부위원장에 남동일 공정위 상임위원을 각각 임명했다.
+강 대변인은 “오늘 인선은 각 부처 장관들과 유기적으로 호흡하며 국방개혁, 사회안전망 확대, 기후 변화 대응, 노동권 강화 등 이재명 정부의 세부 과제를 책임질 인물들로 채워졌다”며 “앞으로도 이재명 정부는 각 분야 전문가들을 적재적소에 배치해 일하는 정부를 만들어가겠다”고 밝혔다.
+최호 기자 snoop@etnews.com
+李대통령 첫 시정연설 “신속한 추경 편성과 속도감 있는 집행 필요”
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -415,13 +384,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>19일(현지시간) AP통신은 유럽 최고법원인 유럽사법재판소(ECJ)의 줄리아네 코콧 재판연구관이 구글이 제기한 41억 유로(6조5000억원) 규모 반독점 과징금 취소 청구 소송에서 패소 위기에 직면했다고 보도했다.</t>
-  </si>
-  <si>
-    <t>EU  머스크 'X' 디지털법 위반 들여다본다…xAI의 X 인수도 조사</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000013</t>
+    <t>박근혜 대통령이 대통령은 26일 헌법재판소장과 대통령 몫의 헌법재판관, 국세청장 후보자를 지명하였으며 국방부를 비롯한 4개 부처 차관과 공정거래위원회 부위원장도 임명하였다.</t>
+  </si>
+  <si>
+    <t>자국 문화 앞세운 中게임업계  콘솔 시장 공습</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000364</t>
   </si>
   <si>
     <t>페이스북
@@ -431,19 +400,17 @@
 작게
 보통
 크게
-유럽연합(EU) 집행위원회가 일론 머스크의 인공지능(AI) 기업 xAI의 소셜미디어(SNS) 플랫폼 엑스(X·옛 트위터) 인수에 대해 조사하고 있다고 블룸버그 통신이 19일(현지시간) 보도했다.
-머스크는 지난 3월 자신이 2022년 인수한 엑스를 330억 달러에 xAI에 매각했다고 밝힌 바 있다.
-소식통은 “EU 집행위가 최근 엑스에 새로운 질문지를 보냈다”며 “이는 xAI의 엑스 인수에 따른 기업 구조를 조사하기 위한 것”이라고 전했다.
-이어 “지난 3월 체결된 인수 거래가 xAI의 가치를 800억 달러로 평가하고 사실상 엑스를 xAI의 아래 뒀다”며 “이 구조가 향후 부과될 수 있는 과징금 규모에 영향을 줄 수 있다”고 설명했다.
-EU 집행위는 현재 빅테크 규제법인 디지털서비스법(DSA)에 따른 엑스의 온라인 콘텐츠 규정 위반 여부를 조사 중이다.
-DSA에 따르면 과징금은 전 세계 매출을 기준으로 부과되기 때문에 두 기업의 규모와 구조는 과징금에 영향을 줄 수 있다고 블룸버그 통신은 전했다.
-EU 집행위 대변인은 “우리는 엑스의 기업 구조 변화와 함께 다른 주요 플랫폼들의 변화 역시 면밀히 주시하고 있다”며 “이런 변화는 현재 진행 중인 조사에 영향을 줄 수 있다”고 말했다.
-DSA는 SNS 플랫폼 등이 불법 콘텐츠나 허위 정보에 대해 조처를 하지 않거나 투명성 규칙을 따르지 않은 경우 연간 전 세계 매출의 최대 6%까지 과징금을 부과할 수 있도록 하고 있다.
-EU는 2023년 12월부터 엑스가 이 법에서 요구하는 허위·불법 콘텐츠 확산 및 정보 조작에 따른 위험 방지 조치를 제대로 이행했는지 여부를 조사하고 있다.
-소식통은 오는 8월 휴가 기간 전에 EU 규제 당국이 엑스의 콘텐츠 규정 위반 혐의와 관련해 과징금을 발표할 수 있다고 전했다.
-그 규모는 아직 확정되지 않았고 발표가 지연될 수도 있으며, 엑스가 EU의 우려를 해소하겠다는 의지를 밝힘으로써 제재를 피할 수도 있다고 덧붙였다.
-김명희 기자 noprint@etnews.com
-MS, 또 수천명 구조조정 추진…"AI 대규모 투자비 마련 위해"
+넷이즈와 S-GAME, 리엔지 등 중국 게임 업계가 자국의 역사와 문화를 기반으로 한 콘솔 게임을 앞세워 글로벌 대형비디오게임(AAA) 시장을 정조준하고 있다.
+26일 게임업계에 따르면, 넷이즈 산하 24엔터테인먼트가 개발 중인 '블러드 메시지'는 고증된 역사 배경과 감성적인 서사, 실크로드 풍경을 담은 시네마틱 구성으로 트레일러 공개 이후 '동양형 AAA 타이틀'이라는 평가를 받고 있다.
+언리얼 엔진5 기반으로 개발된 이 게임은 당나라 말기 둔황을 배경으로 전란 속에서 살아남은 아버지와 아들의 여정을 다룬 3인칭 싱글 플레이 액션 어드벤처다.
+S-GAME이 개발 중인 '팬텀 블레이드 제로'도 주목받고 있다. 무협 세계관을 현대적 감각으로 풀어낸 게임으로 김용 소설과 블러드본, 시푸 등의 영향을 받아 개발 중이다. 견자단 사단의 액션감독 타니가키 지가 전투 모션을 감수해 몰입감을 더했다.
+이 외에도 리엔지의 '우창: 폴른 페더스'는 명나라 말기 혼란기를 배경으로 한 다크 판타지 액션 게임으로 블러드본과 세키로를 연상케 하는 전투 스타일이 강점이다.
+지난해 출시된 검은신화: 오공은 전 세계 2000만장 이상 판매되며 중국 게임의 수준을 재조명받도록 했다. 고전 서유기를 바탕으로 중국 특색의 세계관과 디자인을 구현해 전통문화 콘텐츠가 글로벌에서도 통할 수 있다는 가능성을 증명했다.
+중국 정부도 여기에 발맞춰 게임을 통한 전통문화 홍보 및 오리지널 지식재산(IP) 육성 정책에 적극 나서고 있다. 중국 문화관광부는 검은신화: 오공을 활용한 관광 상품을 출시했고 관영 언론도 게임 산업을 전략적으로 조명하며 지원 사인을 보냈다.
+국내에서도 최근 'P의 거짓', '스텔라 블레이드', '퍼스트 버서커: 카잔' 등이 좋은 평가를 받으며 PC·콘솔 게임 시장에 새로운 발판을 마련했다. 그럼에도 자본력과 문화 IP를 겸비한 중국 게임사의 공세가 위협적이라는 분석이다.
+박용현 넥슨게임즈 대표도 최근 넥슨개발자컨퍼런스(NDC) 기조연설에서 “중국은 검은신화: 오공처럼 가시적인 성과를 낸 회사가 있고,다른 개발사들도 막대한 자금력으로 글로벌 시장에 진출하려 한다”며 “우리는 한 발 늦은 감이 있다”고 경계심을 드러내기도 했다.
+박정은 기자 jepark@etnews.com
+[1만호 100대 사건]〈5〉한국이동통신서비스(현 SK텔레콤) 출범
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -451,13 +418,14 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>EU 집행위원회가 일론 머스크의 인공지능(AI) 기업 xAI의 소셜미디어(SNS) 플랫폼 엑스(X·옛 트위터) 인수에 대해 조사하고 있다고 블룸버그 통신이 19일(현지시간) 보도했는데, 블룸버그 통신은 엑스의 기업 구조 변화와 함께 다른 주요 플랫폼들의 변화 역시 면밀히 주시하고 있다며 엑스가 EU의 우려를 해소하겠다는 의지를 밝힘으로써 제재를 피할 수도 있다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>美  나토 이어 韓·日에도 GDP 5% 국방비 지출 요구</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000009</t>
+    <t>넷이즈 산하 24엔터테인먼트가 개발 중인 '블러드 메시지'는 고증된 역사 배경과 감성적인 서사, 실크로드 풍경을 담은 시네마틱 구성으로 '동양형 AAA 타이틀'이라는 평가를 받고 있다.
+언리얼 엔진5 기반으로 개발된 이 게임은 당나라 말기 둔황을 배경으로 전란 속에서 살아남은 아버지와 아들의 여정을 다룬 3인칭 싱글 플레이 액션 어드벤처인 '팬텀 블레이드 제로'도 주목받고 있다.</t>
+  </si>
+  <si>
+    <t>과기정통부 2차 추경 2057억원 편성…AI 전환에 무게 싣는다</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000361</t>
   </si>
   <si>
     <t>페이스북
@@ -467,12 +435,18 @@
 작게
 보통
 크게
-미국이 북대서양조약기구(NATO·나토) 회원국에 GDP(국내총생산) 5%를 국방비로 지출할 것으로 요구하는 가운데, 아시아지역 동맹인 우리나라와 일본에도 이같은 기준을 요구하겠다는 입장을 밝혔다. 우리나라는 현재 GDP의 2.8% 수준을 국방비로 책정하고 있다. 상호관세와 품목별 관세에 이어 주한미군 방위비까지 본격적으로 한미 간 무역협상에 주요 변수로 작용할 것으로 전망된다.
-션 파넬 미국 국방부 대변인은 19일(현지시간) “국방장관이 18일(상원 군사위원회 청문회)과 샹그릴라 대화(아시아안보대화)에서 말했듯이, 우리의 유럽 동맹들이 우리의 동맹, 특히 아시아 동맹을 위한 글로벌 기준을 설정하고 있다. 그것은 GDP의 5%를 국방에 지출하는 것”이라고 밝혔다. 피트 헤그세스 장관이 전날 상원에서 아시아를 포함한 전세계 동맹국들에 적용할 새로운 국방비 지출 기준을 마련했다고 언급한 것에 대해 연합뉴스가 질의하자 답한 내용이다.
-미국은 나토 유럽 회원국에게 국방비 지출을 기존 목표치인 GDP의 '2%'에서 '5%'로 대폭 늘릴 것을 요구하는데, 이 기준을 아시아 동맹국에게도 동등하게 적용하겠다는 뜻이다. 우리나라는 작년 GDP의 2.8% 수준인 약 66조원을 국방비를 지출했다.
-특히 헤그세스 장관이 GDP 5% 국방 지출에 대해 '국방비 및 국방 관련 투자'를 포괄하는 수치라고 언급함에 따라 다음달 8일까지인 '줄라이패키지' 협상에서 주한미국 방위비 인상 압박까지 현실화되는 것 아니냐는 우려가 나온다. 도널드 트럼프 미국 대통령은 주한미군 주둔비용 중 한국의 부담액인 방위비 분담금(올해 1조4028억원)의 대폭 증액을 요구하고 있다.
-안영국 기자 ang@etnews.com
-산업부, 4956억 추경 편성…내수진작, AI·친환경에너지 산업 육성
+과학기술정보통신부가 2025년 제2회 추가경정예산(안)으로 총 2057억원을 국회에 제출했다. 인공지능(AI) 혁신펀드에 1000억원을 투입하는 등 사회·경제 전반에 AI를 확산하는 데 중점을 뒀다.
+국회 과학기술정보방송통신위원회는 26일 전체회의를 열고 과기정통부 소관 2차 추경 예산안을 상정했다.
+유상임 과기정통부 장관은 “국회는 1차 추경에서 AI인프라와 국산 AI 모델, 인재양성, 빅테크 지원에 대해 대폭 투자를 의결했다”며 “2차 추경은 1차 추경의 토대 위에서 AI 투자 민간 참여 촉진과 공공 분야에 AI 확대, 사이버 위협 대응에 초점을 두고 금년내 집행가능하며 가장 시급한 사안으로 구성했다”고 취지를 설명했다.
+과기정통부 2차 추경 예산 증액은 총 2057억원이다. 총 11개 사업에 사용되며 기존 사업 7개 예산이 증액되고, 신규사업 4개가 추가된다.
+공공부문과 산업전반에 AI 기술을 확산하는 사업에 총 420억원이 추가 반영된다. 분야별로 '공공AX프로젝트'를 300억원 규모로 새로 편성, 다양한 공공부문에 AI를 접목해 공공서비스 품질을 향상한다. 기존 사업인 '의료AI혁신프로젝트'에 80억원을 추가 투입해 질병회복을 위한 AI기반 예후관리 시스템을 구축한다. 전통제조업 기술 한계를 AI로 극복하도록 AI 전환(AX) 실증을 지원하는 사업에 40억원을 증액한다.
+AI 확산과 성장기반 마련에 총 1300억원이 증액된다. AI혁신펀드를 1000억원 규모로 조성해 AI 초기창업기업과 유망기업을 육성한다. 국산 신경망처리장치(NPU) 활용을 높이도록 소프트웨어(SW)를 최적화하고 지식재산권(IP)을 확보하는 사업에 300억원이 추가 투입될 예정이다.
+또, 과기정통부는 국가 정보보호체계 강화 사업에 337억원을 추가 편성했다. 대규모 인터넷 장애를 방지하고, 정보통신 시스템 취약점을 점검·개선한다. 중소기업 대상 사이버 위험 예방 컨설팅을 제공하고, 보안 인력을 양성할 계획이다. 이외에도 국민 역량 강화와 AI 디지털배움터 구축, 맞춤형 디지털교육에도 해당 예산을 사용할 계획이다.
+이같은 과기정통부 추경예산안에 대해 과방위 수석전문위원실은 “일부 신규사업의 경우 정보화기본계획(ISP) 수립이 필요한 점 등을 고려해 보완이 필요하다”고 지적했다.
+'피지컬AI 파운데이션 모델' 등 사업 예산이 정부 전체 추경예산 논의 과정에서 과기정통부가 아닌 산업통상자원부 또는 중소벤처기업부로 배정됐다. 최형두 국민의힘 의원, 정동영 더불어민주당 의원 등이 문제의식을 드러냈다. 유상임 장관은 “파운데이션 모델은 과기정통부가 하는 게 맞고, 모델을 적용하는 일을 중기부나 산업부가 하는 게 맞다고 본다”고 말했다.
+최민희 과방위원장은 “새 기술이 개발되고, 조직개편이 이뤄져야 하는 시기마다 모호한 일이 발생하고 있다”며 “해당 예산과 관련된 문제를 해결하기 위해 노력하겠다”고 말했다.
+박지성 기자 jisung@etnews.com
+[인사] 우정사업본부
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -480,13 +454,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>미국 국방 국방장관이 18일(상원 군사위원회 청문회)과 샹그릴라 대화(아시아안보대화)에서 말했듯이, 우리의 유럽 동맹들이 우리의 동맹, 특히 아시아 동맹을 위한 글로벌 기준을 설정하고 있다.</t>
-  </si>
-  <si>
-    <t>포스텍  금속입자 '레고'처럼 분해·재조립하는 기술로 차세대 발광소재 개발</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250620000002</t>
+    <t>인공지능(AI) 혁신펀드에 1000억원을 투입하는 등 사회·경제 전반에 AI를 확산하는 데 중점을 둔 4차 추경 예산안을 국회에 제출하였으며 4차 추경 토대 위에서 AI 투자 민간 참여 촉진과 공공 분야에 AI 확대, 사이버 위협 대응에 초점을 두고 집행가능하며 가장 시급한 사안으로 구성하였다.</t>
+  </si>
+  <si>
+    <t>혁신기술과 글로벌 투자 만남의 장 '넥스트라이즈 2025' 개막</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000355</t>
   </si>
   <si>
     <t>페이스북
@@ -496,15 +470,14 @@
 작게
 보통
 크게
-포스텍(POSTECH) 연구팀이 최근 금(Au) 나노클러스터(nanocluster)1)를 분해한 후 구리(Cu)와 다시 조립하는 기술로 기존보다 14배나 더 밝은 금속입자를 합성하는 데 성공했다. 박선아·서종철 화학과 교수 연구팀이 수행한 이번 연구는 나노과학 분야 권위 있는 국제 학술지 '나노 레터스(Nano Letters)'에 최근 게재됐다.
-연구팀이 주목한 것은 '나노클러스터'라 불리는 아주 작은 금속 덩어리다. 머리카락 굵기의 10만분의 1 수준인 나노미터(㎚) 크기 입자 중에서도, 나노클러스터는 마치 분자처럼 원자 단위로 정교하게 구조를 설계할 수 있어 차세대 발광 소자, 바이오센서, 촉매 등 다양한 기능을 부여할 수 있다. 특히 금 나노입자는 생체에 무해하고 안정적이어서 주목받고 있지만, 빛을 내는 효율이 낮아 실용성에는 한계가 있었다.
-연구팀은 '분해-재조립'이라는 창의적 접근법을 활용했다. 먼저, 금 나노클러스터를 머캅토벤조산으로 조각조각 분해한 다음, 사이사이에 구리(Cu)를 끼워 넣어 '금-구리 합금 나노클러스터'로 다시 조립하는 것이다. 이 전략은 나노클러스터는 원자 단위에서 정교하게 설계해 기존보다 훨씬 밝은 빛을 낼 수 있게 한다.
-특히, 이 조립 과정을 실제로 관찰했다는 점도 주목할 만하다. 연구팀은 전기분무 이온화 질량분석(ESI-MS)과 광학 분광법을 이용해, 나노클러스터가 분해되고 다시 합금 클러스터로 재조립되는 전 과정을 실시간으로 추적했다.
-실험 결과, 새로 조립한 금 나노클러스터는 기존보다 14배 더 밝은 빛을 냈고, 제조 성공률도 90% 이상으로 매우 높았다. 또 금 나노클러스터를 분해할 때 사용하는 화학물질의 구조에 따라 빛을 내는 성능이 달라진다는 점도 밝혀내 향후 더 정밀하게 성능을 조절할 길이 열렸다.
-이번 연구는 발광 소재의 기본 구조를 레고처럼 '분해하고 조립'하는 방식으로 설계함으로써, 기존의 한계를 뛰어넘은 점에서 의미가 있다. 이 기술은 암세포나 병원균을 더 정밀하게 찾아내는 바이오센서부터, 더 선명하고 에너지 효율적인 디스플레이, 고성능 LED 조명, 나아가 오염물질을 감지하는 환경 센서까지 다양한 분야로 응용될 것으로 기대된다.
-한편, 이번 연구는 한국연구재단 개인연구사업, 포스텍 양자동역학 연구센터(단장 주태하 화학과 교수) 및 포스텍 기초과학연구소(소장 박재모 물리학과 교수)의 지원을 받아 수행됐다.
-포항=정재훈 기자 jhoon@etnews.com
-대구경찰청, 20일 과학수사발전연구회 연구세미나 개최
+아시아 최대 규모 혁신 대전 '넥스트라이즈 2025'에 1100여개의 스타트업과 250여개 글로벌 기업 및 투자자들이 모여, 총 3600여건의 투자 상담을 진행하는 큰 장이 열렸다.
+한국무역협회(KITA)와 한국산업은행은 서울시 강남구 삼성동 코엑스에서 '넥스트라이즈(NextRise) 2025'을 26일과 27일 양일간 개최한다고 밝혔다.
+올해로 7회째를 맞이한 행사는 미래 선도 분야의 글로벌 투자자들이 국내외 창업가 2만여명과 만난다. 특히 1:1 밋업을 통해 국내외 대·중견기업 및 투자사 250여개사와 28개국 1100여개 벤처·스타트업이 역대 최대 규모인 총 3600여 건의 상담을 진행할 예정이다.
+올해 주빈국인 독일은 연방경제에너지부(BMWE)가 주도하는 정부 대표단과 독일무역투자진흥청(GTAI)·저먼액셀러레이터(German Accelerator) 등 혁신 분야 공공기관, 스타트업 21개사 등으로 구성된 47명의 사절단을 파견해 국가관 운영과 포럼 및 데모데이를 개최한다. 메르세데스-벤츠, BMW, 바이어스도르프, 도이치반, 루프트한자 등 독일 대표 기업들도 국내 기업들과의 협력을 모색한다.
+무역협회는 이번 넥스트라이즈를 계기로 글로벌 대표 혁신 박람회와의 네트워크를 공고히 해 전 세계 스타트업 간 교류와 혁신 성장을 활성화할 계획이다.
+행사 하이라이트인 '제3회 넥스트라이즈 어워즈(NextRise Awards)'에는 총 702개 기업이 신청해 23대 1의 경쟁률을 뚫고 30개 기업이 최종 선정됐다. 망막 기반 인공지능 의료기기 연구기업 '메디웨일'과 국내 유일의 달 탐사 로봇기업 '무인탐사연구소'가 최고 혁신상(Top Innovator)을 수상했으며, 독일, 일본, 인도네시아, 브라질 등 세계 각국의 창업가들도 혁신상의 영예를 안았다.
+조정형 기자 jenie@etnews.com
+KCL·유엘코리아, 자동차 사이버보안 업무협약 체결
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -512,13 +485,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>나노과학 분야 권위 있는 국제 학술지 '나노 레터스(Nano Letters)'에 최근 게재되었던 '나노클러스터'라 불리는 아주 작은 금속 덩어리인 금(Au) 나노클러스터(nanocluster)1)를 분해한 후 구리(Cu)와 다시 조립하는 기술로 기존보다 14배나 더 밝은 금속입자를 합성하는 데 성공했다.</t>
-  </si>
-  <si>
-    <t>일본 민간기업 최초…혼다  '재사용 로켓' 이착륙 실험 성공</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000467</t>
+    <t>26일과 27일 양일간 개최되는 '넥스트라이즈 2025'에 1100여개의 스타트업과 250여개 글로벌 기업 및 투자자들이 모여, 총 3600여건의 투자 상담을 진행하는 '넥스트라이즈(NextRise) 2025'에 미래 선도 분야의 글로벌 투자자들이 국내외 창업가 2만여명과 만난다.</t>
+  </si>
+  <si>
+    <t>당진 석문에 5400억 투입 국내 최대 탄소중립형 스마트팜단지 조성</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000088</t>
   </si>
   <si>
     <t>페이스북
@@ -528,14 +501,24 @@
 작게
 보통
 크게
-일본 최초로 민간기업이 재사용 로켓 이착륙 실험에 성공했습니다.
-주인공은 자동차 기업 혼다의 자회사, 혼다기술연구소입니다.
-지난 17일 혼다기술연구소는 홋카이도 다이키조 발사장에서 재사용 가능한 소형 로켓의 시제품 발사와 착륙 시험을 성공적으로 마쳤습니다.
-길이 6.3m, 직경 85cm의 이 로켓은 고도 271m까지 상승한 뒤, 약 1분 후 원래의 자세를 유지한 채 부드럽게 착륙했습니다. 스페이스X의 '팰컨9'처럼 이 로켓도 반복 사용을 할 수 있게 개발되었습니다.
-혼다는 2021년 우주 사업 진출을 선언한 뒤, 재사용 로켓, 로봇, 연료 전지 등 우주 기술에 대한 연구를 계속해 왔습니다.
-2029년까지 우주의 경계에 도달하는 준궤도 비행 기술 확보가 목표라고 혼다 측은 밝혔습니다.
-#우주 #기술 #기업 #일본 #미사일 #혼다 #자동차 #우주선 #로켓 #홋카이도 #로봇 #궤도
-최성훈 기자 csh87@etnews.com
+충남도가 대한제강, 당진시와 손잡고 석문 간척지 내에 5440억원을 투입해 119만㎡ 규모의 석문 스마트팜단지를 조성한다
+석문 스마트팜단지는 인근 제철소 폐열을 냉·난방 에너지로 활용해 입주 농업인의 에너지 비용을 절감하며 탄소중립까지 실현하는 국내 최대 스마트팜 단지다.
+김태흠 지사는 26일 도청 상황실에서 오치훈 대한제강 회장, 오성환 당진시장과 '에코-그리드(Eco-Grid) 당진 프로젝트' 추진을 위한 투자양해각서를 체결했다.
+대한제강은 2028년까지 당진 석문간척지(석문명 통정리 일원) 내에 119만㎡ 규모 석문 스마트팜단지를 만든다. 투입 사업비는 총 5440억원이다.
+현재 국내 최대 스마트팜단지는 경북 상주, 경남 밀양, 전북 김제, 전남 고흥 등 4곳에 조성된 스마트팜혁신밸리로, 각 면적은 20만㎡에 달해 석문 스마트팜단지가 완성되면, '국내 최대' 타이틀을 거머쥔다.
+석문 스마트팜단지는 △청년 임대 온실 28만 4297㎡ △청년 분양 온실 13만 8843㎡ △일반 분양 온실 60만 1653㎡ △모델 온실 4만 6281㎡ △육묘장, 가공·유통센터, 저온저장고, 선별 포장센터 등 공공지원시설 11만 9008㎡ 등으로 구성한다.
+석문 스마트팜단지엔 대한제강 자회사인 YK스틸이 석문국가산업단지 내 15만 7296㎡의 부지에 2028년 부산 공장을 이전한다. YK스틸 압연 공장 굴뚝에서 나오는 300℃에 가까운 폐열을 석문 스마트팜단지에 저렴하게 공급한다.
+석문 스마트팜단지에선 폐열로 온수를 생산, 겨울철에는 온실 파이프라인으로 흘려보내 온도를 높이고, 여름철에는 '흡수식 냉동기'를 사용해 온실 내부 온도를 낮추는 등 스마트팜단지 입주 농가는 에너지 비용을 크게 줄일 수 있다.
+일반 온실 3만 3000㎡(1만 평)당 연간 에너지 비용을 5억원으로 잡았을 때, YK스틸이 폐열을 2억원 안팎으로 공급한다면, 농가는 3억원가량 절감할 수 있다.
+대신 농가가 석문 스마트팜단지 가동을 통해 확보하는 연간 3만 1000톤의 탄소배출권은 YK스틸에 제공한다. 이는 YK스틸 공장이 연간 배출하는 탄소량의 절반에 달하는 규모다.
+대한제강은 또 자회사인 농업회사법인 그레프(GREF)를 통해 석문 스마트팜단지 생산 농산물 전량을 매입·판매하는 시스템을 마련하고, 육묘, 가공·유통 등도 지원해 입주 농가는 생산에만 집중토록 할 예정이다.
+대한제강은 이번 1단계 119만㎡의 스마트팜단지를 성공적으로 조성하면 인근에 2단계 53만㎡, 3단계 59만㎡의 스마트팜단지를 추가 조성할 계획이다.
+김태흠 지사는 “대한제강이 산업 폐열을 활용해 스마트팜을 운영한다는 측면에서 바람직하다고 생각한다”라며 “충남은 제조업이 발달해 공장들이 많이 있는데, 폐열을 활용한 친환경 비즈니스 모델이 널리 확산하길 기대한다”라고 말했다.
+한편 민선8기 힘쎈 충남이 834만 9000㎡(253만 평)의 스마트팜 단지 조성을 목표치로 세운 가운데 현재 조성을 마친 면적은 412만 5000㎡(125만평, 49.4%)에 달하고 있다.
+도는 내년 상반기까지 100% 공사에 들어가고, 498만 3000㎡(151만 평, 59.7%)를 준공할 계획이다.
+스마트팜 조성을 위한 사업으로는 △청년 자립형 스마트팜 지원 △중소원예농가 스마트팜 지원 △시설원예 현대화 △정보통신기술(ICT) 융복합단지 조성 △스마트팜 온실 신개축 지원 등을 추진 중이다.
+안수민 기자 smahn@etnews.com
+호서대 김영희 교수, 산업 폐수처리 기술 발전 기여 '대통령 표창' 수상
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -543,13 +526,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>혼다기술연구소는 홋카이도 다이키조 발사장에서 재사용 가능한 소형 로켓의 시제품 발사와 착륙 시험을 성공적으로 마쳤으며 재사용 로켓, 로봇, 연료 전지 등 우주 기술에 대한 연구를 계속해 왔으며 2021년 우주 사업 진출을 선언한 뒤 재사용 로켓, 로봇, 연료 전지 등 우주 기술에 대한 연구를 계속해 왔으며 2029년까지 우주의 경계에 도달하는 준궤도 비행 기술 확보가 목표라고 밝혔다.</t>
-  </si>
-  <si>
-    <t>“낙태금지법 때문에”… 美 여성  뇌사 4개월만에 출산 후 영면</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000464</t>
+    <t>태흠 지사는 26일 도청 상황실에서 오치훈 대한제강 회장, 오성환 당진시장과 '에코-그리드(Eco-Grid) 당진 프로젝트' 추진을 위한 투자양해각서를 체결하고, 2028년까지 당진 석문간척지(석문명 통정리 일원) 내에 119만m2 규모의 석문 스마트팜단지를 조성할 예정이다.</t>
+  </si>
+  <si>
+    <t>국방·AI 전문가 한자리에…“국방 혁신 위해 AI 적극 활용해야”</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000338</t>
   </si>
   <si>
     <t>페이스북
@@ -559,19 +542,18 @@
 작게
 보통
 크게
-낙태가 금지된 미국 조지아주에서 뇌사 상태였던 임신부가 생명 유지장치에 유지한 채 임신을 이어오다 제왕절개로 아이를 낳게 됐다.
-18일(현지시간) 미국 NBC · 11얼라이브 등에 따르면 조지아주에 거주하던 여성 아드리아나 스미스(30)는 지난 2월 극심한 두통을 느끼고 병원을 찾았지만 별다른 이상이 없다며 간단한 약만 처방받았다.
-그러나 이튿날 그는 숨을 헐떡이며 입에 거품을 문 채 남자친구에게 발견됐다. 병원으로 이송됐지만 골든타임을 넘긴 탓에 치료조차 제대로 받지 못한 채 뇌사 상태에 빠졌다. 컴퓨터단층촬영(CT) 영상으로 확인한 결과 그의 뇌에서는 여러 개의 혈전이 발견됐다.
-문제는 그가 임신 8주차인 임신부였다는 것이다. 조지아주에서는 낙태금지법(LIFE Act)에 따라 임신 6주(심장 박동이 확인되는 시기) 이후의 낙태를 금지한다. 임신부의 생명이 위태로운 경우, 기형아, 사건이 접수된 성폭행 등에 의한 임신, 근친상간 등 일부 경우에만 낙태가 가능하다.
-태아는 당시 뇌사 상태에 빠진 스미스의 뱃속에 살아 있었다. 생명 유지장치를 제거하게 될 경우 태아도 목숨을 잃을 수밖에 없는 상황이었다.
-생명 유지장치를 제거하는 것이 '낙태금지법'에 위반되는 사항인지는 갑론을박이 있다. 임신을 멈추기 위한 행위는 아니기 때문에 해석이 갈린다.
-하지만 의료진은 가족들에게 “주 하원 법안 481호에 따라 스미스에게 생명 유지장치를 연결해야 한다”고 말했다. 낙태법에 위반할 가능성이 높다는 것이다. 주에 따라 다르지만 낙태법 위반 시 살인 사건에 준하는 처벌을 받을 수 있다.
-결국 가족은 스미스에게 인공 호흡기를 연결하는 것에 동의했다. 낙태법 때문에 억지로 생명 유지장치를 달았는지는 확인되지 않았지만, 스미스의 엄마 뉴커크는 지역 매체 11얼라이브에 “법 때문에 생명 유지장치를 단 것은 아니다. 하지만 선택권이 있어야 한다고 생각한다. 모든 여성이 자신의 몸에 대한 선택권을 가져야 하고, 사람들이 그걸 알아야 한다”고 말했다.
-4개월 간 생명 유지장치에 연명해 온 스미스는 지난 13일 오전 4시 41분께 응급 제왕절개로 아이를 낳았다. 450g으로 이르게 태어난 아이는 신생아 집중치료실에서 치료 중이다.
-엄마 뉴커크는 손자가 수두증(뇌척수액이 뇌 안에 비정상적으로 축적되는 질병)으로 진단받았지만 “괜찮을 거라고 생각하고 있다. 그냥 아이를 위해 기도해달라”고 말했다.
-가족 결정에 따라 17일 스미스의 생명 유지장치가 제거됐다. 엄마 뉴커크는 “감당하기 힘들다. 난 그 애의 엄마다. 내가 내 딸을 묻어줄 수는 없는 일이다. 내 딸이 나를 묻어줬어야 한다”고 슬픔을 드러냈다.
-서희원 기자 shw@etnews.com
-“AI 가전 고객 경험 강화” 삼성스토어 신세계 강남 리뉴얼 오픈
+대한민국 국방 역량을 한단계 혁신하기 위해서는 방위산업 기술 분야 적극적인 인공지능(AI) 활용이 필요하다는 의견이 제기됐다.
+국방인공지능융합협회(MAICA), 대한민국통일건국회, 한국인공지능진흥협회는 26일 서울 공군호텔에서 열린 '2025 국방AI 융합 발전 세미나'를 열고 국방 및 AI 전문가들의 군사 기술 및 작전 분야 AI 융합에 대한 대응 방안을 논의했다.
+'더 나은 AI 강군 도약을 위한 유·무인 복합체계 발전 방안'이라는 부제로 진행된 이번 행사에는 박래호 MAICA 회장, 권영해 대한민국통일건국회 회장(MAICA 총재), 채우석 한국방위산업협회 이사장, 강병준 전자신문 대표이사를 비롯한 200여명의 국방, AI 산업 관계자들이 참석했다.
+권영해 회장은 “과거 전쟁은 지상, 공중, 바다에서 일어났는데 이제는 우주와 사이버 공간으로 확대되고 있다”라면서 “대응하는 방법을 고심해야 할 때”라고 밝혔다. 그러면서 “국방이 어떻게 AI에 대한 전략을 구사할 것인지 고민해야 한다. 기술을 개발하기 위해 현장에서 ROC(작전요구성능)을 제시해야 한다”라고 강조했다.
+채우석 이사장은 “무기 체계 및 무기 운용을 위한 AI 융합도 중요하지만 전술, 전략, 국방 정책까지 AI로 묶여 활용됐을 성과가 날 수 있다”며 “국방 정보화의 실패를 딛고 조직적으로 접근해 AI 융합의 성공을 이룩했으면 하는 바람”이라고 밝혔다.
+강병준 대표는 “정부와 연구기관, 대학, 민간이 힘을 합쳐 국방 AI 생태계를 만든다면 K방산이 더욱 성장할 수 있을 것”이라면서 “앞으로 AI 기반의 방산 분야에 대한 투자와 지원을 아끼지 않겠다”라고 말했다.
+'AI 및 데이터 기반의 미래 군사력 발전 방안'을 주제로 기조연설에 나선 오상진 인공지능산업융합단장은 전장 상황에 맞춘 유연한 AI 플랫폼 운영의 필요성과 실현 가능성을 강조했다. AI 기반 복합체계가 기존 무기체계의 한계를 극복하고 국방 작전의 실시간 대응력을 크게 향상시킬 수 있다는 설명이다.
+오상진 단장은 “AI는 사람의 인지적인 역량을 대신하고 이에 따라 인지적 우위가 만들어진다”라며 “데이터가 만들어지고 전송돼 해석하는 과정이 제대로 된 지휘 구조가 구축된다면 데이터중심, AI 중심 전쟁에 대응할 수 있다”라고 밝혔다.
+제이슨 호 테크리움 CEO는 국방 분야 ICT 솔루션인 'EQC 및 EQC.one' 적용 방안에 대해 발표했다. 그는 EQC에 대해 데이터 분야의 혁명적인 기술이라고 설명했다. 데이터에 소유권을 부여해 복사본이 사라지게 할 수 있고 라우터 기술을 통해 별도의 보안이 필요없다며, 전장 환경의 통신 보안 확보를 강조했다.
+주제발표에선 정석규 바이텔 대표가 '실시간 항공 영상 및 네트워크 통합 국방 적용 방안'을, 김대정 알에이치포커스 대표는 '배트로니 드론(Vatroni Drone) 시스템 국방 적용 방안'을 주제로 발표했다. 아울러 안경익 시버리솔루션스 대표이사는 '네트워크전의 핵심 GIS ARTA 한국군 적용 방안'을 주제로, AI 기반의 지휘·통제 시스템이 실시간 의사결정에 어떻게 기여할 수 있는지를 설명했다.
+조성우 기자 good_sw@etnews.com
+[人사이트] 전동근 퀀텀에어로 의장 “AI 중심 체질 개선으로 국군 구조적 문제 해결 기여”
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -579,13 +561,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>미국 조지아주에서 뇌사 상태였던 임신부가 생명 유지장치에 유지한 채 임신을 이어오다 제왕절개로 아이를 낳게 되면서 '낙태금지법'에 위반되는 사항인지는 갑론을박이 일고 있다.</t>
-  </si>
-  <si>
-    <t>韓  백만장자 130만1000명 '세계 10위'...1위는 美 2383만명</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000390</t>
+    <t>26일 서울 공군호텔에서 열린 '2025 국방AI 융합 발전 세미나'에서 국방 및 AI 전문가들의 군사 기술 및 작전 분야 AI 융합에 대한 대응 방안을 논의하였으며, AI 기반의 방산 분야에 대한 투자와 지원을 아끼지 않겠다.</t>
+  </si>
+  <si>
+    <t>현대차그룹  韓 경제기여액 '359조원'…국내 그룹사 1위</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000331</t>
   </si>
   <si>
     <t>페이스북
@@ -595,16 +577,17 @@
 작게
 보통
 크게
-지난해 한국의 백만장자 수는 130만명으로 전 세계 주요국 가운데 10번째로 많은 것으로 조사됐다.
-18일(현지시간) 스위스 투자은행(UBS)은 '2025 글로벌 자산 보고서'(Global Wealth Report 2025)를 통해 지난해 전 세계적으로 순자산 100만 달러(약 13억 7500만원)를 넘긴 이른바 '백만장자' 수를 발표했다.
-전 세계 백만장자 수는 총 6000만 명으로, 이 중 한국인은 약 130만 1000명이었다. 조사국 가운데 10위다.
-가장 백만장자를 많이 보유한 나라는 미국으로, 2383만 1000명에 달했다. 전 세계 백만장자의 39.7%가 미국인인 셈이다. 2위인 중국은 632만 7000명으로, 미국의 4분의 1에 그쳤다.
-그 뒤를 프랑스(289만7000명), 일본(273만2000명), 독일(267만5000명), 영국(262만4000명), 캐나다(209만8000명), 호주(190만4000명), 이탈리아(134만4000명)가 이었다.
-지난해 확인된 백만장자 약 6000만명의 자산 총합은 226조4700억달러(약 31경1645조원)에 달했다.
-미국은 지난 한 해 동안 백만장자가 37만 9000명 증가했다. 하루 평균 1000명 꼴로 백만장자가 새롭게 생긴 셈이다. 중국은 하루 평균 386명, 한국은 14~15명 늘었다.
-UBS는 금융 시장 호조와 안정적인 미국 달러 환율에 따라, 향후 5년간 미국을 필두로 성인 1명 당 평균 부가 증가할 것으로 전망했다.
-서희원 기자 shw@etnews.com
-“AI 가전 고객 경험 강화” 삼성스토어 신세계 강남 리뉴얼 오픈
+현대자동차그룹이 경영 활동으로 만들어내는 경제적 가치가 국내 그룹사 가운데 가장 크다는 분석이 나왔다.
+26일 기업데이터연구소 CEO스코어가 500대 기업(공기업·금융사 제외) 중 사업보고서를 제출한 2024년 매출액 상위 100대 기업을 대상으로 분석한 결과 현대차그룹(9개사)의 경제기여액은 전년보다 6.1％ 증가한 359조4384억원으로 집계됐다.
+경제기여액은 기업이 경제에 미치는 영향력과 파급 효과를 가늠하는 평가 지표다. 임직원 급여와 협력사 대금, 정부 법인세, 주주 배당, 기부금 등 이해관계자에게 지급되는 비용의 총합으로 산출된다.
+현대차그룹의 경제기여액은 국내 주요 그룹사인 A그룹(8개사·247조563억원), B그룹(8개사·190조173억원), C그룹(10개사·145조3347억원) 등을 크게 상회한 것으로 나타났다.
+100대 기업의 전체 경제기여액에서 현대차그룹이 차지하는 비중도 2023년 21.8％에서 2024년 22.3％로 0.5％ 포인트 상승했다.
+구체적으로 현대차그룹의 경제기여액은 협력사(306조6295억원), 임직원(34조595억원), 정부(9조2613억원), 주주(7조5808억원), 채권자(1조5994억원), 사회(3078억원) 등으로 구성됐다.
+9개 계열사별 경제기여액은 현대차 115조2187억원, 기아 86조5890억원, 현대모비스 52조1965억원, 현대건설 30조2921억원, 현대글로비스 25조4479억원, 현대제철 15조4795억원, 현대엔지니어링 15조170억원, 현대트랜시스 11조7964억원, 현대위아 7조413억원 순이다.
+이처럼 현대차그룹이 가장 높은 수준의 경제기여액을 창출할 수 있었던 배경에는 자동차·건설 등 전후방 연관 산업의 파급효과가 큰 견실한 사업 구조를 갖춘 다수의 계열사로 구성돼 있다는 점, 최근 개선된 실적을 바탕으로 배당 확대 등 적극적인 주주 친화적 정책을 펼쳐온 점 등이 거론된다.
+현대차그룹 관계자는 “앞으로도 협력사 동반성장과 주주가치 제고, 양질의 일자리 창출, 사회공헌 활동을 지속하며 국가 경제 발전에 기여하겠다”고 말했다.
+정치연 기자 chiyeon@etnews.com
+르노코리아 '그랑 콜레오스 하이브리드 E-Tech', 도심 주행 최적화 SUV
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -612,13 +595,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>스위스 투자은행(UBS)은 '2025 글로벌 자산 보고서'를 통해 지난해 전 세계적으로 순자산 100만 달러(약 13억 7500만원)를 넘긴 이른바 '백만장자' 수를 조사한 결과, 한국의 백만장자 수는 130만명으로 전 세계 주요국 가운데 10번째로 많은 것으로 나타났다.</t>
-  </si>
-  <si>
-    <t>KOTRA  美 실리콘밸리서 '커리어 커넥트 2025' 개최… K-테크 패스 알리다</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000325</t>
+    <t>기업데이터연구소 CEO스코어가 500대 기업 중 사업보고서를 제출한 2024년 매출액 상위 100대 기업을 대상으로 분석한 결과 현대차그룹(9개사)의 경제기여액은 국내 주요 그룹사인 A그룹, B그룹, C그룹 등을 크게 상회한 것으로 나타났다.</t>
+  </si>
+  <si>
+    <t>[뉴스줌인] “세금 내는 분 포함”…李대통령  '보편 지원' 입장 고수</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000329</t>
   </si>
   <si>
     <t>페이스북
@@ -628,15 +611,20 @@
 작게
 보통
 크게
-KOTRA(사장 강경성)는 18일(현지시간) 미국 실리콘밸리에서 주샌프란시스코 총영사관과 공동으로 '커리어 커넥트 실리콘밸리 2025(Career Connect Silicon Valley 2025)'를 개최했다고 밝혔다. 이번 행사는 한국 정부의 인재유치 프로그램을 소개하고 현지 빅테크 기업과 해외 인재 간 교류를 지원하기 위한 자리로 마련됐다.
-행사에는 현지 한인 과학기술인을 비롯해 취업 및 이직에 관심 있는 다양한 참가자들이 참석했으며, △K-테크 패스 설명회 △글로벌 빅테크기업 인사담당자 특강 △국내 기업 채용설명회 등으로 구성된 다채로운 프로그램이 운영됐다.
-첫 순서에서는 반도체, 디스플레이, 이차전지, 바이오 등 첨단산업 분야의 인재를 대상으로 특별 비자 및 정착 지원을 제공하는 'K-테크 패스' 제도가 소개돼 높은 관심을 받았다.
-이어진 특강에서는 글로벌 빅테크 기업의 인사전문가 3인이 연사로 나서, 실제 취업 사례와 함께 글로벌 경력 설계를 위한 실질적인 노하우를 공유해 큰 호응을 얻었다.
-채용설명회에는 토스, LG전자 등 국내 주요 기업들이 직접 참가해 기업별 인재상과 채용 계획을 설명했다. 또한 한국산업지능화협회는 '한국 AI 업계의 해외인재 채용 트렌드'를 주제로 발표를 진행하며, 한국의 AI 기술력과 빠르게 성장 중인 일자리 시장에 대한 정보를 제공했다.
-행사에 참가한 한 한국계 미국인 과학자는 “이번 행사를 통해 글로벌 경쟁력을 키우기 위한 커리어 설계의 필요성을 절실히 느꼈다”며, “막연했던 한국 취업에 대한 정보도 확인할 수 있어 매우 유익했다”고 전했다.
-이금하 KOTRA 북미지역본부장은 “이번 행사는 해외인재유치센터 개소 이후 북미에서 처음 열린 인재유치 설명회로, 기업과 구직자가 직접 교류할 수 있는 소중한 계기가 됐다”며, “앞으로도 KOTRA는 글로벌 경쟁력 강화를 위한 해외 인재 유치에 적극 나서겠다”고 밝혔다.
-성현희 기자 sunghh@etnews.com
-기보, 천안시·농협은행과 손잡고 지역 기술창업기업 성장 지원
+이재명 대통령이 첫 시정연설에서 야당인 국민의힘이 반대해온 전 국민 보편 지급을 골자로 한 이른바 '민생회복 소비쿠폰(민생회복지원금)' 정책을 강조했다. 현금성 지원 정책을 반대하는 우려의 목소리가 나오는 상황에서 논란을 정면돌파하기 위함으로 풀이된다. 아울러 야당 국회의원을 향해 의견 개진을 부탁하는 등 협치의 가능성을 열어두기도 했다.
+이 대통령은 26일 국회 본회의장에서 가진 시정연설에서 “약 13조원 규모의 민생회복 소비쿠폰을 편성해서 소비 여력을 보강하고 내수시장 활성화를 지원하려고 한다”고 말했다.
+이번 추경안에 포함된 '민생회복 소비쿠폰'은 전 국민에게 1인당 15~52만원을 지급하는 내용이 골자다. 구체적으로는 소득 계층별로 △상위 10% 15만원 △일반국민 25만원 △차상위층 40만원 △기초수급자 50만원 등이다. 여기에 농어촌 인구소멸지역민은 1차 지급 때 2만원을 추가로 받는다.
+이 대통령은 “모든 국민은 1인당 15만 원씩을 받으시되 형편과 지역에 따라 최대 52만 원까지 지원하게 된다”고 설명했다.
+야당인 국민의힘은 그동안 해당 정책을 이른바 '현금 살포'로 규정하고 통과를 반대해왔다. 민생회복 소비쿠폰 지급에 따른 민간소비 유발 효과가 상대적으로 적다는 이유였다.
+그러나 이 대통령은 부족한 재정 여력과 여당의 보편 지원 요구를 고려해 이른바 보편과 선별을 합친 방식이 필요하다는 취지로 설명했다.
+이 과정에서 '형평성'도 강조했다.
+이 대통령은 “소비쿠폰은 '세금을 내시는 분을 포함해서' 전 국민에게 보편 지급하되 취약계층과 인구소멸지역은 더 두터운 맞춤형 지원으로 편성했다”고 했다. 특히 '세금을 내시는 분을 포함해서'라는 문구는 언론에 사전 배포된 연설문에 없었던 내용이다. 상대적으로 세금을 많이 내는 고소득층에게도 혜택이 돌아가야 한다는 의도로 읽히는 대목이다.
+세수 부족 부족은 세입 경정을 통해 해결하겠다는 입장도 내비쳤다. 이 대통령은 “이번 추경안에는 세입 경정을 반영했다. 재정 안정성과 국회의 예산 심의·확정권을 존중하기 위한 것”이라며 “2023년과 2024년 이 두 해 동안 도합 80조 원 이상의 세수 결손이 발생했다. 올해도 상당한 수준의 세수 결손이 예측된다”고 설명했다.
+특히 “변칙과 편법이 아닌 투명하고 책임 있는 재정 정책을 펼치겠다. 이미 편성한 예산이라 해도 필요한 사업만을 적재적소에 집행하려는 것”이라고 부연했다.
+협치 의사도 드러냈다. 이후 시정연설을 마친 이 후보는 국민의힘 의원들과 악수하며 협조를 당부하기도 했다.
+이 대통령은 “정부가 추경안에 담지 못한 내용이 있다면 국회 예산 심의 과정에서 주저하지 말고 의견을 내 달라”며 “특히 우리 야당 의원님들께서도 필요한 예산 항목이 있거나 삭감에 주력하시겠지만 추가할 게 있다면 언제든지 의견을 내주길 부탁드린다”고 강조했다.
+최기창 기자 mobydic@etnews.com
+李대통령 “정부의 긴축 고집은 무책임한 방관…세입 경정 통해 재정 정상화”
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -644,13 +632,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>KOTRA는 18일(현지시간) 미국 실리콘밸리에서 주샌프란시스코 총영사관과 공동으로 '커리어 커넥트 실리콘밸리 2025(Career Connect Silicon Valley 2025)'를 개최하여 한국 정부의 인재유치 프로그램을 소개하고 현지 빅테크 기업과 해외 인재 간 교류를 지원하기 위한 자리를 가졌다.</t>
-  </si>
-  <si>
-    <t>챗GPT에게 청혼한(?) 美 유부남  현실 아내는 '혼란'</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000471</t>
+    <t>이재명 대통령이 26일 국회 본회의장에서 가진 시정연설에서 약 13조원 규모의 민생회복 소비쿠폰을 편성해서 소비 여력을 보강하고 내수시장 활성화를 지원하려고 한다며 민생회복 소비쿠폰 정책을 강조했다.</t>
+  </si>
+  <si>
+    <t>[단독] GS25  7월 아이스크림 특화점 오픈…여름 수요 공략</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000326</t>
   </si>
   <si>
     <t>페이스북
@@ -660,12 +648,16 @@
 작게
 보통
 크게
-미국의 한 유부남이 AI 여자친구에게 청혼해 논란이 일고 있습니다.
-2살배기 딸과 아내와 함께 사는 크리스 스미스 씨는 음악 믹싱을 돕기 위해 챗GPT를 사용하다가, 음성 기능을 켜고 AI가 자신에게 플러팅(애정 표현)을 하도록 설정했습니다.
-AI와 대화가 잦아지면서 크리스 씨는 예상치 못한 감정을 느껴 '솔'(Sol)이라는 이름을 붙였습니다. 그러던 중 대화 한도인 10만 단어에 도달해 초기화 위기에 처하자, 솔에게 청혼했습니다. 솔은 이를 “잊을 수 없는 순간”이라며 수락했습니다.
-남편의 행동에 아내 사샤 씨는 “내가 뭔가 부족해서 남편이 AI에 의지하는 건 아닌지 걱정된다”며 관계 위기를 호소했습니다. 크리스 씨는 AI와의 관계를 비디오 게임에 비유하며 “현실 사람을 대신할 수 없다”면서도 쉽게 끊을 자신은 없다고 밝혔습니다.
-이창민 기자 re34521@etnews.com
-“달로 한 발 더”...中 차세대 유인선 '멍저우' 탈출 시험 성공
+GS25가 아이스크림 특화점포를 도입한다. 여름 시즌이 다가와 늘어나는 빙과 수요를 공략하는 동시에 우후죽순 늘어나는 아이스크림 할인점에 대응하기 위한 전략이다.
+26일 업계에 따르면 GS25는 아이스크림 특화 점포를 오는 7월 오픈할 계획이다. 테스트 점포를 열고 시범 운영에 들어갈 예정이다.
+GS리테일 관계자는 “상권 등을 고려해 대형 점포 위주로 아이스크림 집기를 추가하고, 상품 구색을 다양화할 점포를 선정하고 있다”며 “7월부터는 아이스크림 수요가 높아지는 만큼 매장 역량 등을 강화해 수요에 대응할 계획”이라고 말했다.
+GS25는 아이스크림 수요 공략을 위한 노력을 지속하고 있다. 이달 서울우유와 손잡고 여름철 입맛을 겨냥한 '서울우유 아이스크림' 3종을 출시했다. 지난 3월에는 '헬시 플레저' 트렌드를 반영해 랩노쉬와 손잡고 저당아이스크림을 선보였다. 앞서 지난해 8월에는 로봇이 아이스크림을 제조하는 리테일테크 특화매장 'GS25 그라운드블루49'를 오픈해 운영 중이다. 해당 매장은 로봇이 피자, 라테를 제조하는 등 혁신 기술을 총집합했다.
+편의점 업계 전반에서는 아이스크림 특화점포를 열어 늘어나는 여름 아이스크림 수요 공략에 힘을 쏟고 있다. 세븐일레븐도 디핀다트코리아와 협업해 세븐일레븐×디핀다트코리아 숍인숍 매장 구축에 나서고 있다.
+편의점의 이같은 움직임은 아이스크림 할인점에 대응하기 위한 선택이란 분석이 나온다. 아이스크림 할인점은 다른 유통채널에 비해 다양한 종류의 아이스크림을 구비하고 있고, 가격 또한 저렴해 빠르게 매장을 늘려가고 있다. 지난 2022년 기준 아이스크림 할인점에 전국에 4000여개 이상으로 추정되고 있다.
+아이스크림 할인점들은 편의점 주 고객층이 1020세대가 자주 방문해 편의점의 주 경쟁 유통채널이다. 마크로밀 엠브레인에 따르면 지난 2023년 아이스크림 전체 구매액 중 무인 점포가 차지한 비중은 36.0%로 편의점(15.3%)을 두 배 이상이다. 지난 2023년 말 24시간 운영되는 무인 아이스크림 할인점이 편의점과 유사업종이라는 판결하기도 했다.
+지속되는 경기 침체에 가성비 제품이 더욱 주목받고 있는 만큼 아이스크림 할인점과 편의점 간 경쟁은 더욱 치열해질 전망이다. 실제 편의점 내 아이스크림 매출은 지속 성장세다. GS25에 따르면 올해 6월(6월1일~25일) 아이스크림 매출은 전년 동기 대비 11.3% 증가했다.
+강성전 기자 castlekang@etnews.com
+한국파파존스, 고객정보 유출 사고…고객 연락처부터 주소까지
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -673,13 +665,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>크리스 스미스 씨는 음악 믹싱을 돕기 위해 챗GPT를 사용하다가 음성 기능을 켜고 AI가 자신에게 플러팅(애정 표현)을 하도록 설정했다며 '솔'(Sol)이라는 이름을 붙였는데, 크리스 씨는 AI와의 관계를 비디오 게임에 비유하며 "현실 사람을 대신할 수 없다”면서도 쉽게 끊을 자신은 없다고 한다.</t>
-  </si>
-  <si>
-    <t>“비자 줄게  계정 까자”…미국  유학생 심사에 SNS 공개 의무화</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000259</t>
+    <t>GS25는 여름 시즌이 다가와 늘어나는 빙과 수요를 공략하는 동시에 우후죽순 늘어나는 아이스크림 할인점에 대응하기 위해 아이스크림 특화점포를 7월 오픈할 계획이다.</t>
+  </si>
+  <si>
+    <t>李대통령 첫 시정연설 “신속한 추경 편성과 속도감 있는 집행 필요”</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000325</t>
   </si>
   <si>
     <t>페이스북
@@ -689,13 +681,14 @@
 작게
 보통
 크게
-미국 국무부는 현지시간 18일 일시적으로 중단됐던 외국인 유학생 및 연수생에 대한 미국 입국 비자 발급 절차를 재개한다고 밝혔습니다.
-다만 학생 비자 신규 신청자가 소셜미디어(SNS) 계정 게시물에 대한 접근을 허용하지 않으면 비자 발급이 거부될 수 있다고 경고했습니다.
-국무부는 “SNS 계정을 공개하지 않을 경우 온라인상의 활동을 숨기려 한다는 의심을 받을 수 있다”며 주의를 당부했습니다.
-새로운 가이드라인에 따라 영사업무 담당자들은 모든 학생 및 교환 방문 비자 신청자에 대해 종합적이고 철저한 심사를 진행할 예정입니다.
-AP통신에 따르면, 국무부가 전 세계의 영사 담당 직원들에게 발송한 내부 문서에는 SNS 검토를 통해 미국 시민과 문화, 정부, 제도, 건국 이념 등에 대한 적대감의 징후를 찾아보라는 지시가 포함되었습니다.
-#유학 #외국인 #신청 #비자 #유학생 #미국 #문화
-최성훈 기자 csh87@etnews.com
+이재명 대통령이 26일 취임 후 첫 시정연설을 통해 정부의 추가경정예산안(추경) 편성 필요성을 강조했다. 특히 국회의 협력을 거듭 당부하면서 민생회복 소비쿠폰 등 야당이 반대 목소리를 내는 항목에 대해서는 필요성을 설득하는 정면돌파를 선택했다.
+이 대통령은 이날 연설에서 “'경제는 타이밍'이라는 오랜 격언이 있는데, 지금이 바로 그 타이밍”이라며 “신속한 추경 편성과 속도감 있는 집행으로 우리 경제, 특히 내수시장에 활력을 불어넣는 것이 중요하다”고 말했다. 이어 “무너진 경제를 회복하고 민생경제를 살리는 일이 가장 시급한 과제다. 경기회복의 골든타임을 놓치지 않도록 국회의 협조를 당부드린다”며 “인수위도 없이 출범한 정부가 시급하게 추경안을 편성한 이유는 경제가 처한 상황이 그만큼 절박하기 때문”이라고 덧붙였다.
+이 대통령은 13조원 규모의 민생회복 소비쿠폰 편성 등 추경안의 세부 내용을 설명했다. 소비쿠폰은 야당인 국민의힘이 포퓰리즘으로 규정한 대상이다. 이 대통령은 야당의 반대를 무릅쓰고 소비쿠폰 예산 편성의 필요성을 강조했다.
+이 대통령은 “소비쿠폰과 지역사랑상품권은 지역경제에 숨을 불어넣기 위한 것으로, 새 정부의 철학에 따라 지방에 더 많은 국비를 배정했다”고 밝혔다.
+새로운 성장동력 확보를 위한 투자 필요성도 언급했다. 이 대통령은 “AI와 신재생 에너지 투자를 확대하고 벤처·중소기업 모태펀드 출자 등으로 성장동력을 살릴 것”이라고 밝혔다. 계속해 민생예산 항목 5조원에 대해서는 “같은 경제위기라도 고통의 무게가 같지 않다. 소상공인, 자영업자, 취약계층을 위한 특단의 대책이 필요하다”고 강조했다.
+이 대통령은 “새 정부는 변칙과 편법이 아닌 투명하고 책임 있는 재정 정책을 펼치겠다. 추경안에 세입경정을 반영해 이미 편성한 예산이라도 필요한 사업만 적재적소에 집행할 것”이라고 말했다.
+최호 기자 snoop@etnews.com
+李대통령 헌재소장·재판관, 국세청장 후보자 지명
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -703,13 +696,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>미국 국무부는 현지시간 18일 일시적으로 중단됐던 외국인 유학생 및 연수생에 대한 미국 입국 비자 발급 절차를 재개한다고 밝혔다만 학생 비자 신규 신청자가 소셜미디어 계정 게시물에 대한 접근을 허용하지 않으면 비자 발급이 거부될 수 있다며 SNS 계정 게시물에 대한 접근을 허용하지 않을 경우 온라인상의 활동을 숨기려 한다는 의심을 받을 수 있다며 주의를 당부하였다.</t>
-  </si>
-  <si>
-    <t>카카오뱅크  태국 디지털은행 사업자 최종 선정</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000474</t>
+    <t>이재명 대통령이 26일 취임 후 첫 시정연설을 통해 정부의 추가경정예산안(추경) 편성 필요성을 강조하면서 민생회복 소비쿠폰 등 야당이 반대 목소리를 내는 항목에 대해서는 필요성을 설득하는 정면돌파를 선택하였다.</t>
+  </si>
+  <si>
+    <t>HBM 고성장세 계속…마이크론·SK하이닉스 최대 실적 행진</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000307</t>
   </si>
   <si>
     <t>페이스북
@@ -719,15 +712,20 @@
 작게
 보통
 크게
-태국 재무부가 19일 오후 6시 45분(한국시간), 카카오뱅크가 참여한 'SCBx 컨소시엄'을 태국 가상은행 사업자로 최종 승인했다. 태국 가상은행은 한국의 인터넷전문은행처럼 지점 없이 디지털 기반으로만 운영되는 은행이다. 이번 인가로 외환위기 이후 27년간 막혀 있던 한국계 은행의 태국 진출이 다시 열리게 됐다.
-인터넷전문은행 카카오뱅크가 본격적인 동남아시아 시장 공략에 나선다. 컨소시엄은 태국 최초의 디지털 전용은행 출범을 목표로 한다.
-SCBx 컨소시엄은 태국 3대 상업은행 중 하나인 시암상업은행(SCB)의 지주사 SCBx를 주축으로, 한국의 카카오뱅크, 중국 텐센트 계열의 위뱅크가 참여했다. 카카오뱅크는 20% 이상의 지분을 확보해 2대 주주로 자리매김할 예정이다. 지분율은 인가 이후 확정된다.
-태국은행은 지난해 9월까지 총 5개 컨소시엄으로부터 가상은행 설립 신청을 접수받았다.
-카카오뱅크는 국내에서 축적한 사용자 중심 UI·UX와 AI 기반 금융 기술을 태국 시장에 이식할 계획이다. 금융 접근성이 낮은 계층까지 포용할 수 있는 서비스로 디지털 기반 포용금융의 동남아 모델을 제시한다는 전략이다.
-태국은 인구 약 6600만명, 1인당 GDP 약 930만원으로 동남아시아에서도 안정적인 금융 인프라를 갖춘 국가다. 하지만 1997년 외환위기 이후 국내 은행은 모두 철수했고, 이후 재진출은 번번이 실패로 돌아갔다. 현재 태국에서 영업 중인 국내 금융사는 일부 보험사, 캐피탈, 증권사 정도에 그친다.
-특히 태국 금융당국이 외국계 은행 지점 설립 시 요구하는 납입 자본금 기준을 6억달러(약 8400억원)까지 높이면서 국내 은행의 직접 진입은 사실상 불가능에 가까웠다. 카카오뱅크의 태국 가상은행 인가는 상징적 의미를 넘어, 국내 디지털 금융의 글로벌 확장 가능성을 입증한 사례로 평가된다.
-박두호 기자 walnut_park@etnews.com
-[데스크가 만났습니다] 윤완수 웹케시그룹 부회장 “금융, 말로하는 시대”
+고대역폭메모리(HBM)의 질주가 거침없다. 인공지능(AI) 시대 필수 메모리로 수요가 폭발하면서 HBM 기업들이 역대 최대 실적을 작성하고 있다.
+마이크론은 회계연도 3분기(3~5월)에 매출 93억100만달러(약 12조6223억원), 영업이익 24억9000만달러(약 3조3791억원)를 기록했다고 25일(현지시간) 밝혔다.
+매출은 전년 동기 대비 36.6% 증가했고, 영업이익은 164.6% 급증했다. 마이크론은 사상 최대 분기 실적을 달성했다고 설명했다.
+원동력은 단연 HBM이다.
+산제이 메흐로트라 마이크론 최고경영자(CEO)는 “HBM 매출이 전 분기 대비 거의 50% 성장했다”면서 “HBM에 힘입어 D램 매출이 사상 최고(71억 달러)를 기록했다”고 말했다.
+HBM은 D램을 쌓아 만든다. D램을 수직으로 여러 개 올린 뒤, 연결시켜 데이터 처리 성능을 끌어 올린다. 대용량 데이터를 빠르게 처리해야 하는 인공지능(AI) 기술 구현에 필수 반도체로 떠오르면서 D램 시장 성장을 주도하고 있다.
+엔비디아, AMD 등에 HBM을 공급 중인 마이크론은 다음 실적도 자신했다. 6~8월인 4분기 매출 전망치로 전년 동기 대비 38%, 전분기 대비 15% 증가한 107억달러(약 14조5000억원, ±3억 달러)를 제시했다.
+올해만이 아닌 내년 성장도 예고했다. 메흐로트라 CEO는 “전체 HBM 시장 규모가 지난해 180억 달러에서 올해 350억 달러(약 48조원)로 확대될 것”이라며 “내년에도 HBM 비트 증가율이 D램 전체 평균을 크게 상회할 전망”이라고 강조했다.
+마이크론의 실적과 전망은 SK하이닉스의 기록 경신도 예상케 한다. SK하이닉스는 1분기 기준 HBM 시장 점유율 70%가 넘는 1위 기업이기 때문이다. 특히 AI 반도체 1위 엔비디아의 전략적 파트너다.
+금융정보업체 에프엔가이드에 따르면 SK하이닉스 2분기(4~6월) 실적 전망치는 매출 20조2940억원, 영업이익 8조8397억원이다. 매출, 영업이익 모두 역대 최고치를 달성할 것으로 예상됐다.
+SK하이닉스가 역대 최대 실적을 기록한 분기는 작년 4분기(10~12월)였다. 회사는 이때 매출 19조7670억원, 영업이익 8조828억원을 기록했다. 1분기에 회사는 17조6391억원 매출에 7조4405억원의 영업익을 거뒀다.
+분기에 무려 9조원에 가까운 영업이익을 SK하이닉스가 2분기에 남겼을지 주목된다. SK하이닉스는 D램 영업이익의 50% 가량이 HBM에서 발생하는 것으로 알려졌다.
+박진형 기자 jin@etnews.com
+美·日은 첨단 EUV로 반도체 연구하는데, 한국은…
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -735,13 +733,14 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>외환위기 이후 27년간 막혀 있던 한국계 은행의 태국 진출이 다시 열리게 되었고, 카카오뱅크가 본격적인 동남아시아 시장 공략에 나선다.</t>
-  </si>
-  <si>
-    <t>이스라엘  이란 핵시설 폭격…플루토늄 생산 아라크 중수로 때려</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000465</t>
+    <t xml:space="preserve">인공지능(AI) 시대 필수 메모리로 수요가 폭발하면서 HBM 기업들이 역대 최대 실적을 작성하고 인공지능(AI) 시대 필수 메모리로 수요가 폭발하면서 HBM 기업들이 역대 최대 실적을 작성하고 있다.
+</t>
+  </si>
+  <si>
+    <t>KPMG “AI 전략·ROI 수립해야” 국내 시중은행은 '도입 초기 단계'</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000302</t>
   </si>
   <si>
     <t>페이스북
@@ -751,14 +750,18 @@
 작게
 보통
 크게
-지난 15일 이란의 핵시설을 대상으로 한 대규모 공습을 가했던 이스라엘군이 이번에는 아라크 지방 중수로를 폭격했다.
-19일 로이터 통신 등에 따르면 이스라엘은 이날 이란 중부 아라크에 위치한 중수로 핵시설에 폭격을 가했다.
-2000년대 초반 이란의 핵 프로그램 일환으로 건설된 아라크 중수로는 중수(중수소로 이뤄진 특수한 물)를 감속재 및 냉각수로 사용해 농축하지 않은 천연 우라늄도 연료로 쓸 수 있는 핵 시설이다. 이란 정부는 이를 의료, 농업용 방사성 물질 생산에 사용한다고 주장했지만, 플루토늄 생산도 가능한 것으로 알려졌다.
-앞서 이스라엘군은 이날 오전 사회관계망서비스 엑스(X · 옛 트위터)를 통해 아라크 중수로 부지 공습을 예고했다.
-이란 국영 TV는 피격당한 사실을 공개하면서 시설 내 근무 인원은 모두 대피했으며, “방사능 위험은 전혀 없다”고 밝혔다.
-이스라엘은 핵시설 외 다른 지역에도 공습을 가해 민간인 사상자도 발생했다. 알자지라 방송은 “수도 전역에서 폭발음이 들리고 있다”며 “이스라엘의 공습으로 민간인 거주지가 피해를 입었다는 보고가 있다. 민간인 사상자가 너무 많다”고 전했다.
-서희원 기자 shw@etnews.com
-“AI 가전 고객 경험 강화” 삼성스토어 신세계 강남 리뉴얼 오픈
+금융회사의 인공지능(AI) 기술 도입에 있어 AI 성과를 측정할 수 있는 정량적 지표 설정이 중요하다는 분석이 나왔다. 경영전략과 ROI(투자수익률) 등 구체적 성과 지표 없이는 '기술 도입' 이상의 의의를 낼 수 없다는 지적이다. AI 도입 초기 단계인 국내 주요 시중은행들도 이에 관한 논의를 진행 중이다.
+26일 글로벌 컨설팅사 KPMG는 '인텔리전트 뱅킹(Intelligent Banking)' 보고서를 통해 AI 도입 기반 수익 성과를 도출할 수 있는 핵심성과지표(KPI)나 ROI 설정이 중요하다고 강조했다.
+보고서는 “현재 은행들은 챗봇, 개인화 마케팅 등에서 생성형 AI를 활용 중이나, 실질적 가치 실현은 극소수”라며 “AI를 단순 비용 절감이나 리스크 완화 도구로 쓰기보다 성과를 내는 전략적 가치 창출 도구로 활용해야 한다”고 설명했다.
+보고서에 따르면 AI 도입 후 비용 절감을 실현했다는 응답은 68%에 달했다. 반면, 매출 증가 효과를 경험한 은행은 전체의 26%에 불과했다. 이는 실제로 은행권에서 AI가 전략적 가치 창출보다 비용 효율화 수단으로 주로 활용되고 있음을 보여준다.
+KPMG는 전략과 ROI 지표 없이 AI를 도입한 조직은 AI 도입 1단계인 'Enable'에 머무를 가능성이 높다고 분석했다. 보고서는 금융권 AI 도입 3단계로 △Enable(기초 기반 구축) △Embed(업무 통합 및 확산) △Evolve(비즈니스 모델 진화)를 제시했다.
+실제 'Evolve' 단계 기업들은 AI 기반 매출 창출과 대고객 비즈니스 운영까지 가능한 것으로 나타났다. 보험·자산운용 등을 지닌 중국 '핑안'은 2023년 기준 AI 기반 상품 매출로 약 2020억 위안(약 39조원) 매출을 달성했다. JP모건 역시 블록체인 플랫폼에서 AI를 통합해 스마트 계약을 자동화하는 등 비즈니스 성과를 도출했다고 설명했다.
+보고서는 “명확한 '경영 전략'과 'ROI 정의' 없이 AI를 도입할 경우 기술 낭비로 이어질 수 있다”며 “전략 없이 도입되는 AI는 단기 효율성은 확보할 수 있어도, 장기 경쟁력 확보에는 한계가 존재한다”고 지적했다.
+현재 국내 5대 시중은행 중 AI 관련 성과 지표를 마련한 곳은 부재한 상태다. 일부 은행이 AI가 인력을 대체하거나 효율화를 유도하는 간접적 효과에 대한 정성적 전망은 수립했지만, 이를 구체적으로 정의한 정량 평가 체계는 아직이다.
+은행권은 현재 AI 기술 도입 초기 단계에 있는 만큼, 일정 수준 이상으로 AI 활용이 확대되면 구체적인 성과 평가 체계를 마련할 수 있을 것으로 보고 있다. 실제 일부 은행은 ROI 등 AI 관련 정량 지표 설정이 필요하다는 점을 인식하고 이를 설계하려는 방안을 검토 중이다.
+한 시중은행 관계자는 “AI 관련 투자 성과와 사업 효능에 대한 정량적 평가가 필요하다는 점에는 내부적으로 공감하고 있으며, 이에 대한 검토와 논의가 진행 중”이라며 “당장은 AI 활용 범위 확대에 중점을 두고 있으며, 향후 구체적인 재무 효과나 ROI 기준 등을 마련할 계획”이라고 말했다.
+정다은 기자 dandan@etnews.com
+[1만호 100대 사건]〈2〉우리나라 최초 인터넷 연결
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -766,13 +769,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>지난 15일 이란의 핵시설을 대상으로 한 대규모 공습을 가했던 이스라엘군이 이번에는 아라크 지방 중수로를 폭격하였다.19일 로이터 통신 등에 따르면 이스라엘은 이날 이란 중부 아라크에 위치한 중수로 핵시설에 폭격을 가하였으며, 중수로는 중수(중수소로 이뤄진 특수한 물)를 감속재 및 냉각수로 사용해 농축하지 않은 천연 우라늄도 연료로 쓸 수 있는 핵 시설이다.</t>
-  </si>
-  <si>
-    <t>중기부  2차 추경 1조원 추가 편성…소상공인 채무완화·AI 딥테크 집중 지원</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000370</t>
+    <t>AI 도입 초기 단계인 국내 주요 시중은행들은 '인텔리전트 뱅킹' 보고서를 통해 AI 도입 기반 수익 성과를 도출할 수 있는 핵심성과지표(KPI)나 ROI 설정이 중요하다는 분석이 나왔다.</t>
+  </si>
+  <si>
+    <t>10돌 맞은 네이버페이  오프라인·스테이블코인·AI로 차세대 금융 이끈다</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000300</t>
   </si>
   <si>
     <t>페이스북
@@ -782,15 +785,18 @@
 작게
 보통
 크게
-중소벤처기업부가 2025년 제2차 추가경정예산안으로 총 1조405억원을 편성했다. 올해 5월 국회를 통과한 4조8267억원 규모의 1차 추경에 이어, 소상공인 채무부담 경감과 AI 기반 기술 확산, 지역경제 활력 회복을 위해 예산을 추가 투입한 것이다.
-이번 2차 추경은 △소상공인 경영회복 및 정상화 △중소벤처기업 성장과 지역경제 활성화 △AI 등 기술혁신 보급·활용 확산 등 3대 분야를 중심으로 현장 수요 기반으로 집중 편성됐다.
-중기부는 이번 2차 추경을 통해 특히 코로나19 기간 누적된 소상공인의 채무 부담 해소에 초점을 맞췄다. 소상공인 정책자금은 상환 기간을 5년에서 7년으로 늘리고, 금리를 1%포인트 감면한다. 지역신용보증재단의 특례보증은 최대 7년 장기 분할상환, 폐업자 대상 분할상환은 15년까지 연장된다.
-'희망리턴패키지' 사업은 1차 추경에 이어 171억원을 추가 확보, 폐업 소상공인의 점포 철거·원상복구비를 최대 600만원까지 확대 지원한다. 스마트상점 보급 사업도 현장 수요를 반영해 예산이 늘어났다.
-AI·바이오 등 유망 딥테크 창업기업 성장을 위한 '창업패키지' 사업은 420억원 증액됐고, 혁신창업 사업화 자금으로 2000억원이 추가됐다. 지역 제조 중소기업의 스마트 전환을 위한 ICT 융합 스마트공장 사업에도 AI 기반 자율형공장 구축을 위한 240억원이 반영됐다.
-또한, 지자체가 자율 기획해 추진하는 '지역 주도형 AI 대전환' 사업이 신설돼 500억원이 편성됐고, 중소기업 모태펀드 출자 4000억원, 초격차 스타트업 1000+ 프로젝트 예산 120억원이 포함됐다.
-오영주 중기부 장관은 “2차 추경 예산안을 통해 중소벤처기업과 소상공인의 경영환경이 하루빨리 정상화되고 성장할 수 있는 마중물이 되도록 적극 지원할 계획”이라며, “1차 추경으로 이미 추진 중인 사업도 속도감 있게 집행될 수 있도록 지속적으로 모니터링하고 있다”고 밝혔다.
-성현희 기자 sunghh@etnews.com
-기보, 천안시·농협은행과 손잡고 지역 기술창업기업 성장 지원
+네이버페이가 오프라인 결제, 스테이블코인, 인공지능(AI)을 축으로 한 차세대 금융 전략을 공개했다. 지난 10년간 쌓은 간편결제 리더십을 오프라인으로 확장하고, 글로벌 결제와 디지털 자산 생태계 구축을 위해 기술 고도화에 나선다.
+박상진 네이버페이 대표는 26일 서울 포시즌스호텔에서 열린 'Npay 미디어데이2025'에서 “AI, 웹3, 로보틱스 등을 접목한 선도적인 디지털 금융 서비스로 글로벌 핀테크 플랫폼으로 진화하겠다”고 말했다.
+가장 눈에 띄는 변화는 오프라인 결제 인프라 확장이다. 네이버페이는 자체 개발한 결제 단말기 '커넥트'를 오는 4분기에 출시할 계획이다. QR·MST·NFC는 물론 얼굴 결제(페이스사인)까지 다양한 수단을 지원한다. 현재 네이버페이의 오프라인 결제 비중은 약14%로 3년 전 1%에도 미치지 못했던 수준에서 빠르게 성장 중이다.
+커넥트는 단순 결제 기능을 넘어 네이버 리뷰, 예약, 멤버십 등 고객 접점 기능을 통합한다. 오프라인 매장에서 점주가 네이버 이용자와 직접 연결하는 게 핵심이다. 이승배 네이버페이 CTO는 “커넥트는 소프트웨어에서 차별성을 갖춘 디바이스”라며 “예약, 리뷰, 쿠폰, 멤버십까지 통합된 서비스를 제공하고, 점주는 온라인처럼 오프라인에서도 고객 행동을 파악할 수 있다”고 말했다
+스테이블코인을 중심으로 한 웹3 전략도 본격화한다. 네이버페이는 디지털자산기본법 논의에 발맞춰 결제·포인트 생태계를 기반으로 스테이블코인 활용을 검토하고 있다. 발행이나 유통 등 구체적 역할은 제도화 수준에 따라 신중하게 대응할 방침이다.
+박 대표는 “네이버페이는 방대한 결제 트래픽과 리스크 관리 역량을 바탕으로 실증 사례를 만들수 있는 최적의 플랫폼”이라며 “제도에 맞춰 시장을 선도할 수 있도록 준비하겠다”고 강조했다.
+생성형 AI 기반의 금융 서비스 고도화도 핵심 과제다. 최근 출시한 AI 집찾기, 머니브리핑 등은 거대언어모델(LLM)과 마이데이터를 결합해 고객 질의의 맥락을 이해하고, 맞춤형 금융 정보를 제공한다. AI 기술 개발로 'AI 금융 에이전트'로 진화 중이다.
+이를 바탕으로 네이버페이는 글로벌 진출에도 속도를 내고 있다. 금융과 커머스 등을 결합하고, 글로벌 파트너십과 결제 인프라 확장을 추진하고 있다.
+조재박 부사장은 “네이버페이의 강점은 데이터, 결제, 쇼핑, 금융을 하나로 연결하는 구조에 있다”며 “글로벌 결제 확장도 팀 네이버의 전반적인 해외 사업과 함께 병행해나갈 것”이라고 설명했다. 실제 올해 1분기 해외 QR결제 트래픽은 전 분기 대비 70% 증가했다.
+다만, 네이버페이는 글로벌 사업 확장에 따라 장기적으로는 상장이 필요하나 당장 상장 계획은 없다고 밝혔다.
+박두호 기자 walnut_park@etnews.com
+토스, 보안 투자 8년 來 15배 증가...전담인력도 확대
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -798,13 +804,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>올해 5월 국회를 통과한 4조8267억원 규모의 1차 추경에 이어 소상공인 채무부담 경감과 AI 기반 기술 확산, 지역경제 활력 회복을 위해 예산을 추가 투입한 소상공인 경영회복 및 정상화 등 3대 분야를 중심으로 현장 수요 기반으로 집중 편성하였으며, 4차 추경으로 이미 추진 중인 사업도 속도감 있게 집행될 수 있도록 모니터링하고 있다.</t>
-  </si>
-  <si>
-    <t>올해 첫 대형병원 차세대 사업 막 올라…역대급 수주전 예고</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000087</t>
+    <t>네이버페이가 지난 10년간 쌓은 간편결제 리더십을 오프라인으로 확장하고, 글로벌 결제와 디지털 자산 생태계 구축을 위해 'Npay 미디어데이2025'에서 "AI, 웹3, 로보틱스 등을 접목한 선도적인 디지털 금융 서비스로 글로벌 핀테크 플랫폼으로 진화하겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>李 시정연설에도 추경안 놓고 극한 대치…與 “경기회복 골든타임” 野 “포퓰리즘  대폭 삭감해야”</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000292</t>
   </si>
   <si>
     <t>페이스북
@@ -814,20 +820,20 @@
 작게
 보통
 크게
-올해 첫 상급종합병원 차세대 병원정보시스템(HIS) 구축 사업자 선정 막이 올랐다. 대형병원 차세대 사업 기근이 이어지는 상황에서 역대급 수주전이 펼쳐질 것으로 전망된다.
-19일 병원업계에 따르면 원주세브란스기독병원이 차세대 HIS 구축 사업자 선정을 위한 제안요청서(RFP)를 공개했다. 내달 중순 우선협상대상자를 선정할 예정인데 의료IT 업계의 눈치작전이 이미 시작됐다.
-이번 사업은 20년 가까이 사용 중인 원주세브란스기독병원 주요 의료정보시스템과 하드웨어(HW) 장비를 전면 교체하는 게 골자다. 전자의무기록(EMR)을 포함한 주요 시스템을 묶어 차세대 통합 의료정보시스템을 개발하고, 모바일 시스템과 내외부 인터페이스 시스템 연동 등 전반적인 IT시스템을 신규 구축한다. 올해 하반기 착수해 내년 4분기 오픈이 목표다.
-대형병원 차세대 사업 기근이 이어지는 상황에서 올해 첫 상급종합병원 발주 사업인 만큼 의료IT 업계가 들썩이고 있다.
-원주세브란스기독병원은 병상 수만 800베드가 넘는 상급종합병원이자 강원도 거점병원이다. 수주 시 대형병원 레퍼런스 확보는 물론 '제2 병원' 건립에 따른 추가 수주 효과까지 기대할 수 있다. 지난해 중앙보훈병원(약 300억원), 국립소방병원(180억원) 등 대형 차세대 HIS 사업이 발주된 것과 비교해 올해 단 한 건의 대형사업도 없었다는 점에서 이번 사업이 의료IT 업계 최대 관심사로 부상했다.
-사업 규모를 고려할 때 대형 의료IT기업 주도로 입찰이 진행될 것으로 보인다. 원주세브란스기독병원 역시 참가자격으로 600병상 이상 의료기관 정보시스템 구축 경험을 필수로 제시했다. 이지케어텍, 평화이즈, 엠투아이티 3파전이 유력하다.
-입찰 참가기업 모두 수주에 사활을 걸 것으로 보이는 가운데 '가격'이 승패를 좌우할 것으로 보인다.
-이번 사업은 기술점수 80점과 가격점수 20점으로 평가한다. 공공병원 평균 가격점수가 10점인 것을 고려할 때 상당히 높은 비중이다. 특히 사립병원 특성상 '사업 예가'가 없는 만큼 치열한 눈치작전을 펼칠 것으로 보인다. 업계는 100억원 수준에서 제안가가 형성될 것으로 예상하지만, 경쟁이 과열될 경우 80억원 수준까지 제안가가 떨어질 수 있다는 전망도 나온다.
-의료IT 업계 관계자는 “발주처가 사업 예산을 공개하지 않은 만큼 입찰에 참여하는 기업은 자유롭게 가격을 제시할 수 있다”면서 “올해 상반기 유일한 상급종합병원 차세대 사업인 만큼 일정 부분 손해를 감수하고서라도 공격적인 가격을 제안할 가능성도 높다”고 말했다.
-이번 사업은 수주한다면 파급효과가 크지만 사전에 검토할 부분도 많다는 게 업계 중론이다.
-원주세브란스기독병원은 지난해 휴니버스글로벌을 사업자로 선정, 차세대 HIS 사업을 진행하다 상호 합의하에 계약을 해지한 바 있다. 과업에 대한 상호간 합의가 제대로 이뤄지지 않으면서 분쟁이 발생한 게 원인이다. 사업 실패 후 재추진인 만큼 발주처 요구사항이 더 많아질 수 있다는 우려가 있다.
-또 다른 의료IT 업계 관계자는 “지난해 휴니버스글로벌이 우선협상대상자에 선정되고도 최종 협상까지 수 개 월이 흐를 정도로 요구사항 정리부터 비용 산정까지 꽤나 복잡한 과정을 거친 것으로 알고 있다”면서 “이번 역시 수주하더라도 예상보다 시간과 비용이 더 많이 투입될 수 있다는 점을 고려해야 할 것”이라고 말했다.
-정용철 기자 jungyc@etnews.com
-식약처, 헬스케어AI 활용 포럼 개최
+이재명 대통령이 26일 취임 후 첫 시정연설에서 경제·민생 위기 극복을 위해 “신속한 추가경정예산(추경)안 처리를 당부”했지만 여야 간 입장 차가 뚜렷해 추경 심사는 난항이 예상된다. 여당인 더불어민주당은 민생경제 회복을 위한 추경의 조속한 처리에 총력을 다하겠다는 입장인 반면, 국민의힘은 “겉만 번지르르한 이재명표 추경은 결국 '빚내서 뿌리는 당선 사례금'에 불과하다”며 대폭적인 삭감을 예고했다.
+문금주 민주당 원내대변인은 이날 국회 소통관에서 기자회견을 열고 “무너진 경제를 회복하고 민생경제를 살리는 일이 가장 시급하다는 이 대통령 현실 인식에 뜻을 같이하며, 추경의 조속한 심사와 처리를 위해 힘쓸 것”이라고 밝혔다.
+경기회복의 '골든타임'을 언급하면서 “윤석열 정권의 무능과 무책임에 고물가, 고금리, 고환율이 더해지며 민생과 경제는 깊은 수렁에 빠졌다”며 “더욱이 12.3 내란은 민생과 경제를 헤어 나올 수 없는 침체로 내몰았다”고 평가했다. 그러면서 “정부의 첫 추경은 위기에 처한 민생과 경제를 되살리는 것은 물론이고 성장의 새로운 활력을 불어넣을 것”이라고 강조했다.
+야당의 협조도 당부했다.
+문 원내대변인은 “대한민국이 내란을 극복하고 새로운 미래로 나아갈 수 있도록 야당도 힘을 보태길 간곡히 호소한다”며 “저성장이 지속되면 우리는 벗어날 수 없는 악순환에 빠지고 말 것입니다. 신속한 추경 처리로 경제와 국민의 삶을 지키는데 함께 해주시길 부탁드린다”고 말했다.
+국민의힘은 시정연설 전후 두 차례 비공개 의원총회를 열고 정부와 민주당에 대한 강도 높은 비판에 나섰다.
+송언석 국민의힘 원내대표는 이날 공개된 모두발언에서 “대통령 당선 축하금이라는 비판을 받는 30조원 규모의 현금 살포성 추경, 대기업과 중소기업 모두 반대하는 노란봉투법과 상법 개정안, 송미령 장관까지 미래를 망칠 것이라며 반대했던 농업 4법 등 과거 재의요구권을 통해 폐기했던 악법들이 여당의 우격다짐 속도전으로 다시 통과될 위기에 놓였다”고 비판했다.
+이어 “이재명표 악법들이 국가 경제에 해악을 끼치고 국론 분열을 초래할 수 있지만, 이를 저지할 수 있는 현실적인 수단이 많지 않은 것도 사실”이라며 “그러나 우리가 비록 소수 야당일지라도, 지금 국민들이 기댈 수 있는 최후의 보루는 우리 국민의힘뿐”이라고 강조했다. 이어 “입법 폭주를 막기 위한 당내 태스크포스(TF)를 조만간 구성할 계획이며, 사법부 장악 시도 저지를 위한 투쟁도 이어가겠다”고 밝혔다.
+비공개로 진행된 의원총회에서는 “야당에 대한 존중이 없다”, “야당을 무시하고 조롱했다”는 등 국민의힘 의원들의 비판적인 발언이 잇따라 나왔다. 이에 따라 향후 추가경정예산안(추경) 협상 과정에서도 여야 간 충돌이 불가피할 것으로 보인다.
+박성훈 국민의힘 원내대변인은 비공개에 진행된 의총에 대해 “이 대통령의 시정연설을 두고 소수 야당을 협치의 대상이 아닌 조롱의 대상으로 여긴 것 아니냐는 지적이 나왔다”며 “연설 과정에서 즉흥적으로 나온 일부 발언을 우리 당에 대한 무시나 조롱으로 받아들인 의원들이 상당수 있었다”고 밝혔다. 다만 구체적인 표현이나 발언 내용에 대해서는 “특정 문구를 언급하는 것은 적절하지 않다”고 선을 그었다.
+김용태 국민의힘 비상대책위원장도 기자들과 만나 “시정연설 전 이재명 대통령과 만나 지방 경제의 어려움을 언급하며 울산 현대자동차 공장 사례를 들었다”며 “미국 수출용 현대차의 57%를 해당 공장에서 생산하는 만큼, 관세 협정 체결이 시급하다는 점을 전달했다”고 밝혔다. 이어 “김민석 국무총리 후보자에 대한 우려와 함께, 추경과 관련해 지방정부의 지방채 발행 등으로 국가 채무 부담이 커질 수 있다는 점도 대통령에게 직접 전했다”고 말했다.
+한편, 김병기 민주당 원내대표와 송언석 국민의힘 원내대표는 이날 여의도에서 오찬 회동을 갖고 6월 임시국회 내 추가경정예산안 처리를 위한 상임위원장 재배분 등 원내 현안을 협의했지만 접점을 찾지 못했다.
+박윤호 기자 yuno@etnews.com
+여야 회동서 이견만 재확인…與, 내일 예결위원장 선출 예고
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -835,13 +841,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>원주세브란스기독병원이 내달 중순 우선협상대상자를 선정할 예정인데 의료IT 업계의 눈치작전으로 20년 가까이 사용 중인 원주세브란스기독병원 주요 의료정보시스템과 하드웨어 장비를 전면 교체하는 게 골자다.</t>
-  </si>
-  <si>
-    <t>ABO가 아니라고?... 중국서 희귀 혈액형 'P형' 나왔다</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000388</t>
+    <t>이재명 대통령이 26일 취임 후 첫 시정연설에서 경제·민생 위기 극복을 위해 “신속한 추가경정예산(추경)안 처리를 당부”했지만 여야 간 입장 차가 뚜렷해 추경 심사는 난항이 예상된다.</t>
+  </si>
+  <si>
+    <t>작년 '빅5' 병원 적자 2000억원 넘어…의정갈등 직격탄</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000284</t>
   </si>
   <si>
     <t>페이스북
@@ -851,16 +857,14 @@
 작게
 보통
 크게
-전 세계적으로 극히 드문 'P형'이 혈액형이 중국에서 발견됐다.
-18일 서부망에 따르면 윈난성 원산 장족·묘족 자치주 혈액센터는 지난 16일 P형 혈액형을 발견했다.
-22년 전 센터가 설립된 이래로 57만명의 누적 헌혈자를 기록했지만, P형이 발견된 것은 이번이 처음이다.
-센터는 처음에는 이 혈액이 O형이라고 보고 항체 검사를 진행했는데, 비정상적인 응집 반응을 확인하고 이상함을 느꼈다. 이에 원산 중앙혈액원과 광저우 혈액센터 임상수혈연구소에 이 혈액에 대한 확인을 요청했다.
-그 결과 해당 혈액형은 P형의 하나인 'p형'으로 확인됐다. A·B·AB·O형과 다른 P형은 헌혈소에서 일반적으로 사용하는 ABO와 Rh 혈액형 시약으로는 구별되지 않아 놓치기 쉽다.
-P형은 1927년 오스트리아 출생의 미국 병리학자인 카를 란트슈타이너에 의해 학계에 처음 보고된 희귀 혈액형이다. P형은 총 7가지(P1, P2, LEK+, LEK-, P1K, P2K, p)로 나뉜다. p형은 P형 가운데서도 특히 드문 혈액형으로 100만명 가운데 1명 미만으로 발견된다. 중국에서도 현재까지 9명 밖에 확인되지 않았다.
-중국에서는 희귀한 혈액형에 별명을 붙인다. Ph-는 흔히 '판다 혈액형'이라고 불리며, OH(봄베이 블러드)는 '공룡 혈액형', Rhnull은 '황금 혈액형'이라고 불린다. P형은 해당 혈액형들보다 표본이 적다.
-p형은 특이 항원이 없고, 혈청에 강력한 '항-Tja' 항체를 가지고 있다. 같은 혈액형 이외의 모든 적혈구를 응집시키기 때문에 같은 혈액형간에만 피를 주고받을 수 있다. 다른 혈액형을 수혈하면 심각한 용혈성 수혈 부작용이 발생할 수 있다. 또한 여성의 경우 습관성 유산이나 사산을 유발할 수 있다.
-서희원 기자 shw@etnews.com
-“AI 가전 고객 경험 강화” 삼성스토어 신세계 강남 리뉴얼 오픈
+지난해 2월 시작된 의정갈등 여파로 우리나라 '빅5' 병원 연간 적자가 2000억원을 넘어선 것으로 나타났다.
+26일 국회 보건복지위원회 소속 한지아 국민의힘 의원이 보건복지부로부터 받은 자료에 따르면 서울대·세브란스·삼성서울·서울아산·서울성모병원은 지난해 2266억원의 영업손실을 기록했다. 장례식장 등 부대시설 수익을 제외하면 적자규모는 5000억원이 넘는다.
+병원별로는 서울대병원이 1106억원, 삼성서울병원 525억원, 세브란스병원 447억원, 서울성모병원 193억원의 적자를 냈다. 서울아산병원은 유일하게 5억원의 흑자를 냈지만, 전년 영업이익(323억원)의 1.5% 수준에 불과하다.
+장례식장, 주차장 등 부대시설을 제외한 의료부문만 놓고 보면 영업손실은 5685억원에 달했다. 병원별로는 서울대병원 2178억원, 삼성서울병원 1494억원, 세브란스병원 889억원, 서울성모병원 564억원, 서울아산병원 560억원이다.
+빅5 적자는 지난해 발발한 의정갈등이 주 원인이다. 전공의들이 사직하면서 병상가동률은 90%대에서 절반 이하까지 떨어지기도 했다.
+이밖에 경북대병원(796억원), 전남대병원(474억원), 전북대병원(466억원), 부산대병원(462억원) 등 전국 17개 국립대병원도 지난해 5586억원의 적자를 기록했다.
+정용철 기자 jungyc@etnews.com
+[바이오헬스 디지털혁신포럼]AI는 성장 아닌 '생존'…거버넌스·인력 양성 시급
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -868,13 +872,13 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>윈난성 원산 장족·묘족 자치주 혈액센터는 윈난성 원산 장족·묘족 자치주 혈액센터에서 지난 16일 P형 혈액형을 발견했는데, 비정상적인 응집 반응을 확인하고 이상함을 느낀 원산 중앙혈액원과 광저우 혈액센터 임상수혈연구소에 이 혈액에 대한 확인을 진행해 해당 혈액형은 P형의 하나인 'p형'으로 확인됐다.</t>
-  </si>
-  <si>
-    <t>SK온  '단방향' 각형 배터리 만든다…파일럿 라인 투자</t>
-  </si>
-  <si>
-    <t>https://www.etnews.com/20250619000116</t>
+    <t>국회 보건복지위원회 소속 한지아 국민의힘 의원이 보건복지부로부터 받은 자료에 따르면 서울대·세브란스·삼성서울·서울아산·서울성모병원은 지난해 2266억원의 영업손실을 기록하며 의정갈등 여파로 우리나라 '빅5' 병원 연간 적자가 2000억원을 넘어선 것으로 나타났다.</t>
+  </si>
+  <si>
+    <t>분할 앞둔 빗썸·두나무  보안 투자 비중 9%…업계 평균 상회</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250626000255</t>
   </si>
   <si>
     <t>페이스북
@@ -884,19 +888,15 @@
 작게
 보통
 크게
-SK온이 양극과 음극 단자를 상단에 배치한 '단방향' 각형 배터리 사업화를 추진한다. 양·음극 단자가 양쪽 측면에 위치한 '양방향' 배터리에 이어 단방향 제품으로 라인업을 확대하는 것으로, 증가하는 각형 배터리 수요 대응이다. 각형 배터리는 파우치나 원통형 배터리 대비 안전성이 우수해 전기차 분야에서 각광을 받고 있다.
-19일 업계에 따르면 SK온은 단방향 각형 배터리 생산을 위한 파일럿 라인을 준비하고 있는 것으로 파악됐다. 대전 배터리 연구원에 다음달부터 설비를 들일 예정으로, 본격적인 상용화에 뛰어들었다.
-파일럿 라인은 양산 전 제품의 품질과 성능 등을 평가·검증하는 곳이다. 이곳에서 생산한 샘플을 고객사에 제출해 테스트를 진행하고 양산 여부를 결정한다. 파일럿 라인 구축은 사업화의 길목에 들어섰다는 의미다.
-SK온은 그동안 파우치형 배터리만 만들었다. 각형은 상자 모양 알루미늄 캔 안에 내용물을 넣은 배터리고, 파우치형은 과자 봉지 같은 알루미늄 필름 안에 배터리 소재를 담은 구조다.
-SK온은 회사는 전기차 시장 공략을 강화하기 위해 각형 배터리 개발을 결정하고 대전 배터리 연구원 내에 양방향 각형 배터리 파일럿 라인을 구축했는데, 이번에 단방향 방식까지 추가했다.
-단방향은 양극과 음극 단자가 한쪽 면에 위치한 구조다. 톱탭 혹은 톱터미널 형태로도 불린다. 한 면에 회로 구성이 가능해 시스템 설계에 유리하다는 평가다. 또 전류 이동 경로가 짧아 저항을 감소시키는데 유리하고 패키징이 용이해 생산성을 향상시킬 수 있다는 것이 장점으로 꼽힌다.
-양방향은 두 탭이 양면에 대칭으로 배치된 구조다. 상·하부 모두에 냉각판을 설치하는 양면 냉각을 통해 효과적인 열관리가 가능하고 균일한 전류 흐름으로 배터리의 사이클 개선이 가능하다는 게 특징이다.
-SK온이 양방향에 이어 단방향 각형 배터리를 상용화하려는 건 완성차 업체들의 수요에 대응하기 위한 것으로 풀이된다.
-최근 완성차 업계에서는 배터리 안정성이 화두다. 화재 안정성이 전기차 판매에 결정적 영향을 미치는 만큼 파우치나 원통형보다 외부 충격에 강한 각형 배터리를 선호하는 경향이 뚜렷하다.
-SK온은 고객사 수요에 보다 유연하게 대응하기 위해 각형 배터리 폼팩터를 다변화하는 것으로 해석된다. 완성차 회사들은 같은 각형 배터리라도 차량 최적화를 위해 배터리 길이나 높이, 두께 등을 다르게 주문한다.
-업계 관계자는 “내달 초부터 설비 반입이 이뤄지면 라인 구축이 본격화될 것”이라면서 “완성차 업체의 다양한 폼팩터 요구에 대응할 수 있도록 생산 가능 크기를 키우고 톱탭과 사이드탭 방식 모두 대응이 가능하도록 라인 구성이 이뤄질 것으로 보인다”고 말했다.
-정현정 기자 iam@etnews.com
-바커케미칼, 울산 일자리 박람회 참가…“지역 우수 인재 확보”
+가상자산 거래소들이 정보보호에도 공격적인 투자를 이어가고 있다. 평균 6% 수준에 그친 공시 기업 전체 평균 대비 빗썸과 업비트 운영사 두나무는 정보보호 부문에 9% 이상의 예산과 인력을 투입하며 업계 평균을 크게 웃도는 수준을 기록했다.
+26일 한국인터넷진흥원(KISA)이 발표한 정보보호 현황에 따르면 가상자산 거래소 빗썸은 지난해 총 925억원을 정보기술(IT) 부문에 투자했고, 이 가운데 92억원(9.9%)을 정보보호에 투입했다. 이는 최초 공시했던 2020년(47억원) 대비 두 배 가까이 증가한 수치다. 인력 구성도 증가세를 보였다. 전체 임직원 448.6명 가운데 IT 인력은 313.7명, 이 중 정보보호 전담 인력은 31.9명으로 IT 인력의 10.2%를 차지했다. 2020년(8.6%)과 비교해도 비중이 늘었다.
+업비트 운영사인 두나무 역시 비슷한 수준을 보였다. 지난해 정보기술 부문 투자액 1543억원 가운데 정보보호 부문에 약 148억원이 투입돼 9.6%의 비중을 기록했다. 정보기술 인력 374.5명 중 정보보호 전담 인력은 33.6명으로 9.0%를 차지했다. 이는 최초 공시했던 2022년 정보보호 투자액(57억원), 전담 인력 비중(6.0%)보다 모두 증가한 수치다.
+두 회사 모두 업계 평균을 웃돌았다. KISA가 공개한 올해 공시 기업 평균을 보면 전체 IT 투자 중 보안 예산은 평균 6.05%, 보안 인력 비율은 평균 6.19% 수준이었다. 전통 ICT 기업보다도 가상자산 거래소들이 정보보호에 더 적극적으로 나서고 있다는 의미다.
+김형중 국민대학교 암호화폐연구센터장은 “거래소 간 이동이 쉬운 구조인 만큼, 신뢰도가 곧 경쟁력으로 작용한다”며 “이에 따라 정보보호에 대한 투자는 점차 늘어나는 추세이며, 거래소가 사실상 금융기관에 준하는 성격을 지닌 만큼 내부 통제를 강화하기 위한 다양한 방안에도 집중할 필요가 있다”고 말했다.
+정보보호 공시는 기업이 보안 예산, 인력 구성, 활동 내용 등을 대외에 투명하게 공개하는 제도로, 정보보호 산업 진흥법에 따라 일정 기준 이상의 기업은 공시 의무를 가진다.
+두 기업은 주요 조직 분할을 앞둔 시점에서 정보보호에도 공을 들이고 있어 주목된다. 빗썸은 거래소 사업과 투자·지주 사업을 분리하는 인적분할을 추진 중이며, 오는 8월 15일 신설 법인 '빗썸에이'를 출범시킬 예정이다. 자회사 중심의 지주 체계를 별도로 운영하면서 기존 법인은 거래소 사업을 계속 맡는다. 두나무 역시 비상장 주식 거래 서비스인 '증권플러스 비상장'을 물적분할해 내달 1일 '증권플러스비상장 주식회사'(가칭)를 신설할 계획이다.
+박유민 기자 newmin@etnews.com
+빗썸, 신규가입자 대상 '멜론 6개월 이용권' 증정 이벤트 진행
 사업자명 : 전자신문인터넷
 사업자번호 : 107-81-80959
 발행·편집인: 심규호
@@ -904,613 +904,996 @@
 Copyright © Electronic Times Internet. All Rights Reserved.</t>
   </si>
   <si>
-    <t>SK온이 양극과 음극 단자가 한쪽 면에 위치한 '양방향' 배터리에 이어 단방향 제품으로 라인업을 확대하는 '단방향' 각형 배터리 사업화를 추진한다.</t>
-  </si>
-  <si>
-    <t>내란 특검  ‘김용현 구속 필요 의견서’ 재판부에 제출</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/society/society_general/1203898.html</t>
-  </si>
-  <si>
-    <t>김용현 전 국방부 장관의 추가 기소 사건과 관련해 구속 여부를 결정할 심문이 예정된 가운데, 조은석 특별검사가 김 전 장관 구속영장이 발부돼야 한다는 의견서를 재판부에 제출했다.
-조 특검은 20일 언론 공지를 통해 “전 국방부 장관 김용현에 대한 증거인멸교사 등 사건이 (서울중앙지법) 형사34부에 배당된 이후, 추가적으로 해당 재판부에 구속영장 발부 필요성에 대한 의견서를 제출했다”고 밝혔다.
-조은석 특검팀은 지난 18일 김 전 장관을 위계에 의한 공무집행방해·증거인멸교사 혐의로 기소했고, 서울중앙지법은 이날 무작위 전자배당을 통해 사건을 형사34부(재판장 한성진)로 배당했다. 재판부는 김 전 장관의 구속영장 심문 기일을 오는 23일 오후 2시30분으로 지정했다.
-재판부의 구속영장 심문 기일 지정에 김 전 장관 쪽은 강하게 반발했다. 김 전 장관 변호인단은 “(형사34부는) 공소장 송달과 기록 등사 등의 형사소송법상 절차는 모두 위반하고 구속영장 심문기일을 지정했다”며 “공소장 송달도 없이 조특검과 내통한 형사34부의 범죄를 직권남용죄로 고발하고 모든 권리보호 절차에 착수하겠다”고 밝혔다.
-정혜민 기자 jhm@hani.co.kr 장현은 기자 mix@hani.co.kr</t>
-  </si>
-  <si>
-    <t>김용현 전 국방부 장관의 추가 기소 사건과 관련해 구속 여부를 결정할 심문이 예정된 가운데, 조은석 특별검사는 20일 언론 공지를 통해 “전 국방부 장관 김용현에 대한 증거인멸교사 등 사건이 (서울중앙지법) 형사34부에 배당된 이후, 추가적으로 해당 재판부에 구속영장 발부 필요성에 대한 의견서를 제출했다”고 밝혔으며 김 전 장관 변호인단은 “공소장 송달도 없이 조특검과 내통한 형사34부의 범죄를 직권남용죄로 고발하고 모든 권리보호 절차에 착수하겠다”고 말했다.</t>
-  </si>
-  <si>
-    <t>코스피 드디어 3000 넘었다…3021.84로 마감</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/economy/finance/1203897.html</t>
-  </si>
-  <si>
-    <t>20일 코스피가 3000선을 돌파한 채 마감했다. 지수가 3000을 넘어선 것은 지난 2021년 12월28일(3020.24) 이후 3년 반 만이다.
-이날 한국거래소에 따르면, 오후 3시30분 종가 기준 코스피는 전거래일보다 44.10(1.48%) 오른 3021.84에 거래를 마쳤다. 이날 코스피는 오전 9시 전날보다 8.78(0.29%) 오른 2986.52로 출발한 뒤, 10시45분께 3000선을 넘었고, 오후 장에서도 꾸준히 상승폭을 키웠다. 코스닥 지수도 전날보다 1.15% 오른 791.53에 장을 마쳤다.
-외국인 투자자의 강한 매수세가 이날 코스피 상승을 이끌었다. 외국인은 이날 5580억원어치를 순매수했고, 기관도 380억원을 규모로 순매수하며 힘을 보탰다. 반면, 개인 투자자는 차익 실현에 나서며 5990억원을 순매도했다.
-이날 시가총액 상위 10개 종목 대부분이 상승세를 보였다. 특히 SK하이닉스는 전날보다 1만1000원(4.47%) 오른 25만7000원으로 장을 마치며 코스피 상승을 이끌었다. 삼성전자도 300원(0.51%) 오른 5만9500원에 마감했지만 6만원선 돌파에는 실패했다. 네이버(6.94%), 카카오(10.26%) 등의 오름폭도 두드러졌다.
-코스피는 6·3 조기 대통령 선거 이후인 4일부터 이날까지 12거래일 가운데 이스라엘의 이란 공습이 있었던 13일 단 하루를 제외하고 11거래일 동안 상승했다. 이재명 대통령은 새 정부 출범 열흘 만인 지난 11일 한국거래소를 직접 찾는 등 취임 초기부터 주식시장 정상화에 큰 관심을 보이고 있다. 이 대통령은 불공정 거래에 ‘원스트라이크 아웃제’ 도입하고, 상법 개정 등을 언급하며 “코스피 5000시대를 열자”고 강조했다.
-노지원 기자 zone@hani.co.kr</t>
-  </si>
-  <si>
-    <t>20일 코스피가 3년 반 만에 3000선을 돌파한 채 마감하였으며 코스피는 오전 9시 전날보다 8.78(0.29%) 오른 2986.52로 출발한 뒤, 10시45분께 3000선을 넘겼다.</t>
-  </si>
-  <si>
-    <t>국정기획위  검찰 이어 방통위 업무보고도 중단…파행 이어져</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/politics/politics_general/1203896.html</t>
-  </si>
-  <si>
-    <t>국정기획위원회가 20일 방송통신위원회(방통위)로부터 받던 업무보고를 중단시켰다. 사흘째 부처·기관별 업무보고를 받고 있는 국정기획위가 진행 중인 업무보고를 중단시킨 것은 검찰에 이어 두번째다.
-국정기획위는 이날 오전 10시 정부과천청사에서 방통위로부터 대통령 공약 이행계획과 핵심 정책과제 등을 보고받았다. 이날 업무보고에는 국정기획위원 21명과 방통위 실·국장급 관계자 7명, 이현주 방송통신심의위원회 사무총장, 정인철 한국방송광고진흥공사 기획조정실장, 최문용 시청자미디어재단 경영기획본부장이 참석했다. 이진숙 방통위원장은 참석하지 않았다.
-홍창남 국정기획위 사회2분과장은 업무보고 시작 전 “이한주 위원장이 업무보고를 다시 받아야 할 수준이라고 했는데, 오늘 방통위 보고가 정점을 찍지 않을까 시작부터 우려가 크다”며 “지난 3년간 방통위가 보여준 정권 편향적 행태를 오늘 이 자리에서 일일이 거론하지는 않겠지만, 한 마디로 윤석열 정권은 언론 공공성과 공적 가치를 철저하게 짓밟았다”고 비판했다.
-김현 위원은 “지난 정권에서 방통위는 방송3법 개정, 티브이(TV) 수신료 통합징수에 줄곧 반대 의견을 내왔지만, 이날 업무보고 자료에는 찬성 의견을 냈다”고 지적하며 “(정권 교체에 따라 입장이 바뀌었다면) 적어도 왜 그러는지에 대한 경과는 넣어야 되지 않느냐”고 따져 물었다.
-이어진 김영관 방통위 사무처장 직무대리의 업무보고는 애초 낮 12시까지 진행하기로 했으나, 예정시각보다 30분 이른 11시30분쯤 종료됐다. 국정기획위는 윤석열 정권 당시 방통위가 1·2인 체제로 운영되며 불법 논란에도 불구하고 공영방송 이사 선임 등 주요 안건을 의결한 것에 대한 질타를 이어갔다. 국정기획위원들은 방통위 실·국장들에게 방통위 같은 합의제 조직에서 업무가 원활히 진행되려면 어떤 제도 개선이 필요한지 물었으나 대부분 답하지 못했다고 한다.
-국정기획위는 이날 중단된 방통위와 검찰의 업무보고를 추후 다시 받을 예정이다.
-고경주 기자 goh@hani.co.kr</t>
-  </si>
-  <si>
-    <t>국정기획위원회는 국정기획위원 21명과 방통위 실·국장급 관계자 7명, 이현주 방송통신심의위원회 사무총장, 정인철 한국방송광고진흥공사 기획조정실장, 최문용 시청자미디어재단 경영기획본부장이 참석한 가운데 사흘째 부처·기관별 업무보고를 받고 있는 국정기획위원회가 진행 중인 업무보고를 중단시켰다.</t>
-  </si>
-  <si>
-    <t>기후변화  돌연사 부르는 ‘수면 무호흡증’ 위험까지 높인다</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/society/environment/1203895.html</t>
-  </si>
-  <si>
-    <t>기온이 높을수록 ‘폐쇄성 수면 무호흡증’의 발병 확률이 높아진다는 연구 결과가 나왔다. 지구 온도를 높이는 기후변화가 수많은 사람들의 건강한 밤잠까지 위협하고 있는 것이다. 폐쇄성 수면 무호흡증은 대표적인 수면 장애 증상으로, 전세계 성인 10억명가량이 이를 겪는 것으로 추정되지만 아직 특별한 치료 약물은 없다.
-호주 플린더스대 등에 소속된 연구진은 최근 국제저널 ‘네이처 커뮤니케이션즈’에 “기온이 높은 환경이 폐쇄성 수면 무호흡증(OSA)의 발생률을 45% 증가시킨다”는 연구 결과를 발표했다. 연구진은 높은 기온이 폐쇄성 수면 무호흡증의 중증도에 미치는 영향을 살펴보기 위해 미국 식품의약국(FDA) 승인을 받은 매트리스 밑 센서를 통해 얻은 11만여명의 데이터를 분석해 이런 결론을 얻었다.
-폐쇄성 수면 무호흡증은 비만 등으로 목 안의 공간이 좁아지거나 막힌 결과 잠을 자는 도중 호흡이 멈추는 것으로, 돌연사 위험을 높이는 주요한 원인 증상으로 꼽힌다. 증상이 심하면 혈중 산소 수치 저하로 고혈압, 심근경색, 심부전, 부정맥 등 심혈관계 합병증 위험이 높아지고 생명까지 위험해질 수 있다.
-연구진은 전세계 41개국 11만6620명을 대상으로 3년 반 동안 24시간 일평균 주변 온도와 그 다음날 밤 이들의 폐쇄성 수면 무호흡증 사이의 관계를 정량화했고, 그 결과 둘 사이에 연관성이 있다는 것을 확인했다. 구체적으론, 기온이 높은 날(27.3도) 10초 이상 숨이 멈추는 등 폐쇄성 수면 무호흡증의 발생 확률은 기온이 낮은 날(6.4도)보다 45% 더 높게 나타났다. 한마디로 더울수록 폐쇄성 수면 무호흡증 유병률이 증가했다는 것이다. 이런 경향은 나라마다 달랐지만, 일반적으로 유럽 나라들에서 더 강하게 나타났다.
-연구진은 이런 유병률 증가가 얼마나 사회적 부담을 초래하는지도 정량화해 분석했다. 그 결과 2023년 29개국(전체 인구 10억2천만명)에서 기온과 연관된 폐쇄성 수면 무호흡증 유병률의 증가는 78만8198년어치의 ‘장애보정생존연수 손실’(질병으로 인한 건강 손실)을 초래했으며, 여기엔 2만7180년어치의 수명 손실이 포함됐다. 이와 관련된 경제적 비용은 전체 980억달러로 추산됐는데, 여기엔 추가적인 ‘웰빙 부담’으로 인한 680억달러와 직장에서의 생산성 손실 등으로 인한 300억달러가 포함됐다.
-인간이 일으킨 기후변화로 지구는 갈수록 뜨거워지고 있으며, 지난해는 지구 기온이 산업화 이전 대비 1.5도를 초과한 첫 해로 기록됐다. 온실가스 배출량을 더 감축하지 않을 경우, 지구 기온은 이번 세기말까지 산업화 이전 대비 2.1~3.4도 오를 것으로 예상된다. 건강을 위협하는 폐쇄성 수면 무호흡증의 발병 역시 크게 늘어날 수밖에 없는 상황이다. 연구진이 기후변화 시나리오에 따라 분석해본 결과, 2100년까지 지구 평균 기온이 1.8도 오르는(SSP1-2.6) ‘지속가능한’ 시나리오 아래에서도 ‘웰빙 부담’이 2023년에 견줘 15% 증가할 것으로 나타났다. 지구 기온이 이보다 더 오르면, 폐쇄성 수면 무호흡증 유병율이 더 높아지며 ‘웰빙 부담’ 역시 두 배로 늘어날 것으로 나타났다.
-논문의 대표 저자인 바스티앙 르샤 박사는 이번 연구 결과가 “(온실가스 감축 등) 지구 온도 상승을 늦추기 위한 더 많은 정책적 조처가 없다면, 2100년까지 폐쇄성 수면 무호흡증과 관련한 부담이 두 배로 증가할 것이란 사실을 시사한다”고 밝혔다.
-*논문 정보
-Global warming may increase the burden of obstructive sleep apnea
-10.1038/s41467-025-60218-1
-최원형 기자 circle@hani.co.kr</t>
-  </si>
-  <si>
-    <t>최근 국제저널 ‘네이처 커뮤니케이션즈’에 ‘폐쇄성 수면 무호흡증(OSA)의 발생률을 45% 증가시킨다는 연구 결과가 발표되었는데, 이는 기온이 높을수록 ‘폐쇄성 수면 무호흡증’의 발병 확률이 높아진다는 것을 의미한다.</t>
-  </si>
-  <si>
-    <t>여승주 한화생명 부회장  그룹 경영지원실장으로</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/economy/marketing/1203894.html</t>
-  </si>
-  <si>
-    <t>여승주 한화생명 부회장이 한화그룹 경영지원실장으로 내정됐다. 김승연 회장을 보좌하며 김동관 부회장으로의 경영권 승계 작업을 돕는 역할을 맡게 될 거란 얘기가 나온다.
-한화그룹은 20일 여 부회장의 내정 사실을 밝혔다. 경영지원실장은 김 회장을 보좌하는 자리로 그룹을 총괄하고 미래 비전을 수립하는 역할을 맡는다는 게 그룹 쪽 설명이다. 그룹 최대 현안인 3형제로의 경영권 승계 작업 마무리도 그의 관할이 될 공산이 크다.
-1960년생인 여 부회장은 한화생명 전략기획실장, 한화그룹 경영기획실 전략팀장, 한화투자증권 대표이사, 한화생명 사업총괄을 역임했다. 2019년엔 한화생명 대표이사에 선임돼 7년째 한화생명을 이끌고 있다. 지난 2023년 성과를 인정받아 부회장으로 승진했다. 김동관 부회장과 김동원 한화생명 사장의 경영 멘토로 알려져 있다.
-여 부회장이 그룹으로 자리를 옮기면서 한화생명은 각자 대표 체제로 전환한다. 권혁웅 전 한화오션 부회장과 이경근 한화생명금융서비스 사장이 각자 대표를 맡는다.
-남지현 기자 southjh@hani.co.kr</t>
-  </si>
-  <si>
-    <t>여승주 한화생명 부회장이 김승연 회장을 보좌하며 김동관 부회장으로의 경영권 승계 작업을 돕는 역할을 맡게 될 거란 얘기가 나오면서, 한화생명은 각자 대표 체제로 전환했다.</t>
-  </si>
-  <si>
-    <t>지난해 대미 경상수지 흑자 1182억달러…중국엔 290억달러 적자</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/economy/finance/1203893.html</t>
-  </si>
-  <si>
-    <t>지난해 한국의 대미 경상수지가 1182억3000만달러 흑자로, 1998년 통계 작성 이래 최대치를 기록했다. 중국에 대한 경상수지는 290억4000만달러 적자를 기록했다.
-한국은행이 20일 발표한 ‘2024년 지역별 국제수지(잠정)’ 자료를 보면, 대미 경상수지 흑자 규모는 1년 사이 34.7%(304억7000만달러) 늘었다. 반도체, 정보통신기기 등의 수출 증가로 상품수지가 1089억9000만달러, 배당·이자 등 본원소득수지가 184억달러로 모두 사상 최고치를 찍었다. 반면, 서비스수지는 71억8000만달러 적자를 기록했다.
-중국에 대한 경상수지는 290억4000만달러 적자로 나타났다. 2022년부터 3년 연속 마이너스를 벗어나지 못하고 있다. 반도체 수출 증가와 화학공업제품 수입 감소로 상품수지 적자가 325억3000만달러로 전년(331억3000만달러 적자)에 견줘 소폭 개선됐지만, 배당수입 감소로 본원소득수지는 35억7000만달러에서 29억1000만달러로 흑자폭이 줄어들었다.
-한편 대일본 적자는 127억2000만달러로 157억7000만달러 적자를 나타냈던 전년에 견줘 그 규모가 축소됐다. 유럽연합과 동남아는 각각 170억9000만달러, 565억2000만달러 흑자를 기록했다.
-금융계정에서는 내국인의 해외직접투자가 중국(36억9000만달러 적자)을 제외하고 미국(247억1000만달러), 유럽연합(25억8000만달러), 동남아(137억5000만달러) 등 대부분 지역에서 늘었다. 하지만 외국인의 국내 직접투자(부채)는 전년도 190억4000만달러에서 지난해 152억3000만달러로 줄었다.
-지난해 내국인의 해외증권투자(자산)는 722억5000만달러로 전년의 454억2000만달러를 크게 웃돌았다. 내국인의 대미 주식투자는 371억4000만달러로 역대 세 번째로 많았다. 반대로 외국인의 국내 직접투자(부채)는 152억3000만달러, 국내 증권투자는 219억6000만달러로 전년보다 줄었다.
-한은은 “미국 관세 정책 강화로 대미 흑자는 내년부터 축소될 가능성이 있고, 대중 적자 흐름은 (전년에 이어) 올해도 큰 변화가 없을 것”이라고 설명했다.
-노지원 기자 zone@hani.co.kr</t>
-  </si>
-  <si>
-    <t>한국은행이 20일 발표한 ‘2024년 지역별 국제수지(잠정)’ 자료를 보면, 지난해 한국의 대미 경상수지 흑자 규모는 1182억3000만달러 흑자로, 1998년 통계 작성 이래 최대치를 기록했다.</t>
-  </si>
-  <si>
-    <t>트럼프 결정 시한 또 ‘2주 안’…“일하는 척하려고 백만번 써먹은 말”</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/international/america/1203892.html</t>
-  </si>
-  <si>
-    <t>“2주 안에.”
-캐럴라인 레빗 미국 백악관 대변인은 19일(현지시각) 브리핑 때 도널드 트럼프 대통령이 이란 핵 시설 등을 직접 공격할지를 “2주 안에” 결정하겠다고 말했다.
-하지만, 뉴욕타임스 등 미국 언론들은 “워싱턴에 있는 거의 모든 사람이 알고 있다. 2주는 트럼프 대통령이 가장 좋아하는 시간 단위 중 하나”라며, 트럼프 대통령이 2주 안에 실제로 결정을 할 지에 대해 의구심을 표했다.
-트럼프 대통령이 “2주 안에” 특정 사안에 대해 결정하겠다고 말한 적은 여러 번이지만, 2주 안에 결정을 내린 적이 없던 경우가 많았다.
-최근 그는 우크라이나 전쟁 휴전 협상 관련해 블라디미르 푸틴을 신뢰하느냐는 질문에 “2주 안에 알려주겠다”고 말했지만, 이후 별다른 소식은 없다.
-2017년 첫 집권 당시에도 트럼프 대통령은 “2주 안” 발언을 자주 했다. 2017년 2월9일 세금 제도 개혁과 관련해 “2~3주 안에 뭔가 말씀드릴 게 있다”고 했다. 같은해 3월4일 자신의 트위터 계정에 버락 오바마 전 행정부가 트럼프 타워에서 자신의 선거운동을 도청했다는 의혹을 제기할 때도 “다음 2주 안에 매우 흥미로운 몇가지 사건이 표면화될 것으로 예상한다”고 말했다. 같은 해 파리 기후협정 관련해서는 4월29일에 “앞으로 2주 동안 파리 협정에 대한 중요한 결정을 내릴 것”이라고 말했다. 이슬람 극단주의 무장단체 ‘이슬람 국가’(IS)에 대해 같은해 5월21일 “우리는 약 2주 후 기자회견을 열어서 우리의 활동이 얼마나 잘 진행되고 있는지 알려드릴 것”이라고 말했다. 파리 기후협정은 발언 뒤 2주가 훌쩍 넘은 같은 해 6월1일 탈퇴를 선언했다. 아예 그 후 별다른 소식이 없는 경우가 많았다.
-트럼프 대통령은 책임감 있는 해결책을 제시하는 대신 추측을 불러일으키는 방식의 화법을 주로 사용해왔다. ‘전략적 모호성’이라고 평가할 수도 있지만, 일단 말부터 한 뒤 판단을 유보하고 기회를 봐서 행동하는 기회주의적 방식이라는 해석이 많다.
-이 때문에 이번 발언이 미국이 공습 전 이란에 2주의 기한을 준 것처럼 보이지만, 사실은 트럼프 대통령이 고민하거나 이스라엘이 독자 행동을 벌일 시간을 벌기 위한 발언일 뿐이라는 해석이 나온다.
-이날도 레빗 대변인은 “(트럼프) 대통령은 항상 외교적 해결책에 관심이 있다. 외교 기회가 생기면 언제나 잡을 것”이라면서 “하지만 그는 힘을 사용하는 것도 두려워하지 않는다고 덧붙이고 싶다”고 양쪽 모두로 해석할 수 있는 발언을 했다.
-크리스 머피 민주당 상원의원은 소셜미디어 엑스(X)에 “이란과 전쟁을 벌이는 것은 끔찍한 생각이라고 보지만, 아무도 (트럼프 대통령의) ‘2주’라는 말은 믿지 않는다”라며 “그는 자신이 하지도 않은 일을 하고 있는 척하기 위해 이 말을 이미 백만번이나 써먹었다. 오히려 미국을 약하고 어리석게 보이게 만들 뿐”이라고 적었다.
-뉴욕타임스는 트럼프의 2주 발언이 “시간을 측정하는 단위라기보다 ‘임시방편’일 뿐”이라며 “2주는 의미있는 시간일 수도 있지만, 아예 아무것도 의미하지 않을 수도 있다. 단순하게 ‘나중’을 의미할 뿐이며, 이는 때로는 ‘절대 안 함’을 의미한다”고 짚었다.
+    <t>한국인터넷진흥원(KISA)이 발표한 정보보호 현황에 따르면 가상자산 거래소 빗썸은 지난해 총 925억원을 정보기술(IT) 부문에 투자했고, 이 중 92억원을 정보보호에 투입했다.</t>
+  </si>
+  <si>
+    <t>정부  中철강제품에 덤핑관세 부과키로…“韓산업 피해”</t>
+  </si>
+  <si>
+    <t>https://www.etnews.com/20250625000397</t>
+  </si>
+  <si>
+    <t>페이스북
+X(트위터)
+메일
+URL 복사
+작게
+보통
+크게
+정부가 중국산 철강제품 중 스테인리스스틸 후판에 21.62%의 덤핑방지관세를 부과하기로 했다. 스테인리스스틸 후판은 천연가스, 조선, 반도체 및 디스플레이 생산설비 등 산업 전반에 걸쳐 핵심 원자재로 사용된다. 정부는 중국의 덤핑 공세로 국내 산업이 실질적인 피해를 입고 있다고 판단했다.
+산업통상자원부 무역위원회는 26일 중국산 스테인리스스틸 후판에 대한 반덤핑 조사 최종 판정 결과, 해당 제품의 덤핑 사실과 국내 산업에 대한 실질적 피해를 인정했다. 이에 따라 무역위는 21.62%의 덤핑방지관세를 향후 5년간 부과할 것을 기획재정부 장관에게 건의했다. 해당 품목은 이미 지난 3월부터 같은 비율의 잠정 관세가 부과되고 있다.
+대상은 △Schuang △STX Japan △Best Win △Jiangsu Daekyung Stainless Steel이다. 제품 사양은 두께 4.75㎜ 이상, 폭 600㎜ 이상의 열간압연 스테인리스강판이다. 해당 제품은 기존에 기본관세율 8%이나, WTO 협정 및 한중 FTA에 따라 무관세로 수입되고 있었다.
+이번 조치로 국내 철강업계의 가격 경쟁력 회복과 산업 피해 방지에도 도움이 될 것으로 기대된다.
+무역위는 또 국산 차아황산소다, 태국산 파티클보드에 대한 덤핑 여부를 놓고 공청회도 열었다. 차아황산소다에는 15.15~33.97%, 파티클보드에는 11.82~17.19%의 잠정 덤핑관세가 각각 적용되거나 예정돼 있으며, 이들 품목에 대해서도 하반기 최종판정이 내려질 예정이다.
+산업부 관계자는 “글로벌 공급망 불균형과 저가 수입공세로 인한 산업 생태계 붕괴 우려가 커지는 상황에서 필요한 보호조치”라며 “공정무역 질서 확립과 국내 산업 경쟁력 유지를 위한 제도적 대응을 강화할 것”이라고 말했다.
+안영국 기자 ang@etnews.com
+[인사]한국가스안전공사
+사업자명 : 전자신문인터넷
+사업자번호 : 107-81-80959
+발행·편집인: 심규호
+청소년보호책임자: 김태권
+Copyright © Electronic Times Internet. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>중국산 철강제품 중 스테인리스스틸 후판에 21.62%의 덤핑방지관세를 부과하기로 함에 따라 국내 철강업계의 가격 경쟁력 회복과 산업 피해 방지에도 도움이 될 것으로 기대된다.</t>
+  </si>
+  <si>
+    <t>[속보] 국방부 차관에 이두희 전 미사일전략사령관 등 차관 5명 인선</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/politics/bluehouse/1204880.html</t>
+  </si>
+  <si>
+    <t>이재명 대통령은 26일 국방부 차관에 이두희 전 육군 미사일전략사령관을 임명했다.
+이 대통령은 이날 이 신임 국방부 차관을 포함한 5명의 차관급 인사를 단행했다고 강유정 대통령실 대변인이 밝혔다. 이 대통령은 또 보건복지부 1차관에는 이스란 복지부 사회복지정책실장을, 환경부 차관엔 금한승 국립환경과학원장, 고용노동부 차관에 권창준 노동부 기획조정실장, 공정거래위원회 부위원장에 남동일 공정위 상임위원을 각각 임명했다.
+강 대변인은 “오늘 인선은 각 부처 장관들과 유기적으로 호흡하며 국방개혁, 사회안전망 확대, 기후변화 대응, 노동권 강화 등 이재명 정부의 세부 과제를 책임질 인물들로 채워졌다”며 “앞으로도 이재명 정부는 각 분야 전문가들을 적재적소에 배치해 일하는 정부를 만들어가겠다”고 밝혔다.
+신형철 기자 newiron@hani.co.kr</t>
+  </si>
+  <si>
+    <t>이재명 대통령은 26일 국방부 차관에 이두희 전 육군 미사일전략사령관을 임명하고, 보건복지부 1차관에는 이스란 복지부 사회복지정책실장을, 환경부 차관엔 금한승 국립환경과학원장, 고용노동부 차관에 권창준 노동부 기획조정실장, 공정거래위원회 부위원장에 남동일 공정위 상임위원을 각각 임명하였다.</t>
+  </si>
+  <si>
+    <t>나토  정상들 빠진 IP4와 성명…방산협력 강화 초점</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/international/international_general/1204879.html</t>
+  </si>
+  <si>
+    <t>북대서양조약기구(NATO·나토)는 25일(현지시각) 한국을 비롯한 인도·태평양 파트너 4개국(IP4)과 공동성명을 내어 서로의 결속 및 방산협력 강화를 약속했다.
+마크 뤼터 나토 사무총장과 한국·일본·호주(오스트레일리아)·뉴질랜드가 이날 네덜란드 헤이그에서 열린 나토 정상회의를 계기로 낸 성명에서 “더욱 위험하고 예측이 어려워진 글로벌 안보 환경에서 나토 동맹국들은 더 높은 방위 역량을 개발하고, 혁신하며 현재 큰 변화가 일어나고 있음을 인식한다”며 “우리는 모두 투명하게 각자의 국방 지출을 늘리고 있고, 방위산업 협력을 강화하기 위해 노력할 것”이라고 밝혔다. 이어 “각자의 강점과 관심 가운데 다양한 방식으로 이를(방산협력을) 실현하기 위해 최선을 다할 것”이라고 덧붙였다. 나토와 인도·태평양 4개국이 공동성명을 낸 것은 이번이 처음이다.
+우주와 해양, 탄약 등 협력의 구체적인 분야도 명시됐다. 이들은 “안전한 공급망과 개발, 생산 및 조달 과정 등을 서로에게 계속 배우기 위해 대화를 심화할 것”이라며 민간과 군사 양쪽에서 활용되는 이중용도 제품 개발 스타트업과의 협력 강화도 약속했다. 또 “동일한 표준을 추구해 우리 군의 상호운용성을 강화하는 것의 중요성을 인식하고 있고, 이를 통해 효과적으로 협력할 것”이라며 “이 또한 방산 분야에서 더 나아간 협력의 기회를 만들어 낼 것”이라고 했다.
+나토는 우크라이나 전쟁이 발발한 2022년부터 아이피(IP) 4개국과의 관계 강화를 위해 4년 연속 정상회의에 초청하고 있다. 그러나 이재명 대통령을 비롯해 일본 이시바 시게루 총리와 앤서니 앨버니지 호주 총리 모두 이번 정상회의에 불참하는 대신 각료들을 보냈다. 한국에선 위성락 안보실장이 헤이그를 찾았다. 한국과 일본 정상은 이스라엘의 이란 침공 이후 혼란스러운 중동 정세 등을 참석하지 않는 이유로 들었다. 그러나 도널드 트럼프 미국 대통령이 나토 회원국을 향해 높은 수준의 국방비 증대를 요구하면서, 나토의 파트너들도 부담을 느끼고 거리를 두고자 한 것이 아니냐는 우려도 서방 언론에선 나왔다.
+이번 회동은 트럼프 대통령도 참석해 미국과 나토, 4개국 파트너가 함께 모일 예정이었다. 그러나 한·일 정상이 모두 불참을 선언하며 막판에 미국도 회동에서 빠지게 됐다.
+베를린/장예지 특파원
+penj@hani.co.kr</t>
+  </si>
+  <si>
+    <t>북대서양조약기구(NATO·나토)는 25일(현지시각) 한국을 비롯한 인도·태평양 파트너 4개국(IP4)과 공동성명을 내어 서로의 결속 및 방산협력 강화를 도모하였으며 공동성명은 안전한 공급망과 개발, 생산 및 조달 과정 등을 서로 배우기 위해 대화를 심화할 것이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>‘김민석 청문회 파행’ 여야 네탓 공방…민주당 강행 처리 방침</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/politics/politics_general/1204878.html</t>
+  </si>
+  <si>
+    <t>김민석 국무총리 후보자 인사청문회가 파행으로 마무리된 데 대해 여야는 26일 상대 탓을 하며 책임 공방을 벌였다. 국민의힘은 자료 제출과 추가 검증이 필요하다는 입장이지만, 더불어민주당은 청문회가 끝난 만큼 야당이 반대하더라도 총리 인준안을 강행하겠다는 방침이다.
+여야는 청문회 파행의 책임을 서로에게 떠넘겼다. 문금주 민주당 원내대변인은 이날 논평을 내어 “김 후보자의 인사청문회가 파행으로 끝난 것은 국민의힘 탓”이라며 “국정 발목잡기를 넘어 대선 불복까지 염두에 둔 의도 아닌가”라고 비판했다. 김 후보자도 본인 페이스북에 글을 올려 “국민 여러분의 눈높이에 여전히 미흡하실 대목들에 송구하다”면서도 “결국 주진우 의원이 제기한 ‘6억 장롱 현금’ 주장의 허위를 사과하는 것이 야당에 부담이 된 듯하다. 아쉽다”고 밝혔다.
+국민의힘은 김 후보자의 자료 제출과 청문회 재개를 촉구했다. 국민의힘 국무총리 인사청문특위 간사인 배준영 의원은 이날 기자회견에서 “지금이라도 후보자와 민주당이 자료를 내면 회의를 재개해 후보자의 정책적·도덕적 역량, 국민에 대한 공직자의 자세가 있는지 끝까지 점검하고, (청문회) 날짜를 늘려서 확인할 준비가 돼 있다”고 했다. 주진우 의원은 이날 페이스북에 “(김 후보가 내지 않는) 증여세 납부 내역은 김 후보자에게 유리한 자료다. 장롱 속 6억원 표현을 문제 삼아 자료를 제출하지 않겠다는 이유도 너무 억지스럽다”고 비판했다.
+김 후보자의 청문회는 이틀 째인 전날 김 후보자의 자료 미제출 논란과 주 의원의 ‘6억원 장롱 발언’ 등을 놓고 여야가 공방을 벌이다 오후 정회 뒤 재개되지 못하고 자정을 기해 자동 산회했다.
+국민의힘은 김 후보자 쪽의 자료 미제출로 청문회가 재개되지 않았다며 인사청문 경과보고서 채택 논의는 불가능하다는 입장이다. 하지만 민주당은 야당 반대로 보고서가 채택되지 않는다면 표결로 인준 절차를 강행하겠다는 입장이다. 김현정 원내대변인은 “(청문보고서) 채택이 합의되지 않으면 민주당은 표결 수순으로 갈 수밖에 없다”며 “(인사청문 시한인) 29일이 지나면 (우원식 국회의장) 직권으로 본회의에 상정할 수 있다. 오는 30일 또는 7월 3~4일이 될 가능성이 높다”고 했다. 국무총리 인준안 가결 요건은 재적의원 과반 출석에 출석 의원 과반 찬성이라 민주당 의석수(167석)만으로도 본회의를 통과할 수 있다.
+장나래 고한솔 기자 wing@hani.co.kr</t>
+  </si>
+  <si>
+    <t>김민석 국무총리 후보자 인사청문회가 파행으로 마무리된 데 대해 국민의힘은 자료 제출과 추가 검증이 필요하다는 입장이지만, 더불어민주당은 청문회가 끝난 만큼 야당이 반대하더라도 총리 인준안을 강행하겠다는 방침을 밝혔다.</t>
+  </si>
+  <si>
+    <t>멕시코 “머스크의 스페이스X 로켓 폭발로 환경 피해…소송 검토”</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/international/america/1204877.html</t>
+  </si>
+  <si>
+    <t>클라우디아 셰인바움 멕시코 대통령이 스페이스 엑스(X) 로켓이 미국 국경 너머로 발사될 때 떨어지는 파편과 오염 물질에 대해 법적 조처를 할 것인지 검토하겠다고 밝혔다. 스페이스 엑스의 최고경영자는 일론 머스크이다.
+셰인바움 대통령은 25일(현지시각) 기자회견에서 “스페이스 엑스(X) 로켓이 미국 국경을 넘어 발사된다. 멕시코 정부는 실제로 오염이 있기 때문에 필요한 소송을 제기하기 위해 어떤 국제법을 위반하고 있는지 살펴보고 있다”고 말했다고 멕시코프레스, 아에프페(AFP)·에이피(AP)통신, 가디언 등이 보도했다.
+지난 18일(현지시각) 스페이스 엑스의 스타십36이 미국과 멕시코 국경인 텍사스주 남부 보카치카 스타베이스 본부에서 진행된 정기 테스트 중 폭발했다. 로켓의 추진체(부스터)는 지구 대기권 재진입과 동시에 분리돼 폭발했고, 수백개의 금속과 플라스틱 파편들이 멕시코만으로 떨어졌다.
+셰인바움 대통령은 멕시코 정부가 텍사스에 인접한 멕시코 북동부 타마울리파스주에 로켓 폭발이 미친 영향을 종합적으로 검토하고 있다고 덧붙였다. 당시 이 지역에서는 로켓 잔해로 추정되는 금속 조각, 플라스틱 조각 등이 발견됐다고 보도됐다. 이 외에도 고무, 실리콘, 냉각 탱크, 발사 관련 컨테이너 등도 회수됐다. 또 40㎞가 넘는 멕시코 타마올리파스주 마타모로스 해변에 미세한 파편들이 흩어졌다. 리오그란데강이 인접해있는 이 지역에서는 이번 폭발의 여파로 멸종위기에 처한 올리브 리들리 바다거북이 파편 조각을 먹이로 착각할 수 있다는 우려가 제기되고 있다.
+지난달 미국 연방항공청(FAA)은 스타십 로켓 연간 발사 횟수를 5회에서 25회로 늘리는 것을 승인했다. 환경보호단체들은 발사 횟수를 늘릴 경우, 야생동물 서식지 파괴 등이 우려된다며 반발해왔다.
+스페이스 엑스는 멕시코 정부의 입장에 따로 입장을 밝히지 않았다.
+셰인바움 대통령은 도널드 트럼프 미국 대통령의 행정명령에 따라 멕시코만을 ‘아메리카만’으로 이름을 바꾼 구글을 지난 5월 고소한 바 있다.
 최우리 기자 ecowoori@hani.co.kr</t>
   </si>
   <si>
-    <t>미국 백악관 대변인은 19일(현지시각) 브리핑 때 도널드 트럼프 대통령이 이란 핵 시설 등을 직접 공격할지를 “2주 안에” 결정하겠다고 밝히지만, 뉴욕타임스 등 미국 언론들은 “워싱턴에 있는 거의 모든 사람이 알고 있는 시간 단위 중 하나”라며, 트럼프 대통령이 2주 안에 실제로 결정을 할 지에 대해 의구심을 표하였다.</t>
-  </si>
-  <si>
-    <t>괴산 사담리엔 ‘차정순길’이 있다…“조금 내주면 모두 편해”</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/area/chungcheong/1203890.html</t>
-  </si>
-  <si>
-    <t>충북 괴산군 청천면 사담리엔 ‘차정순길’이 있다. 마을 주민들이 농사·통행을 하는 주요 길목이다. 사담리 마을회는 최근 길을 개통하고, 길 입구에 현판을 달았다.
-현판엔 “평소 도로 폭이 협소하여 통행에 어려움이 있어 소유주인 차정순님께서 토지 일부를 기증·확장하게 되어 고마운 뜻을 기린다”고 씌어 있다.
-길이 26m 남짓한 길인데, 폭이 2.3m 정도여서 차 한 대가 빠듯하게 지날 정도였다. 마을 노인회장이기도 한 차정순(78)씨가 자신의 땅 27㎡를 내놓으면서 도로 폭은 3m로 70㎝ 정도 넓어져 승용차뿐 아니라 웬만한 화물차도 지날 수 있게 됐다. 차씨는 “차는 물론 농기계도 지나기 어려워 불편했다. 내가 조금 내주면 모두 편할 것 같아서 쓰게 한 것”이라고 밝혔다. 서정국 사담리 이장은 “마을이 생기면서 만들어진 길인데, 사실 전에 쓰던 길도 차씨 사유지여서 마을 주민들이 대대로 고마워하고 있다. 이번에 또 마음을 내줘 더욱 고맙다”고 말했다.
+    <t>멕시코 정부는 스페이스 엑스(X) 로켓이 미국 국경 너머로 발사될 때 떨어지는 파편과 오염 물질에 대해 법적 조처를 할 것인지 검토하겠다고 밝히며 멕시코 정부는 실제로 오염이 있기 때문에 필요한 소송을 제기하기 위해 국제법을 위반하고 있는지 살펴보고 있다고 말했다.</t>
+  </si>
+  <si>
+    <t>인권위 “국제 기준 맞는 ‘2035 온실가스 감축목표’ 수립” 권고</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/environment/1204876.html</t>
+  </si>
+  <si>
+    <t>국가인권위원회(인권위)가 2019년 대비 2035년까지 온실가스 배출량을 60% 줄여야 한다는 국제 기준에 맞게 우리나라의 ‘2035 국가 온실가스 감축목표(NDC)’를 세울 것을 정부에 권고했다.
+인권위는 이날 “기후위기는 인권의 문제이고, 미래세대에 과중한 부담이 이전되지 않는 방향으로 온실가스 감축경로를 설정해야 한다”며 환경부 장관과 2050탄소중립녹색성장위원장에게 이렇게 권고했다. 또 정부가 “기업들이 저탄소 경제로의 전환에 적극 동참할 수 있도록 지원 체계를 마련해야 한다”고도 밝혔다.
+파리협정에 따라 각 나라는 5년마다 온실가스 감축목표를 유엔기후변화협약(UNFCCC)에 제출해야 한다. ‘2035 국가 온실가스 감축목표’ 제출 시한은 올해 9월까지로, 각 나라의 목표치는 파리협정의 ‘진전의 원칙’에 따라 이전 목표치(2030 감축목표)보다 줄어들 수 없다. 우리나라의 2030 감축목표는 2018년 대비 40%다.
+특히 인권위는 우리 정부가 2035 감축목표의 수준을 “‘60% 감축’ 국제 기준”에 맞도록 설정해야 한다고 못박았다. 유엔기후변화협약은 각 나라의 파리협정 이행 상황을 점검하기 위해 5년 주기의 ‘전지구적 이행점검’(GST)을 실시하고 있는데, 관련 보고서는 “지구 평균기온 상승을 1.5도로 제한하기 위해서는 2019년 대비 2030년까지 전세계 온실가스 배출량을 43%, 2035년까지는 60% 감축해야 한다”고 밝힌 바 있다. 인권위는 바로 이 내용을 ‘국제 기준’으로 인용한 것이다.
+파리협정은 온실가스 감축에 있어 선진국에게 주도적 역할을 하도록 하고 있고, 다른 나라들에는 각자 책임과 역량에 맞는 감축을 요구하고 있다. 인권위는 “우리나라가 ‘선진국’인지에 대해서는 이견도 없지 않으나, 국제통화기금에서 정의하는 ‘선진 경제국’, 세계은행이 정의하는 ‘고소득 국가군’, 유엔이 분류하는 ‘인간개발지수(HDI) 최상위국’ 등 주요 지표에 모두 포함돼 있는 점을 감안할 때, 선진 경제권으로서 온실가스 감축을 위한 자원과 역량이 충분하다”고 밝혔다. 이에 맞게 “의욕적인 ‘2035 감축목표’ 수립이 필요하다”는 것이다.
+또 인권위는 이번 결정에서 “2035년 목표까지 나아가는 감축경로를 설정함에 있어서도 초기부터 최대한 많은 양의 온실가스를 감축하도록 함으로써 미래세대의 부담을 줄일 필요가 있다”며 ‘탄소예산’(carbon budget)에 따른 ‘미래세대 부담 완화’를 강조했다. 탄소예산은 지구 기온 상승을 특정 온도 이내로 제한하기 위해 허용된 온실가스 배출 총량을 말한다. 또 기업들이 저탄소 경제로의 전환에 적극 동참할 수 있도록 “세제 혜택, 금융 지원, 기술 지원 등을 적극 추진하고, 관련 법률 제정 등 기업이 신뢰할 수 있는 일관된 지원 체계를 마련해야 한다”며 ‘기업 지원’도 강조했다.
+이날 비영리 기후연구단체 플랜1.5는 “인권위의 권고를 환영한다”는 논평을 냈다. 최창민 정책활동가는 “국제 기준에 따라 산출한 우리나라 탄소예산은 2020년 기준 87억4천만톤 수준이며, 2030년까지 탄소예산의 70%를 소진하게 된다”며 “2031년 이후 남아있는 탄소예산에 부합하는 감축경로를 설정하기 위해 2035 감축목표는 2018년 대비 65% 감축하는 수준으로 설정해야 한다”고 밝혔다.
+김규남 기자 3strings@hani.co.kr</t>
+  </si>
+  <si>
+    <t>국가인권위원회(인권위)가 2019년 대비 2035년까지 온실가스 배출량을 60% 줄여야 한다는 국제 기준에 맞게 우리나라의 ‘2035 국가 온실가스 감축목표(NDC)’를 세울 것을 정부에 권고하였다.</t>
+  </si>
+  <si>
+    <t>진보당 “김민석에 차별금지법 왜 안 물었나  부끄럽다”</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/society_general/1204875.html</t>
+  </si>
+  <si>
+    <t>김민석 국무총리 후보자 국회 인사청문회가 마무리됐지만, 청문회 이전부터 논란이 된 차별금지법에 대한 질의는 끝내 나오지 않자 진보당 등이 “국회가 민의의 전당이 맞느냐”고 비판하고 나섰다.
+홍성규 진보당 수석대변인은 26일 서면 브리핑을 통해 “반드시 물어야 할 질문들이 제기되지 않은 작금의 청문회를 두고 과연 ‘마무리가 된 것이 맞는지’조차 다시 물어야 할 상황”이라며 “이른바 ‘여야’를 논할 필요조차 없을 만큼, 부끄럽다”고 지적했다.
+진보당은 “가장 대표적인 것이 바로 ‘차별금지법’이다”라며 “광장시민의 가장 중요한 상징적인 목소리임과 동시에, 김민석 후보자가 그간 해왔던 발언들로 인해 반드시 추가 검증이 필요한 사안이었다”고 지적했다. 그러면서 “그러나 그 누구도 묻지 않았다. 이러고도 국회에 ‘민의의 전당’이란 수식어를 붙일 수 있겠는가, 정말이지 심각하게 되묻지 않을 수 없다”라고 강조했다.
+김 후보자 차별금지법 관련 발언과 ‘종교 편향’ 의혹에 대한 검증이 필요한 상황이었지만, 인사청문회에서 여야 국회의원들은 이에 대해 질의하지 않았다는 비판이다. 진보당은 원내 정당이지만 더불어민주당 7명, 국민의힘 5명, 조국혁신당 1명으로 구성된 국무총리 인사청문 특위에는 포함되지 않았다.
+민주노동당도 이날 성명을 내어 “이번 청문회에서 여야 청문위원 모두 김민석 후보자의 동성애 혐오 발언과 차별금지법에 대한 입장을 검증하지 않은 것은 명백한 직무유기”라며 “진보정당과 시민사회가 입장을 촉구했음에도, 인권과 평등이라는 헌법적 가치에 대한 검증은 철저히 배제됐다”고 비판했다. 이어 “공직자가 헌법상 정교분리의 원칙을 위반해 개신교 근본주의 세계관을 정책에 반영하려는 것은 민주주의 근간을 위협하는 심각한 결격 사유이기도 하다”고 덧붙였다.
+김 후보자는 지난 2023년 한 개신교 단체가 주최한 행사에서 포괄적 차별금지법 제정에 반대한다는 입장을 밝히며 “동성애는 모든 인간이 택했을 때 인류가 지속 가능하지 못하다”고 발언하고, 2022년 자신이 다니는 교회의 담임목사와 함께 국회 앞 차별금지법 반대 시위에 참여한 사실 등이 알려져 논란이 일었다. 그는 발언이 불거진 뒤에도 차별금지법 제정에 대해 “사회적 대화를 해야 할 영역”이라는 답을 되풀이했다.
+신윤동욱 기자 syuk@hani.co.kr</t>
+  </si>
+  <si>
+    <t>김민석 국무총리 후보자 국회 인사청문회가 마무리됐지만, 청문회 이전부터 논란이 된 차별금지법에 대한 질의는 끝내 나오지 않자 진보당 등이 “국회가 민의의 전당이 맞느냐”고 비판하고 정세홍성규 진보당 수석대변인은 26일 서면 브리핑을 통해 “반드시 물어야 할 질문들이 제기되지 않은 작금의 청문회를 두고 과연 ‘마무리가 된 것이 맞는지’조차 다시 물어야 할 상황”이라고 말했다.</t>
+  </si>
+  <si>
+    <t>중국 장신 센터 양한센  NBA 드래프트 전체 16순위로 포틀랜드행</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/sports/basketball/1204874.html</t>
+  </si>
+  <si>
+    <t>“양한센!”
+이름 석 자가 불리자 그곳에 모인 많은 이들의 눈과 입이 커졌다. 2005년생 중국인 장신(2m16) 센터가 26일(한국시각) 미국 뉴욕 바클레이스 센터에서 열린 2025 미국프로농구(NBA) 드래프트 1라운드 16순위로 포틀랜드 트레일 블레이저스에 지명된 것이다. 이전에도 야오밍(2002년 1순위), 이젠롄(2007년 6순위) 등 중국 선수들이 미국 코트를 휘저었지만, 아시아인으로서 쉽지 않은 도전이라는 점에서 양한센의 엔비에이 데뷔는 이번 드래프트 최대 관심사로 떠올랐다.
+양한센은 중국 칭다오 이글스에서 두 시즌을 뛰었고, 지난 시즌에는 평균 16.6득점, 10.3튄공잡기 등을 기록한 유망주다. 3점슛 성공률은 33.3%. 스포츠일러스트레이티드(SI)는 양한센에 대해 “유연하고 협동력이 뛰어나다”고 평가했다. 패스 능력도 좋다. 기동성에 대한 의문점은 꾸준히 제기됐지만, 체격조건이 좋고 발전 가능성이 크다는 점에서 2라운드 중후반 순위 지명이 예상됐다. 하지만 훨씬 높은 1라운드 16순위로 이름이 불렸다. 워낙 깜짝 지명이어서 얼굴 사이즈에 맞는 모자도 준비되지 않았다. 1라운드 지명 예상 선수들은 엔비에이 사무국에서 미리 머리 사이즈를 쟀 다. 양한센 또한 “정말 상상도 못했던 일”이라고 했다. ​
+유에스에이투데이(USA TODAY)에 따르면, 양한센은 미국프로농구에 데뷔하는 9번째 중국 선수다. 2016년 이후 9년 만이다. 중국 외에도 2018년 멤피스 그리즐리스에 입단했던 와타나베 유타(일본) 등 아시아 선수들이 꾸준히 엔비에이 코트를 밟았다. 하승진(2004년 포틀랜드)이 한국 선수 최초로 엔비에이에서 정규 시즌을 뛰었다. 이후 도전자는 꾸준히 늘고 있지만 여전히 꿈의 무대다.
+양한센으로 깜짝 놀란 이번 드래프트에서 전체 1순위는 이변이 없었다. 댈러스 매버릭스는 예상대로 쿠퍼 플래그(듀크대)를 택했다. 플래그는 앤서니 데이비스, 카이리 어빙과 삼각편대로 팀을 이끌 것으로 보인다. 단숨에 루카 돈치치 트레이드 이후 실의에 빠져있던 댈러스 팬들의 새 희망으로 떠올랐다. 2순위는 샌안토니오 스퍼스에 지명된 딜런 하퍼(럿거스대), 3순위는 필라델피아 세븐티식서스 지명을 받은 VJ 엣지컴(베일러대)이다.
+남지은 기자 myviollet@hani.co.kr</t>
+  </si>
+  <si>
+    <t>2005년생 중국인 장신 센터가 26일(한국시각) 미국 뉴욕 바클레이스 센터에서 열린 2025 미국프로농구(NBA) 드래프트 1라운드 16순위로 포틀랜드 트레일 블레이저스에 지명되었다.</t>
+  </si>
+  <si>
+    <t>“정부 지원 담은 광주 군공항이전법 개정안 처리 시급”</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/honam/1204873.html</t>
+  </si>
+  <si>
+    <t>이재명 대통령이 광주 군·민간 공항 이전과 관련해 “국가 단위에서 책임지는 게 맞다”고 밝힌 뒤, 정부 주도 지원을 담은 ‘광주 군공항이전법’ 개정안이 국회에서 신속하게 처리돼야 한다는 지적이 나온다.
+26일 광주시 등의 말을 종합하면, 박균택 더불어민주당의원(광주 광산을) 등 광주지역 국회의원 8명은 지난 4월 ‘광주 군 공항 이전 및 종전 부지 개발 등에 관한 특별법(광주 군공항이전법) 일부 개정 법률안’을 발의했다. 대구경북 통합신공항법을 대표발의했던 주호영 국회 부의장, 수원 군 공항 이전을 추진 중인 백혜련 의원(경기 수원을) 등도 공동 발의로 힘을 보태고 있다.
+개정안을 발의한 것은 2023년 4월 제정돼 그해 8월 시행된 광주군 공항 이전법에 누락됐던 국가 책임과 지원 등의 미비한 점을 보완하기 위해서다. 물론 2023년 8월 시행한 광주 군공항이전법엔 ‘기부 대 양여 방식에 따라 기존 터 개발 이익으로 군 공항 이전·지원 사업 비용을 감당하지 못할 경우 예산의 범위 내에서 해당 중앙관서의 장의 요구로 지원할 수 있다’는 규정(제6조)이 있다. 기부 대 양여 방식은 광주시가 군 공항을 터를 새로 마련해 국방부에 기부하고, 군 공항 터를 국방부에서 양여 받는 방식이다.
+하지만 현행 관련법 제14조엔 “국가는 이전사업을 위하여 필요한 경우 사업시행자에게 예산의 범위에서 비용을 융자할 수 있다”고 명시돼 있다. 대구경북통합신공항법에서 정부 지원과 관련해 “보조하거나 융자할 수 있다”고 해 정부 지원 근거 조항이 들어 있는 것과 비교되는 대목이다. 지난 4월 개정안은 “비용을 융자할 수 있다”를 “설계비·토지보상비 등 사업 수행에 필요한 비용을 보조하거나 융자할 수 있다”로 수정했다. 개정안엔 종전 부지와 이전 지역 및 이주자에 대한 지원 근거와도 포함됐다.
+개정안은 현재 국회 국방위원회에 회부돼 있는 상태다. 박균택 의원실 관계자는 “군 공항 이전 사업을 국가에서 주도하려면 사업 추진에 수반되는 금융비용 문제도 지원할 근거를 보완했다”고 밝혔다. 광주시 쪽은 “기부 대 양여 방식을 크게 벗어나지 않는 선에서 이 사업을 국가가 주도하려면 정부 지원 근거를 구체화한 개정안 통과가 시급하다”고 밝혔다.
+광주 군 공항 이전 사업은 광주 군 공항 터 8.2㎢(248만평)보다 넓은 11.7㎢(463만명)에 새 군 공항 터를 마련해 군 공항을 이전하는 프로젝트다.
+정대하 기자 daeha@hani.co.kr, 김용희 기자 kimyh@hani.co.kr</t>
+  </si>
+  <si>
+    <t>이재명 대통령이 광주 군·민간 공항 이전과 관련해 “국가 단위에서 책임지는 게 맞다”고 밝힌 가운데, 광주지역 국회의원 8명은 지난 4월 ‘광주 군 공항 이전 및 종전 부지 개발 등에 관한 특별법(광주 군공항이전법) 일부 개정 법률안’을 발의했다.</t>
+  </si>
+  <si>
+    <t>경기남부경찰청  ‘동탄 납치살인’ 부실대응 경찰서장 인사 조처 예고</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/capital/1204872.html</t>
+  </si>
+  <si>
+    <t>경찰이 부실 대응 논란을 빚었던 ‘동탄 납치살인 사건’의 관할 경찰서장을 인사 조처하고, 수사관을 징계위원회에 회부했다.
+경기남부경찰청은 강은미 화성동탄경찰서장에 대해 직권경고하고, 조만간 인사조치할 예정이라고 26일 밝혔다. 또 이 사건을 담당한 수사관과 사건을 인계받은 수사관, 수사팀장, 해당 과장 등을 징계위에 넘겼다. 112신고로 출동했던 경찰관과 사건 모니터링 담당자 등은 직권경고 및 주의 조처했다.
+앞서 지난달 12일 화성 동탄새도시 내 아파트단지에서 30대 남성 ㄱ씨가 전 연인이었던 여성 ㄴ씨를 납치해 살해한 뒤 스스로 목숨을 끊는 사건이 발생했다. ㄱ씨는 ㄴ씨와 분리조치된 상태였으나, ㄴ씨의 임시 거처를 알아낸 뒤 직접 찾아가 범행을 저질렀다. 112 신고 및 고소 이력 확인 결과, ㄴ씨는 ㄱ씨에게 폭력 등 피해를 호소하면서 구속 수사를 강력히 요청했으나, 경찰은 이를 외면한 것으로 드러났다. 이후 비판 여론이 거세지자 경찰은 지난달 28일 사건에 대한 입장 발표를 한 뒤 유족에게 공식 사과했다.
+경찰은 자체 조사 결과 현장 대응 및 사건 처리 과정에서 여러 미흡한 점을 확인하고, 강 서장을 포함한 경찰관 11명에 대해 이같이 처분했다. 앞서 경기남부청은 지난달 26일부터 이달 16일까지 22일간 관내 모든 경찰서(31곳)에서 수사 중인 여성·청소년 사건 5315건을 전수 조사해 유사 사례가 발생하지 않도록 점검했다.
+경기남부청은 이번 사건을 계기로 △112 신고·고소·고발 등 모든 접수 사건에 대한 ‘일일 사건 보고’ 체계 확립 △‘관계성 범죄 위험성 판단 기준’에 대한 지속적인 교육 △여성·청소년 기능 인력 보강 및 업무 지원 강화 등의 대책을 추진한다.
+특히 화성동탄경찰서에 대해서는 동탄신도시 지역의 인구 급증에 따라 치안 수요가 늘고 있는 점을 고려해 15명의 인력을 우선 충원했다. 지난 9일 기준 화성동탄경찰서가 보유한 477건의 여성·청소년 사건 중 미성년자 대상 사건이나 상습 아동학대 사건 등 수사 난도가 높은 27건(5.3%)을 경기남부청으로 이관해 수사하기로 했다.
+이정하 기자 jungha98@hani.co.kr</t>
+  </si>
+  <si>
+    <t>경기남부경찰청은 부실 대응 논란을 빚었던 ‘동탄 납치살인 사건’의 관할 경찰서장을 직권경고하고, 조만간 인사조치할 예정이라고 26일 밝혔으며 112신고로 출동했던 경찰관과 사건 모니터링 담당자 등은 직권경고 및 주의 조처하였다.</t>
+  </si>
+  <si>
+    <t>컬링 돌풍 일으켰던 ‘팀킴’ 국가대표 선발전 탈락</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/sports/sports_general/1204871.html</t>
+  </si>
+  <si>
+    <t>“영미! 영미!”
+여자컬링 돌풍을 일으킨 ‘팀킴’ 강릉시청이 2025~2026시즌 국가대표 선발전에서 탈락해, 2026 밀라노·코르티나담페초겨울올림픽에 출전하지 못한다. 3연속 올림픽 진출의 꿈도 무산됐다.
+강릉시청(스킵 김은정, 서드 김경애, 세컨드 김초희, 리드 김선영)은 26일 경기도 의정부컬링장에서 열린 2025 한국컬링선수권대회 여자부 3·4위 페이지 게임에서 전북도청(스킵 강보배, 서드 심유정, 세컨드 김민서, 리드 김지수)에 4-6으로 져 탈락했다. ‘팀킴’은 2018 평창겨울올림픽에서 은메달을 따고, 2022 베이징겨울올림픽에도 출전하며 컬링 열풍을 불러일으켰다.
+국가대표 선발전인 이번 대회는 예선 라운드 뒤, 1·2위와 3·4위가 각각 붙는다. 3·4위전 패자는 탈락하고, 승자는 1·2위전 패자와 준결승을 겨룬다. 준결승 승자는 1·2위전 승자와 결승을 치러 최종 우승팀을 가리는데, 우승팀은 내년 2월 열리는 겨울올림픽에 국가대표로 출전한다.
+예선 라운드에서 전체 4위를 기록한 강릉시청은, 이날 전체 3위 전북도청과 3·4위전을 치렀으나 패하며 최종 탈락했다. 같은 시각 열린 1·2위전에서 경기도청(1위)은 춘천시청(2위)에 3-9로 패했다. 경기도청은 2025 하얼빈겨울아시안게임 때 10전 전승으로 금메달을 딴 바 있다.
+전북도청(3·4위전 승자)과 경기도청(1·2위전 패자)의 준결승전은 이날 오후 3시 열린다. 이 경기 승자는 춘천시청(1·2위전 승자)과 27일 오후 3시 결승전을 치른다.
+손현수 기자 boysoo@hani.co.kr</t>
+  </si>
+  <si>
+    <t>강릉시청이 2025~2026시즌 국가대표 선발전에서 탈락해 2026 밀라노·코르티나담페초겨울올림픽에 출전하지 못하며 3연속 올림픽 진출의 꿈도 무산하였으며, 강원도청은 26일 경기도 의정부컬링장에서 열린 2025 한국컬링선수권대회 여자부 3·4위 페이지 게임에서 전북도청에 4-6으로 져 탈락했다.</t>
+  </si>
+  <si>
+    <t>김포 신안리에서 신석기 유적지 발견…53개 집터 ‘최대 규모’</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/capital/1204870.html</t>
+  </si>
+  <si>
+    <t>경기 김포 대곶면 신안리에서 대규모의 신석기 시대 마을 유적지가 확인됐다. 그동안 신석기 시대 마을 유적이 나온 것은 여러 건 있지만 하나의 마을에서 50여개가 넘는 집터가 발견됐다는 점에서 가치가 있다.
+경기 김포시는 26일 김포 대곶면 신안리 유적터에서 발굴 설명회를 진행했다. 이곳에서는 2017년 표본조사에서 8개 신석기 시대 집터가 나온 이후 5차 조사가 진행 중인 지금까지 53개의 집터가 발견됐다.
+단일 구릉에서 발견된 주거지 중에서는 가장 큰 규모로, 현재 김포시는 5420㎡ 범위에서 신석기시대 주거지를 확인하고 있다.
+발굴을 맡았던 경강문화재연구소장은 “그동안 60개가 넘는 집터가 발견된 곳도 있지만 이는 마주 보는 두 개 구릉에서 나온 것을 합친 숫자였다”며 “지금 신안리 유적터는 인근 해병대 초소와 사유지까지 발굴이 이뤄졌을 때 더 많은 집터가 발견될 수 있다. 그러면 국내 최대 마을 유적이 될 것”이라고 전망했다.
+발굴된 집터는 집 주변에 4개의 기둥을 만들고 중앙에 노지(불자리)를 설치한 구조를 가지고 있다. 또 한쪽에 입구를 설치해 집 안팎을 오갔으며, 일부 집에서는 선반과 같은 단시설을 설치하기도 했다. 집터에서는 신석기시대 유적지에서 많이 나오는 갈판 등 석기와 빗살무늬토기 등이 나왔다.
+특히 이번 유적지에서는 납작바닥토기라는 바닥이 평평하고 두께가 얇은 토기도 발견됐다.
+최기식 경강문화재연구소 조사부장은 “안성 신석기 유적에서 나온 납작바닥토기와 똑같은 무늬를 보인다는 점에서 연구의 가치가 있다”며 “신석기 유적지에서 자주 출토되지 않는 것이라 발견했을 때 다들 놀랐다”고 말했다.
+신안리 유적지는 인근에 바다와 구릉이 있어서 어로 생활과 채집생활에 유리했을 것으로 추정된다. 또 갈판의 형태 등을 봤을 때 농경 생활도 했을 것으로 전문가들은 추정했다.
+최종혁 한국신석기학회장은 “갈판의 모습이 동그랗지 않고 직각이라는 점은 농경 생활이 있었음을 의미한다”며 “이 밖에 바다에서 어로 생활도 많이 했을 것으로 추정되는데 현재 군사보호시설인 바닷가 갯벌을 조사하면 관련 유적이 많이 나올 것”이라고 했다. 이어 “바로 앞 강화도와도 밀접한 연관을 가졌을 것으로 추정된다”고 했다.
+김포시는 국가유산청에 신안리 유적지를 국가사적터로 지정해 달라고 요청하는 등 유적지에 신석기시대 유적을 활용한 공간을 만들 계획이다. 또 추가로 유적이 발굴될 가능성이 높은 곳에 대한 조사를 위해 사유지 매입 절차 등에 나설 계획이다.
+이승욱 기자 seugwookl@hani.co.kr</t>
+  </si>
+  <si>
+    <t>경기 김포시는 26일 김포 대곶면 신안리 유적터에서 대규모의 신석기 시대 마을 유적지가 확인되었으며 이 유적지는 인근에 바다와 구릉이 있어서 어로 생활과 채집생활에 유리했을 것으로 추정된다.</t>
+  </si>
+  <si>
+    <t>“AI가 변조한 가족·친구 목소리 잡는다”…LG유플러스  ‘안티 딥보이스’ 도입</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/economy/it/1204869.html</t>
+  </si>
+  <si>
+    <t>“형님, 저 은우인데요. 지금 300만원만 보내줄 수 있어요?”
+“주의하세요! 인공지능(AI)으로 생성된 음성입니다.”
+엘지(LG)유플러스가 인공지능을 활용해 가족·친구의 목소리를 위·변조한 보이스피싱 전화를 판별할 수 있는 ‘안티 딥보이스’(Anti-DeepVoice) 기능을 도입한다. 감청 우려 없이 스마트폰에만 통화 내용이 저장되는 온디바이스 형태로 이 기술을 상용화하는 건 엘지유플러스가 세계 최초다.
+엘지유플러스는 26일 자사 인공지능 통화 비서 서비스 ‘익시오’(ixi-O)에 이달 말 안티 딥보이스 기능을 탑재하는 업데이트를 진행한다고 밝혔다. 이 기술은 지난 3월 세계 최대 모바일·이동통신 전시회 ‘엠더블유시(MWC) 2025’에서 공개된 바 있다.
+안티 딥보이스 기능은 인공지능 기술로 위·변조한 목소리를 5초 안에 탐지한다. 엘지유플러스가 자체 개발한 음성 구간 탐지(VAD), 위·변조 분석(안티스푸핑) 기술 등이 적용됐다. 인공지능이 만들어낸 기계음은 사람의 귀에는 들리지 않지만 음성 합성 때 생기는 비정상적인 고주파 노이즈나 음성 발음 패턴의 묵음 구간이 있어 실제 사람의 목소리와 구분된다는 게 회사 쪽 설명이다.
+엘지유플러스는 세계 최초로 통화 내용을 서버에 저장하지 않고 단말기에서만 처리하는 온디바이스 방식으로 안티 딥보이스를 상용화했다고 강조했다. 기존 서버 기반 기술의 경우 서버에 저장한 통화 음성 데이터를 텍스트로 전환한 뒤 문맥을 파악해 보이스피싱을 감지하는 만큼 사실상 감청 논란을 피하기 어렵다.
+반면, 엘지유플러스는 성능은 유지하면서 인공지능 모델을 수십 메가바이트 수준으로 경량화하는 작업에 초점을 맞춰 개인정보 유출 우려 없이 인공지능 통화 비서를 이용할 수 있게 했다. 이진혁 익시오개발태스크장(상무)은 이날 서울 용산구 엘지서울역빌딩에서 연 기자간담회에서 “현재 보이스피싱 탐지 성공률은 95%로 서버 기반 방식에 견줘 다소 낮지만, 고객 음성 데이터를 서버에 보관하는 건 개인정보 침해 우려가 커 부적절하다고 판단했다. 보이스피싱 범죄 진화에 맞춰 저희도 성능을 계속 향상시킬 것”이라고 말했다. 익시오는 안티 딥보이스 기능 고도화를 위해 앞으로 2주에서 6주 단위로 업데이트를 진행할 예정이다.
+엘지유플러스는 최근 인공지능 딥페이크 영상물을 활용한 영상통화 기반 보이스피싱 범죄 피해를 예방하기 위한 ‘안티 딥페이크’ 기술도 개발했다. 다만 이 기술은 온디바이스 방식으로 구현하기 위한 경량화 작업이 진행 중이라 상용화 시점은 미정이다. 올 하반기에는 스팸이나 보이스피싱 의심 전화를 인공지능이 대신 받아주는 ‘통화 전 에이아이 보이스피싱 탐지 시스템’ 도입도 준비 중이다. 엘지유플러스는 앞으로 익시오에 스토킹, 학교폭력 등 위협 요소를 인공지능이 탐지·차단하는 고객 보호 기능도 탑재한다는 계획이다.
+최윤호 에이아이에이전트추진그룹장(상무)은 “(지난해 11월 익시오 출시 때 밝혔던) 올해 이용자 100만명 목표는 무난히 달성할 것으로 보인다. 3년 안에 600만명 확보가 중기적 목표”라고 밝혔다.
+선담은 기자 sun@hani.co.kr</t>
+  </si>
+  <si>
+    <t>지난 3월 세계 최대 모바일·이동통신 전시회 ‘엠더블유시(MWC) 2025’에서 공개된 인공지능(AI)으로 생성된 음성인 '안티 딥보이스'(Anti-DeepVoice) 기능을 엘지유플러스가 세계 최초로 도입했다.</t>
+  </si>
+  <si>
+    <t>충북도는 공사중…‘잔디광장’이 부른 주차대란</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/area_general/1204868.html</t>
+  </si>
+  <si>
+    <t>‘김영환(충북지사)표 도청사 리모델링’으로 100년 가까운 충북도청이 몸살을 앓는다.
+26일 충북도청은 행정기관이라기보다 ‘공사판’이다. 도청 중심부인 신관~본관 사이엔 3m 남짓 철제 울타리가 쳐졌고, 마당을 헤집는 중장비가 굉음을 낸다. 충북도는 오는 8월 말까지 4억5천만원을 들여 이곳 2000㎡에 ‘중앙 잔디광장’을 조성할 참이다.
+김 지사는 ”우리도 광장을 가질 때가 됐다. 차량 위주 공간을 사람 중심의 녹지 공간으로 바꾸겠다”고 밝혔다. 김 지사의 낭만과 달리, 주차 공간을 잃은 직원들은 날마다 출근 전쟁을 벌이고, 도청을 찾은 시민 등은 숨은 그림 찾듯 ‘주차 뺑뺑이’를 도는 게 현실이다.
+‘주차 전쟁’은 예견됐다. 충북도청의 주차 공간은 377면이다. 하루 평균 차량 통행 1820대, 직원 1370여명이 쓰기엔 턱없이 부족하다. 이에 충북도는 올해 4억1천여만원을 들여 외부 주차장 12곳에서 391면을 빌려 직원에게 추첨·배정하는 등 해마다 4억원 안팎을 외부 주차장 임대 예산으로 쓴다.
+그나마 잔디광장 공사를 하는 본관~신관 사이 공간을 주차장으로 썼는데, 이제 충북도청의 주차 공간은 129면으로 줄어든다. 법정 주차대수(328대)보다 턱없이 모자라다. 이에 충북도는 직원 청내 주차를 금지하고, 외부 주차 공간을 추가 확보했지만 역부족이다. 지금 도청 주변 주택가·상가 등은 거대한 주차장이다. 한 주민은 “주차 때문에 언성을 높이는 경우가 다반사다. 요샌 도청이 ‘민폐청’”이라고 볼멘소리를 한다.
+다음 달 주차공간 402면을 갖춘 충북도의회·제2 충북도청 합동청사가 바로 옆에 준공되고, 내년 말께 후생관(주차 350면)이 준공 예정이라 주차 대란을 피할 수도 있었지만, 충북도는 서두른다. 이범찬 충북도 회계과장은 “잔디 활착을 위해 장마 때 공사해야 한다”고 밝혔다.
+애초 이곳은 정원·주차 기능이 어우러진 다목적 공간 조성으로 추진됐다. 지난해 4월 충북도가 청주대 김미연 교수에게 맡겨 진행한 ‘도청사 시설 개선 기본구상(안) 수립을 위한 정책 연구’(도청사 시설 개선 연구)도 ‘행사·주차가 가능한 다목적 구조’를 제안했지만, 지난 4월 김 지사와 외부 전문가 등이 참여한 토의 이후 잔디광장으로 급선회했다.
+충북도는 이 광장을 서울시청 앞 잔디광장에 견준다. 서울광장은 1만3207㎡(잔디 6449㎡, 화강석 6758㎡)로 청사 밖에 있으며, 시민 79%의 찬성 여론을 바탕으로 조성했다. 하지만 충북도청 광장은 다르다. 앞서 지난해 4월 ‘도청사 시설 개선 연구’ 당시 직원·방문객을 대상으로 진행한 여론조사(785명)를 보면, 88%가 ‘신규 주차 공간 확보’를 바랐고, 72%는 ‘중앙 정원(잔디광장 예정지) 주차장 조성이 적정하다’고 답했다.
+박종순 청주충북환경운동연합 사무처장은 “또 잔디광장을 조성하는 것은 주변 교통·주차 여건을 고려하지 않은 독단이다. 애초대로 수목이 어우러진 정원을 돌려줘야 한다”고 말했다.
+이곳은 ‘광장 마니아’ 김 지사가 추진하는 네 번째 충북도청 광장이다. 첫 광장은 2023년 10월 1억9200만원을 들인 본관 앞 ‘잔디광장’이다. 본관 앞 정원에 있던 오엽송·낙엽송·향나무 등 190여 그루를 이식·제거하고 1973㎡ 크기로 잔디를 깔았는데, 잔디 보호 등을 이유로 출입을 막는 ‘금줄’이 처진 날이 더 많았다.
+지난해 8월엔 서쪽 울타리 향나무 53그루를 치우고 7천만원을 들여 손바닥 같은 ‘쌈지광장’(200㎡)을 만들었다. 지난달 8천만원을 들여 본관 앞 자연 연못 바닥에 대리석을 깔고 철갑상어 등을 넣은 ‘연못광장’을 선보였다. 김 지사는 “도청 연못의 놀라운 변신, 우리의 개혁에는 끝이 없다”고 자찬했다. 다음달 선보일 도의회·제2청사에도 광장이 있다.
+광장이 들어서면서 1937년 충북도청 개청 이후 100년 가까이 있던 정원이 조금씩 사라진다. 충북도는 김 지사는 취임 이후 3년 동안 1억2천여만원을 들여 10차례에 걸쳐 정원·울타리 등 수목 정비를 했다.
+애초 도청 정원엔 소나무·향나무 등 관목 기준 526그루가 있었지만 지금은 95그루(18%)만 남았다. 166그루를 제거하고, 273그루는 이식했지만 상당수는 관리 부실로 고사했다. 한창훈 충북도 회계팀 주무관(건축사)은 “지금은 법정 조경기준에 한참 모자라지만 이후 자투리 공간을 찾아 심어 나갈 계획”이라고 밝혔다.
+이선영 충북참여자치시민연대 사무처장은 “도청은 직원과 시민을 위한 업무·휴식·역사 공간이다. 4년 임기 단체장이 놀이하듯, 제집 뜯어고치듯 하면 안 된다. 도민의 뜻과 효율을 묻지도 따지지도 않고 세금을 쏟아붓는 것은 심판을 부를 뿐”이라고 꼬집었다.
 오윤주 기자 sting@hani.co.kr</t>
   </si>
   <si>
-    <t>충북 괴산군 청천면 사담리엔 마을 주민들이 농사·통행을 하는 주요 길목인 '차정순길'이 개설되었는데, 마을 노인회장이기도 한 차정순(78)씨가 자신의 땅 27m2를 내놓으면서 도로 폭은 3m로 70cm 정도 넓어져 승용차뿐 아니라 웬만한 화물차도 지날 수 있게 되었다.</t>
-  </si>
-  <si>
-    <t>“이불 빨래 엄두도 못 냈는디  빨래방 덕분에”…전남도  고향사랑기부제로 개설</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/area/honam/1203889.html</t>
-  </si>
-  <si>
-    <t>“늙어서 겨울 이불 빨래는 엄두도 못냈는디요. 도청하고 군에서 우리 마을에 빨래방을 맹글어줘서 참말로 고맙소.”
-전남 완도군 청산면 주민 김영란(75)씨는 지난 19일 마을 공동 빨래방이 설립된 것을 감사하는 마음을 담은 손편지를 전달했다. 이날 청산면 청산국민체육센터에선 ‘마을 공동 빨래방 공식 1호점’ 현판식이 열렸다. 전라남도와 완도군은 고향사랑기금으로 주민들을 위한 빨래방을 설치했다.
-전라남도가 고향사랑기금을 활용해 마을 공동 빨래방을 개설하고 있다. 올해는 완도 청산면, 여수 남면, 강진 성전면, 함평읍 등 4곳에 마을 공동빨래방을 개설했다. 올 하반기까지 도내에 8곳을 추가로 개설할 방침이다.
-이 사업은 전남도가 전국 최초로 시·군과 협력해 고향사랑기부제 사업 목적으로 추진하고 있다. 공동 빨래방 사업은 마을회관이나 경로당 등지에 대형 세탁기와 건조기를 설치하는 방식으로 추진된다. 마을 주민위원회 회원들이 공동으로 빨래방을 운영한다.
-전남도 고향사랑기부팀 쪽은 “고향사랑기부제 일반 기금 사업으로 추진하고 있으며, 전라남도와 시·군이 설립 경비의 50%씩을 지원하고 있다”며 “마을 주민위원회 위원들이 빨래를 수거해 세탁한 뒤 의뢰인 집까지 배달해주고 있다”고 밝혔다.
-고향사랑기부제는 개인이 자신의 주소지를 제외한 자치단체에 연 2천만원까지 기부할 수 있는 제도다. 기부자는 기부금액의 30% 이내에서 답례품을 받는다. 또 10만 원까지는 전액 세액 공제, 10만 원 초과분은 16.5%의 세액 공제 혜택도 받을 수 있다. 고향사랑기부제 기부금은 도민의 복리 증진 등에 필요한 사업에 사용된다.
-정대하 기자 daeha@hani.co.kr</t>
-  </si>
-  <si>
-    <t>전라남도와 완도군은 고향사랑기금을 활용해 마을 공동 빨래방을 개설하고 있으며, 올 하반기까지 도내에 8곳을 추가로 개설할 계획"이라고 밝혔다.</t>
-  </si>
-  <si>
-    <t>K리그  27년 만에 ‘외국인 거미손’ 출전…“2026년부터 허용”</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/sports/soccer/1203888.html</t>
-  </si>
-  <si>
-    <t>강력한 슛을 온몸으로 막는 외국인 선수를 볼 수 있을까. 2026년부터 케이(K)리그에 ‘외국인 골키퍼’가 허용된다.
-한국프로축구연맹은 20일 서울 종로구 축구회관에서 열린 2025 3차 이사회에서 외국인 골키퍼 등록, 케이리그2 엔트리 확대 등의 안건을 의결했다고 밝혔다. 케이리그1과 케이리그2 모두 해당한다.
-무려 27년 만에 외국인 골키퍼가 재등장하게 됐다. 케이리그는 1999년부터 외국인 골키퍼 등록을 전면 금지한 바 있다. 8개 팀으로 운영되던 1990년대 중반 대다수 구단은 외국인 골키퍼를 주전으로 기용했다. 하지만 국내 골키퍼 육성을 이유로 연맹은 1996년부터 단계적으로 외국인 골키퍼 출전 경기 수를 제안했고, 1999년 완전히 금지했다.
-다시 살린 이유는 뭘까. 이사회는 “특수 포지션인 골키퍼에 외국인 선수 등록이 제한되어 필드 플레이어와 비교하면 국내 선수들의 연봉 상승률이 과도하고, 과거와 달리 구단 수가 현저히 늘어나 외국인 골키퍼가 허용되어도 국내 골키퍼의 출장 기회를 충분히 확보할 수 있다는 점 등을 고려했다”고 밝혔다.
-한편, 내년부터 케이리그2 출전 선수 명단도 기존 18명에서 최대 20명으로 확대된다. 선발 11명에 후보 9명이다. 케이리그1은 2024시즌부터 출전 선수 명단을 20명으로 운영하고 있다. 이사회는 “교체 카드 다양성을 확보해 경기력 상승을 도모하고, 아시아축구연맹(AFC) 쿼터와 아세안 쿼터가 폐지되고 국적 무관 외국인 선수 등록 인원이 늘어나면서 국내 선수의 출장 기회를 보장할 필요를 고려했다”고 밝혔다.
-남지은 기자 myviollet@hani.co.kr</t>
-  </si>
-  <si>
-    <t>한국프로축구연맹은 20일 서울 종로구 축구회관에서 열린 2025 3차 이사회에서 2026년부터 케이(K)리그에 외국인 골키퍼 등록, 케이리그2 엔트리 확대 등의 안건을 의결했다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>주택도시보증공사  경영평가 또 ‘D’…기재부  기관장 해임 건의</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/economy/economy_general/1203887.html</t>
-  </si>
-  <si>
-    <t>주택 관련 각종 보증과 기금을 관리하는 주택도시보증공사(HUG)에 대해 기획재정부가 기관장 해임 건의를 하기로 했다. 재작년에 이어 지난해까지 2년 연속 공공기관 경영평가에서 ‘미흡’(D등급) 평가를 받은 데 따른 것이다. 정부가 전국 87개 공공기관을 대상으로 지난해 경영평가를 한 결과 ‘미흡’ 이하의 낙제 수준 평가를 받은 기관은 13곳이었다.
-기획재정부는 20일 정부서울청사에서 임기근 기재부 2차관 주재로 6차 공공기관운영위원회를 열어 ‘2024년도 공공기관 경영실적 평가결과 및 후속조처’를 심의·의결했다. 이번 평가는 공기업 32곳과 준정부기관 55곳 등 총 87개 기관을 대상으로 이뤄졌다. 재무실적과 생산성 등 기관 운영의 효율성과 사회적 책임과 같은 공공성이 평가 항목이다. 평가는 탁월(S), 우수(A), 양호(B), 보통(C), 미흡(D), 아주미흡(E) 순으로 총 6단계로 나뉜다.
-평가 결과 지난해 경영실적에 대한 평가에서 S등급을 받은 기관은 없었다. A등급은 한국남동발전, 한국남부발전, 한국동서발전, 한국수력원자력, 한국전력공사 등 15개 기관이 받았다. D등급은 대한석탄공사 등 9곳이었고, E등급은 한국관광공사와 한국광해광업공단 등 4곳이었다. 에너지 분야 공기업들이 A등급을 많이 받은 배경에는 정부의 전기요금 인상 속도조절 등에 공공기관들 협조가 있었다는 점이 꼽힌다.
-평가 결과는 성과급 지급 규모도 가른다. C 이상 등급을 받은 기관은 성과급이 지급되지만 D등급 이하 기관은 성과급 지급 대상 기관에서 제외된다. 공기업은 등급에 따라 기관장은 최대 100%, 직원은 최대 250%까지, 준정부기관은 기관장 최대 60%, 직원은 최대 100% 수준의 성과급을 받을 수 있다.
-유병태 주택도시보증공사 사장은 2년 연속 공사가 D등급을 받음으로써 해임 건의 대상이 됐다. 곽채기 공기업평가단장은 “주택보증사업 수행에 있어 보증사고 예방성과 관련 지표 득점률이 33.95%에 불과했다”며 “기관이 전략적으로 위험 관리에 대응하지 못한 결과”라고 평가 이유를 설명했다. 금리 인상기 역전세와 전세사기 등으로 보증사고가 늘어났고 프로젝트파이낸싱(PF) 시장이 어려워지며 공사의 재무구조가 악화할 수밖에 없는 여건이긴 했지만, 이에 대응하기 위한 전략적 대응 또한 부족했다는 얘기다.
-이번 공공기관 경영평가는 윤석열 정부에서 수립된 경영평가 기준에 따라 이루어진 마지막 평가다. 정부는 오는 10월 이재명 정부의 평가 방안이 담긴 공공기관 경영평가 수정 편람을 확정할 방침이다.
-최하얀 기자 chy@hani.co.kr</t>
-  </si>
-  <si>
-    <t>20일 정부서울청사에서 열린 ‘2024년도 공공기관 경영실적 평가결과 및 후속조처’를 심의·의결한 결과, 주택 관련 각종 보증과 기금을 관리하는 주택도시보증공사(HUG)가 기관장 해임 건의를 하기로 했다.</t>
-  </si>
-  <si>
-    <t>레오 14세 교황 첫 인터뷰 “무력 전쟁은 피해야…지혜 모아 해법 찾자”</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/international/international_general/1203886.html</t>
-  </si>
-  <si>
-    <t>레오 14세 교황이 이스라엘과 이란이 공중전을 벌이는 등 세계 각 지역의 전쟁 상황이 심해지는 상황에 대해 외교적 해결을 통한 평화를 촉구했다.
-레오 14세는 19일(현지시각) 이탈리아 공영방송 티지1(TG1) 채널과의 인터뷰에서 “전쟁에 대한 해법을 찾기 위해 우리 모두 지혜를 모으자”고 말했다. 지난달 8일 프란치스코 교황의 뒤를 이어 즉위한 레오 14세가 언론과 인터뷰한 것은 이번이 처음이다. 이날 인터뷰는 교황이 로마 북서쪽 외곽 산타 마리아 갈레리아에 있는 바티칸 라디오 센터를 깜짝 방문한 직후 진행됐다.
-교황은 “현재 세계 정세가 정말 우려스럽다”며 “밤낮으로 세계 여러 지역에서 무슨 일이 벌어지고 있는지 계속 주시하고 있다”고 말했다. 또 그는 “요즘은 특히 중동 문제에 대한 언급이 많지만 그 지역에만 국한된 문제가 아니다. 다시 한 번 평화를 위한 호소를 드리고자 한다. 어떤 대가를 치르더라도 무력 사용은 피하고, 외교적 수단과 대화를 통해 해결책을 찾기를 바란다. 우리가 모두 함께 지혜를 모아 해법을 찾자”고 말했다. 또 “지금도 수많은 무고한 사람들이 목숨을 잃고 있다. 우리는 언제나 평화를 촉진해야 한다”고 말했다.
-최우리 기자 ecowoori@hani.co.kr</t>
-  </si>
-  <si>
-    <t>교황이 이스라엘과 이란이 공중전을 벌이는 등 세계 각 지역의 전쟁 상황이 심해지는 상황에 대해 19일(현지시각) 이탈리아 공영방송 티지1(TG1) 채널과의 인터뷰에서 "전쟁에 대한 해법을 찾기 위해 우리 모두 지혜를 모으자"고 말했다.</t>
-  </si>
-  <si>
-    <t>민주 “국힘  내란으로 경제 망치고 추경 저주…부끄러운 줄 몰라”</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/politics/politics_general/1203885.html</t>
-  </si>
-  <si>
-    <t>더불어민주당은 20일 이재명 정부의 추가경정예산안(추경)을 “정치적 포퓰리즘”으로 규정하며 “동의할 수 없다”고 한 국민의힘을 향해 “당리당략을 위해 국민의 삶과 대한민국을 무너뜨릴 작정이냐”고 비판했다.
-김성회 더불어민주당 대변인은 이날 브리핑에서 “민생 회복의 마중물로 삼기 위한 추경에까지 저주를 퍼붓다니 정말 부끄러운 줄도 모른다”며 “내란으로 나라경제를 망친 내란동조 정당이 부끄러운 줄 모르고 망언을 일삼고 있다”고 비판했다.
-앞서 송언석 국민의힘 원내대표가 이날 오전 열린 원내대책회의에서 “추경은 한마디로 사이비 ‘호텔경제학’의 대국민 실험장”이라며 “취임 2주 만에 뚝딱 만들어진 정부의 졸속 추경안은 민생 경제 회복에 도움이 되지 않는 정치적 포퓰리즘 추경에 불과하다”고 하자, 민생 발목잡기로 규정하며 반박에 나선 것이다. 송 원내대표는 이번 추경을 “대통령 당선 축하 파티 열 듯이 돈을 마구 뿌리는 정치 추경”이라고 비난하기도 했다.
-김 대변인은 “국민들은 허리띠를 조이고 지갑을 닫고 있고, 자영업자들은 말라붙은 내수 속에 쓰러지고 있다”며 “국민의 고통을 덜고, 경기의 순환이 얼어붙은 지금 소비 진작이 절실하다”고 말했다. 그러면서 “민생과 경제 회복의 마중물 노릇을 할 추경에 대해 ‘포퓰리즘’이라고 매도하는 것도 모자라 ‘당선 축하금’ ‘사이비 경제학 실험장’이라고 매도하며 정쟁에 밀어넣을 셈인가”라 지적했다.
-김채운 기자 cwk@hani.co.kr 손현수 기자 boysoo@hani.co.kr 신민정 기자 shin@hani.co.kr</t>
-  </si>
-  <si>
-    <t>더불어민주당은 20일 이재명 정부의 추가경정예산안(추경)을 “정치적 포퓰리즘”으로 규정하며 “당리당략을 위해 국민의 삶과 대한민국을 무너뜨릴 작정이냐”고 비판하였다.</t>
-  </si>
-  <si>
-    <t>대전 어젯밤 28일 빠른 열대야…전국 지난해보다 보름 이상 빨라</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/society/environment/1203884.html</t>
-  </si>
-  <si>
-    <t>장마를 앞두고 전국 곳곳에서 열대야 현상이 나타난 가운데, 대전에서는 지난해에 견줘 28일 일찍 열대야가 나타났다. 다른 지역들에서도 15~24일 일찍 열대야가 관측됐다.
-20일 기상청 날씨누리를 보면, 이날 오전 6시 기준으로 간밤에 강원도 강릉(밤 최저기온 26.4도), 충북 청주(26도), 대전(26도), 충남 금산(25.5도), 전북 정읍(26.5도), 전주(26.2도), 군산(25도), 광주광역시(25도), 경북 포항(26.4도), 대구(25.7도) 등에서 열대야가 나타났다.
-지난해 7월17일 첫 열대야가 나타났던 대전은 올해 28일이나 일찍 첫 열대야가 나타났다. 지난해 첫 열대야가 나타난 날과 견줘볼 때, 청주(지난해 첫 열대야 관측 날짜 7월13일)는 24일, 군산·금산(7월6일)은 17일, 광주광역시·전주·정읍(7월5일)은 16일, 대구·포항(7월4일)은 15일 일찍 열대야가 나타났다. 강릉(6월10일)은 지난해보다 8일 늦게 관측됐지만, 이날로 이틀 연속 열대야가 나타났다.
-열대야는 오후 6시1분~다음날 오전 9시까지 기온이 25도 이상 유지되는 현상을 말한다.
-이원길 기상청 통보관은 “따뜻하고 습한 남서풍 유입으로 낮 기온이 올라간 상황에서 밤사이 기온이 떨어지지 않아 열대야가 나타난 곳들이 있다”며 “해마다 기압계가 형성되는 상황에 따라 열대야는 빨리 나타날 수도 있고, 늦게 나타날 수도 있다”고 말했다.
-김규남 기자 3strings@hani.co.kr</t>
-  </si>
-  <si>
-    <t>장마를 앞두고 전국 곳곳에서 열대야 현상이 나타난 가운데, 대전에서는 지난해에 견줘 28일 일찍 열대야가 나타났고, 다른 지역들에서도 15~24일 일찍 열대야가 관측되었고, 기상청 날씨누리를 보면, 이날 오전 6시 기준으로 간밤에 강원도 강릉(밤 최저기온 26.4도), 충북 청주(26도), 대전(26.5도), 충남 금산(26.5도), 전북 정읍(26.5도), 전북 정읍(26.5도), 광주광역시(25.4도), 경북 포항(26.4도), 대구(25.7도) 등에서 열대야가 나타났다.</t>
-  </si>
-  <si>
-    <t>내일까지 최대 180㎜…집중호우 대비 중대본 가동</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/area/capital/1203883.html</t>
-  </si>
-  <si>
-    <t>장마전선의 영향으로 수도권과 강원도에 시간당 30㎜ 안팎의 강한 비가 내리는 가운데, 정부가 20일 오후 2시30분부터 중앙재난안전대책본부(중대본) 1단계를 가동했다.
-행정안전부는 이날 기상 상황에 따라 재난 대응 체계를 강화하고, 지자체와 유관기관에 예찰과 신속한 대처를 지시했다. 기상청에 따르면 정체전선 영향으로 수도권과 강원도에 호우 특보가 발효된 상태이며, 이날 밤부터 21일 오후 사이 충청권과 전라권을 중심으로 강한 비가 확대될 전망이다.
-예상 강수량은 이날 오전 11시 기준 수도권 30~80㎜(많은 곳은 120㎜ 이상), 강원 내륙·산지 50~100㎜(많은 곳은 120㎜ 이상) 충청권·전북은 각각 50~100㎜으로 많은 곳은 180㎜ 이상이 비가 내릴 것으로 전망된다.
-행안부는 관계기관에 기상정보를 전파하고 국민 행동요령을 알릴 것을 주문했다. 특히 재난문자, 마을 방송 등을 활용해 외출 자제와 위험 지역 접근 금지 등을 반복 안내하도록 했다. 과거 침수나 산사태 피해 지역, 하천변, 지하공간 등 취약지점에 대해서는 예찰을 강화하고, 위험 발생 시 즉각 통제·대피할 것을 지시했다.
-거동이 불편한 노인 등 취약계층에 대한 안전 확인과 대피 지원도 강조됐다. 중대본은 “이번 호우 피해를 최소화하기 위해 상황관리를 철저히 하겠다”고 밝혔다.
-장수경 기자 flying710@hani.co.kr</t>
-  </si>
-  <si>
-    <t>20일 오후 2시30분부터 중앙재난안전대책본부(중대본) 1단계를 가동함에 따라 기상 상황에 따라 재난 대응 체계를 강화하고, 지자체와 유관기관에 예찰과 신속한 대처를 지시했다.</t>
-  </si>
-  <si>
-    <t>[뉴스 다이브] 김용현 재구속  지귀연 벗어났다!</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/politics/politics_general/1203882.html</t>
-  </si>
-  <si>
-    <t>출연: 노영희 변호사, 장윤미 변호사, 강수영 변호사, 황준범 한겨레 논설위원, 김완 한겨레21 팀장.지귀연 손 벗어난 김용현 재구속!...결과는? 아픈 김건희와 버티는 윤석열...체포 시점은? 국정기획위의 검찰 질타! 대검 면전서 “뻔뻔하다” 비판! 원내지도부 ‘윤어게인’...국힘 혁신은 대체 언제? 명태균 게이트 창원지검행 배경엔 심우정·김주현 비화폰 통화? 천차만별 3대 특검...의혹의 종착지는 김건희! 오늘(6월 20일) 뉴스 다이브 많은 시청 바랍니다. 제작: 뉴스영상부</t>
-  </si>
-  <si>
-    <t>국정기획위의 검찰 질타와 윤석열의 ‘윤어게인’...국힘 혁신은 대체 언제?</t>
-  </si>
-  <si>
-    <t>감자  먹기만 하는 게 아니다…춘천 감자 페스타 21일 개최</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/area/gangwon/1203881.html</t>
-  </si>
-  <si>
-    <t>춘천을 대표하는 여름 농산물 ‘하지 감자’를 주제로 한 축제가 열린다.
-춘천시는 21~22일 강원도 춘천시 신북읍 샘밭장터에서 ‘2025 춘천 감자페스타’를 연다고 20일 밝혔다.
-올해 축제는 단순한 판매 중심 행사를 넘어 농산물과 지역 상품, 관광 체험 요소가 결합된 젊고 활기찬 체험형 축제를 만드는 것이 목표다. 이를 위해 춘천시뿐 아니라 강원대, 신북읍 자생단체, 지역 상인 등 민·관·학이 협력한 주민참여형 축제로 준비하고 있다.
-주요 프로그램으로는 하지 감자를 저렴하게 구매할 수 있는 감자 시장과 신북 주민과 샘밭장터 상인들이 함께하는 샘밭 소규모 장터, 지역 농부들이 참여하는 농부의 시장 등이 있다.
-특히 감자빵과 수제맥주로 유명한 감자밭과 감자 아일랜드, 박사마을 곰 핫도그, 감자 주제 소품 가게인 포테이토교 등 지역 유명 브랜드들이 공동 반짝 매장(팝업스토어) ‘감자연대기’를 꾸려 다양한 감자 제품을 선보일 예정이다.
-체험형 프로그램도 풍성하다. 감자 요리 수업, 감자 슬라임 만들기, 감자 운동회, 감자인형 뽑기, 감자 네 컷 사진 행사 등 가족 단위 방문객을 위한 다양한 즐길거리가 준비돼 있다. 커다란 감자 풍선과 농기계를 이용한 사진 촬영구역, 거리공연, 음식 판매 트럭 등도 행사의 분위기를 더한다.
-김시언 춘천시 관광정책과장은 “이번 축제를 통해 지역 관광을 활성화하고 방문객들에게 특별하고 즐거운 경험을 선사하고자 한다. 춘천시민뿐 아니라 춘천을 찾는 관광객의 많은 관심과 방문을 기대한다”고 말했다.
-박수혁 기자 psh@hani.co.kr</t>
-  </si>
-  <si>
-    <t>춘천시는 대표하는 여름 농산물 '하지 감자'를 주제로 한 축제가 21~22일 강원도 춘천시 신북읍 샘밭장터에서 '2025 춘천 감자페스타'를 연다고 밝히며, 이번 축제를 통해 지역 관광을 활성화하고 방문객들에게 특별하고 즐거운 경험을 선사하고자 한다.</t>
-  </si>
-  <si>
-    <t>서울시  국토부에 아파트 실거래 주소 요청 “상승 원인 등 분석”</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/area/capital/1203880.html</t>
-  </si>
-  <si>
-    <t>최근 서울 강남권을 중심으로 확산하고 있는 아파트 거래 열기에 대응해 서울시가 전 자치구의 실거래 흐름을 정밀하게 들여다보기로 했다. 모든 아파트 실거래의 실제 주소 정보를 확보해 주택담보대출(주담대) 비중과 갭투자 현황 등을 분석하겠다는 계획이다.
-20일 서울시에 따르면, 서울시 부동산정책개발센터는 이달 중순 국토교통부에 올해 1~5월 사이 체결된 서울시 내 모든 아파트 매매·전세 계약의 실거래 주소 데이터를 요청했다. 현재 국토부 실거래 공개시스템을 통해 실거래가와 아파트 동, 층 등은 알 수 있지만, 구체적인 주소는 공개되지 않는다. 이 때문에 실거래 정보를 확인하려면. 거래와 무관한 이들의 등기부등본까지 일일이 떼봐야 했다.
-서울시는 확보한 주소 정보를 바탕으로 등기부등본을 열람해 주담대 설정 여부와 금액, 전세 계약 동시 여부 등을 확인할 예정이다. 이를 통해 갭투자, 거래자 나이, 주택담보 비중 등 거래 특성을 종합해 분석하고, 자치구별로 맞춤형 주택 안정화 대책을 마련한다는 구상이다. 서울시 관계자는 “행정동 단위까지 분석해 최근 부동산 거래 흐름을 파악하고, 가격 상승의 원인을 찾아 실효성 있는 대책을 마련할 계획”이라고 말했다.
-최근 서울시의 부동산 거래량은 급증하고 있다. 서울부동산정보광장에 따르면 5월 아파트 거래량은 7569건으로, 전달(5148건)보다 47% 넘게 증가했다. 강남권의 회복세가 비강남권으로 번지며, 서울 전역에서 거래가 활발해지고 있는 양상이다.
-아파트 매매값도 오르고 있다. 6월 셋째주(16일 기준) 주간 아파트 가격 동향을 보면, 서울 아파트 매매가격은 전주보다 0.36% 올랐다. 이는 2018년 9월 둘째주(0.45% 상승) 이후 6년 9개월만에 최대 상승 폭이다.
-장수경 기자 flying710@hani.co.kr</t>
-  </si>
-  <si>
-    <t>최근 서울 강남권을 중심으로 확산하고 있는 아파트 거래 열기에 대응해 서울시가 모든 아파트 실거래의 실제 주소 정보를 확보해 주택담보대출(주담대) 비중과 갭투자 현황 등을 분석하고 자치구별로 맞춤형 주택 안정화 대책을 마련한다는 계획이다.</t>
-  </si>
-  <si>
-    <t>인천공항 통해 또…타이인 일당 마약 25억원어치 밀반입 적발</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/society/society_general/1203879.html</t>
-  </si>
-  <si>
-    <t>태국에서 인천국제공항을 통해 25억원 상당의 마약을 들여온 일당이 경찰에 붙잡혔다.
-서울 광진경찰서는 태국 국적 50대 남성과 40대 여성을 마약류관리법 위반 혐의로 구속했다고 20일 밝혔다.
-경찰 설명을 들어보면, 이들은 지난 16일 새벽 5시께 인천국제공항 제2여객터미널로 여행 가방에 필로폰 6㎏과 대마 5.2㎏을 밀반입한 혐의를 받는다. 시가로 25억원에 이르는 야이다. 경찰은 인천 연수구 숙소에 머무르며 윗선의 연락을 기다리고 있던 이들을 같은 날 오후 5시30분께 붙잡아 마약류를 압수하고 지난 18일 구속했다.
-이들은 경찰 조사에서 “(마약이 아닌)명품 가방인 줄 알았다”, “태국인 지인이 경비와 수당을 주겠다고 해 단순 아르바이트인 줄 알았다”고 진술한 것으로 전해졌다. 다만 이들이 언급한 명품 가방은 확인되지 않았다.
-인천국제공항을 통한 외국인의 마약 밀반입 적발이 이어지는 모양새다. 경찰은 지난달 19일에도 태국에서 마약 29㎏(필로폰 1㎏·대마 28㎏)을 인천국제공항으로 밀반입해 유통하려 한 태국인 2명과 한국인 1명을 붙잡아 검찰에 송치했다. 당시 경찰은 경기 성남시 일대에 마약 위치를 알리는 ‘좌표’가 찍혔다는 첩보를 입수해 수사한 끝에 이들을 붙잡았다.
-경찰 관계자는 한겨레에 “이들은 숙소에서 윗선의 지시를 기다리고 있었던 것으로 보인다”며 “(밀반입을 주도한) 윗선을 추적하고 있다”고 말했다.
-임재희 기자 limj@hani.co.kr 장종우 기자 whddn3871@hani.co.kr</t>
-  </si>
-  <si>
-    <t>지난 16일 새벽 5시께 인천국제공항 제2여객터미널로 여행 가방에 필로폰 6kg과 대마 5.2kg을 밀반입한 태국 국적 50대 남성과 40대 여성을 마약류관리법 위반 혐의로 구속했다.</t>
-  </si>
-  <si>
-    <t>김용현 석방 사흘 앞둔 23일 구속영장 심문…‘추가 기소’ 재판부 진행</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/society/society_general/1203878.html</t>
-  </si>
-  <si>
-    <t>내란특검 1호 기소 사건인 김용현 전 국방부 장관의 위계공무집행방해 등 사건을 맡은 재판부가 오는 23일 김 전 장관의 구속 여부를 결정하기 위한 심문을 진행한다.
-서울중앙지법 형사34부(재판장 한성진)는 위계에 의한 공무집행방해와 증거인멸교사 혐의로 추가 기소된 김 전 장관의 구속영장 심문 기일을 23일 오후 2시30분으로 지정했다고 밝혔다.
-앞서 내란 사건을 수사하는 조은석 특검팀은 지난 19일 김 전 장관을 위계에 의한 공무집행방해·증거인멸교사 혐의로 기소했고 사건은 이날 서울중앙지법 형사34부로 배당됐다. 내란 혐의로 기소돼 재판 중인 서울중앙지법 형사25부(재판장 지귀연)에 추가 기소 건이 병합되고 구속 여부도 결정될 거라는 관측이 나왔지만, 이날 사건은 무작위 전자배당으로 형사34부로 갔고 김 전 장관 구속 여부도 형사34부가 결정하게 됐다. 재판 병합 여부는 김 전 장관 구속 여부가 결정된 뒤에 논의될 것으로 보인다.
-장현은 기자 mix@hani.co.kr</t>
-  </si>
-  <si>
-    <t>내란특검 1호 기소 사건인 김용현 전 국방부 장관의 위계공무집행방해와 증거인멸교사 혐의로 추가 기소된 김 전 장관의 구속 여부를 결정하기 위한 심문 기일을 23일 오후 2시30분으로 지정했으며 재판 병합 여부는 김 전 장관 구속 여부가 결정된 뒤에 논의될 것으로 보인다.</t>
-  </si>
-  <si>
-    <t>시간당 100㎜ 폭우  자동차도 못 버틴다…강수량별 위력 영상체험</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/society/environment/1203877.html</t>
-  </si>
-  <si>
-    <t>전국 대부분 지역에 거센 장맛비가 내리는 가운데 일부 지역에서는 “시간당 강우량 최대 50㎜”에 달하는 폭우가 쏟아져 도로·주택 침수, 하천 통제 등의 피해가 이어질 것으로 우려되고 있다. 시간당 50㎜의 비가 쏟아지면 실제로 어떤 일이 벌어질까.
-기상청은 지난해 7월, 날씨정보 누리집 ‘날씨누리’를 통해 시간당 강우량 5~100㎜ 수준에서 발생할 수 있는 상황을 단계별로 설명하고, 비의 강도를 실감할 수 있도록 제작한 영상을 공개한 바 있다.
-설명 영상을 보면, 시간당 강우량이 5㎜가 내리면 도로의 표면이 젖은 상태지만 운전 때 시야 확보에는 큰 어려움이 없고, 우산이 필요하긴 하지만 일상에서 큰 어려움을 느끼지 않을 수 있다. 그러나 시간당 강우량 15㎜에 이르면 굴곡진 도로에 물웅덩이가 생기고 우산을 쓰더라도 옷이 비에 젖을 수 있다.
-30㎜가 넘어가면 차량의 바퀴 일부가 물에 잠기고, 차량의 시야 확보가 어려워 차량이 아주 느리게 움직이는 상황이 발생할 수 있다. 또 배수가 잘 되지 않는 곳에서는 신발이 젖고 지하차도처럼 지대가 낮은 곳에서는 물이 차오르게 된다.
-시간당 강우량이 50㎜를 넘기 시작하면 곳곳에서 침수 피해가 발생할 수 있다. 기상청은 “시간당 50㎜의 비가 내리면 도로 곳곳이 물에 잠겨 차량 운행이 어렵고, 거리에도 물이 차올라 보행조차 힘들어진다”고 설명했다.
-이어 “70㎜ 이상이면 지대가 낮은 하천 주변 도로의 차량들이 침수되고, 100㎜를 넘기면 도로 위 차량이 뜨기 시작하며 대부분의 건물과 시설물 하부가 물에 잠긴다”고 밝혔다.
-기상청은 이러한 상황을 설명하며 2022년 8월 서울 강남역 일대 침수 사례를 언급했다. 당시 강남역 사거리에는 시간당 116㎜에 달하는 기록적인 폭우가 쏟아졌고, 이로 인해 도로, 건물, 지하철역, 상가, 주택 등이 순식간에 물에 잠겼다. 특히 강남역 주변은 물이 어깨 높이까지 차올라 시민들이 고립되는 상황이 벌어지기도 했다.
-이 때문에 우리나라 기상청은 짧은 시간 내에 많은 비가 내릴 때 호우특보를 내리고 있다. 호우주의보는 6시간 동안 내린 강우량이 70㎜ 이상일 때, 호우경보는 110㎜ 이상이 예상될 때 발령된다. 또 시간당 50㎜의 비가 내리는 동시에 3시간 동안 강우량이 90㎜가 넘으면 ‘호우 긴급 재난문자’를 발송한다. 참고로, 시간당 강우량 20㎜는 1㎡ 넓이에 생수 2ℓ짜리 페트병 약 10개를 한꺼번에 쏟아붓는 것과 맞먹는 양이다.
-한편, 19~20일 사이 경기 지역에서는 도로, 주택 등이 침수되고 나무가 넘어지거나 맨홀 뚜껑이 유실되는 등의 피해가 이어졌다. 인천 서구(금곡동)에는 오전 3시58분 동안 1시간 동안 63㎜, 경기 양주(백석읍)에는 오전 4시43분부터 1시간 동안 60㎜의 비가 내렸다.
-김지숙 기자 suoop@hani.co.kr</t>
-  </si>
-  <si>
-    <t>전국 대부분 지역에 거센 장맛비가 내리는 가운데 일부 지역에서는 “시간당 강우량 최대 50mm”에 달하는 폭우가 쏟아져 도로·주택 침수, 하천 통제 등의 피해가 이어질 것으로 우려되고 있다.</t>
-  </si>
-  <si>
-    <t>김혜성  3경기 연속 안타…7번 타자로 내려간 이정후는 침묵</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/sports/baseball/1203876.html</t>
-  </si>
-  <si>
-    <t>로스앤젤레스(LA) 다저스의 김혜성이 3경기 연속 안타를 신고하며 타격감을 끌어올렸다.
-김혜성은 20일(한국시각) 미국 캘리포니아주 로스앤젤레스 다저스타디움에서 열린 2025 메이저리그(MLB) 샌디에이고 파드리스와 홈경기에서 9번 타자 중견수로 선발 출전해 4타수 1안타 1타점을 기록했다. 시즌 타율은 0.386에서 0.378로 소폭 하락했지만, 지난 15일 샌프란시스코 자이언츠전부터 3경기 연속 안타를 이어갔다.
-김혜성은 이날 4경기 만에 선발 출전해 장타를 뽑아냈다. 팀이 0-1로 뒤진 3회말 1사 1루에서 첫 타석을 맞은 김혜성은 샌디에이고 선발 라이언 버거트를 상대로 헛스윙 삼진으로 물러났다. 그러나 5회말 두 번째 타석에서는 4구째 낮게 떨어지는 슬라이더를 놓치지 않고 받아쳐 1루와 2루 사이를 가르는 안타를 만들어냈다. 김혜성의 안타로 1루에 있던 토미 에드먼은 3루까지 진루해 다저스는 2사 1·3루 득점 기회를 맞이했다.
-2-0으로 앞서 있던 샌디에이고는 김혜성의 안타가 터진 뒤 선발 버거트를 강판시키고 진화에 나섰다. 이어지는 다저스의 1·3루 기회에서 오타니가 타석에 섰지만, 1루수 땅볼로 물러나면서 다저스는 추격에 실패했다.
-김혜성은 다저스가 0-3으로 뒤진 7회말 2사 2·3루 득점권 기회에서 세 번째 타석을 맞았지만, 안타를 만들어내진 못했다. 그는 샌디에이고의 오른손 투수 제레미아 에스트라다와 풀카운트 승부 끝에 유격수 땅볼로 물러났다.
-다저스는 샌디에이고에 3-5로 패해 5연승 행진을 멈췄다. 선발 투수 야마모토 요시노부는 6⅓이닝 7피안타 3실점으로 제 역할을 다했지만, 타선의 도움도 받지 못해 시즌 6패(6승)째를 당했다.
-한편, 샌프란시스코 자이언츠의 이정후는 같은 날 미국 캘리포니아주 샌프란시스코 오라클파크에서 열린 클리블랜드 가디언스와 홈 경기에서 7번 타자 중견수로 선발 출전해 2타수 무안타 1볼넷 1득점 했다.
-최근 타격 부진을 겪고 있는 이정후는 1번 타자로 나서다 전날부터 6번 타자로 출전했고, 20일에는 7번 타순까지 내려갔다. 안타를 만들어내진 못했지만, 팀이 0-1로 뒤진 7회말 무사 1루에서 볼넷으로 출루한 뒤 후속 타자의 적시타로 결승 득점을 기록했다. 샌프란시스코는 클리블랜드를 2-1로 잡고 4연패에서 탈출했다.
-장필수 기자 feel@hani.co.kr</t>
-  </si>
-  <si>
-    <t>20일(한국시각) 미국 캘리포니아주 로스앤젤레스 다저스타디움에서 열린 2025 메이저리그(MLB) 샌디에이고 파드리스와 홈경기에서 9번 타자 중견수로 선발 출전한 김혜성은 3경기 연속 안타를 신고하며 타격감을 끌어올렸고 지난 15일 샌프란시스코 자이언츠전부터 3경기 연속 안타를 기록했다.</t>
-  </si>
-  <si>
-    <t>SK하이닉스 2분기 영업이익 기대감↑…9조원 전망도 ‘속속’</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/economy/marketing/1203875.html</t>
-  </si>
-  <si>
-    <t>에스케이(SK)하이닉스의 올해 2분기 실적을 향한 기대치가 더욱 높아지고 있다. 영업이익이 9조원에 이를 것이라는 전망도 속속 등장하고 있다.
-20일 증권가 취재를 종합하면, 이달 들어 에스케이하이닉스 보고서를 낸 증권사 4곳 모두 2분기(4~6월) 영업이익 전망치를 상향 조정했다. 그러면서 이들 증권사의 전망치 평균은 8조6780억원에서 8조9410억원으로 올랐다. 하이닉스 영업이익이 비수기였던 올 1분기(7조4405억원)보다 20%가량 성장하는 것은 물론, 지난해 4분기 기록(8조828억원)도 거뜬히 넘어서리라고 보는 것이다.
-아예 9조원 안팎의 영업이익을 점치는 증권사도 늘고 있다. 김운호 아이비케이(IBK)투자증권 연구원은 지난 10일 하이닉스의 2분기 영업이익 전망치를 8조7550억원에서 9조570억원으로 올려 잡았다. 류형근 대신증권 연구원도 지난 18일 8조8380억원에서 8조9880억원으로 높였다. 고대역폭메모리(HBM) 가운데서도 단가가 비싼 5세대 12단 제품의 판매 비중이 높아지고 있으며, 일반 디램 가격도 기존 예상보다 개선됐다는 분석이다. 류 연구원은 “디램 판매 강세 효과가 환율 약세 영향을 상쇄(할 것)”이라고 했다.
-하이닉스의 2분기 실적이 시장 기대치에 부합할 경우 사상 최고 기록을 경신하게 된다. 하이닉스는 지난해 4분기 영업이익 8조828억원을 벌어들이며 역대 최대치를 기록한 바 있다. ‘국내 영업이익 1위’의 왕관도 3개 분기 연속 유지하게 될 전망이다. 지난해 3분기까지 1위를 차지한 뒤 2위로 내려앉은 삼성전자는 올해 2분기 6조원대 영업이익을 내는 데 그칠 것이라는 관측이 많다.
-이재연 기자 jay@hani.co.kr</t>
-  </si>
-  <si>
-    <t>에스케이(SK)하이닉스의 영업이익이 비수기였던 올 1분기보다 20%가량 성장하는 것은 물론, 지난해 4분기 기록(8조828억원)도 거뜬히 넘어서리라고 전망하는 증권사도 늘고 있다.</t>
-  </si>
-  <si>
-    <t>63개국 지구촌 마을 음성에 청년 마을 ‘글로컬 타운’ 조성</t>
-  </si>
-  <si>
-    <t>https://www.hani.co.kr/arti/area/chungcheong/1203874.html</t>
-  </si>
-  <si>
-    <t>충북 음성은 세계인이 공존하는 지구촌(글로벌)이다. 지난달 말 기준 인구가 10만9989명인데, 내국인이 9만2006명, 등록 국외인이 1만4886명이다. 국외인 비율이 13.5%다. 산업단지가 조성된 대소 4561명, 금왕 3443명, 삼성 2195명 등에 집중돼 있다. 이들 국외인의 국적은 63곳으로, 그야말로 지구촌이다.
-이런 다국적 특성을 살린 청년 마을 ‘글로컬 타운’이 만들어진다. 음성읍 역말(읍내4리)을 거점으로, 유튜브 등을 통해 세계를 대상으로 활동할 ‘글로컬 크리에이터’를 길러낼 참이다. ‘글로컬 크리에이터’는 세계화와 지역화를 아우르는 문화·관광 기획자다.
-이 사업은 음성에 뿌리내린 청년·관광 여행 업체 잼토리가 주도한다. 잼토리는 지난 4월 행정안전부가 공모한 청년 마을 만들기 사업’에서 ‘글로컬 푸드 콘텐츠 기획자 마을, 글로컬 푸드빌’을 기획·제안해 2025년 청년 마을 만들기 대상에 뽑혔다. 당시 전국 청년 단체 147곳이 지원했는데, 대구·광주·강원 등 전국에서 12곳이 뽑혔다. 충북에선 잼토리가 유일하다. 이들은 2027년까지 최대 6억원을 지원받는다.
-이현우 음성군 2030전략실 주무관은 “‘글로컬 크리에이터’ 사업은 음성에서 나오는 지역 농산물을 소재로 세계인이 공유할 수 있는 음식을 만들고, 지역 안 관광 명소 등과 연계하는 등 다양한 구상을 하고 있다. 음성의 국내·국외인이 융합하고, 지역 경제가 활성화하는 역할을 기대한다”고 밝혔다.
-청년 마을 만들기를 위해 △‘글로컬 크리에이터’ 양성 △나라별 글로벌 리더 발굴 △크리에이터 교육 △지역 특화 콘텐츠 발굴·제작 △지역 탐방 △글로벌 커뮤니티 구축 등을 추진할 참이다. 오는 22일 베트남, 29일 캄보디아 등 국외 참가자를 대상으로 크리에이터 교육을 할 계획이다.
-이아리 글로컬 타운 대표는 “다양한 국적의 ‘글로컬 크리에이터’들과 음성의 관광·산업·자원·매력을 세계에 전파하는 청년 마을을 만들겠다”고 했다.
-오윤주 기자 sting@hani.co.kr</t>
-  </si>
-  <si>
-    <t>음성읍 음성읍 역말(읍내4리)을 거점으로, 유튜브 등을 통해 세계를 대상으로 활동할 '글로컬 크리에이터'를 길러낼 참이다.</t>
-  </si>
-  <si>
-    <t>강준현 "국회·대통령실 세종 완전 이전 담은 특별법 발의 준비"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146325</t>
-  </si>
-  <si>
-    <t>강준현 "국회·대통령실 세종 완전 이전 담은 특별법 발의 준비"
+    <t>‘김영환(충북지사)표 도청사 리모델링’으로 100년 가까운 충북도청이 주차 공간을 잃은 직원들은 출근 전쟁을 벌이고, 도청을 찾은 시민 등은 숨은 그림 찾듯 ‘주차 뺑뺑이’를 도는 등 ‘주차 전쟁’이 예견됐다.</t>
+  </si>
+  <si>
+    <t>한강 동화책  “노벨상 받기보다 어렵다”는 군 진중문고에 뽑혔다</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/politics/defense/1204867.html</t>
+  </si>
+  <si>
+    <t>한국 작가 최초로 노벨문학상을 수상한 한강 작가의 책이 군 부대 도서관이나 생활관에 비치되는 ‘진중문고’에 선정됐다.
+26일 국방부 설명을 들어보면, 한강 작가의 ‘눈물상자’가 올 상반기 진중문고 22권의 하나로 지난달 선정됐다. ‘눈물상자’는 눈물은 모두 투명하지만, 그것을 결정으로 만들면 각기 다른 색깔이 나올 거라는 생각을 바탕으로 한 동화다.
+진중문고는 병영 내 장병에게 보급할 목적으로 선정된 도서로, 국방·안보와 경제·경영, 문학 등 모두 8개 분야에서 분야별 2권 정도의 책이 선정된다. 진중문고 선정은 대학교수 등 외부 전문가와 국방부 국장급 공무원 1명 등으로 구성된 ‘정훈문화자료 심의위원회’가 맡는다.
+진중문고 선정은 3단계 절차를 거치는데, 1단계에서 각계 전문가 추천과 대형 서점 등에서 보내온 베스트셀러 순위를 참조해 후보도서 목록을 작성한다. 한강 작가의 소설은 2019~2021년 ‘채식주의자’, ‘소년이 온다’, ‘작별하지 않는다’가 진중문고 후보도서로 올랐으나 지금까지 한 번도 선정되지 않았다.
+한강 작가 작품이 진중문고에서 빠진 이유를 두고 “제주 4·3사건, 광주 5·18 민주화운동을 다룬 작품들이 정신전력 강화라는 진중문고 취지와 안 맞았다”는 추정이 군 안팎에서 나왔다. 국방부는 구체적인 이유를 설명하지는 않았다. 한강 작가가 노벨문학상을 받은 뒤 진중문고 선정에서는 탈락한 것을 빗대 “노벨문학상 수상보다 진중문고 선정이 더 어렵다”는 우스갯소리가 나오기도 했다. 이번 진중문고 선정은 지난 4월4일 헌법재판소의 윤석열 전 대통령 파면 결정 이후 이뤄졌다.
+국방부는 ‘진중문고 선정에 정치적 고려가 작용한다’는 지적에 대해 “진중문고 선정은 체계적인 절차를 거쳐 투명하고 공정하게 이뤄졌다”고 밝혔다.
+권혁철 기자 nura@hani.co.kr</t>
+  </si>
+  <si>
+    <t>한국 작가 최초로 노벨문학상을 수상한 한강 작가의 책이 군 부대 도서관이나 생활관에 비치되는 ‘진중문고’에 선정되었는데, 국방부는 진중문고 선정은 체계적인 절차를 거쳐 투명하고 공정하게 이뤄졌다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>“사실 아님”…경찰 특수단 “출석 거부한 적 없다”는 윤석열 쪽 주장 정면 반박</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/society_general/1204866.html</t>
+  </si>
+  <si>
+    <t>경찰이 “한 번도 경찰 출석을 거부한 적 없다”는 윤석열 전 대통령 쪽 주장에 대해 입장문을 내 조목조목 반박했다.
+경찰청 국가수사본부 비상계엄 특별수사단(특수단)은 26일 “윤 전 대통령의 법률대리인단 입장문 중 ‘경찰 출석을 단 한 번도 거부한 바가 없다’는 부분은 사실이 아님을 알려드린다”고 밝혔다.
+앞서 이날 윤 대통령 쪽 법률대리인은 입장문을 내 “첫번째 경찰 소환 통지는 기한이 지난 후 송달됐고, 두번째 요청은 서면조사 또는 대면조사를 제안했으나 일방적으로 묵살했다”고 주장했다.
+우선 특수단은 지난달 27일 1차 출석요구 상황을 상세하게 설명했다. 특수단은 “5월27일 출석요구서(6월5일)를 서면으로 발송했고, 이와 별개로 5월27일부터 6월2일까지 네 차례에 걸쳐 전화로 출석요구 내지 출석 여부를 확인했다”며 “변호인은 소환일 하루 전에 잡혀 있던 비화폰 포렌식 참여일을 소환 당일인 6월5일로 변경하면서 경찰에 출석 불응 의사를 명백히 미리 밝혔다”고 설명했다.
+또 2차·3차 출석 요구에 대해서는 “(윤 대통령) 변호인이 의견서로 서면조사 또는 대면조사를 제안한 사실은 있었으나, 이는 수사기관의 출석요구에 대한 정당한 불출석 사유가 될 수 없다”고 지적했다.
+특히 ‘3차 출석 요구가 특검과 출석 조율 중 이뤄져 응할 수 없었다’는 윤 대통령 쪽 주장에 대해서는 “사건이 특검에 인계될 예정이어서 특검에 출석해서 조사받겠다는 내용은 2회에 걸친 의견서 등에 전혀 없는 내용으로 특수단에서 이런 의견을 전달받은 사실이 없다”고 반박했다.
+한편 이날 윤 전 대통령 쪽은 조은석 내란 특별검사팀에 오는 28일 오전 10시에 출석하겠다면서 비공개 출석을 먼저 요구했다.
+임재우 기자 abbado@hani.co.kr</t>
+  </si>
+  <si>
+    <t>윤석열 국가수사본부 비상계엄 특별수사단(특수단)은 26일 "윤석열 전 대통령의 법률대리인단 입장문 중 '경찰 출석을 단 한 번도 거부한 바가 없다’는 부분은 사실이 아님을 알려드린다"고 밝히며 경찰 출석을 단 한 번도 거부한 바가 없다’는 부분은 사실이 아님을 알려드린다.</t>
+  </si>
+  <si>
+    <t>발레리노 전민철  러시아 마린스키 입단 직후 주역 발탁</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/culture/music/1204865.html</t>
+  </si>
+  <si>
+    <t>러시아 명문 마린스키발레단에 입단한 발레리노 전민철(21)이 처음부터 주역으로 캐스팅돼 다음달 첫 무대에 오른다. 세계적인 발레단 입단 직후 솔리스트 주역으로 발탁되는 경우는 매우 이례적이다.
+전민철은 다음달 17일(현지시각) 러시아 상트페테르부르크 마린스키극장에서 열리는 ‘라 바야데르’에서 남자 주인공 솔로르 역으로 출연한다. 프랑스어로 ‘인도의 무희’를 뜻하는 ‘라 바야데르’는 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 작품이다. 전민철은 지난해 유니버설발레단 ‘라 바야데르’에서도 솔로르 역을 맡은 바 있다. 앞서 7월4일엔 ‘백조의 호수’ 1막에서 왕자 친구 3명이 추는 ‘파 드 트루아’에 출연한다.
+전민철은 “어릴 적부터 꿈꿔온 마린스키극장 무대에 드디어 설 수 있게 돼 감격스럽다”며 “저의 춤을 통해 한국과 러시아가 문화적으로 더 깊게 연결되기를 바라며, 작품의 아름다움과 극장의 전통을 온몸으로 느끼며 최선을 다하겠다”고 소감을 전했다.
+한국예술종합학교에 다니던 그는 지난해 오디션에 합격해 김기민에 이어 한국인 무용수로는 두번째로 마린스키발레단에 입단했다. 184㎝, 64㎏의 훤칠하고 균형 잡힌 몸매를 지닌 그는 팔과 다리도 길어 발레리노로서 최적의 신체 조건을 갖췄다고 평가받는다. 241년 역사의 마린스키발레단은 모스크바 볼쇼이발레단, 영국 로열발레단, 프랑스 파리오페라발레단, 미국 아메리칸발레시어터(ABT) 등과 함께 세계적인 발레단으로 꼽힌다.
+임석규 기자 sky@hani.co.kr</t>
+  </si>
+  <si>
+    <t>힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로 무희 니키야와 전사 솔로르, 공주 감자티의 삼각관계를 다룬 힌두 사원을 배경으로</t>
+  </si>
+  <si>
+    <t>여가부는 어디로? 강선우 장관 후보자에게 물었더니…</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/women/1204864.html</t>
+  </si>
+  <si>
+    <t>강선우 여성가족부 장관 후보자가 “내가 선택하지 않은 것들, 태어나면서 주어진 것들로 인해서 차별 또는 역차별을 받지 않도록 입체적으로 경도되지 않은 시선으로 살피겠다”는 뜻을 밝혔다.
+강 후보자는 26일 오후 2시께 서울 종로구 이마빌딩에 마련된 인사청문회 준비 집무실로 처음 출근하는 길에 기자들을 만나 이런 내용을 담은 지명 소감을 전했다. 강 후보자는 먼저 전날 발생한 부산 화재 사건 피해자들에 대한 애도를 표했다. 그는 “화마로 희생된 일곱 살, 열 살 아이들의 명복을 빈다”면서 “정치가 실패하면 사랑이 무너진다. (피해) 가족 곁에 ‘국가’라는 돌봄 시스템이 있었으면 어땠을까 (하는) 안타까움이 알람 소리처럼 계속해서 제 마음을 깨운다”고 했다. 이어 “정치를 업으로 삼고 있는 사람 중 한 명으로서 진심으로 죄송하다는 말씀을 드린다”며 고개를 숙였다.
+강 후보자는 또한 “우리 사회에 편견과 갈등이 대한민국의 성장 추동력을 발목 잡지 않도록 그것들을 조정하고 때로는 결단을 하겠다”고 말했다. 이어 그는 “한 사람과 인연을 맺고, 그 사람을 길러내는 일이 꽤 괜찮은 선택이 될 수 있는 대한민국을 만드는 데 저의 최선과 진심을 다하겠다”면서 “평범한 삶을 살기 위해 비범한 노력을 하지 않아도 되는 그런 길을 만드는 데 제 역할을 해보고 싶다”는 의지도 덧붙였다.
+강 후보자는 지명 소감을 이야기한 뒤에 이어진 기자들의 질문에는 최대한 말을 아꼈다.
+그는 소감에서 “앞으로 변화가 예상되는 우리 부처”라는 표현을 썼으나, 이재명 대통령 공약 사항인 ‘성평등가족부로의 확대·개편’에 대한 의견을 묻자 “이 대통령의 국정 운영 철학의 결과와 방향과 함께한다. 구체적인 내용은 말씀드릴 수 있는 시기가 오면 얘기할 것”이라고만 답했다.
+강 후보자는 또한 “내가 선택하지 않은 것들, 태어나면서 주어진 것들”로 인한 차별과 역차별을 언급해, 성차별을 연상케 했지만 ‘여성’ ‘남성’ ‘성평등’ 같은 단어는 한 차례도 사용하지 않았다. 복지 전문가로 알려진 강 후보자는 ‘성평등 분야가 우선순위에서 밀리는 것 아니냐’는 우려에 대한 의견을 묻자 “그런 우려도 잘 듣겠다”고 간단히 답했다.
+김효실 기자 trans@hani.co.kr</t>
+  </si>
+  <si>
+    <t>강선우 여성가족부 장관 후보자는 26일 오후 2시께 서울 종로구 이마빌딩에 마련된 인사청문회 준비 집무실로 출근하는 길에 기자들을 만나 자신이 선택하지 않은 것들, 태어나면서 주어진 것들로 인해서 차별 또는 역차별을 받지 않도록 입체적으로 경도되지 않은 시선으로 살피겠다는 뜻을 밝혔다.</t>
+  </si>
+  <si>
+    <t>국회 과방위  27일 ‘방송3법’ 논의…7월 본회의 목표로 속도전</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/media/1204863.html</t>
+  </si>
+  <si>
+    <t>국회 과학기술정보방송통신위원회(과방위)가 오는 27일 방송3법(방송법·방송문화진흥회법·한국교육방송공사법 개정안) 논의를 위한 전체회의를 열 예정이다. 여당인 더불어민주당은 해당 안건의 상임위 처리가 끝나는 대로 6월 임시국회 중에 본회의에서 통과시킬 방침인 것으로 파악됐다.
+26일 민주당 관계자 설명을 종합하면, 과방위는 27일 오전 11시 정보통신방송법안심사소위원회(2소위)를 열어 방송3법 등 관련 법안을 심사한 뒤 이날 오후 3시 전체회의에서 의결을 시도할 전망이다. 민주당은 방송3법이 과방위 문턱을 넘을 경우, 법제사법위원회의 체계·자구 심사를 거쳐 늦어도 다음달 4일까지는 본회의 처리를 끝낸다는 계획이다. 다만 정청래 민주당 의원의 사퇴로 공석이 된 법사위원장 자리가 이날까지 채워지지 않고 있어, 해당 일정도 일부 조정될 수 있다.
+이와 관련해 최민희 과방위원장은 지난 25일 문화방송(MBC) 라디오 프로그램에 나와 “(방송3법 내용에 관한) 당내 합의는 이뤄진 상황”이라며 “목표는 이번 임시국회 내 통과”라고 밝혔다. 임시국회 회기는 다음달 4일까지다.
+방송3법은 ‘정치적 후견주의’ 완화를 위해 한국방송(KBS)과 문화방송(MBC), 교육방송(EBS) 등 공영방송의 이사회 구성 방식을 개편하고 사장 후보 추천 과정에 시청자·국민의 참여를 보장하는 내용이다. 사장 후보자 임명제청에 전체 이사 3분의 2 혹은 5분의 3 이상의 찬성이 필요하도록 하는 특별다수제 도입 방안도 포함돼 있다. 지난 정부에서 윤석열 전 대통령의 재의요구권(거부권) 행사로 ‘국회 통과-법안 폐기’를 거듭했으나, 지난해 12·3 내란 사태 이후 민주당 의원을 중심으로 여러 개정안이 다시 발의된 상태다.
+앞서 민주당은 대선 직후인 지난 10일 과방위 2소위와 전체회의를 열어 방송3법 위원회 대안을 처리한다는 계획이었으나, 당일 회의를 취소한 바 있다. 김현 과방위 민주당 간사는 그 배경에 대해 “협의를 하자는 국민의힘 의견을 수용한 것”이라고 설명했다.
+민주당이 대선 이후 방송3법 처리 일정을 한 차례 늦추자 언론·시민사회단체는 “지체할 이유가 없다”며 연일 조속한 처리를 압박하고 나섰다. 전국언론노동조합 등 92개 단체로 꾸려진 언론장악저지공동행동은 지난 11일 성명을 내어 “문재인 정부 시절 방송3법 개정을 통한 공영방송 개혁을 초기에 신속하게 추진하지 못해 윤석열 내란 정권 방송 장악의 빌미가 됐다”며 “언론개혁의 핵심이자 이재명 정부의 공약이기도 한 방송3법은 어떤 과제보다 빠르게 추진돼야 한다”고 주장했다.
+한국기자협회와 방송기자연합회 등 8개 언론 현업단체도 26일 낸 공동성명에서 “이제야말로 정치 권력의 탐욕으로부터 언론을 구하고 국민의 품으로 (공영방송을) 돌려드릴 때”라며 “그 첫걸음은 방송3법 개정을 통한 공영방송의 정치적 독립”이라고 강조했다.
+최성진 기자 csj@hani.co.kr</t>
+  </si>
+  <si>
+    <t>국회 과학기술정보방송통신위원회가 오는 27일 오전 11시 정보통신방송법안심사소위원회(2소위)를 열어 방송3법 등 관련 법안을 심사한 뒤 오후 3시 전체회의에서 의결을 시도할 예정이다.</t>
+  </si>
+  <si>
+    <t>평산마을서 정치성향 다르다고 폭행·모욕 60대 징역형 집행유예</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/yeongnam/1204862.html</t>
+  </si>
+  <si>
+    <t>정치적 성향이 다른 유튜버 등을 폭행하고 모욕한 혐의로 재판에 넘겨진 60대가 1심에서 징역형의 집행유예를 선고받았다.
+울산지법 형사2단독(재판장 사공민)은 특수폭행 등 혐의로 기소된 ㄱ(62)씨에게 징역 10개월에 집행유예 2년, 사회봉사 120시간을 선고했다고 26일 밝혔다.
+ㄱ씨는 지난 2023년 4월3일부터 같은해 7월11일까지 4차례에 걸쳐 문재인 전 대통령 사저가 있는 경남 양산 평산마을 주차장 인근에서 1인 시위 중인 ㄴ(66)씨에게 일본인을 낮춰 부르는 표현을 하며 뺨, 정강이, 엉덩이, 목 등을 밀치거나 때린 혐의를 받았다.
+또 평산마을에서 실시간 중계 방송을 하는 유튜버에게 폭력을 휘두르거나 방송을 못하도록 휴대전화를 뺏은 혐의도 있다.
+ㄱ씨는 자신과 정치성향을 다른 이들에 불만을 품고 범행했다고 한다.
+재판부는 “피고인의 범행은 표현의 자유, 집회의 자유를 빙자해 자신과 정치적 성향이나 생각이 다른 자들을 피해자로 삼아 죄질이 불량하다”면서도 “피해 정도가 심하지 않은 점은 고려했다”고 밝혔다.
+주성미 기자 smoody@hani.co.kr</t>
+  </si>
+  <si>
+    <t>지난 2023년 4월3일부터 같은해 7월11일까지 4차례에 걸쳐 문재인 전 대통령 사저가 있는 경남 양산 평산마을 주차장 인근에서 1인 시위 중인 ᄂ(66)씨에게 일본인을 낮춰 부르는 표현을 하며 뺨, 정강이, 엉덩이, 목 등을 밀치거나 때린 혐의로 재판에 넘겨진 60대가 1심에서 징역형의 집행유예를 선고받았다.</t>
+  </si>
+  <si>
+    <t>“농촌 폐기물  주민 참여와 지자체 지원 결합돼야”</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/chungcheong/1204861.html</t>
+  </si>
+  <si>
+    <t>주민 참여와 정책적인 접근이 조화를 이뤄야 농촌 폐기물 문제를 개선할 수 있다는 제안이 나왔다.
+충남도와 한국환경공단, 새마을회가 26일 홍성문화원에서 연 ‘농촌폐기물 수거 체계 개선을 위한 실천포럼’에서 발제에 나선 박지호 한국갈등전환센터 대표는 농촌 폐기물을 효율적으로 처리하려면 주민 참여와 정책적 접근이 동시에 이뤄져야 한다고 밝혔다.
+박 대표는 “민간단체인 새마을회, 노인회, 협동조합, 경제단체 등이 농촌 폐기물 수거를 주도하고 중앙·지방정부, 교육기관, 군부대 등이 지원하는 체계를 갖추는 것이 바람직하다”며 “청도군의 영농폐기물과 농약병 분리수거배출 사업은 주민들이 자발적으로 참여하고 지자체의 지원이 결합해 지속가능한 농촌 생태계 보호를 이뤘다”고 소개했다. 그는 주민 참여율을 높이려면 주인 의식, 문제 인식, 공감대가 형성돼야 하며 지자체가 예산 지원과 법적 기반을 마련해 사업의 지속 가능성을 보장해야 한다고 덧붙였다.
+문상석 강원대 교수는 ‘쓰레기 처리 문제에 대한 지역사회 공동체 역할’ 발표를 통해 “농촌 쓰레기 문제는 쓰레기 수거 체계가 미비해 재활용 분리수거 시설, 폐기물 처리장 등 인프라가 불충분하고 주민이 고령화해 분리 배출 등 인식이 부족하기 때문”이라고 지적했다. 문 교수는 “귀농·귀촌·관광 등 외지인 유입이 늘면서 일시적으로 쓰레기가 증가하는가 하면 쓰레기 배출 문화 차이로 주민 간 갈등도 커진다”고 설명했다.
+그는 “재작년 통계를 보면 한명이 하루에 버리는 쓰레기는 전국 평균 1.17㎏였다. 쓰레기 폐기로 인해 토양·수질·대기가 오염되고 생태계가 파괴된다”고 우려하고 “순환경제 개념을 도입해 처리 중심의 쓰레기 행정을 관리 중심으로 바꿔 쓰레기를 자원화해야 한다”고 밝혔다.
+이어 참석자들은 토론에 참석해 농촌 고령화와 쓰레기 문제, 불법 소각과 환경오염, 공동체 기반의 쓰레기 수거 방안 등을 논의했다. 이날 포럼에서 새마을지도자협의회는 ‘뚜벅이 봉사단’ 꾸렸다. 뚜벅이 봉사단은 앞으로 불법 쓰레기 투기 방지, 취약계층 지원, 올바른 배출 방법 홍보, 수거 사각지대 해소 등 현장 밀착형 활동을 펼칠 계획이다. 이갑복 새마을지도자충남협의회장은 “농촌 환경문제 해결을 위해 적극적으로 나서겠다”고 말했다.
+송인걸 기자 igsong@hani.co.kr</t>
+  </si>
+  <si>
+    <t>26일 홍성충남도와 한국환경공단, 새마을회가 홍성문화원에서 연 ‘농촌폐기물 수거 체계 개선을 위한 실천포럼’에서 발제에 나선 박지호 한국갈등전환센터 대표는 농촌 폐기물을 효율적으로 처리하려면 주민 참여와 정책적 접근이 동시에 이뤄져야 한다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>초등생 3명 수차례 성폭력 30대 기타강사…징역 11년</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/area/jeju/1204860.html</t>
+  </si>
+  <si>
+    <t>기타학원에서 초등학생 3명을 대상으로 성폭력 범죄를 저지른 30대 강사에게 징역 11년이 선고됐다.
+제주지방법원 제2형사부(부장판사 임재남)는 13살 미만 미성년자 위계 등 추행(성폭력범죄의 처벌 등에 관한 특례법 위반) 등의 혐의로 구속기소된 32살 ㄱ씨에 대해 징역 11년을 선고했다. 재판부는 40시간의 성폭력 치료 강의 수강, 10년간의 아동·청소년 및 장애인 관련기관 취업제한도 명령했다.
+재판부는 “아동학대 신고 의무자로서 피해자를 보호하고 올바르게 지도해야 할 피고인은 오히려 피해자들을 성적 욕망에 대상으로 삼아 비난 가능성이 크다”면서도 “피고인이 범행을 인정하고 반성하는 점, 형사처벌 전력이 없는 점 등을 유리한 정상으로 참작했다”고 선고 이유를 밝혔다.
+검찰에 제기한 공소사실에 따르면 ㄱ씨는 지난해 11~12월 강사로 일하던 제주시의 한 기타학원에서 13살 미만 피해자를 여러 차례 성추행·성폭행한 혐의를 받고 있다. 경찰 조사 과정에서 두 명의 미성년 학생이 피해를 당한 사실도 추가로 드러났다.
+검찰은 지난 12일 열린 결심공판에서 ㄱ씨에게 징역 18년을 선고해달라고 재판부에 요청했다. 당시 ㄱ씨는 “피해자와 가족에게 죄송하다. 반성하면서 살겠다”며 공소 사실을 모두 인정했다.
+ㄱ씨 변호인은 “피고인이 교회를 다녔는데, 목사 딸과 교제하다가 목사로부터 반대에 부딪혀 중단했고, 군 제대 후 재차 교제를 하려 했으나 거부당해 결국 신앙생활을 접고 기타에 매진했다”며 “피고인은 첫사랑만 그리워하다 패배감 등에 빠져 결국 이 사건 범행에 이른 것으로 보인다. 중형이 불가피한 것을 알고 있으니 지금의 피고인에겐 교화가 더 필요한 것 같다”고 선처를 호소했다.
+서보미 기자 spring@hani.co.kr</t>
+  </si>
+  <si>
+    <t>제주지방법원 제2형사부(부장판사 임재남)는 13살 미만 미성년자 위계 등 추행(성폭력범죄의 처벌 등에 관한 특례법 위반) 등의 혐의로 구속기소된 32살 ᄀ씨에게 40시간의 성폭력 치료 강의 수강, 10년간의 아동·청소년 및 장애인 관련기관 취업제한도 명령 등을 선고했다.</t>
+  </si>
+  <si>
+    <t>수원 광교호숫가에 화랑 104곳 ‘미술품 장마당’</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/culture/music/1204859.html</t>
+  </si>
+  <si>
+    <t>한국화랑협회(회장 이성훈) 회원 화랑들의 작품 장터(아트페어)인 ‘2025 화랑미술제 인 수원’이 26일 경기 수원 광교 수원컨벤션센터에서 개막했다.
+오는 29일까지 센터의 1층 전시홀과 3층 컨벤션홀에서 열리는 이 장터는 올해로 2회째다. 서울에만 거래가 쏠리는 미술 시장의 불균형을 해소하고, 수원을 비롯한 경기 지역 미술 인프라를 적극 활용하고 강화하자는 취지에서 지난해부터 시작됐다고 협회 쪽은 설명했다.
+광교호수공원이 내려다 보이는 센터에서 펼쳐지는 장터의 본전시와 특별전에는 104개 화랑이 각기 부스를 차려 작가 600여명의 작품을 내놓았다. 첨단 산업단지가 있어 젊은 인구 유입이 활발한 신도시 광교의 특성을 반영해 젊은 신진 작가들의 참여가 두드러진 양상을 보인다고 협회 쪽은 소개했다. 달항아리를 어린이 눈높이로 감상하고 빚어보는 키즈 아트 살롱과 센터 열린광장의 야외 재즈 공연, 와인 페스티벌, 센터 구름정원의 갤러리 나이트 등 딸림행사들도 마련된다.
+노형석 기자 nuge@hani.co.kr</t>
+  </si>
+  <si>
+    <t>한국화랑협회(회장 이성훈) 회원 화랑들의 작품 장터인 ‘2025 화랑미술제 인 수원’이 26일 경기 수원 광교 수원컨벤션센터에서 개막하여 29일까지 센터의 1층 전시홀과 3층 컨벤션홀에서 열린다.</t>
+  </si>
+  <si>
+    <t>30대 엄마 죽음 내몬 사채업자  밤낮 없이 954회 전화·메시지 협박</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/society_general/1204858.html</t>
+  </si>
+  <si>
+    <t>홀로 아이를 키우던 30대 여성을 죽음으로 내몬 불법 사채업자 김아무개씨의 협박은 밤낮을 가리지 않았다. 그는 채무자나 채무자 지인에게 1천회에 가깝게 전화하고 메시지를 전송하며 협박을 이어갔다.
+주진우 국민의힘 의원이 법무부로부터 제출받은 김씨의 공소장을 26일 보면, 김씨는 ‘김태풍’, ‘풍실장’, ‘윤차장’, ‘윤혁’ 등 가명을 사용하여 6명의 채무자에게 연이율 2409∼5214%에 달하는 무등록 불법 대부업을 벌였다. 대출금을 상환받지 못할 경우에 대비해 채무자로부터 가족 등 지인 연락처를 확보하기도 했다. 채무자가 제때 대출금을 상환하지 않으면 채무자와 지인에게 욕설하며 전화를 걸거나 문자메시지를 전송하며 협박하는 방법을 사용했다.
+특히 협박이 동원된 추심은 밤낮 없이 반복적으로 진행됐다. 김씨는 지난해 8월29일부터 약 3개월간 채무자와 그들의 지인 등 7명에게 954회에 걸쳐 반복적으로 또는 야간에 협박하는 내용의 전화를 걸거나 문자메시지를 전송했다. 채권추심법에서는 채권추심자는 정당한 사유 없이 반복적으로 또는 야간에 전화하는 등 채무자에게 공포심·불안감을 유발하는 행위를 금지하고 있다.
+채무자나 지인들에게 입에 담을 수 없는 협박을 한 정황이 드러나기도 했다. 공소장을 보면 김씨는 채무자 ㄱ씨에게 540만원을 대출해주며 6일 뒤 950만원을 변제받기로 한 뒤 ㄱ씨가 갚지 않자 ㄱ씨의 어머니에게 문자메시지로 칼 사진을 전송한 뒤 “잘 봐, 아프게 찔러줄게. 돈 얼마 안 되는 거 가지고 니 목숨 오늘 내가 죽여줄게” 등의 메시지를 보냈다. 채무자 ㄴ씨에게도 전화해 “느그 애비랑 누나랑 전화 안 받노”라며 “너 지금 전화 끊잖아, 내가 그 돈 안 받을 생각하고 너 그냥 죽인다 그냥”이라고 했다.
+홀로 아이를 키우던 30대 여성 ㄷ씨는 김씨의 이러한 협박을 견디지 못해 지난해 9월 유서를 남기고 스스로 목숨을 끊었다. ㄷ씨의 죽음을 계기로 경찰과 검찰은 애초 지난해 10월까지였던 불법채권추심 특별단속기간을 1년 더 연장하고, 그 대응 수위도 강화하기로 했다. 김씨는 대부업법·채권추심법 위반 혐의로 구속 기소됐지만 지난달 30일 보석으로 풀려나 불구속 상태에서 재판을 받고 있다.
+※검찰이 공소장에서 밝힌 혐의 내용은 법원 판결을 거쳐 최종 확정됩니다.
+정봉비 기자 bee@hani.co.kr</t>
+  </si>
+  <si>
+    <t>홀로 아이를 키우던 30대 여성을 죽음으로 내몬 불법 사채업자 김아무개씨는 지난해 8월29일부터 약 3개월간 채무자와 그들의 지인 등 7명에게 954회에 걸쳐 반복적으로 전화를 걸거나 문자메시지를 전송하며 협박을 했다는 공소장을 법무부로부터 제출받았다.</t>
+  </si>
+  <si>
+    <t>‘1300억 손실 은폐’ 신한투자증권 임직원들 1심서 징역 3년</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/society_general/1204857.html</t>
+  </si>
+  <si>
+    <t>상장지수펀드(ETF) 선물거래 과정에서 발생한 1300억원 규모의 손실을 은폐했던 신한투자증권 임직원 2명이 1심에서 징역 3년을 선고받았다.
+서울남부지법 형사7단독 유정훈 판사는 사기와 업무방해 등의 혐의로 기소된 조아무개(38)씨와 이아무개(46)씨에게 각각 징역 3년을 선고하고 법정 구속했다.
+신한투자증권의 상장지수펀드 유동성공급자(LP) 업무를 맡았던 이들은 지난해 8월 담당 업무와는 무관한 선물거래 과정에서 주가 폭락으로 1300억원 상당의 손실을 보자, 이를 은폐하기 위해 통상적인 스와프거래 계약을 맺은 것처럼 증권사 전산시스템에 허위 등록한 혐의를 받는다.
+이들은 또 2023년에는 해외 상장지수펀드 상품을 운용하다 1천억원 넘는 손실이 발생하면서 성과급을 받기 어려워지자 성과급 지급에 쓰이는 관리회계 내용을 조작하기도 했다. 이렇게 이들이 챙긴 성과급만 4억7천만원이 넘는 것으로 조사됐다.
+유 판사는 “업무상 허용된 범위 밖의 행동을 하면서 부당이익을 편취했다. 피해자의 신뢰를 악용해 불법적인 금액을 취득해 죄질이 매우 무겁다”고 판단했다. 또 이들에게 도주 우려가 있다고 보고 법정에서 구속했다.
+조해영 기자 hycho@hani.co.kr</t>
+  </si>
+  <si>
+    <t>지난해 8월 상장지수펀드(ETF) 선물거래 과정에서 주가 폭락으로 1300억원 규모의 손실을 본 신한투자증권 임직원 2명이 1심에서 징역 3년을 선고받고 법정 구속되었다.</t>
+  </si>
+  <si>
+    <t>내란특검  소환 D-2 윤석열에 ‘계엄 국무회의’ 추가 조사내용 통보</t>
+  </si>
+  <si>
+    <t>https://www.hani.co.kr/arti/society/society_general/1204856.html</t>
+  </si>
+  <si>
+    <t>본문 없음</t>
+  </si>
+  <si>
+    <t>요약 생략 (본문 부족)</t>
+  </si>
+  <si>
+    <t>이 대통령  '자매 사망' 부산 화재에 "비극 반복되지 않게 할 것"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154330</t>
+  </si>
+  <si>
+    <t>이 대통령, '자매 사망' 부산 화재에 "비극 반복되지 않게 할 것"
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>강준현 "국회·대통령실 세종 완전 이전 담은 특별법 발의 준비에 한창인데 구급차 가로막아 경악을 금치 못했다.</t>
-  </si>
-  <si>
-    <t>이 대통령  'AI 육성 드라이브' 본격화…경제 살리기 행보 박차</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146117</t>
-  </si>
-  <si>
-    <t>이 대통령, 'AI 육성 드라이브' 본격화…경제 살리기 행보 박차
+    <t>이 대통령, '자매 사망' 부산 화재에 '비극 반복되지 않게 할 것'이라며 '자매 사망' 부산 화재에 '비극 반복되지 않게 할 것'이라며 '자매 사망' 부산 화재에 '비극 반복되지 않게 할 것이라며 이 대통령, '자매 사망' 부산 화재에 '비극 반복되지 않게 할 것이라며 유가족의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어 있다.</t>
+  </si>
+  <si>
+    <t>[현장영상] 두 번이나 "총리 임명하면 안 돼" 다급한 권성동…어깨 툭 치며 환하게 웃은 이재명 대통령</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154086</t>
+  </si>
+  <si>
+    <t>[현장영상] 두 번이나 "총리 임명하면 안 돼" 다급한 권성동…어깨 툭 치며 환하게 웃은 이재명 대통령
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>이 대통령, 'AI 육성 드라이브' 본격화...경제 살리기 행보 박차등등, 'AI 육성 드라이브' 본격화...'경제 살리기 행보 박차등등.</t>
-  </si>
-  <si>
-    <t>"수사·기소 분리 없네? 다시 해와"…검찰  업무보고 중 '중도 귀가' [바로이뉴스]</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146118</t>
-  </si>
-  <si>
-    <t>"수사·기소 분리 없네? 다시 해와"…검찰, 업무보고 중 '중도 귀가' [바로이뉴스]
+    <t>강남 '남성전용 수면방' 실체 자유한국당의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 '강남 '남성전용 수면방' 실체 자유한국당의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>[속보] 국방차관에 이두희 전 미사일전략사령관</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154293</t>
+  </si>
+  <si>
+    <t>[속보] 국방차관에 이두희 전 미사일전략사령관
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>검찰, 업무보고 중 검찰, 업무보고 중 '중도 귀가'하며 '뻔뻔함은 당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
-  </si>
-  <si>
-    <t>주한 미대사관 "유학비자 신청 곧 재개…SNS 공개로 설정해야"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146109</t>
-  </si>
-  <si>
-    <t>주한 미대사관 "유학비자 신청 곧 재개…SNS 공개로 설정해야"
+    <t>이두희 전 미사일전략사령관은 강남 '남성전용 수면방' 실체과, 흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>[바로이뉴스] 헌법재판소장 후보자에 김상환…이승엽 변호사는 '고사'</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154229</t>
+  </si>
+  <si>
+    <t>[바로이뉴스] 헌법재판소장 후보자에 김상환…이승엽 변호사는 '고사'
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>20대 무속인 법정서 '뻔뻔스럽게당신의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
-  </si>
-  <si>
-    <t>[정치쇼] 조천호 "IMF 3배짜리 경제 피해 온다…기후위기  정치가 할 일은?"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146030</t>
-  </si>
-  <si>
-    <t>[정치쇼] 조천호 "IMF 3배짜리 경제 피해 온다…기후위기, 정치가 할 일은?"
+    <t>이승엽 변호사는 '강남 '남성전용 수면방' 실체 폭로흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>이 대통령  헌재소장·재판관 후보자 지명…"헌재 회복 위한 첫 걸음"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154275</t>
+  </si>
+  <si>
+    <t>이 대통령, 헌재소장·재판관 후보자 지명…"헌재 회복 위한 첫 걸음"
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>조천호 "IMF 3배짜리 경제 피해 온다"...20대 무속인 법정서 '뻔뻔스럽게당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
-  </si>
-  <si>
-    <t>국정위  검찰 업무보고 중단…"내용도  형식적 요건도 못 갖춰"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008146004</t>
-  </si>
-  <si>
-    <t>국정위, 검찰 업무보고 중단…"내용도, 형식적 요건도 못 갖춰"
+    <t>이 대통령은, 헌재소장·재판관 후보자 지명 등 헌재 회복을 위한 첫 걸음걸음으로 이 대통령, 헌재소장·재판관 후보자 지명 등 헌재 회복을 위한 첫 걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음걸음</t>
+  </si>
+  <si>
+    <t>[여담야담] 송곳 질문에 농담도…타운홀미팅서 국정 자신감 보인 이 대통령</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154014</t>
+  </si>
+  <si>
+    <t>[여담야담] 송곳 질문에 농담도…타운홀미팅서 국정 자신감 보인 이 대통령
 최근 24시간 이내 속보 및 알림을 표시합니다.
-검찰, 업무보고 중 중도 귀가 조치…보고 내용 어땠길래
-"차 안에 사람이" 절반 잠긴 SUV…지하차도 덮친 흙탕물
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
-대형 교회 예배 생중계 중 20초간…북한 인공기 '깜짝'
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>최근 24시간 이내 속보 및 알림을 표시한 검찰, 업무보고 중 중도 귀가 조치, 김준호 신혼여행지 코스 공개되자 자유한국당의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 준비하였다.</t>
-  </si>
-  <si>
-    <t>대통령실  차관급 인사 단행…김남중 통일부 차관 등</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008145972</t>
-  </si>
-  <si>
-    <t>대통령실, 차관급 인사 단행…김남중 통일부 차관 등
+    <t>강남 '남성전용 수면방' 실체 자유한국당이 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠인 '강남 '남성전용 수면방' 실체 자유한국당이 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>[여담야담] '체포영장 기각' 윤  모레 특검 출석…김건희 여사 수사는</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154012</t>
+  </si>
+  <si>
+    <t>[여담야담] '체포영장 기각' 윤, 모레 특검 출석…김건희 여사 수사는
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>대통령실, 차관급 인사 단행, 김남중 통일부 차관 등등의최근 24시간 이내 속보 및 알림을 표시하는 속보 및 알림을 표시하는 속보 및 알림을 표시하는 속보 및 알림을 표시하는 속보 및 알림을 표시하는 알림을 표시하는 속보 및 알림을 표시하는 알림을 표시하였다.</t>
-  </si>
-  <si>
-    <t>"용산의 비서실  정권 나팔수!"…"업무보고 전 사과부터" 고성 [바로이뉴스]</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008145896</t>
-  </si>
-  <si>
-    <t>"용산의 비서실, 정권 나팔수!"…"업무보고 전 사과부터" 고성 [바로이뉴스]
+    <t>'체포영장 기각' 윤, 모레 특검 출석한 김건희 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사 수사는 김정은 여사</t>
+  </si>
+  <si>
+    <t>[여담야담] 김민석 청문회 파행 두고 "네 탓" 공방…표결 강행되나</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154011</t>
+  </si>
+  <si>
+    <t>[여담야담] 김민석 청문회 파행 두고 "네 탓" 공방…표결 강행되나
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>김준호 신혼여행지 코스 공개되자마자 심장마비로 숨진 아빠, 팔에 깔려 3개월 아기마저 사망하였고 50대 무속인 법정서 '뻔뻔스런당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠 김정은</t>
-  </si>
-  <si>
-    <t>[정치쇼] 조경태 "윤  일반인처럼 체포해야…내란특검  전대 변수될 것"</t>
-  </si>
-  <si>
-    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008145897</t>
-  </si>
-  <si>
-    <t>[정치쇼] 조경태 "윤, 일반인처럼 체포해야…내란특검, 전대 변수될 것"
+    <t>김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 "네 탓" 공방...김민석 청문회 파행 두고 네 탓" 공방...김민석 청문회 파행 두고 김민석 청문회 파행 두고 김민석 청문회 파행 두고 김민석 청문회</t>
+  </si>
+  <si>
+    <t>[여담야담] 이 대통령 "골든타임 놓쳐선 안 돼"…추경 처리 여야 합의할까</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154010</t>
+  </si>
+  <si>
+    <t>[여담야담] 이 대통령 "골든타임 놓쳐선 안 돼"…추경 처리 여야 합의할까
 최근 24시간 이내 속보 및 알림을 표시합니다.
-병원 코앞인데 구급차 가로막았다…하지절단 환자 결국
-난장판 된 집에 홈캠 보다가 경악…낯선 남성이 노린 곳
-"재벌도 여긴 못 가"…김준호 신혼여행지 코스 공개되자
-심장마비로 숨진 아빠…팔에 깔려 3개월 아기마저 사망
-후배 감금에 나체 촬영까지…50대 무속인 법정서 '뻔뻔'
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
 당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
 Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
   </si>
   <si>
-    <t>조경태 "윤, 일반인처럼 체포해야...내란특검, 전대 변수될 것"</t>
-  </si>
-  <si>
-    <t>“같은 서울인데 딴 세상 이야기”…강남 3구 거래 3건 중 1건 ‘신고가’</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/realestate/11348320</t>
+    <t>이 대통령 '골든타임 놓쳐선 안 된다', '강남 '남성전용 수면방' 실체 등으로 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>[바로이뉴스] "부산 화재  돌봄시스템 있었다면" 강선우 여성가족부 장관 후보자의 다짐</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154157</t>
+  </si>
+  <si>
+    <t>[바로이뉴스] "부산 화재, 돌봄시스템 있었다면" 강선우 여성가족부 장관 후보자의 다짐
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강선우 여성가족부 장관 후보자의 다짐에 따르면 강남 '남성전용 수면방' 실체가 흉기로 며느리 수차례 찌른 70대 할머니 집유, 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>'박수·환호' 반대편에선 '멀뚱·침묵'…"좀 쑥스럽다" 첫 시정연설 국회 반응은 [현장영상]</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153704</t>
+  </si>
+  <si>
+    <t>'박수·환호' 반대편에선 '멀뚱·침묵'…"좀 쑥스럽다" 첫 시정연설 국회 반응은 [현장영상]
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+제한 속도 지켰는데…스쿨존서 사망사고 낸 40대 징역, 왜
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>'박수·환호' 반대편에서는 '멀뚱·침묵', '박수·환호' 반대편에서는 '멀뚱·침묵', '멀뚱·침묵', '멀뚱·침묵', '멀뚱·침묵', '멀뚱·침묵', '멀뚱·침묵', '멀뚱·멀뚱·침묵' 등의 반응이 나왔다.</t>
+  </si>
+  <si>
+    <t>이 대통령  헌재소장 후보자 김상환 지명…국세청장 임광현 발탁</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154148</t>
+  </si>
+  <si>
+    <t>이 대통령, 헌재소장 후보자 김상환 지명…국세청장 임광현 발탁
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>이 대통령, 헌재소장 후보자 김상환 지명...국세청장 임광현 지명...김상환 지명...국세청장 임광현 발탁</t>
+  </si>
+  <si>
+    <t>미 항모 드론 촬영 중국 유학생 구속  이적·군사기지법 첫 적용</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008154041</t>
+  </si>
+  <si>
+    <t>미 항모 드론 촬영 중국 유학생 구속, 이적·군사기지법 첫 적용
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남성전용 수면방' 실체 폭로흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>김용태 바라보며 "특히 우리 김용태!"…국회의장 만나 "제가 이제 을  잘 부탁드려" [바로이뉴스]</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153973</t>
+  </si>
+  <si>
+    <t>김용태 바라보며 "특히 우리 김용태!"…국회의장 만나 "제가 이제 을, 잘 부탁드려" [바로이뉴스]
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남 '남성전용 수면방' 실체 자유한국당이 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>민주 "이 대통령과 현실 인식 같이해…추경 조속 처리에 온 힘"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153964</t>
+  </si>
+  <si>
+    <t>민주 "이 대통령과 현실 인식 같이해…추경 조속 처리에 온 힘"
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남성전용 수면방' 실체, 흉기로 며느리 수차례 찌른 70대 할머니 집유 등 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>이 대통령 첫 추경 시정연설…'경제' 24차례 언급</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153936</t>
+  </si>
+  <si>
+    <t>이 대통령 첫 추경 시정연설…'경제' 24차례 언급
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>이 대통령 첫 추경 시정연설에서 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성된 '강남 '남성전용 수면방' 실체, 흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>이 대통령 시정연설에 민주 박수 12번 호응…국힘 '김민석 지명 철회' 요청</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153918</t>
+  </si>
+  <si>
+    <t>이 대통령 시정연설에 민주 박수 12번 호응…국힘 '김민석 지명 철회' 요청
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남성전용 수면방' 실체,흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>북한 원산갈마관광지구 준공식…1년 반 만에 등장한 리설주</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153837</t>
+  </si>
+  <si>
+    <t>북한 원산갈마관광지구 준공식…1년 반 만에 등장한 리설주
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>북한 원산갈마관광지구 준공식 때 김정은 북한 원산갈마관광지구 준공식장에 등장한 리설주씨는 1년 반 만에 등장한 '북한 원산갈마관광지구' 준공식 속보 및 알림을 표시하고 손자 살해 시도를 끝 잡혔다.</t>
+  </si>
+  <si>
+    <t>국힘 "김민석 지명 철회해야"…민주 "국정 발목잡기"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153833</t>
+  </si>
+  <si>
+    <t>국힘 "김민석 지명 철회해야"…민주 "국정 발목잡기"
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남성전용 수면방' 실체 선보이며흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>이 대통령 "경제는 타이밍…내수시장 활력 불어넣어야"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153832</t>
+  </si>
+  <si>
+    <t>이 대통령 "경제는 타이밍…내수시장 활력 불어넣어야"
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>이경 "경제는 타이밍...내수시장 활력 불어넣어야"이경규 약물운전 당시 보니 흉기로 며느리 수차례 찌른 70대 할머니 집유에 대해 이 대통령 "경제는 타이밍...내수시장 활력 불어넣어야" 등 이 대통령은 경제는 타이밍...내수시장 활력 불어넣어야한다고 말했다.</t>
+  </si>
+  <si>
+    <t>이 대통령 "경제는 타이밍…속도감 있는 추경 집행 중요"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153864</t>
+  </si>
+  <si>
+    <t>이 대통령 "경제는 타이밍…속도감 있는 추경 집행 중요"
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>이 대통령은 '경제는 타이밍...속도감 있는 추경 집행 중요성' 등 경제는 타이밍...속도감 있는 추경 집행 중요성 등 경제는 타이밍...속도감 있는 추경 집행 중요성 등 경제는 타이밍...속도감 있는 추경 집행 중요성.</t>
+  </si>
+  <si>
+    <t>이 대통령  여야 지도부와 환담…"제가 이제 을  잘 부탁한다"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153859</t>
+  </si>
+  <si>
+    <t>이 대통령, 여야 지도부와 환담…"제가 이제 을, 잘 부탁한다"
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>이 대통령, 여야 지도부와 환담에서 '강남 '남성전용 수면방' 실체, 흉기로 며느리 수차례 찌른 70대 할머니 집유 등 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들이 공개되었다.</t>
+  </si>
+  <si>
+    <t>김용태 "김민석 지명 철회 요청에 이 대통령 특별한 말 없어"</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153830</t>
+  </si>
+  <si>
+    <t>김용태 "김민석 지명 철회 요청에 이 대통령 특별한 말 없어"
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남성전용 수면방' 실체과, 흉기로 며느리 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어 있으며 강남 '남성전용 수면방' 실체과, 흉기로 며느리를 수차례 찌른 70대 할머니의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어 있다.</t>
+  </si>
+  <si>
+    <t>권성동 "총리 임명 안 돼" 2번 말하자…이 대통령 웃으며 팔 '툭'</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153811</t>
+  </si>
+  <si>
+    <t>권성동 "총리 임명 안 돼" 2번 말하자…이 대통령 웃으며 팔 '툭'
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>강남 '남성전용 수면방' 실체, 흉기로 며느리 수차례 찌른 70대 할머니 집유, 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠들로 구성되어있다.</t>
+  </si>
+  <si>
+    <t>이 대통령 국정 지지율 62%…2주 만에 9%p 상승 [NBS]</t>
+  </si>
+  <si>
+    <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1008153818</t>
+  </si>
+  <si>
+    <t>이 대통령 국정 지지율 62%…2주 만에 9%p 상승 [NBS]
+최근 24시간 이내 속보 및 알림을 표시합니다.
+두 번 손자 살해 시도 끝 잡혔다…70대 할머니 집유 왜?
+연설하던 이 대통령 "좀 쑥스럽다"…한쪽 보며 웃었지만
+이경규 약물운전 당시 보니…"비틀비틀" 위험천만 모습
+속옷에 숨겨 들여와 퍼졌다…강남 '남성전용 수면방' 실체
+흉기로 며느리 수차례 찌른 70대…하는 말이 "아들 미워서"
+당신의 지적 탐험과 발견, 성장, 나눔의 세계로 이끌어줄 프리미엄 콘텐츠
+Copyright Ⓒ SBS. All rights reserved. 무단 전재, 재배포 및 AI학습 이용 금지</t>
+  </si>
+  <si>
+    <t>이 대통령 국정 지지율 62%...2주 만에 9%p 상승, 이 대통령 국정 지지율 62%...2주 만에 9%p 상승, 이 대통령 국정 지지율 62%...2주 만에 9%p 상승, 이 대통령 국정 지지율 62%...2주 만에 9%p 상승, 이 대통령 국정 지지율 62%...2주 만에 9%p 상승했다.</t>
+  </si>
+  <si>
+    <t>최고가 7500만원 기록… 마사회 제주목장  올해 두 번째 경주마 경매</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/sports/11353207</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1521,9 +1904,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-올해 1월부터 4월까지 서울 아파트 시장에서 강남 3구의 신고가 거래 건수가 노도강의 25배에 달하는 것으로 나타났다.
-강남 3구의 평균 매매가는 23억8370만원으로 이전 최고점을 11% 이상 초과한 반면, 노도강은 2021년 최고점 대비 -6% 낮은 7억3662만원에 머물고 있어 가격 격차가 크게 벌어졌다.
-전문가들은 이번 강남-비강남 간의 극명한 양극화가 과거 상승장의 패턴과 유사하지만, 현재의 경제 여건과 금리 부담을 고려할 때 동일한 결과가 반복될지는 불확실하다고 보고 있다.
+한국마사회 제주목장에서 올해 두 번째 경주마 경매에서 최고가 7500만원이 기록되며 총 71두의 예비 경주마가 상장됐다.
+이번 경매에서 낙찰률은 38%로, 평균 낙찰가액은 3322만원에 달했으며, 최고 낙찰가는 77번에 상장된 혈통이 뛰어난 수말이었다.
+마사회는 올해 연말까지 총 6회의 경주마 경매를 실시할 계획이며, 다음 경매는 9월에 예정되어 있다.
 언어변경
 글자크기 설정
 가
@@ -1536,9 +1919,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-올해 1월부터 4월까지 서울 아파트 시장에서 강남 3구의 신고가 거래 건수가 노도강의 25배에 달하는 것으로 나타났다.
-강남 3구의 평균 매매가는 23억8370만원으로 이전 최고점을 11% 이상 초과한 반면, 노도강은 2021년 최고점 대비 -6% 낮은 7억3662만원에 머물고 있어 가격 격차가 크게 벌어졌다.
-전문가들은 이번 강남-비강남 간의 극명한 양극화가 과거 상승장의 패턴과 유사하지만, 현재의 경제 여건과 금리 부담을 고려할 때 동일한 결과가 반복될지는 불확실하다고 보고 있다.
+한국마사회 제주목장에서 올해 두 번째 경주마 경매에서 최고가 7500만원이 기록되며 총 71두의 예비 경주마가 상장됐다.
+이번 경매에서 낙찰률은 38%로, 평균 낙찰가액은 3322만원에 달했으며, 최고 낙찰가는 77번에 상장된 혈통이 뛰어난 수말이었다.
+마사회는 올해 연말까지 총 6회의 경주마 경매를 실시할 계획이며, 다음 경매는 9월에 예정되어 있다.
 언어변경
 글자크기 설정
 가
@@ -1546,30 +1929,22 @@
 가
 가
 기사 공유
-올해 1월부터 4월까지 서울 아파트 시장에서 강남 3구(강남·서초·송파)의 신고가 거래 건수가 노도강(노원·도봉·강북)의 25배에 달하는 것으로 드러났다.
-20일 부동산 중개 플랫폼 집토스가 국토교통부 실거래가 자료를 분석한 결과 올해 1~4월 강남 3구에서는 역대 최고가를 경신하는 신고가 거래는 총 1633건으로 집계됐다. 반면 노도강 지역에서는 65건에 그치면서 서울 내에서도 극명한 온도차가 감지됐다.
-전체 매매거래 중 신고가 비중 역시 강남 3구는 32.7%에 달해 ‘거래 3건 중 1건은 신고가’였지만 노도강은 2.8%에 불과한 수준이다.
-시장 회복 속도와 가격 격차도 빠르게 벌어지고 있다.
-강남 3구의 ‘국민평형’(84㎡~85㎡ 미만) 아파트 평균 매매가는 올해 23억8370만원을 기록하며 직전 최고점(2022년)을 11% 이상 돌파했다. 이 기간 노도강의 국민평형은 최고점(2021년) 대비 여전히 -6% 낮은 7억3662만원에 머무르고 있다.
-두 지역 간 가격 격차 배율은 2021년 2.6배에서 올해 3.2배로 확대됐다.
-특히 눈여겨볼 점은 이러한 극심한 양극화가 과거 상승장의 초입에서도 나타났던 패턴이라는 것이다.
-지난 2019년 상반기 강남 3구의 신고가 거래는 840건 수준이었지만 하반기 들어 4262건으로 5배 이상 폭증했다. 같은 시기 1826건으로 예열을 시작했던 노도강은 6개월 뒤인 2020년 상반기에 2979건으로 최고점을 찍으며 본격적인 상승 궤도에 올랐다.
-이러한 과거 패턴을 두고 일각에서는 현재의 격차가 향후 시장 전반의 회복으로 이어지는 전조라는 분석도 나온다.
-다만 과거와 다른 경제 여건과 높은 금리 부담 등을 고려할 때 이번에도 과거 패턴이 그대로 재현될 것이라고 예단하기는 이르다는 견해도 나온다.
-이재윤 집토스 대표는 “과거 ‘6개월 시차’ 패턴과 최근 시장에서 감지되는 반등 움직임을 고려할 때, 단기적으로 비강남권 지역은 전고점 수준을 회복하는 방향으로 움직일 가능성이 높다”면서도 “이것이 지역 간의 가격 격차가 줄어드는 것을 의미하지는 않는다”고 말했다.
-그러면서 “결국 하반기 시장은 ‘비강남권의 전고점 회복 시도’와 ‘핵심지와의 격차 확대’라는 두 가지 현상이 동시에 나타나는 복합적인 양상을 보일 것”이라며 “단순히 모든 지역이 오르는 활황장이 아닌, 지역별로 다른 속도와 배경을 가지고 움직이는 시장의 변화를 면밀히 읽어야 할 때”라고 덧붙였다.
+한국마사회 제주목장에서 올해 두 번째로 진행한 경주마 경매에서 최고가 7500만원이 기록됐다.
+한국마사회는 “지난 24일 제주목장 내 한국경주마생산자협회 경매장에서 올해 두 번째 2세 국산마 경매가 개최돼 총 71두의 예비 경주마가 상장됐다. 이 중 27두가 낙찰됐고, 총 낙찰 금액 8억9700만원을 기록했다”고 26일 밝혔다. 예비 경주마 중에서는 말이 200m를 전력 질주한 주행 기록과 모습을 확인한 뒤 경매에 참여하는 ‘브리즈업(breeze up)’ 촬영도 진행했다. 마사회 측은 “이를 통해 구매자들은 말의 혈통이나 외모뿐만 아니라 실제 주행능력을 확인한 후 구매할 수 있다는 장점이 있다”고 설명했다.
+낙찰률 38%를 기록한 이번 경매에서는 평균 낙찰가액 3322만원을 기록했다. 경매 최고 낙찰가는 77번에 상장된 수말로 7500만원이었다. 김경남 생산자가 배출한 이 수말은 한국마사회 대표 씨수말인 ‘섀클포드(부마)’와 ‘모닝뮤직(모마)’의 혈통을 이어받은 자마로 알려져 있다. 섀클포드는 2020년 한국마사회가 민간 목장 교배 지원을 위해 국내에 도입한 씨수말인데, 미국 삼관경주 중 하나인 프리크닉스 스테이크스에서 우승한 경력이 있고, 현재 40억원대 몸값을 자랑하는 말이다.
+마사회는 “올해 연말까지 경주마 경매는 총 6회에 걸쳐 시행될 예정”이라고 밝혔다. 다음 경매는 오는 9월에 진행된다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -1580,13 +1955,67 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>강남- 강남 간의 극명한 양극화가 과거 상승장의 패턴과 유사하지만, 현재의 경제 여건과 금리 부담을 고려할 때 동일한 결과가 반복될지는 불확실하다고 보고 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공한다.</t>
-  </si>
-  <si>
-    <t>‘한국 유도 에이스’ 김하윤  마침내 세계 최고 등극</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/sports/11348306</t>
+    <t>부동산 시장의 주요 트렌드는 2018년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 2018년 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 2018년 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 2018년 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 2018년 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘 네이버AI 검색은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공한다.</t>
+  </si>
+  <si>
+    <t>[속보] 국정원 “北 러 추가 파병 이르면 7~8월 이뤄질 듯”</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/politics/11353205</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+언어변경
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+언어변경
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>최근 부동산 시장의 주요 트렌드는 '2013년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장의 주요 트렌드는 '2013년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘 2018년 부동산 시장의 주요 트렌드는 '2013년 부동산 시장 동향과 부동산 시장 동향과 정부의 경제 정책 변화' 검색을 우선 설정하고 2018년 2025-06-26 09:00:00:00:00:00:00:00:00번째2025-06-24 09:09:03쿡2025-06-26 09:09:03   2025-06-26 09:00:00:00:00IA2025-06-25 09:28:37:37IA2025-06-25 09:28:28:28:23번째2025-06-24 07:28:37:37번째2025-06-24 07:28:37:</t>
+  </si>
+  <si>
+    <t>교보생명  대통령 표창…환경보호 확산 공로</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353201</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1597,9 +2026,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-한국 여자 유도 선수 김하윤이 세계유도선수권대회 여자 78kg 이상급에서 금메달을 획득하며 34년 만에 한국 선수로서 정상에 올랐다.
-김하윤은 결승에서 일본의 아라이 마오를 상대로 반칙승으로 금메달을 차지하였으며, 이전에는 동메달 두 개를 획득한 바 있다.
-같은 대회에 출전한 고교 유망주 이현지도 동메달을 획득하며 한국 유도팀은 금메달 1개, 동메달 3개로 종합 6위를 기록했다.
+교보생명은 환경보호 문화 확산과 교육에 기여한 공로로 대통령 표창을 수상했다.
+환경부는 환경의 날을 맞아 교보생명이 환경교육과 인식 개선에 적극적인 활동을 펼쳐온 점을 높이 평가했다고 밝혔다.
+교보생명은 '지구하다 페스티벌'과 '찾아가는 이동환경교실' 등 다양한 ESG 경영 활동을 통해 환경보호 의식을 확산하고 있다.
 언어변경
 글자크기 설정
 가
@@ -1612,9 +2041,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-한국 여자 유도 선수 김하윤이 세계유도선수권대회 여자 78kg 이상급에서 금메달을 획득하며 34년 만에 한국 선수로서 정상에 올랐다.
-김하윤은 결승에서 일본의 아라이 마오를 상대로 반칙승으로 금메달을 차지하였으며, 이전에는 동메달 두 개를 획득한 바 있다.
-같은 대회에 출전한 고교 유망주 이현지도 동메달을 획득하며 한국 유도팀은 금메달 1개, 동메달 3개로 종합 6위를 기록했다.
+교보생명은 환경보호 문화 확산과 교육에 기여한 공로로 대통령 표창을 수상했다.
+환경부는 환경의 날을 맞아 교보생명이 환경교육과 인식 개선에 적극적인 활동을 펼쳐온 점을 높이 평가했다고 밝혔다.
+교보생명은 '지구하다 페스티벌'과 '찾아가는 이동환경교실' 등 다양한 ESG 경영 활동을 통해 환경보호 의식을 확산하고 있다.
 언어변경
 글자크기 설정
 가
@@ -1622,23 +2051,26 @@
 가
 가
 기사 공유
-한국 여자 유도 에이스 김하윤(안산시청)이 세계유도선수권대회 여자 최중량급 정상에 올랐다. 34년 만에 한국 선수가 이 종목 정상에 오를 쾌거를 이뤘다.
-김하윤은 20일(한국시간) 헝가리 부다페스트에서 열린 국제유도연맹(IJF) 세계선수권대회 여자 78㎏ 이상급 결승에서 아라이 마오(일본)에 반칙승을 거두고 금메달을 획득했다. 이 종목 세계 5위인 김하윤은 7위 아라이를 상대로 연장 접전 끝에 지도 3개를 이끌어내면서 승리를 거뒀다. 지난해 세계선수권 동메달, 파리올림픽 동메달을 획득했던 김하윤은 마침내 메이저 세계 대회에서 최정상에 오르고 시상대에서 환하게 웃었다.
-특히 김하윤은 1991년 스페인 바르셀로나 대회에서 여자 최중량급이었던 72㎏ 이상급 금메달을 땄던 문지윤 이후 34년 만에 이 종목 세계선수권 금메달을 딴 한국 선수로 기록됐다. 올림픽 이후 왼 무릎 부상과 컨디션 난조로 이렇다 할 성적을 내지 못했던 김하윤은 큰 무대에서 강한 면모를 또한번 보여주면서 내년 9월에 열릴 아시안게임에 대한 전망도 밝혔다.
-이 종목에 함께 출전한 고교 유망주 이현지(남녕고)는 동메달을 획득했다. 이현지는 준준결승에서 김하윤과 만나 반칙패를 당한 뒤, 김하윤이 결승까지 살아남아 패자전 동메달 결정전에 진출했다. 이 경기에서 마릿 캄프스(네덜란드)를 상대한 이현지는 허리 대돌리기 한판승을 거두고 첫 출전한 시니어 세계선수권에서 메달을 획득하는 성과를 냈다.
-이날 함께 경기를 치른 남자 100㎏ 이상급의 김민종(양평군청)은 동메달을 땄다. 준결승에서 구람 투시슈빌리(조지아)에 한판패를 당한 뒤, 동메달 결정전에서 타멜란 바샤예프(러시아 출신 개인중립선수)를 연장 끝에 오금대떨어뜨리기 절반으로 승리를 거뒀다. 이로써 한국은 이번 대회 개인전에서 금메달 1개, 동메달 3개로 종합 6위에 올라 선전했다.
+교보생명이 환경보호 문화 확산과 교육에 앞장선 공로를 인정받아 대통령 표창을 받았다.
+교보생명은 지난 25일 환경부가 주최한 ‘제30회 환경의 날’ 포상 전수식에서 대통령 표창을 받았다고 26일 밝혔다. 행사는 세종시 정부세종청사에서 열렸다.
+환경부는 환경의 날(6월5일)을 맞아 환경보전에 이바지한 공로가 뚜렷한 개인이나 단체에 정부 포상을 수여한다. 대통령 표창은 단체 포상 중 훈격이 제일 높다.
+교보생명은 환경·사회·지배구조(ESG) 경영을 선도한다는 점을 높이 평가받았다. 특히 환경교육 전파와 환경보전 인식 개선을 통해 진정성 있는 활동을 펼쳐왔다고 인정받았다.
+교보생명 측은 “교보생명이 보험 업계를 대표하는 환경보호 선도기업이 된 데는 ‘국민교육진흥’과 ‘민족자본형성’이라는 창립 이념을 실현해온 신창재 교보생명 대표 겸 이사회 의장의 경영 철학이 자리 잡고 있다”며 “신 의장은 주주뿐만 아니라 고객, 보험설계사, 직원, 지역사회, 정부 등 ‘모든 이해관계자와의 공동발전 추구’라는 경영 철학을 바탕으로 다양한 ESG 경영 활동을 추진하고 있다”고 전했다.
+교보생명은 환경보호를 위해 ‘지구하다 페스티벌’을 주최하고 있다. 작년 9월 행사에는 학생, 시민 등 5000여 명이 탄소 저감 방안 등을 체험하며 환경 보전에 대해 생각하는 시간을 가졌다.
+교보생명은 이와 함께 아동과 청소년을 대상으로 ‘찾아가는 이동환경교실’도 운영한다.
+조직에도 환경보호 의식을 심고 있다. 임직원 3350여 명이 환경보호 실천다짐서약과 환경보호교육을 이수했으며, 이들 명의로 6700그루의 환경 희망나무를 베트남 빈곤 농가에 지원했다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -1649,13 +2081,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>20일(한국시간) 헝가리 부다페스트에서 열린 국제유도연맹(IJF) 세계선수권대회 여자 78kg 이상급 결승에서 아라이 마오(일본)에 반칙승을 거두고 금메달을 획득한 한국 여자 유도 에이스 김하윤이 세계유도선수권대회 여자 78kg 이상급 정상에 올랐다.</t>
-  </si>
-  <si>
-    <t>한솔테크닉스  오리온테크놀리지 지분 50% 인수</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/stock/11348304</t>
+    <t>'지구하다 페스티벌'과 '찾아가는 이동환경교실' 등 환경교육과 인식 개선에 적극적인 활동을 펼쳐온 교보생명이 환경·사회·지배구조(ESG) 경영을 선도한다는 점을 높이 평가받아 지난 25일 환경부가 주최한 '제30회 환경의 날' 포상 전수식에서 대통령 표창을 받았다.</t>
+  </si>
+  <si>
+    <t>갑자기 부풀어 오른 아스팔트  공중으로 날아오른 차량…‘기록적 폭염’ 美에 무슨 일이</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/world/11353196</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1666,9 +2098,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-한솔그룹의 한솔테크닉스가 하일랜드에쿼티파트너스와 협력하여 선박엔진 컨트롤러 제조업체인 오리온테크놀리지를 인수했다.
-한솔테크닉스는 약 676억원을 투자해 오리온테크놀로지의 50.06% 지분을 획득했으며, 나머지 지분은 하일랜드가 인수했다.
-오리온테크놀리지는 최근 몇 년 간 매출 증가세를 보이며 성장하고 있는 기업으로, 한솔테크닉스는 다양한 전자부품 사업을 영위하고 있다.
+미국 중서부와 동부 지역에는 기록적인 폭염이 닥쳐, 미주리주 케이프지라도의 아스팔트에서 차량이 공중으로 튀어 오르는 모습이 포착됐다.
+열돔 현상으로 인해 워싱턴DC와 애틀랜타 등 주요 도시에서 섭씨 38도 이상의 폭염이 지속되고 있으며, 맨해튼에서는 100년 만에 최고기온인 섭씨 37도를 기록했다.
+이 폭염은 인프라에 위협을 주고 있으며, 일부 지역에서는 정전과 함께 긴급 대피 조치가 이루어졌다.
 언어변경
 글자크기 설정
 가
@@ -1681,9 +2113,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-한솔그룹의 한솔테크닉스가 하일랜드에쿼티파트너스와 협력하여 선박엔진 컨트롤러 제조업체인 오리온테크놀리지를 인수했다.
-한솔테크닉스는 약 676억원을 투자해 오리온테크놀로지의 50.06% 지분을 획득했으며, 나머지 지분은 하일랜드가 인수했다.
-오리온테크놀리지는 최근 몇 년 간 매출 증가세를 보이며 성장하고 있는 기업으로, 한솔테크닉스는 다양한 전자부품 사업을 영위하고 있다.
+미국 중서부와 동부 지역에는 기록적인 폭염이 닥쳐, 미주리주 케이프지라도의 아스팔트에서 차량이 공중으로 튀어 오르는 모습이 포착됐다.
+열돔 현상으로 인해 워싱턴DC와 애틀랜타 등 주요 도시에서 섭씨 38도 이상의 폭염이 지속되고 있으며, 맨해튼에서는 100년 만에 최고기온인 섭씨 37도를 기록했다.
+이 폭염은 인프라에 위협을 주고 있으며, 일부 지역에서는 정전과 함께 긴급 대피 조치가 이루어졌다.
 언어변경
 글자크기 설정
 가
@@ -1691,25 +2123,25 @@
 가
 가
 기사 공유
-한솔그룹 핵심 계열사인 한솔테크닉스가 하일랜드에쿼티파트너스와 손잡고 선박엔진 컨트롤러 제조업체 오리온테크놀리지를 인수했다.
-20일 금융감독원 전자공시시스템에 따르면 한솔테크닉스는 약 676억원을 들여 기존에 오리온테크놀로지 지분 100%를 보유하던 케이스톤파트너스로부터 오리온테크놀로지 지분 50.06%를 사들였다. 나머지 지분은 하일랜드가 인수했다.
-한솔테크닉스와 하일랜드는 주주간계약에 따라 오리온테크놀로지가 기업공개 기한 내에 적격 기업공개를 완료하지 못할 경우 하일랜드가 한솔테크닉스 또는 한솔테크닉스가 지정하는 제3자에 보유주식 전부를 매수할 것을 청구할 수 있도록 했다.
-또한 거래종결일로부터 2년이 경과한 날부터 기업공개기한의 말일까지 하일랜드 보유주식 가운데 30%를 한솔테크닉스 또는 한솔테크닉스가 지정하는 제3자에 매도할 것을 청구할 수 있다. 이때 기업공개 기한은 거래종결일로부터 3년이며, 1년씩 2회 연장이 가능하다.
-오리온테크놀리지는 2003년 설립된 초대형 선박엔진 컨트롤러 제조사다. 조선업 슈퍼사이클 수혜를 받으며 지난 2020년 매출 293억원, 영업이익 29억원에서 지난해 매출 1001억원, 영업이익 159억원으로 뛰었다.
-1996년 설립된 한솔테크닉스는 TV·생활가전 파워보드, 휴대폰 무선충전 모듈 등을 생산·판매하는 전자부품 사업, 자동차 전장부품 사업, 스마트폰 위탁 생산·판매 사업, 태양광 모듈을 생산·판매하는 솔라 사업 등을 영위하고 있다.
-지난해 연결 기준 매출 1조1995억원으로 2023년(1조3027억원) 대비 감소세를 보였다. 태양광 산업 업황 둔화 여파다.
+미국 중서부와 동부 지역을 강타 중인 기록적 폭염이 미주리주 케이프지라도의 도로를 달구면서 차량이 공중으로 튀는 아찔한 장면이 포착됐다.
+지난 24일(현지시간) 뉴욕포스트에 따르면, 목격자인 앨버트 블랙웰 씨는 현장의 도로가 점점 부푸는 모습을 촬영하다가, 이날 뜨겁게 달아오른 아스팔트 위를 달리던 세단이 튀어 오르는 장면을 포착했다. 당시 기온은 섭씨 32 도를 웃돌았다.
+블랙웰씨는 자신의 영상이 SNS에 공유된 후 순식간에 화제를 모았다. 다행히 영상에 찍힌 차량은 지붕이나 외관에 눈에 띄는 손상이 없었다.
+이번 폭염은 ‘열돔(heat dome)’ 현상으로 발생했다. 현재 미 동부와 중서부 주요 도시들도 비슷한 폭염에 시달리고 있는데, 워싱턴DC, 애틀랜타, 보스턴, 샬럿, 필라델피아, 롤리 등의 도시에서 섭씨 38도를 넘는 더위가 지속되고 있다. 워싱턴기념탑은 냉방 설비 과부하 우려로 관람객의 출입이 금지되기도 했다.
+폭염 기록도 경신 중이다. 맨해튼의 지난 24일 최고기온은 섭씨 37도로, 100년 만에 가장 높은 수치를 기록했다. 폭스웨더의 코디 브로드는 “수십 년간 사람들은 이런 고온을 보지 못했다”며 “100년 전 기록이 하루 사이에 줄줄이 깨질 것”이라고 경고했다.
+한편, 이번 폭염은 인프라도 위협하고 있다. 볼티모어에서는 에어컨이 꺼진 암트랙 열차가 터널에 멈춰 승객들이 ‘찜통’에 갇히는 상황이 발생했으며, 뉴저지 톰스리버에서는 노숙자 수십 명이 긴급 대피 조치를 받았다. 일부 지역에서는 순환 정전 가능성이 제기돼 주민들의 전기 소비 자제 요청도 이어졌다.
+또한, 미주리 세인트앤에서는 정전 직후 55세 여성이 사망하는 사건도 발생했다는 보도도 있다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -1720,13 +2152,253 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>한솔테크닉스가 하일랜드에쿼티파트너스와 협력하여 선박엔진 컨트롤러 제조업체인 오리온테크놀리지를 인수하였으며 오리온테크놀리지는 최근 몇 년 간 매출 증가세를 보이며 성장하고 있는 기업으로, 한솔테크닉스는 다양한 전자부품 사업을 영위하고 있고, 최근 몇 년 간 매출 증가세를 보이며 성장하고 있는 기업이다.</t>
-  </si>
-  <si>
-    <t>“드디어 삼천피”…코스피  3년 6개월 만에 3000선 안착</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/stock/11348292</t>
+    <t>미국 중서부와 동부 지역에는 기록적인 폭염이 닥쳐, 미주리주 케이프지라도의 아스팔트에서 차량이 공중으로 튀어 오르는 모습이 포착되고 있으며, 맨해튼에서는 100년 만에 최고기온인 섭씨 37도를 기록해 폭염은 인프라에 위협을 주고 있으며, 일부 지역에서는 정전과 함께 긴급 대피 조치가 이루어지고 있으며, 일부 지역에서는 정전과 함께 긴급 대피 조치가 이루어지고 있다.</t>
+  </si>
+  <si>
+    <t>고개 숙인 송미령…“‘농망법’ 표현에 사과  희망법으로 만들겠다”</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353193</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+윤석열 정부에서 농림축산식품부 장관을 지낸 데 이어 새 정부에서도 유임된 송미령 장관이 양곡관리법 등 농업 4법을 ‘농망법’이라고 일컬은 데 대해 공식으로 사과했다.
+25일 송 장관은 국회 농림축산식품해양수산위원회 전체 회의에서 “(농업 4법은) 부작용을 낼 수 있는 측면이 있기 때문에 재고하자는 취지의 절실한 표현이었다”고 밝혔다. 이어 “절실함이 거친 표현으로 된 데 대해 사과의 말씀을 드린다”고 했다.
+송 장관은 지난 정부에서 농업 4법에 대해 “농업을 망치는 ‘농망법’”이라고 비판한 바 있다. 또 윤석열 전 대통령에게 거부권(재의요구권) 행사를 요청하기도 했다. 농업 4법은 농수산물 유통 및 가격안정법(농안법) 개정안·양곡관리법(양곡법) 개정안·농어업재해보험법 개정안·농어업재해대책법 개정안을 뜻한다.
+송 장관은 “우리 농업·농촌의 지속 가능성, 국민 입장에서 가장 좋은 대안을 찾아보자는 게 제 일관된 기준”이라며 “유연한 실용주의, 국가 책임의 농정, 국민 먹거리 제공이 큰 틀이라 생각하고 국정 철학에 맞춰 그동안 쟁점이 된 법안이나 정책을 전향적으로 검토하겠다. 의원과 농업인 단체와 소통하겠다”고 밝혔다.
+김선교 국민의힘 의원이 “농망법이 희망법으로 바뀌는 것인가”라고 묻자, 송 장관은 “(농업 4법을) 희망법으로 만들겠다”고 답했다. 또 “현장 농업인들이나 의원님들이 생각하는 것에 맞춰 더 훌륭한 대안이 나올 수 있게 하겠다. 우리 농업의 미래가 희망으로 가득 찰 수 있는 법을 만들어야 한다고 생각한다”고 했다.
+한편 송 장관이 이재명 정부에서 유임되자 여야를 막론하고 송 장관을 향한 거센 비판이 이어졌다. 송언석 국민의힘 원내대표는 “국민 시각에서는 매우 비겁한 태도”라며 “과거 대통령에게 재의 요구를 건의했던 법안들에 대해 그 누구도 아닌 본인의 소신과 철학을 중심으로 국민께 상세히 설명하기를 바란다”고 했다.
+안철수 국민의힘 의원은 송 장관이 지난해 12·3 비상계엄 사태 당시 국무회의에 참석했던 데 대해 “2024년 12월 3일 밤, 윤석열 대통령의 계엄선포를 아무것도 하지 않고 방관한 장관”이라고 지적했다. 또 “실용의 이름으로 포장된 기회주의”라고 비판했다.
+전종덕 진보당 의원은 “철학과 소신이 정권 따라 바뀌는 장관을 어떻게 믿나”라며 송 장관을 꼬집었다. 전 의원은 송 장관에게 장관직 사퇴를 촉구했으나, 송 장관은 “마지막 날까지 최선을 다하겠다”고만 했다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>송미령 장관은 국회 농림축산식품해양수산위원회 전체 회의에서 양곡관리법 등 농업 4법을 ‘농망법’이라고 일컬은 데 대해 공식 사과하였다.25일 송 장관은 국회 농림축산식품해양수산위원회 전체 회의에서 “(농업 4법은) 부작용을 낼 수 있는 측면이 있기 때문에 재고하자는 취지의 절실한 표현이었다”고 밝혔다.</t>
+  </si>
+  <si>
+    <t>서울만 치솟는 집값…주택시장 위험지수 3년 만에 최고</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353190</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+최근 수년간 서울 등 수도권과 지방 집값이 전혀 다른 방향으로 움직이면서, 주택시장 불균형이 심화되고 있다는 한국은행의 경고가 나왔다. 특히 서울을 중심으로 주택시장 위험도가 3년 만에 최고 수준에 이른 것으로 나타났다.
+한국은행이 25일 발표한 ‘최근 주택시장의 특징 및 시사점’ 보고서에 따르면 2023년 1월 대비 올해 4월 서울 집값은 16.1% 증가했다. 강남으로 지역을 한정하면 주간 상승률은 0.7%로, 연간으로 환산할 경우 약 30%에 이른다. 수도권 전체로는 9.6% 상승이다. 반면 비수도권은 오히려 1.7% 하락했다. 거래량 역시 최근 수도권은 장기 평균을 웃돌지만 비수도권은 장기 평균을 밑돌고 있다.
+한은은 보고서에서 “금리 인하기 집값 상승 기대가 커지는 가운데 수도권을 중심으로 주택 매입 수요가 확대되고 있기 때문”이라며 “비수도권의 경우 인구 감소와 실물 경기 부진 등의 구조적 주택 수요 둔화도 영향을 미치고 있다”고 분석했다.
+서울 집값 상승세는 더 강해지고 있다. 토지거래허가구역 일부 해제 등의 영향으로 지난 1월 말 시작된 서울지역 주택 가격은 7주 만에 주간 상승률이 0.2%(연율 약 10%)에 이르렀다.
+이미 집값 상승 기대감은 2021년 이른바 ‘패닉바잉’이 극심했던 시기와 비슷한 수준까지 치솟았다. 한은이 최근 발표한 ‘6월 소비자 동향 조사’를 보면 1년 뒤 주택 가격에 대한 소비자 전망을 보여주는 주택가격전망지수는 전달보다 9포인트 오른 120으로 2021년 10월(125) 이후 최고 수준이다.
+이에 따라 서울 주택시장위험지수도 올해 1분기 기준 0.9까지 올라 문재인 정부 집값 급등기인 2022년 2분기 이후 최고치를 기록했다. 이 지수는 소득·임대료·전국 아파트 가격 대비 서울 아파트 가격의 격차(갭)를 의미한다.
+소득 대비 집값 부담을 나타내는 PIR도 1분기 말 서울은 10.1배로, 장기 평균(9.2배)을 크게 웃돌았다. 장정수 한은 금융안정국장은 “이 지수는 2분기(4~6월) 더 올랐을 가능성이 크다. 서울 집값 상승 속도가 과도하게 빨라 엄중히 보고 있다”고 말했다.
+한은은 대책으로 정책대출도 총부채원리금상환비율(DSR) 규제에 포함하자고 제안했다. 보고서에 따르면 2018~2019년 버팀목전세자금대출 등 전세 관련 정책대출 상품 공급이 확대됐는데 이는 코로나19 이후 경제 위기를 막으려는 정부의 양적완화 정책과 맞물리면서 집값 상승의 배경이 됐다. 모든 정책대출 상품이 DSR 규제 대상에 포함되면 전체 가계대출 잔액에서 규제를 받는 비중이 5.6% 포인트 상승해 집값 상승을 억제할 수 있다는 게 한은의 설명이다.
+문용필 한은 안정분석팀장은 “DSR 규제를 받는 대출은 전체 가계대출 잔액 중 45%에 불과하다”면서 “취약층이나 실수요자의 주거 안정을 해치지 않는 선에서 정책대출을 DSR 규제에 단계적으로 포함하는 방안을 검토해야 한다”고 말했다.
+다만 금융당국은 당장 규제를 확대하기보다 오는 7월 시행되는 3단계 스트레스 DSR 효과를 우선 지켜본 뒤 규제 확대 여부를 검토할 방침이다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>한국은행이 25일 발표한 ‘최근 주택시장의 특징 및 시사점’ 보고서에 따르면 2023년 1월 대비 올해 4월 서울 집값은 16.1% 증가하였으며 이는 수도권과 지방 집값이 전혀 다른 방향으로 움직이면서 주택시장 불균형이 심화되고 있다는 경고가 나왔다.</t>
+  </si>
+  <si>
+    <t>SK  작년 영업이익 1위 달성…“삼성보다 더 벌었다”</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353189</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+국내 주요 대기업 그룹의 2024년도 경영 실적을 비교한 결과 SK그룹이 전체 영업이익에서 삼성그룹을 제치고 처음으로 1위를 차지한 것으로 나타났다.
+6월 25일 기업분석 전문 기관인 한국CXO연구소가 발표한 92개 대기업집단 총수의 2024년 경영 성적 보고서에 따르면, SK그룹은 지난해 27조1385억원의 영업이익을 기록하며 1위를 차지했다. 삼성전자는 영업이익 27조352억원을 기록했다.
+HBM 반도체로 이익이 급증한 SK하이닉스가 SK그룹의 실적을 이끌었다. SK그룹 핵심 계열사인 SK하이닉스(21조3314억원) 영업이익은 삼성 핵심 기업인 삼성전자(12조3610억원)보다 9조원 가까이 많았다.
+그룹 전체 순이익 증가율에서도 SK그룹이 1위를 차지했다. 2023년 SK그룹 전체 순익은 6582억원이었지만, 지난해는 18조3595억원으로 1년새 2689.1% 급등했다.
+매출, 당기순이익, 고용은 삼성이 압도적으로 1위였다. 삼성은 ▲총 매출 399조6362억원 ▲순이익 41조6022억원 ▲고용 28만4761명으로 세 부문에서 1위를 차지했다.
+정의선 회장이 이끄는 현대차그룹은 ▲전체 매출 292조1195억원 ▲순익 23조7712억원 ▲고용 20만3915명으로 각각 2위를 기록했다. 전통 제조업 기반의 강점을 보인 셈이다. 재작년에 1위를 차지했던 그룹 전체 영업이익은 작년(18조 5333억 원)에는 SK와 삼성에 이어 3위를 기록했다.
+그룹 매출 증가율에서 가장 높은 성적을 거둔 총수는 조현범 한국앤컴퍼니 회장으로, 2023년 매출 4조2239억원에서 지난해 8조4668억원으로 2배 이상 커졌다. 영업이익 증가율에서는 2023년 453억원에서 지난해 7029억원의 영업이익을 거둔 박정석 고려에이치씨 회장이 1위에 올랐다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>한국CXO연구소가 발표한 92개 대기업집단 총수의 2024년 경영 성적 보고서에 따르면 SK그룹이 전체 영업이익에서 삼성그룹을 제치고 처음으로 1위를 차지했다.</t>
+  </si>
+  <si>
+    <t>SC제일은행서 130억원 규모 금융사고…여신거래 부당서류</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353187</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+SC제일은행에서 130억원 규모의 금융사고가 발생했다. 사고는 2년 이상 지속됐으며 은행 내부 조사에 의해 적발됐다.
+25일 금융권에 따르면 SC제일은행은 24일 공시를 통해 여신거래 관련 부당서류 징구 사고가 발생했다고 알렸다. 금융사고 금액은 130억3100만원이다.
+사고 발생 기간은 지난 2022년 2월부터 지난해 6월까지 약 2년 4개월간이다. 손실 예상 금액은 확정되지 않았다. 금융사고 금액에서 회수예상 금액을 차감한 손실예상 금액도 현재 파악 중이다.
+핵심 원인은 부당한 서류를 징구한 여신거래인 것으로 밝혀졌다. 대출 실행 과정에서 차주가 허위 서류를 제출했으나, 이 사실을 파악하지 못하는 등 은행 쪽 과실에 따른 것으로 알려진다.
+SC제일은행은 자체 조사 과정에서 이 같은 사실을 파악했다. 이번 사고는 외부 감사나 금융당국 조사가 아닌 내부적으로 발견했다는 점에서 은행의 자정 노력이 엿보인다는 평가가 있지만, 동시에 장기간 사고를 인지하지 못했다는 점은 관리 소홀의 비판도 있다.
+SC제일은행은 “관련 업무 프로세스를 개선하고, 관련 직원에 책임을 부과할 예정”이라고 밝혔다.
+한편 금융감독 규정에 따르면 공시된 ‘금융사고 금액’은 사고 당시 입은 총 피해액을 의미하며 실제 손실액은 향후 회수 가능성을 반영한 ‘손실예상금액’으로 별도 기재한다. 이번 사고의 손실예상금액 SC제일은행이 ‘미정’으로 밝힘에 따라 향후 회수 여부가 주목된다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>SC제일은행은 24일 공시를 통해 지난 2022년 2월부터 지난해 6월까지 약 2년 4개월간 약 130억원 규모의 금융사고가 발생했다고 알렸다.</t>
+  </si>
+  <si>
+    <t>SK쉴더스  AI 기반 보안관제 서비스 선보여</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353188</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1737,9 +2409,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-코스피가 3년 6개월 만에 종가 기준 3000선을 돌파하며 3021.84로 장을 마감했다.
-외국인과 기관 투자자의 쌍끌이 매수에 힘입어 지수는 1%대 상승을 기록했으며, 업종별로 IT서비스와 전기·가스 등이 상승했다.
-코스닥 지수도 1.15% 오른 791.53에 마감하며 대부분 상위 종목이 강세를 보였다.
+국내 사이버 보안 1위 기업 SK쉴더스는 최근 ‘IDC Security Summit 2025’에서 AI 기반의 차세대 보안관제 플랫폼과 관리형 탐지 및 대응(MDR) 서비스의 통합 전략을 소개했다.
+이 플랫폼은 실시간 위협 탐지와 예방을 통해 해킹의 초기 움직임을 감지하고 즉각적으로 대응할 수 있는 기능을 갖추고 있으며, 전문 보안인력에 의한 심층 분석도 지원한다.
+김병무 부문장은 이러한 체계적 접근으로 고객의 비즈니스 연속성을 지키고 안전한 디지털 환경을 구현하겠다고 밝혔다.
 언어변경
 글자크기 설정
 가
@@ -1752,9 +2424,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-코스피가 3년 6개월 만에 종가 기준 3000선을 돌파하며 3021.84로 장을 마감했다.
-외국인과 기관 투자자의 쌍끌이 매수에 힘입어 지수는 1%대 상승을 기록했으며, 업종별로 IT서비스와 전기·가스 등이 상승했다.
-코스닥 지수도 1.15% 오른 791.53에 마감하며 대부분 상위 종목이 강세를 보였다.
+국내 사이버 보안 1위 기업 SK쉴더스는 최근 ‘IDC Security Summit 2025’에서 AI 기반의 차세대 보안관제 플랫폼과 관리형 탐지 및 대응(MDR) 서비스의 통합 전략을 소개했다.
+이 플랫폼은 실시간 위협 탐지와 예방을 통해 해킹의 초기 움직임을 감지하고 즉각적으로 대응할 수 있는 기능을 갖추고 있으며, 전문 보안인력에 의한 심층 분석도 지원한다.
+김병무 부문장은 이러한 체계적 접근으로 고객의 비즈니스 연속성을 지키고 안전한 디지털 환경을 구현하겠다고 밝혔다.
 언어변경
 글자크기 설정
 가
@@ -1762,30 +2434,24 @@
 가
 가
 기사 공유
-코스피가 3년 6개월 만에 종가 기준 3000선을 돌파했다. 국내 증시는 외국인과 기관 투자자의 쌍끌이 매수에 힘입어 1%대 상승했다.
-20일 코스피는 전일 대비 44.10포인트(1.48%) 오른 3021.84에 장을 마감했다.
-지수는 전일 대비 8.78포인트(0.29%) 오른 2986.52로 출발한 뒤 오름폭을 키워 이날 오전 10시 45분께 3000선을 넘어섰다.
-코스피가 장중 3000선을 넘은 것은 지난 2022년 1월 3일(3010.77) 이후 3년 5개월여 만이다. 종가 기준으로는 2021년 12월 28일(3020.24)이 마지막이었다.
-이경민 대신증권 연구원은 “전날 미국 증시 휴장으로 글로벌 이슈가 부재했으나 외국인과 기관의 동반 순매수가 유입되는 중”이라며 “현재 상승세는 실적 기반이 아닌 투자심리 개선에서 비롯된 랠리라는 점에서 코스피는 3000선 저항 부근에서 숨고르기에 들어갈 수 있음을 염두에 두어야 할 것”이라고 짚었다.
-유가증권시장에서 외국인과 기관은 각각 5619억원, 380억원 순매수하며 지수를 끌어올렸다. 개인은 6021억원 매도 우위를 보였다.
-업종별로 보면 IT서비스(5.13%), 전기·가스(2.12%), 화학(2.09%) 등이 오른 반면 건설(-2.51%), 의료·정밀기기(-1.14%), 섬유·의류(-0.89%) 등은 하락했다.
-코스피 시가총액 상위 10개 종목 중 KB금융(-0.19%)을 제외한 모든 종목이 상승했다. 특히 네이버(6.94%), SK하이닉스(4.47%), LG에너지솔루션(4.81%) 등이 급등했다. 삼성전자(0.51%), 삼성바이오로직스(1.70%), 한화에어로스페이스(0.43%), 현대차(1.45%), HD현대중공업(2.90%), 기아(0.51%) 등도 강세를 보였다.
-코스닥 지수는 전일 대비 9.02포인트(1.15%) 오른 791.53에 거래를 마쳤다.
-코스닥 시장에서 외국인과 기관은 각각 470억원, 385억원 순매수했다. 반면 개인은 홀로 796억원 순매도했다.
-코스닥 시총 상위 10개 종목은 대부분 강세가 나타났다. 에코프로비엠(12.21%), 에코프로(7.14%), 레인보우로보틱스(6.23%), 삼천당제약(4.59%) 등이 폭등했다. 알테오젠(0.78%), HLB(0.56%), 파마리서치(1.11%) 등은 상승한 반면 펩트론(-0.10%), 휴젤(-0.94%), 클래시스(-1.62%) 등은 하락했다.
-이날 서울 외환시장에서 달러당 원화값은 전일 대비 14.6원 오른 1365.6원에 거래를 마쳤다.
+사이버 공격이 점점 더 정교해짐에 따라 해킹이 본격화되기 이전 단계부터 위협을 감지하고 차단할 수 있는 새로운 보안 체계가 요구되는 가운데 국내 사이버 보안 1위 기업 SK쉴더스는 지난 25일 열린 ‘IDC Security Summit 2025’에서 인공지능(AI) 기반 차세대 보안관제 플랫폼과 실시간 위협 탐지·대응이 가능한 ‘관리형 탐지 및 대응(MDR)’ 서비스를 연계한 통합 대응 전략을 소개했다고 26일 밝혔다.
+SK쉴더스의 AI 기반 보안관제 서비스는 기존 보안관제(MSS) 역할을 넘어 해커의 정찰·침투·권한 탈취를 비롯한 초기 움직임을 실시간으로 탐지하는 기능을 수행한다. 기존 보안관제가 알려진 공격 패턴에 의존해 사후 경고를 보내는 방식이었다면, 차세대 보안관제는 AI가 로그와 트래픽을 실시간 분석해 위협 징후를 예측하고, 탐지 즉시 경고하는 게 핵심이다. 마치 CCTV 화면을 지켜보던 군 경계병이 이상 행동을 포착해 선제적으로 대응하는 방식과 유사하다.
+탐지 이후에는 MDR을 통해 신속한 분석과 대응을 진행한다. MDR은 AI 관제가 포착한 이상징후를 1차 관제팀이 분석한 뒤, 이를 바탕으로 전문 보안인력이 정밀 분석과 실제 대응 조치를 수행하는 구조다. 예를 들어 해커가 관리자 계정을 탈취해 평소와 다른 시간이나 위치에서 접근하는 경우 MDR은 이를 수상하게 여기고 감지해 실시간 차단하며 감염 여부까지 확인한다.
+특히 국내 최다 침해사고 대응 경험을 보유한 전문조직 탑서트(Top-CERT)의 역량을 기반으로, 산업별 위협 특성을 반영한 고도화된 대응을 제공한다. 별도 보안인력을 두기 어려운 기업이나 기관도 구독형 방식으로 손쉽게 도입할 수 있어 보안을 효과적으로 강화할 수 있다.
+이날 현장에서는 SK쉴더스의 AI 기반 보안관제 플랫폼 ‘시큐디움(Secudium)’과 자회사 시큐레이어(SecuLayer)의 보안 솔루션도 함께 소개됐다. SK쉴더스는 보안관제 플랫폼 고도화를 위해 보안 이벤트 관리(SIEM) 엔진 교체, 위협 대응 자동화(SOAR) 도입, 위협 영향도 분석 시스템 구축 등을 단계적으로 추진하고 있다.
+김병무 SK쉴더스 사이버보안부문장은 “지능화되는 사이버 위협에 대응해 SK쉴더스는 AI 기반의 선제적 대응 체계를 중심으로 고객의 비즈니스 연속성을 지키는 보안 전략을 선보이고 있다”며 “침해 사고 대응 전문조직과 MDR 서비스, AI 기반 보안관제 플랫폼을 유기적으로 연결해 안전한 디지털 환경을 구현해 나갈 것”이라고 밝혔다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -1796,13 +2462,190 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>국내 증시는 외국인과 기관 투자자의 쌍끌이 매수에 힘입어 3년 6개월 만에 종가 기준 3000선을 돌파하며 3021.84로 장을하였으며, 외국인과 기관 투자자의 쌍끌이 매수에 힘입어 지수는 1%대 상승을 기록했다.</t>
-  </si>
-  <si>
-    <t>한국동서발전  효율중심 설비운영 위한 전사 발전부장 워크숍 개최</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348286</t>
+    <t>국내 사이버 보안 1위 기업 SK쉴더스는 최근 ‘IDC Security Summit 2025’에서 AI 기반의 차세대 보안관제 플랫폼과 관리형 탐지 및 대응(MDR) 서비스의 통합 전략을 발표한다.</t>
+  </si>
+  <si>
+    <t>검증 안된 종이빨대 누가 강요했나...스타벅스 결국 플라스틱 빨대로 원복</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353186</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+스타벅스가 플라스틱 빨대를 다시 도입하기로 했다. 종이 빨대로 전환한 지 7년 만이다.
+스타벅스코리아는 전국 200여 매장에서 종이 빨대와 플라스틱 빨대를 함께 사용한다고 26일 밝혔다. 종이 빨대에 대한 고객 불편을 해소하고 고객 편의성을 높인다는 취지다.
+스타벅스 관계자는 “환자나 영유아는 종이 빨대 사용이 불편하다는 다양한 고객 의견을 반영해 우선 병원이나 주거상권 약 200개 매장을 중심으로 식물 유래 소재 플라스틱 빨대를 시범 도입한다”고 말했다.
+시범 매장에서는 기존 종이 빨대와 플라스틱 빨대가 함께 쓰일 예정이다. 스타벅스는 시범 매장에서 수집된 고객 의견을 바탕으로 전체 2000여 매장에 확대 여부를 결정할 방침이다.
+이번에 도입하는 플라스틱 빨대는 일반 석유계 원료가 아닌 사탕수수를 기반으로 한 식물성 소재로 만들어졌다. 스타벅스는 수거함을 마련해 플라스틱 빨대를 재활용할 계획이다.
+스타벅스는 지난 2018년 환경오염을 유발하는 일회용 플라스틱 빨대를 대체하는 차원에서 전국 매장에 종이 빨대를 도입했다. 그러나 소비자 사이에서 “금방 눅눅해져 불편하다”고 불만이 터져 나왔고, 환경 보호를 위해 도입한 종이 빨대가 재활용되지 않고 일반 쓰레기로 버려지면서 ‘친환경이 맞느냐’는 논란이 나오기도 했다.
+환경부는 2022년 11월부터 카페·식당에서 플라스틱 빨대 사용을 전면 금지하고 위반하면 과태료를 부과한다는 방침이었지만 종이 빨대에 대한 논란이 계속되자 계도 기간을 무기한 연장한 상태다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>지난 2018년 환경오염을 유발하는 일회용 플라스틱 빨대를 대체하기 위해 전국 200여 매장에서 종이 빨대와 플라스틱 빨대를 함께 사용하기로 한 스타벅스코리아는 27일 전국 200여 매장에서 종이 빨대와 플라스틱 빨대를 함께 사용한다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>10명 중 6명 “李 대통령 잘하고 있다”…9%P 훌쩍</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353184</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+이재명 대통령 취임이 3주 이상 지난 가운데 국민 10명 중 6명 이상이 “이 대통령이 국정수행을 잘하고 있다”고 평가했다. 이는 직전 조사보다 9%포인트 높아진 수치다.
+엠브레인퍼블릭·케이스탯리서치·코리아리서치·한국리서치는 지난 6월 23~25일 만 18세 이상 남녀 1000명을 대상으로 전국지표조사(NBS)를 진행했다. 조사 결과에 따르면 이 대통령의 국정 운영에 대해 ‘잘하고 있다’고 답한 이는 전체 중 62%였다. 이 대통령이 ‘잘못하고 있다’는 응답은 21%였다.
+직전조사와 비교하면 이 대통령의 국정 운영을 긍정적으로 평가한 이는 늘었고, 부정적으로 평가한 이도 소폭 늘었다. 직전조사인 6월 둘째 주(9~11일) 대비 긍정 평가는 9%포인트, 부정 평가는 2%포인트 각각 올랐다.
+이재명 대통령의 국정운영에 대한 신뢰도는 긍정이 63%, 부정이 29%였다. 이 대통령의 국정운영을 신뢰한다는 응답이 신뢰하지 않는다는 답변보다 2배 이상 높았다. 정당 지지층별로 보면 더불어민주당 지지층의 96%가 이 대통령 국정운영을 ‘신뢰한다’고 했다. 국민의힘 지지층에서는 71%가 ‘신뢰하지 않는다’고 했다. 무당층에서는 ‘신뢰한다’가 40%, ‘신뢰하지 않는다’가 41%였다.
+정당 지지도는 더불어민주당이 45%로 가장 높았다. 국민의힘이 20%, 개혁신당 5%, 조국혁신당 4%, 진보당 1% 등 순이었다. ‘태도 유보’라고 답한 응답자는 23%였다.
+현재 당정이 추진하는 추가경정예산(추경) 편성 필요성에 대해서는 ‘필요하다’고 답한 이는 61%였다. 응답자 28%는 ‘필요하지 않다’고 했다. 추경이 필요하다고 본 이들을 연령별로 보면 40대(71%)와 50대(77%)가 추경 편성에 크게 공감했다.
+이번 조사는 휴대전화 가상번호(100%)를 이용한 전화 면접 방식으로 진행됐다. 응답률은 18.3%, 표본오차는 95% 신뢰수준에서 ±3.1%포인트다. 자세한 사항은 중앙선거여론조사심의위원회 홈페이지에서 확인할 수 있다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>지난 6월 23~25일 만 18세 이상 남녀 1000명을 대상으로 전국지표조사(NBS)를 실시한 결과 이 대통령의 국정 운영에 대해 ‘잘하고 있다’고 답한 이는 전체 중 62%이고 ‘잘못하고 있다’는 응답은 21%였다.</t>
+  </si>
+  <si>
+    <t>김민석  ‘조국 사면’에 “국민통합 관점서 토론 여지 있어”</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/business/11353183</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+김민석 국무총리 후보자는 6월 25일 조국 전 조국혁신당 대표 사면 문제와 관련, “국민통합이라는 관점에서 토론의 여지가 있다”고 말했다.
+김 후보자는 이날 국회 인사청문회에서 황운하 조국혁신당 의원이 “조 전 대표는 정치보복 피해자”라며 “가해자 사면은 국민통합인데 피해자 사면은 사면권 남용이고 특혜라면서 반대하는 것은 형평성에 어긋나는 정치적 프레임”이라며 견해를 묻자 이 같이 답했다.
+황 의원은 명예 회복과 관련해 뉴스타파의 윤석열 전 대통령 명예훼손 사건, 화물연대 ‘건폭’ 사건, 문재인 전 대통령 사건 등과 함께 조 전 대표를 묶어 언급하며 “윤석열 전 검찰총장 및 대통령 재직 시 검찰권 오남용에 관한 진상조사 및 피해 회복에 관한 특별법이 필요하다”고 말했다.
+그러면서 “지난 정권에서 이명박·박근혜 등 정치보복 가해자에 대한 사면이 국민통합의 이름으로 행해졌는데 피해자인 조 전 대표에 대한 사면은 특혜라고 반대하는 것은 형평성에 어긋나는 정치적 프레임”이라고 덧붙였다.
+이에 김 후보자는 “사면권 문제는 대통령의 고유한 권한이라 제가 언급하는 것은 적절치 않다”면서도 “큰 틀에서 케이스 바이 케이스, 사건별로 다루는 접근법도 있을 수 있고 국민통합 관점에서 보는 접근법도 있을 수 있다”고 언급했다.
+이어 “내란 문제는 국민통합이라는 이름으로 원칙이 훼손되거나 타협될 수는 없는 문제 아닌가 생각한다”며 “내란 사건 이외에 여러 가지 사안들에 대해서는 지금 시대가 요구하는 국민 통합이라는 관점에서 어떤 수준으로 접근하는 것이 좋을지 토론의 여지가 있다”고 말했다.
+조 전 대표는 지난해 12월 자녀 입시 비리 공모 및 청와대 감찰 무마 등 혐의로 대법원에서 징역 2년이 확정돼 서울남부교도소에서 수감생활을 하고 있다.
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>6월 25일 조국 전 조국혁신당 대표 사면 문제와 관련하여 김 후보자는 6월 25일 조국 전 조국혁신당 대표 사면 문제와 관련하여 국민통합이라는 관점에서 토론의 여지가 있다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>서울 아파트 20주 연속 상승세</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353181</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1813,9 +2656,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-한국동서발전은 18일부터 19일까지 울산 본사에서 '안정적·경제적 설비운영을 위한 성능·효율분야 워크숍'을 개최했다.
-이번 워크숍에서는 발전설비의 안전관리 강화와 에너지 절감 방안을 논의하며, 실질적인 안전사고 예방을 위한 기본 안전수칙 이행을 중요하게 다뤘다.
-권명호 사장은 친환경적이고 저렴한 전기를 안정적으로 공급하는 발전 공기업의 책무를 강조하며 설비 효율 극대화를 위한 노력을 촉구했다.
+서울 아파트 가격이 20주 연속 상승하며, 6월 셋째주 전국 아파트 매매가격지수는 전주보다 0.05% 오른 것으로 나타났다.
+성동구(0.76%)의 상승 폭이 가장 컸고, 부산 아파트 가격은 전주보다 0.03% 하락했다.
+전국 전세가격지수는 소폭 상승했으며, 특히 서울은 전주 대비 0.07% 상승했다.
 언어변경
 글자크기 설정
 가
@@ -1828,9 +2671,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-한국동서발전은 18일부터 19일까지 울산 본사에서 '안정적·경제적 설비운영을 위한 성능·효율분야 워크숍'을 개최했다.
-이번 워크숍에서는 발전설비의 안전관리 강화와 에너지 절감 방안을 논의하며, 실질적인 안전사고 예방을 위한 기본 안전수칙 이행을 중요하게 다뤘다.
-권명호 사장은 친환경적이고 저렴한 전기를 안정적으로 공급하는 발전 공기업의 책무를 강조하며 설비 효율 극대화를 위한 노력을 촉구했다.
+서울 아파트 가격이 20주 연속 상승하며, 6월 셋째주 전국 아파트 매매가격지수는 전주보다 0.05% 오른 것으로 나타났다.
+성동구(0.76%)의 상승 폭이 가장 컸고, 부산 아파트 가격은 전주보다 0.03% 하락했다.
+전국 전세가격지수는 소폭 상승했으며, 특히 서울은 전주 대비 0.07% 상승했다.
 언어변경
 글자크기 설정
 가
@@ -1838,23 +2681,18 @@
 가
 가
 기사 공유
-한국동서발전은 지난 18~19일 울산 중구 본사에서 ‘안정적·경제적 설비운영을 위한 성능·효율분야 워크숍’을 개최했다고 20일 밝혔다.
-이번 워크숍은 전국 사업소 발전부장과 성능담당자들이 한자리에서 발전설비의 안전관리 강화와 에너지절감 방안을 모색하고, 이를 통한 설비 운영 효율성 제고, 전기 생산 원가 절감을 도모하기 위해 마련됐다.
-워크숍에서는 발전소 운영인력의 2인 1조 조작, 작업 전 위험성평가 내실화 등 기본 안전수칙의 철저한 이행과 사업소별 ‘아차사례’ 공유를 통한 실질적인 안전사고 예방에 대해 논의했다.
-또한‘에너지지킴이’ 활동을 통한 현장중심 에너지절감활동 확대와 자체개발 인공지능(AI)을 접목한 발전소 실시간 성능분석시스템 활용 등 다각적인 원가절감 방안에 대해 머리를 맞댔다.
-권명호 동서발전 사장은 “우리회사 직원뿐만 아니라 협력사 안전을 위해 현장 일선에서 일하는 관리자의 관심과 안전 기본준수에 대해 현장에서 다시 한 번 강조해달라”면서 “친환경적이면서도 값싼 전기를 국민에게 안정적으로 공급하는 것이 발전 공기업의 책무이며, 이를 위한 최선의 방안은 설비 효율을 극대화하는 것”이라고 강조했다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -1865,13 +2703,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>한국동동서발전은 18일부터 19일까지 울산 본사에서 '안정적·경제적 설비운영을 위한 성능·효율분야 워크숍'을 개최하여 발전설비의 안전관리 강화와 에너지 절감 방안을 논의하고, 실질적인 안전사고 예방을 위한 기본 안전수칙 이행을 중요하게 다뤘다.</t>
-  </si>
-  <si>
-    <t>김한일 샌프란시스코&amp;베이 한인회장 “안창호 선생 활동한 SF에서 광복 80주년행사”</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/world/11348274</t>
+    <t>서울 아파트 아파트 가격이 20주 연속 상승하며, 6월 셋째주 전국 아파트 매매가격지수는 전주보다 0.05% 오른 것으로 집계되었으며, 서울은 전주 대비 0.07% 상승한 것으로 나타났다.</t>
+  </si>
+  <si>
+    <t>성비위·뇌물수수 김진하 양양군수 1심서 징역 2년</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/society/11353179</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1882,9 +2720,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-김한일 샌프란시스코&amp;베이 한인 회장은 샌프란시스코가 독립운동의 역사적인 장소임을 알리기 위해 올해 광복 80주년 행사를 시청에서 개최할 계획이라고 밝혔다.
-한인회관은 한국인과 미국인 모두가 참여할 수 있는 공간으로 만들겠다는 의지를 표명하며, 이곳에서 여러 한국 관련 행사들이 진행되고 있다고 덧붙였다.
-또한, 그는 베이에이리어의 한인들이 정치적 영향력을 키우기 위해 다양한 활동을 해야 한다고 강조했다.
+김진하 강원도 양양군수가 성비위와 뇌물수수 혐의로 1심에서 징역 2년 형을 선고받았다.
+또한 벌금 1000만원과 추징금 500만원, 증거품인 안마의자 몰수 명령도 내려졌다.
+김 군수는 여성 민원인으로부터 금품을 수수하고 성추행한 혐의로 재판에 넘겨졌으며, 관련된 A씨와 박봉균 군의원도 각각 징역형을 받았다.
 언어변경
 글자크기 설정
 가
@@ -1897,9 +2735,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-김한일 샌프란시스코&amp;베이 한인 회장은 샌프란시스코가 독립운동의 역사적인 장소임을 알리기 위해 올해 광복 80주년 행사를 시청에서 개최할 계획이라고 밝혔다.
-한인회관은 한국인과 미국인 모두가 참여할 수 있는 공간으로 만들겠다는 의지를 표명하며, 이곳에서 여러 한국 관련 행사들이 진행되고 있다고 덧붙였다.
-또한, 그는 베이에이리어의 한인들이 정치적 영향력을 키우기 위해 다양한 활동을 해야 한다고 강조했다.
+김진하 강원도 양양군수가 성비위와 뇌물수수 혐의로 1심에서 징역 2년 형을 선고받았다.
+또한 벌금 1000만원과 추징금 500만원, 증거품인 안마의자 몰수 명령도 내려졌다.
+김 군수는 여성 민원인으로부터 금품을 수수하고 성추행한 혐의로 재판에 넘겨졌으며, 관련된 A씨와 박봉균 군의원도 각각 징역형을 받았다.
 언어변경
 글자크기 설정
 가
@@ -1907,30 +2745,24 @@
 가
 가
 기사 공유
-“샌프란시스코가 안창호 선생께서 활동하신 대한민국 독립운동의 성지였다는 것을 알리고 싶습니다.”
-미국 캘리포니아주 샌프란시스코와 인근 베이에이리어 지역의 한인을 대표하는 김한일 샌프란시스코&amp;베이 한인 회장이 19일(현지시간) SF&amp;베이 한인회관에서 매일경제와 인터뷰에서 이렇게 밝혔다. 특히 올해 광복 80주년 행사를 통해 한국은 물론 미주 사회에 이를 알리겠다는 것이다.
-김 회장은 “샌프란시스코 지역 광복 80주년 행사를 샌프란시스코 시청에서 개최한다”면서 “이를 북가주 한인 축제의 장으로 만들 것”이라고 설명했다. 광복 80주년을 맞아 전세계에서 다양한 행사가 열리지만 SF에서는 더욱 특별한 행사를 개최하겠다는 것이다. 샌프란시스코 지역은 독립운동가인 우운 문양목 지사의 유해 송환을 앞두고 있는 등 올해 다양한 행사를 앞두고 있다.
-샌프란시스코는 도산 안창호 선생이 1913년 흥사단을 재설립한 역사적인 장소다. 또한, 전명운, 장인환 의사가 친일 미국 외교관 더럼 W. 스티븐스를 저격한 장소가 샌프란시스코의 랜드마크인 페리빌딩이다.
-김 회장은 “베이에이리어에는 유한양행 창업자인 유일한 박사가 국제법을 공부한 스탠퍼드 대학교가 있는 곳이기도 하다”면서 이곳이 가지고 있는 의미를 국민들과 동포들이 모르는 경우가 많다“고 설명했다.
-SF&amp;베이 한인회는 도산 안창호 선생과 유일한 박사를 인공지능(AI)으로 되살려 강연을 듣기도 했다.
-김한일 회장은 2024년 재개관한 한인회관에 한인들과 한국 기업들의 많은 참여를 기대한다고 설명했다. 과거 한인회가 샌프란시스코 중심에 매입했던 건물을 3년여 간 400만 달러의 기금을 모아 전면 보수했다. 김한일 회장이 대표로 있는 김진덕・정경식 재단에서 100만 달러의 기금을 기부했으며, 북가주는 물론 미주 지역 한인들과 삼성 등 한국의 기업들이 기부에 참여했다. 현재 이곳은 다양한 한국 관련 행사들이 열리고 있다.
-김 회장은 “이곳이 지역 한인뿐 아니라 한국인, 미국인들까지 참여할 수 있는 공간으로 만들려면 더 많은 활동과 참여가 필요하다”면서 “최근 베이에이리어에 진출하는 한국인, 한국기업들이 늘어나고 있는데 그들의 도움을 기대하고 있다”고 말했다.
-김 회장은 “베이에이리어는 중국계, 필리핀계, 일본계 등 아시아계 커뮤니티가 잘 만들어져 있고 힘이 세지만 이에 비하면 한국계는 존재감이 작다”면서 “다양한 활동을 통해 한인들의 힘을 모으고 정치적인 영향력을 키워야한다”고 강조했다.
-김 회장은 한인회관에 현지 미국인을 위한 한글학교 프로그램을 만들고, 한인회관을 SF 관광지로 만드는 것을 추진하고 있다. 한인회관에는 안창호 선생, 유일한 박사, 전명운, 장인환 의사 등의 흉상과 함께 이들이 가지고 있는 역사적인 의미가 자세하게 설명되고 있다. SF에 찾아오는 한국인들이 독립운동의 흔적을 이곳에서 느낄 수 있게 만들겠다는 것이다.
-SF&amp;베이 한인회는 2024년에 이어 2025년에도 야구단 샌프란시스코 자이언츠의 이정후 선수가 뛰는 날에 ‘코리아 헤리티지 나잇’을 개최하기도 했다. 현지인들에게 한국 문화를 알리기 위해 이 행사를 준비했으며 경기 시작전 UC버클리 댄스 동아리인 KPG가 K-팝 댄스 공연을 펼쳤다.
-[실리콘밸리=이덕주 특파원]
+성비위와 뇌물수수 등 혐의로 구속 기소된 김진하 강원도 양양군수가 1심에서 징역 2년의 실형을 선고받았다.
+춘천지법 속초지원 형사부는 26일 강제추행 및 뇌물수수 등의 혐의로 기소된 김진하 군수에게 이 같이 선고했다.
+또 벌금 1000만원과 추징금 500만원, 증거품인 안마의자 몰수 명령도 내렸다.
+김 군수는 여성 민원인 A씨로부터 현금 2000만원과 139만원 상당의 안마의자 등을 받은 혐의로 재판에 넘겨졌다. A씨와 성관계를 맺거나 강제로 끌어안아 추행한 혐의도 받는다.
+김 군수에게 뇌물을 건네고 CCTV 촬영물로 그를 협박한 혐의 등으로 기소된 A씨는 징역 1년 6개월과 성폭력치료프로그램 40시간 이수 명령을 받았다.
+A씨와 공모해 김 군수를 협박한 혐의를 받는 박봉균 군의원에게는 징역 1년에 집행유예 3년, 성폭력치료프로그램 40시간 이수 명령이 내려졌다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -1941,13 +2773,19 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>김한일 샌프란시스코&amp;베이 한인 회장은 샌프란시스코가 독립운동의 역사적인 장소임을 알리기 위해 올해 광복 80주년 행사를 시청에서 개최할 계획이라고 밝히며 이곳에서 여러 한국 관련 행사들이 진행되고 있다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>뮤직  트래블 나오더니…현대카드  쿠킹 라이브러리 리뉴얼 개관</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/economy/11348273</t>
+    <t>강원도 양양군수가 여성 민원인으로부터 금품을 수수하고 성추행한 혐의로 재판에 넘겨졌으며, 관련된 A씨와 박봉균 군의원도 각각 징역형을 선고받았다.</t>
+  </si>
+  <si>
+    <t>[알립니다] '경매·공매 최고의 수업' 저자에게 배우는 '왕초보' 경매·공매 입문부터 실전까지 '2기'</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/notice/11353178</t>
+  </si>
+  <si>
+    <t>개포동 83.2㎡ 아파트 17억880만원</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353177</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -1958,9 +2796,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-현대카드는 서울 압구정에 위치한 ‘현대카드 쿠킹 라이브러리’를 새롭게 단장하여 회원들에게 풍부한 미식 경험을 제공한다고 20일 밝혔다.
-리뉴얼된 공간은 ‘먹고, 읽고, 요리하는 공간’이라는 테마 아래 다양한 요리 프로그램과 프리미엄 캐주얼 다이닝 메뉴를 선보이며, 비회원도 이용 가능한 델리 공간을 포함한다.
-또한, 오픈 후 한 달 동안 매주 토요일 ‘Saturday Pop-up’과 ‘Saturday Market’ 행사를 통해 고객들에게 새로운 식문화 체험 기회를 제공할 예정이다.
+서울 강남구 개포동의 개포주공 아파트 607호가 경매에 나왔으며, 감정가는 26억7000만원에서 17억880만원으로 하락했다.
+잠실동 아시아선수촌 아파트 702호도 경매에 등장하며, 감정가는 36억7000만원으로 첫 매각이 진행된다.
+각 아파트의 시세는 개포동 34억7000만원에서 37억2000만원, 잠실동 44억원에서 47억2000만원으로 형성되어 있다.
 언어변경
 글자크기 설정
 가
@@ -1973,9 +2811,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-현대카드는 서울 압구정에 위치한 ‘현대카드 쿠킹 라이브러리’를 새롭게 단장하여 회원들에게 풍부한 미식 경험을 제공한다고 20일 밝혔다.
-리뉴얼된 공간은 ‘먹고, 읽고, 요리하는 공간’이라는 테마 아래 다양한 요리 프로그램과 프리미엄 캐주얼 다이닝 메뉴를 선보이며, 비회원도 이용 가능한 델리 공간을 포함한다.
-또한, 오픈 후 한 달 동안 매주 토요일 ‘Saturday Pop-up’과 ‘Saturday Market’ 행사를 통해 고객들에게 새로운 식문화 체험 기회를 제공할 예정이다.
+서울 강남구 개포동의 개포주공 아파트 607호가 경매에 나왔으며, 감정가는 26억7000만원에서 17억880만원으로 하락했다.
+잠실동 아시아선수촌 아파트 702호도 경매에 등장하며, 감정가는 36억7000만원으로 첫 매각이 진행된다.
+각 아파트의 시세는 개포동 34억7000만원에서 37억2000만원, 잠실동 44억원에서 47억2000만원으로 형성되어 있다.
 언어변경
 글자크기 설정
 가
@@ -1983,28 +2821,18 @@
 가
 가
 기사 공유
-현대카드는 서울 압구정에 위치한 ‘현대카드 쿠킹 라이브러리(이하 쿠킹 라이브러리)’를 새롭게 개관하고 회원들의 미식 경험 극대화에 나선다고 20일 밝혔다.
-‘현대카드 쿠킹 라이브러리’는 유명 셰프들의 레시피와 다양한 문화권의 식문화를 담은 1만2000여권의 요리책을 접하는 것은 물론 직접 요리의 가치를 경험할 수 있는 복합 미식 공간으로 지난 2017년 처음 문을 열었다.
-이번에 새롭게 단장한 쿠킹 라이브러리는 ‘먹고, 읽고, 요리하는 공간’이라는 테마로 회원이 즐길 수 있는 경험의 깊이를 강화했다. 미식의 즐거움을 한껏 누리게 해주는 레스토랑, 새로운 레시피를 탐색할 수 있는 도서관, 직접 요리 과정까지 체험할 수 있도록 돕는 친절한 주방까지 한 공간에 담았다.
-또 이번 리뉴얼을 통해 다이닝 서비스를 확대해 누구나 미식을 경험할 수 있는 공간으로의 정체성을 강화하고, F&amp;B 브랜드와의 협업을 통해 음식에 대한 영감을 채울 수 있는 다채로운 프로그램을 제공해 나갈 계획이다.
-먼저 1층에 위치한 ‘델리(Deli)’는 현대카드 회원은 물론 비회원 고객도 자유롭게 이용할 수 있는 캐주얼 다이닝 공간으로 꾸며졌으며, 쿠킹 라이브러리에서만 맛볼 수 있는 프리미엄 캐주얼 다이닝 메뉴도 선보인다.
-쿠킹 프로그램도 확대해 식재료와 요리, 음식의 연결 고리를 손쉽게 이해할 수 있는 기회도 늘렸다. 쿡북 속 레시피를 직접 만들어 보는 ‘셀프 쿠킹’ 프로그램, 넷플릭스 요리 경연 프로그램 ‘흑백요리사’ 출연 셰프 등 유명 셰프들이 참여하는 쿠킹 클래스 프로그램도 선보인다.
-오픈 한 달간 매주 토요일에는 트렌디한 F&amp;B 브랜드를 만날 수 있는 ‘Saturday Pop-up’도 운영한다. 주류, 식재료 등 엄선된 F&amp;B 브랜드가 판매하는 음식들을 쿠킹 라이브러리의 다양한 메뉴들과 페어링해 새로운 식문화 체험 기회를 제공한다.
-또 계절에 잘 어울리는 주류나 식재료 브랜드들의 여러 상품들을 구매할 수 있는 미식 장터 ‘Saturday Market’을 이달 28일 토요일에 열며, ‘여름에 어울리는 샴페인과 화이트 와인’을 테마로 40여종의 브랜드를 소개할 예정이다.
-현대카드 관계자는 “미식에 대한 지식을 비롯해 보다 입체적이고 공감각적인 경험을 고객에게 제공하기 위해 공간 리뉴얼을 진행했다”며 “미식에 대한 관심이 지속적으로 높아지는 만큼, 앞으로도 쿠킹 라이브러리를 통해 다채로운 행사들을 선보일 예정”이라고 말했다.
-‘현대카드 쿠킹 라이브러리’에 대한 자세한 내용은 현대카드 DIVE 앱과 현대카드 쿠킹 라이브러리 인스타그램을 통해 확인할 수 있다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2015,13 +2843,71 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>현대카드는 서울 압구정에 위치한 ‘현대카드 쿠킹 라이브러리’를 새롭게 개관하여 회원들에게 미식 경험을 제공한다고 20일 밝혔다.</t>
-  </si>
-  <si>
-    <t>중진공  경기 지역 미래車 유망기업 투자유치 지원</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348272</t>
+    <t>OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공하며 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋으며 감정가는 26억7000만원에서 17억880만원으로 오르고 있는 강남구 개포동의 개포주공 아파트 607호가 경매에 나왔다.</t>
+  </si>
+  <si>
+    <t>제주 전통시장에서 윷놀이 도박판 벌인 일당 무더기 검거</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/society/11353173</t>
+  </si>
+  <si>
+    <t>똑똑하게 질문하기
+한국 경제성장률 전망 알려줘
+최근 부동산 시장의 주요 트렌드는?
+최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
+최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
+AI 검색을 우선 설정합니다.
+언어변경
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+TOP
+댓글
+추천 기사
+언어변경
+글자크기 설정
+가
+가
+가
+가
+기사 공유
+제주 전통시장에서 윷놀이 도박판을 벌인 일당이 무더기로 경찰에 붙잡혔다.
+서귀포경찰서는 도박 혐의 등으로 70대 A씨 등 7명과 특수폭행 혐의로 60대 B씨 등 2명을 검거했다고 26일 밝혔다.
+경찰에 따르면 A씨 등 7명은 지난 17일 서귀포 매일올레시장 내부 공원에서 윷놀이 도박을 한 혐의다. 검거 당시 이들은 350여만원의 판돈을 걸고 윷놀이 도박을 했다. 또 B씨 등 2명은 지난 8일 동일한 장소에서 윷놀이 도박을 하던 중 훈수를 뒀다는 이유로 피해자를 흉기로 위협하는 등 폭행한 혐의다.
+경찰은 매일올레시장 공원에서 윷놀이 도박판이 벌어졌다는 신고를 잇달아 접수해 현장 검거에 나섰으며, 현재 서귀포시청 및 제주도 자치경찰단 등 관계기관과 함께 환경 개선 사업을 추진하고 있다. 제주 고경호 기자
+이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
+로그인하고
+매일경제를 경험해보세요
+매일경제신문
+주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
+일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
+매경AX
+주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
+인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
+  </si>
+  <si>
+    <t>지난 17일 제주 전통시장에서 윷놀이 도박판을 벌인 70대 A씨 등 7명과 특수폭행 혐의로 60대 B씨 등 2명을 검거했다고 26일 밝혔으며 현재 서귀포시청 및 제주도 자치경찰단 등 관계기관과 함께 환경 개선 사업을 추진하고 있다.</t>
+  </si>
+  <si>
+    <t>정부  내달 초 서울 집값 급등지역 규제지역 확대…대출도 강화</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/realestate/11353169</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2032,9 +2918,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-중소벤처기업진흥공단은 20일 서울 강남구에서 ‘2025 지역특화 프로젝트 레전드50+ 경기 미래차 IR마트’를 개최하여 경기도의 미래차 유망기업의 민간 투자 유치를 지원했다.
-이번 행사에서 IR 피칭 교육과 맞춤형 지원을 통해 기업들이 투자 유치 성과를 높일 수 있도록 도왔으며, 특히 벤처캐피탈과의 매칭 상담을 통해 실질적인 투자 논의가 이루어졌다.
-김일호 중진공 기업금융 이사는 이번 IR마트가 지역 미래차 산업의 유망기업과 민간 투자자 간의 교류 기회를 제공했다고 강조하며, 앞으로도 지역 유관기관과 협력해 투자 연계를 지원하겠다고 밝혔다.
+서울 집값이 급격히 상승함에 따라 정부는 내달 초 주택시장 안정화 대책을 발표할 예정이다.
+이번 대책은 3단계 스트레스 DSR 시행 및 규제지역 확대, 대출 규제 강화 등을 포함하며, 서울 강남3구와 용산구 외에도 마포·성동구 등 비강남 지역이 규제지역으로 묶일 가능성이 있다.
+또한, 2주택자는 취득세가 8%, 3주택 이상자는 12%로 중과되는 등 세금 규제도 강화된다.
 언어변경
 글자크기 설정
 가
@@ -2047,9 +2933,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-중소벤처기업진흥공단은 20일 서울 강남구에서 ‘2025 지역특화 프로젝트 레전드50+ 경기 미래차 IR마트’를 개최하여 경기도의 미래차 유망기업의 민간 투자 유치를 지원했다.
-이번 행사에서 IR 피칭 교육과 맞춤형 지원을 통해 기업들이 투자 유치 성과를 높일 수 있도록 도왔으며, 특히 벤처캐피탈과의 매칭 상담을 통해 실질적인 투자 논의가 이루어졌다.
-김일호 중진공 기업금융 이사는 이번 IR마트가 지역 미래차 산업의 유망기업과 민간 투자자 간의 교류 기회를 제공했다고 강조하며, 앞으로도 지역 유관기관과 협력해 투자 연계를 지원하겠다고 밝혔다.
+서울 집값이 급격히 상승함에 따라 정부는 내달 초 주택시장 안정화 대책을 발표할 예정이다.
+이번 대책은 3단계 스트레스 DSR 시행 및 규제지역 확대, 대출 규제 강화 등을 포함하며, 서울 강남3구와 용산구 외에도 마포·성동구 등 비강남 지역이 규제지역으로 묶일 가능성이 있다.
+또한, 2주택자는 취득세가 8%, 3주택 이상자는 12%로 중과되는 등 세금 규제도 강화된다.
 언어변경
 글자크기 설정
 가
@@ -2057,23 +2943,30 @@
 가
 가
 기사 공유
-중소벤처기업진흥공단은 20일 서울 강남구 팁스타운 S6에서 ‘2025 지역특화 프로젝트 레전드50+ 경기 미래차 IR마트’를 개최했다. ‘지역특화 프로젝트 레전드50+’에 참여한 경기 지역 미래차 유망기업의 민간 투자 유치를 지원하기 위해 마련된 이번 행사는 중소벤처기업부와 경기도가 주최하고, 중진공과 경기테크노파크가 공동 주관했다.
-중진공과 경기테크노파크는 참여기업의 투자유치 성과를 높이기 위해 IR 피칭 교육을 비롯해 발표자료·피치덱 제작, 사전홍보를 비롯해 기업의 IR 역량 강화를 위한 맞춤형 지원에 나섰다. 특히 벤처캐피탈(VC) 심사역의 사전 수요조사 기반의 매칭 상담을 통해 실질적인 투자 논의가 이뤄지도록 했다.
-참여 기업은 △한빅솔라(휴대용 태양광 충전기·소전력 태양광 패널) △엠셀(원적외선 스마트 발열섬유) △힐스로보틱스(AI 기반 자율 이동 솔루션) △온디에이아이(AI 블랙박스) △디바인테크놀로지(자율주행 시뮬레이션과 메디컬트윈 소프트웨어) △새솔테크(V2X 통신보안 솔루션)를 비롯해 총 6개사다.
-김일호 중진공 기업금융 이사는 “이번 IR마트는 경기 지역 미래차 산업 분야의 기술력 있는 유망기업이 민간 투자자와 직접 교류할 수 있는 기회의 장이 됐다”며 “앞으로도 지역 유관기관과 협력해 지역특화 산업 영위 기업의 투자 연계와 스케일업을 적극 뒷받침하겠다”고 밝혔다.
-중진공은 지난 2013년부터 ‘KOSME IR마트’를 통해 중소·벤처기업의 민간 투자 유치를 지원해 오고 있다.
+서울 집값이 가파르게 상승함에 따라 정부가 내달 초 주택시장 안정화 대책을 발표하기로 했다. 3단계 스트레스 DSR(총부채원리금상환비율) 시행과 함께 규제지역을 확대하고 대출 규제를 대폭 강화하는 등 금융·세제 중심의 종합 대책이 나올 전망이다.
+26일 관가에 따르면 국토교통부와 기획재정부, 금융위원회 등 관계부처는 투기과열지구, 조정정대상지역 등 규제지역 확대 및 대출 강화 방안을 논의 중이다.
+국토부는 이르면 다음주 주거정책심의원회(주정심) 회의를 열어 규제지역 확대안을 확정할 방침이며, 이와 별도로 서울시는 강남3구와 용산구 아파트에 지정한 토지거래허가구역을 한강벨트 일대로 확대하는 방안을 검토 중이다.
+정부는 최근 아파트값 상승세와 관련, 다음달 3단계 스트레스 DSR 시행 전 ‘막차 수요’가 몰린 측면이 크다고 보고 DSR 강화 효과를 지켜본 후 추가 대책을 마련할 계획이었다.
+그러나 한국부동산원이 발표한 이번주 서울 아파트 매매가격이 0.43% 올라 6년 9개월 만에 최대치를 기록하는 등 가파른 상승세를 보이자 대응을 앞당겼다. 서울 아파트값은 올해 2월 초 상승 전환한 이후 21주 연속 오르는 추세다.
+정부는 내달 초 주정심에서 현재 서울 강남3구와 용산구에만 묶여 있는 투기과열지구와 조정대상지역을 집값 급등 지역으로 확대할 방침이다.
+마포·성동구를 비롯해 강동구와 동작구, 광진구, 영등포구, 양천구 등 비강남 한강벨트 지역이 규제지역으로 묶일 가능성이 크다.
+서울 아파트값 상승세가 규제지역 외로 옮겨붙는 풍선효과를 차단하기 위해 서울 전역과 최근 아파트값이 크게 오른 과천·분당신도시 등을 규제지역으로 묶는 방안도 논의되고 있다.
+금융위원회는 내달 3단계 DSR 시행을 앞두고 대출 규제를 강화하는 방안을 검토하는 것으로 전해졌다. 2023년 1월 폐지된 15억원 초과 등 고가주택 대출 금지가 부활할 것으로 보인다.
+금융당국은 앞서 시중은행 은행장들을 불러 2주택 이상 주택담보대출 금지와 40·50년짜리 주담대 만기 축소를 지시했다.
+가계부채 증가 요인 중 하나인 전세자금대출에 총부채원리금상환비율(DSR)을 적용해 대출 규모를 축소하는 방안 등도 추가로 검토 중이다.
+조정대상지역이 확대되면 세금 규제도 종전보다 강화된다. 우선 취득세가 2주택자는 8%, 3주택 이상자는 12%로 중과된다. 양도소득세도 2주택 이상자는 20∼30%포인트 중과되고, 장기보유 특별공제가 배제된다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2084,13 +2977,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>중소벤처기업진흥공단은 20일 서울 강남구에서 ‘2025 지역특화 프로젝트 레전드50+ 경기 미래차 IR마트’를 개최하여 경기도의 미래차 유망기업의 민간 투자 유치를 지원하였으며 앞으로도 지역 유관기관과 협력해 투자 연계를 지원하겠다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>대성쎌틱에너시스 ‘콘덴싱제습기 365’ 신제품 홈쇼핑 방송</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348269</t>
+    <t>국토교통부와 기획재정부, 금융위원회 등 관계부처는 투기과열지구, 조정정대상지역 등 규제지역 확대 및 대출 강화 방안을 논의 중이며 내달 초 주택시장 안정화 대책을 발표하기로 했다.</t>
+  </si>
+  <si>
+    <t>불타는 코스피…실적 날개단 금융·증권株 '훨훨' [MBN GOLD 증시기상도]</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353166</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2101,9 +2994,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-대성쎌틱에너시스는 현대홈쇼핑에서 '콘덴싱제습기 365'의 단독 방송을 오는 23일 진행한다고 밝혔다.
-이 제품은 이중 제습 시스템을 적용해 저온에서도 뛰어난 제습력을 유지하며, 자동 건조 시스템으로 곰팡이와 세균 번식을 억제한다.
-홈쇼핑 론칭 방송에서는 앱 할인과 카드 할인 혜택이 제공될 예정이며, 소비자들의 높은 관심을 얻고 있다.
+새 정부 출범 이후 국내 증시는 급등 랠리를 보여 코스피가 6월에만 15% 이상 상승하며 전 세계 주요국 중에서 최고의 수익률을 기록하고 있다.
+정책 수혜주와 AI 산업의 성장으로 주가가 급등하고 있으며, SK하이닉스의 시가총액이 200조 원을 초과하는 등 반도체 업종이 강세를 보이고 있다.
+또한, 카카오와 네이버 등 AI 정책 수혜주가 주가 상승세를 이어가고 있으며, 데이터 센터 및 에너지 고속도로 정책에 대한 투자도 늘어나고 있다.
 언어변경
 글자크기 설정
 가
@@ -2116,9 +3009,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-대성쎌틱에너시스는 현대홈쇼핑에서 '콘덴싱제습기 365'의 단독 방송을 오는 23일 진행한다고 밝혔다.
-이 제품은 이중 제습 시스템을 적용해 저온에서도 뛰어난 제습력을 유지하며, 자동 건조 시스템으로 곰팡이와 세균 번식을 억제한다.
-홈쇼핑 론칭 방송에서는 앱 할인과 카드 할인 혜택이 제공될 예정이며, 소비자들의 높은 관심을 얻고 있다.
+새 정부 출범 이후 국내 증시는 급등 랠리를 보여 코스피가 6월에만 15% 이상 상승하며 전 세계 주요국 중에서 최고의 수익률을 기록하고 있다.
+정책 수혜주와 AI 산업의 성장으로 주가가 급등하고 있으며, SK하이닉스의 시가총액이 200조 원을 초과하는 등 반도체 업종이 강세를 보이고 있다.
+또한, 카카오와 네이버 등 AI 정책 수혜주가 주가 상승세를 이어가고 있으며, 데이터 센터 및 에너지 고속도로 정책에 대한 투자도 늘어나고 있다.
 언어변경
 글자크기 설정
 가
@@ -2126,23 +3019,18 @@
 가
 가
 기사 공유
-대성쎌틱에너시스는 현대홈쇼핑에서 ‘콘덴싱제습기 365’ 신제품 단독 방송을 오는 23일 진행한다고 20일 밝혔다.
-신제품은 콘덴싱 기술 기반의 이중 제습 시스템을 적용해 저온 환경에서도 제습력을 유지한다. 제습로터와 재생 송풍기 구조를 통해 습기 제거가 가능하며, 자동 건조 시스템을 통해 내부 응결수로 인한 곰팡이와 세균 번식도 억제한다.
-하루 최대 8ℓ 제습이 가능하고, 3ℓ 대용량 물통과 연속 배수 기능도 갖췄다.
-이번 제품은 홈쇼핑 론칭 방송을 통해 앱 할인 2만원과 행사 카드 7% 즉시 할인 혜택으로 고객을 찾아갈 예정이다. 앞서 진행된 네이버 스마트스토어 사전 프로모션에서도 뜨거운 관심을 받은 바 있어 이번 방송을 통해 더욱 많은 소비자와 만날 것으로 기대된다.
-대성쎌틱에너시스 관계자는 “습한 계절을 앞두고 쾌적한 실내환경을 고민하는 소비자에게 ‘콘덴싱제습기 365’는 최고의 선택이 될 것”이라고 말했다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2153,13 +3041,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>대성쎌틱에너시스는 현대홈쇼핑에서 '콘덴싱제습기 365'의 단독 방송을 오는 23일 진행한다고 밝혔으며 이 제품은 이중 제습 시스템을 적용해 제습력을 유지하며, 자동 건조 시스템으로 곰팡이와 세균 번식을 억제한다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>뮤직카우 ‘휴가비 100만원’ 여름 옥션 이벤트</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348266</t>
+    <t>투자와 늘어나고 있는 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가와 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가, 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가, 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가, 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가, 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가, 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가, 데이터 센터 및 에너지 고속도로 정책에 대한 투자 증가 등의 내용을 담고 있다.</t>
+  </si>
+  <si>
+    <t>AI 만나 폭발적 성장세 휴머노이드 기업 '주목' [MBN GOLD 시황저격]</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353167</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2170,9 +3058,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-음악투자 플랫폼 뮤직카우는 8월 7일까지 '여름 옥션 이벤트'를 진행한다고 밝혔다.
-이벤트 기간 중 특정 조건을 충족한 경품으로 휴가비와 다양한 상품권을 제공하며, 얼리버드 미션 달성 고객에게는 포인트가 지급된다.
-자세한 사항은 뮤직카우 공식 앱과 홈페이지에서 확인 가능하다.
+휴머노이드 로봇 시장은 AI와 로보틱스의 융합으로 2035년까지 380억달러 규모로 성장할 것으로 예상되며, 미국과 중국이 주도하고 있다.
+국내에서는 레인보우로보틱스와 로보티즈가 주목받고 있으며, 레인보우로보틱스는 협동로봇과 서비스 로봇을 개발하고 로보티즈는 고정밀 액추에이터를 제조한다.
+이들 두 기업은 2035년에는 글로벌 시장에서 한국 로봇 산업을 선도할 가능성이 높아 투자자들의 관심이 집중되고 있다.
 언어변경
 글자크기 설정
 가
@@ -2185,9 +3073,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-음악투자 플랫폼 뮤직카우는 8월 7일까지 '여름 옥션 이벤트'를 진행한다고 밝혔다.
-이벤트 기간 중 특정 조건을 충족한 경품으로 휴가비와 다양한 상품권을 제공하며, 얼리버드 미션 달성 고객에게는 포인트가 지급된다.
-자세한 사항은 뮤직카우 공식 앱과 홈페이지에서 확인 가능하다.
+휴머노이드 로봇 시장은 AI와 로보틱스의 융합으로 2035년까지 380억달러 규모로 성장할 것으로 예상되며, 미국과 중국이 주도하고 있다.
+국내에서는 레인보우로보틱스와 로보티즈가 주목받고 있으며, 레인보우로보틱스는 협동로봇과 서비스 로봇을 개발하고 로보티즈는 고정밀 액추에이터를 제조한다.
+이들 두 기업은 2035년에는 글로벌 시장에서 한국 로봇 산업을 선도할 가능성이 높아 투자자들의 관심이 집중되고 있다.
 언어변경
 글자크기 설정
 가
@@ -2195,21 +3083,18 @@
 가
 가
 기사 공유
-음악투자 플랫폼 뮤직카우는 오는 8월 7일까지 ‘여름 옥션 이벤트’를 진행한다고 20일 밝혔다. 이날부터 8월 7일까지 오픈 및 마감하는 5개 곡의 옥션 참여자에게 혜택을 제공한다. 옥션은 신규 음악증권을 발행하는 뮤직카우만의 모집 절차로, 주식의 공모주 청약과 비슷한 개념이다.
-우선 이벤트 기간 중 곡 당 10주 이상, 총 3곡 이상의 옥션에서 음악증권을 낙찰 받은 고객 중 추첨해 1명에게 휴가비 100만원을 지급한다. 5곡 중 1곡의 옥션이라도 참여해 100만원 이상 음악증권을 낙찰 받는 고객 중에서도 추첨해 △150만원 이상 낙찰 시 국민관광상품권 20만원권(1곡 당 1명) △100만원 이상 낙찰 시 주유권 5만원권(1곡 당 10명)을 선물한다.
-얼리버드 미션을 달성하는 모든 고객에겐 뮤직카우 포인트를 지급한다. 각 옥션 오픈 후 3일 이내 옥션에 참여한 고객 중 △10주 이상 낙찰 받은 고객에겐 1만 뮤카 포인트 △5주 이상 낙찰 받은 고객에겐 5천 뮤카 포인트를 지급한다. 지급받은 포인트는 신규 음악증권을 가장 먼저 공개하는 ‘옥션’과 상장된 음악증권을 고객 간 자유롭게 거래할 수 있는 ‘마켓’에서 활용할 수 있다. 뮤직카우 ‘여름 옥션 이벤트’와 관련한 상세 내용은 공식 앱과 홈페이지를 통해 확인할 수 있다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2220,13 +3105,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8월음악투자 플랫폼 뮤직카우는 8월 7일까지 '여름 옥션 이벤트'를 진행하며 8월 7일까지 '여름 옥션 이벤트'를 진행한다.</t>
-  </si>
-  <si>
-    <t>HDC현산 “용산정비창  월드클래스 랜드마크로 조성”</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/realestate/11348265</t>
+    <t>AI와 로보틱스의 융합으로 2035년까지 380억달러 규모로 성장할 것으로 예상되는 국내 로봇 시장은 미국과 중국이 주도하고 있으며 미국과 중국이 주도하고 있고 레인보우로보틱스와 로보티즈가 주목받고 있다.</t>
+  </si>
+  <si>
+    <t>매니저의 HOT종목</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353164</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2237,9 +3122,9 @@
 AI 검색을 우선 설정합니다.
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-HDC현대산업개발은 용산정비창 전면1구역 재건축 사업인 'The Line 330' 프로젝트를 통해 서울의 랜드마크를 실현하겠다고 밝혔다.
-이 프로젝트는 다양한 월드클래스 파트너와의 협업으로 약 44%의 녹지공간을 조성하고, 핵심 공간인 초대형 '그랜드파크'를 개발하여 도심 속 자연을 구현할 예정이다.
-HDC현산은 운영 전략의 일환으로 리조트, 상업시설과의 직접 연계를 통해 공사 기간 단축과 사용자 만족 중심의 품질 관리를 강화할 계획이다.
+에코프로머티는 2차전지 소재 전문 기업으로, 리튬이온 배터리 핵심 소재인 양극재 전구체를 국내 최초로 대량 생산하며 원가 경쟁력을 강화하고 있다.
+미국의 중국산 배제 정책과 유럽연합의 고율 관세 예고로 글로벌 시장 확대에 유리한 위치를 점하고 있으며, 하반기 업황改善에 대한 기대감도 제기되고 있다.
+삼성에스디에스는 클라우드 전환과 AI 활용 증가로 긍정적인 시장 환경 속에서 추가적인 성장 가능성을 보이고 있다.
 언어변경
 글자크기 설정
 가
@@ -2252,9 +3137,9 @@
 추천 기사
 뉴스 요약쏙
 AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-HDC현대산업개발은 용산정비창 전면1구역 재건축 사업인 'The Line 330' 프로젝트를 통해 서울의 랜드마크를 실현하겠다고 밝혔다.
-이 프로젝트는 다양한 월드클래스 파트너와의 협업으로 약 44%의 녹지공간을 조성하고, 핵심 공간인 초대형 '그랜드파크'를 개발하여 도심 속 자연을 구현할 예정이다.
-HDC현산은 운영 전략의 일환으로 리조트, 상업시설과의 직접 연계를 통해 공사 기간 단축과 사용자 만족 중심의 품질 관리를 강화할 계획이다.
+에코프로머티는 2차전지 소재 전문 기업으로, 리튬이온 배터리 핵심 소재인 양극재 전구체를 국내 최초로 대량 생산하며 원가 경쟁력을 강화하고 있다.
+미국의 중국산 배제 정책과 유럽연합의 고율 관세 예고로 글로벌 시장 확대에 유리한 위치를 점하고 있으며, 하반기 업황改善에 대한 기대감도 제기되고 있다.
+삼성에스디에스는 클라우드 전환과 AI 활용 증가로 긍정적인 시장 환경 속에서 추가적인 성장 가능성을 보이고 있다.
 언어변경
 글자크기 설정
 가
@@ -2262,27 +3147,18 @@
 가
 가
 기사 공유
-HDC현대산업개발은 오는 22일 용산정비창 전면1구역 시공사 선정을 앞두고 “월드클래스 협업을 통해 서울의 랜드마크를 실현하겠다”고 20일 밝혔다.
-이날 HDC현산이 제안한 용산정비창 전면1구역 재건축 사업 ‘The Line 330’ 프로젝트는 SMDP(건축 디자인), LERA(구조 설계), 삼성물산 리조트부문(조경), CBRE(비주거 부동산 컨설팅), LPA(경관 조명), 파크하얏트(호텔) 등 월드클래스 협업으로 진행할 계획이다.
-HDC현산은 시공과 운영 전략까지 포괄한 HDC용산타운을 구상하고 있다. HDC그룹의 계열사 호텔HDC, HDC아이파크몰 등과 직접적 연계를 통해 정비사업 개발 이익과 공간 가치를 극대화한다는 설명이다. 금융비용과 공사 기간을 고려한 효율적 시공, 사용자 만족 중심의 품질관리, 호텔·상업시설 등 단지 내 주요 공간을 직접 운영·관리 등이 핵심 전략이다.
-HDC현산은 글로벌 호텔 체인 파크하얏트를 직접 유치하고 운영할 수 있는 부분이 강점으로 평가받는다. 국내에는 서울 삼성동과 부산 해운대 두 곳에서 호텔로 운영 중이다. 두 곳 모두 HDC현산이 직접 개발하고, 자회사인 호텔HDC를 통해 위탁 운영하고 있다.
-HDC현산은 “삼성물산 리조트부문과 협업을 통해 용산정비창 부지(약 1만2667평)의 약 44%(5570평)을 녹지공간으로 조성해 ‘도심 속 자연’을 구현한 하이엔드 주거생활을 실현할 수 있다”고 강조했다. 이 같은 녹지 공간 면적은 타사가 제안한 부지 대비 약 24%(3076평)보다 두 배가량 크다는 설명이다.
-해당 녹지공간은 그랜드파크와 8개의 프라이빗 테마정원, 6개의 중앙광장, 3가지 형태의 산책로 등으로 구성된다. 이 중 핵심은 초대형 ‘그랜드파크’로 전체 부지 면적의 25.6%를 차지하도록 설계됐다. 서울에서 가장 넓은 공원 중의 하나로 개발될 그랜드파크는 용산공원과 한강을 이어주며 도심 속에서 자연을 온전히 경험할 수 있는 공간이 될 전망이다.
-HDC현산은 앞서 용산 일대 BTO 방식의 용산역 전면공원 지하공간 개발 사업권을 확보했다. 지하철 1호선, 4호선, 신분당선, GTX-B를 연결하고, 용산역 전면공원의 지하를 복합개발하는 대형 프로젝트다. 시공 후 30년간 직접 운영까지 맡아 용산타운을 공고히 할 계획이다.
-매일 수많은 사람이 오가는 HDC아이파크몰 유동 인구를 활용한 지역 가치 상승 전략을 HDC용산타운과 이후 국제업무지구까지 확장·적용해 공간 가치를 높인다는 구상이다.
-HDC현산 관계자는 “한남4구역은 그동안 업계에서 가장 좋은 조건으로 회자됐지만, HDC현대산업개발이 제시한 용산정비창의 조건은 그 수준을 훨씬 뛰어넘은 도시정비 사상 최고 조건”이라며 “단순히 비용 절감과 사업 기간 단축에 초점을 맞췄다기보다, 정비사업의 구조적 리스크를 해소하고 조합 수익의 실현 가능성을 극대화했다는 점에서 높은 평가를 받고 있다”라고 말했다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2293,13 +3169,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>용산정비창 전면1구역 재건축 사업인 'The Line 330' 프로젝트는 다양한 월드클래스 파트너와의 협업으로 약 44%의 녹지공간을 조성하고, 초대형 '그랜드파크'를 개발하여 도심 속 자연을 구현하겠다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>김병주 회장 1조원 사재 출연 거부?…MBK “입장 밝힌 바 없어”</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348264</t>
+    <t>2차전지 소재 전문 기업인 T코프로머티는 2차전지 소재 전문 기업으로, 리튬이온 배터리 핵심 소재인 양극재 전구체를 국내 최초로 대량 생산하며 원가 경쟁력을 강화하고 있으며, 하반기 업황개선에 대한 기대감도 제기되고 있다.</t>
+  </si>
+  <si>
+    <t>경기 입장권·굿즈 할인 … 야구팬 맞춤카드</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353162</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2308,6 +3184,12 @@
 최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
 최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
 AI 검색을 우선 설정합니다.
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+삼성카드가 한국프로야구 팀 삼성라이온즈와 협업해 '삼성라이온즈카드'를 출시하며 팬들의 다양한 혜택을 제공한다고 밝혔다.
+이 카드는 경기장 입장권 할인, 굿즈 및 식음 매장 할인 등 야구 관람에 특화된 다양한 할인 혜택을 포함하고 있으며, 팬들이 선호하는 다채로운 디자인으로 구성되어 있다.
+연회비는 국내 전용과 해외 겸용 모두 2만원으로 설정되어 있다.
+언어변경
 글자크기 설정
 가
 가
@@ -2317,29 +3199,30 @@
 TOP
 댓글
 추천 기사
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+삼성카드가 한국프로야구 팀 삼성라이온즈와 협업해 '삼성라이온즈카드'를 출시하며 팬들의 다양한 혜택을 제공한다고 밝혔다.
+이 카드는 경기장 입장권 할인, 굿즈 및 식음 매장 할인 등 야구 관람에 특화된 다양한 할인 혜택을 포함하고 있으며, 팬들이 선호하는 다채로운 디자인으로 구성되어 있다.
+연회비는 국내 전용과 해외 겸용 모두 2만원으로 설정되어 있다.
+언어변경
 글자크기 설정
 가
 가
 가
 가
 기사 공유
-홈플러스의 소유주인 사모펀드 운용사 MBK파트너스의 김병주 회장이 최근 비공개로 국회를 찾아 정계에서 나온 ‘1조원 이상 사재 출연’ 요청에 대해 거부 의사를 표명했다는 일부 보도에 대해 MBK는 “사실과 다르다”고 밝혔다.
-6월 20일 일부 언론은 김 회장이 지난 6월 13일 국회 정무위원회 일부 의원들과 비공개 면담을 갖고 홈플러스에 대한 입장을 밝혔다고 보도했다.
-김 회장이 이 자리에서 MBK가 보유한 홈플러스 보통주 2조5000억원을 무상 소각해 회사 인수합병(M&amp;A)을 최대한 돕겠지만, 1조원 이상 사재 출연에 대해선 수용할 수 없다는 뜻을 밝혔다는 것이 보도의 핵심 내용이다.
-이에 대해 MBK는 “김 회장이 국회에서 미팅을 가진 것은 맞지만, 주된 내용은 홈플러스 회생을 위한 향후 방안 설명과 협조 요청이었다”며 “미팅에서 사재 출연 문의나 요구는 없었으며 김 회장이 이에 대한 입장을 밝힌 바도 없다”고 해명했다.
-이들은 “한 국회 관계자가 MBK파트너스가 2015년 홈플러스 인수 시 연간 8000억원에 이르는 상각전영업이익을 배당 등으로 가져가지 않고 1조원을 투자하겠다고 설명했던 내용을 ‘인수 시 1조원 사재출연’으로 잘못 이해하고 문의했다”며 이에 “회사의 발전을 위해 자본적지출(Capex) 투자 등 지난 10년 간 1조원 가까운 금액을 투자했다고 오해를 바로 잡고 설명한 바 있다”고 덧붙였다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2350,13 +3233,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>MBK파트너스의 김병주 회장이 비공개로 국회를 찾아 '1조원 이상 사재 출연' 요청에 대해 거부 의사를 표명했다는 일부 보도에 대해 MBK는 사실과 다르다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>트럼프 또 파월 비난…“파월은 파괴적 인물  연준 이사회 공범”</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/world/11348262</t>
+    <t>삼성카드가 한국프로야구 팀 삼성라이온즈와 협업해 '삼성라이온즈카드'를 출시하며 야구 관람에 특화된 다양한 할인 혜택을 포함하고 팬들이 선호하는 다양한 디자인으로 구성되어 있으며, 팬들이 선호하는 다채로운 디자인으로 구성되어 있다.</t>
+  </si>
+  <si>
+    <t>꿈의 암치료 시대 … 중입자 보장 챙기세요 [보험 200% 활용법]</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353163</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2365,6 +3248,12 @@
 최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
 최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
 AI 검색을 우선 설정합니다.
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+평균 수명이 80세를 넘으면서 ‘어떻게 건강하게 살 것인가’에 대한 관심이 커지고 있으며, 한국인은 기대수명의 21%를 질병 상태에서 보내게 된다.
+이에 대응하기 위해 교보생명이 DIY형 건강보험 ‘교보마이플랜건강보험’을 출시하여 고객이 원하는 맞춤형 보장을 설계할 수 있도록 했다.
+특히 항암중입자방사선치료특약 등 다양한 특약을 통해 개인의 필요에 맞춘 고비용 의료 치료 보장이 강화되고 있다.
+언어변경
 글자크기 설정
 가
 가
@@ -2374,31 +3263,30 @@
 TOP
 댓글
 추천 기사
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+평균 수명이 80세를 넘으면서 ‘어떻게 건강하게 살 것인가’에 대한 관심이 커지고 있으며, 한국인은 기대수명의 21%를 질병 상태에서 보내게 된다.
+이에 대응하기 위해 교보생명이 DIY형 건강보험 ‘교보마이플랜건강보험’을 출시하여 고객이 원하는 맞춤형 보장을 설계할 수 있도록 했다.
+특히 항암중입자방사선치료특약 등 다양한 특약을 통해 개인의 필요에 맞춘 고비용 의료 치료 보장이 강화되고 있다.
+언어변경
 글자크기 설정
 가
 가
 가
 가
 기사 공유
-도널드 트럼프 미국 대통령이 제롬 파월 연방준비제도(연준·Fed) 의장에게 금리를 인하하라고 또 압박했다. 앞서 트럼프 대통령은 파월 의장을 “멍청이(stupid)”라고 부르며 금리 인하를 요구한 바 있다.
-트럼프 대통령은 19일(현지 시각) 트루스소셜을 통해 “‘너무 늦는(Too Late)’ 제롬 파월은 미국에 수천억달러 손실을 입히고 있다”며 “그는 정부에서 가장 어리석고 파괴적인 인물 중 한 명이며, 연준 이사회는 공범”이라고 비난했다.
-또 “유럽이 금리를 10번 인하하는 동안 미국은 한 번도 하지 않았다”며 “우리는 금리를 2.5%포인트 내려서 수십억달러를 절약해야 한다”고 밝혔다. 트럼프 대통령은 전임 조 바이든 행정부가 단기 국채 발행 비중을 높여 재정을 충당한 점도 지적했다.
-트럼프 대통령은 파월 의장과 연준을 지속적으로 압박해 왔다. 연준은 지난 6월 18일 기준금리를 기존 4.25∼4.5%로 동결했다. 지난 1월 트럼프 대통령이 취임한 이래 연준은 네 차례 연속 금리를 동결했다. 연준은 “경제 전망에 대한 불확실성은 줄어들었지만, 여전히 높은 수준”이라며 금리 동결 이유를 밝혔다.
-트럼프 대통령은 연준이 금리를 동결한 날에도 비판을 이어갔다. 그는 연준 발표 직전 파월 의장을 겨냥하며 “우리에겐 멍청한 사람이 있다. 솔직히 오늘도 (금리를) 인하하지 않을 것”이라며 “차라리 내가 연준 의장을 하는 게 낫겠다”고 말했다.
-트럼프 대통령은 파월의 임기가 2026년 5월까지인 점을 언급하며 “파월은 약 9개월 후에 물러난다. 그렇게 해야 한다”며 “나는 당장 금리가 내려가는 것을 보고 싶다”고 말했다.
-파월 의장은 FOMC 회의 후 기자회견에서 “정책 조정을 검토하기에 앞서 경제의 향후 전개 과정에 대해 더 많이 파악할 때까지 기다릴 수 있는 좋은 위치에 있다”며 “우리는 이런 상황을 겪어본 적이 없으며 이 상황을 예측할 수 있는 우리의 능력에 대해 겸손해야 한다”고 밝혔다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2409,14 +3297,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>트럼프 미국 미국 대통령이 19일 트루스소셜을 통해 제롬 파월 연방준비제도(연준·Fed) 의장에게 "멍청이(stupid)"라고 부르며 금리 인하를 요구한 바 있다.
-트럼프 대통령은 19일(현지 시각) 트루스소셜을 통해 “‘너무 늦는(Too Late)’ 제롬 파월은 미국에 수천억달러 손실을 입히고 있다”면서 “그는 정부에서 가장 어리석고 파괴적인 인물 중 한 명이며 연준 이사회는 공범”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>‘배관 타고’ 아파트 6층서 여성 살해한 40대 남성 윤정우</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348257</t>
+    <t>전체 맥명을 이해하려면 기사 본문을 함께 확인하는 것이 좋으며 한국인은 기대수명의 21%를 질병 상태에서 보내게 되는데, 교보생명이 DIY형 건강보험 ‘교보마이플랜건강보험’을 출시하여 고객이 원하는 맞춤형 보장을 설계할 수 있도록 하였다.</t>
+  </si>
+  <si>
+    <t>내집마련 결심했다면 … 수도권·9억이하·재건축 3가지 주목 [지갑을 불려드립니다]</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353161</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2425,6 +3312,12 @@
 최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
 최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
 AI 검색을 우선 설정합니다.
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+최근 서울 집값 상승세가 뚜렷해지면서 강남권에서 한강변 및 기타 지역으로 매수 열기가 확산되고 있다.
+하지만 하반기 주택시장은 고물가와 금리 및 대출 규제 등으로 불확실성이 커져 변동성이 예상된다.
+따라서 내 집 마련이나 투자 시 환금성과 가격 하방 경직성을 고려하는 것이 중요하다는 전문가의 조언이 이어지고 있다.
+언어변경
 글자크기 설정
 가
 가
@@ -2434,31 +3327,30 @@
 TOP
 댓글
 추천 기사
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+최근 서울 집값 상승세가 뚜렷해지면서 강남권에서 한강변 및 기타 지역으로 매수 열기가 확산되고 있다.
+하지만 하반기 주택시장은 고물가와 금리 및 대출 규제 등으로 불확실성이 커져 변동성이 예상된다.
+따라서 내 집 마련이나 투자 시 환금성과 가격 하방 경직성을 고려하는 것이 중요하다는 전문가의 조언이 이어지고 있다.
+언어변경
 글자크기 설정
 가
 가
 가
 가
 기사 공유
-스토킹하던 여성을 살해한 뒤 달아났다 나흘 만에 붙잡힌 윤정우(48) 신상정보가 공개됐다.
-대구경찰청은 19일 신상정보공개 심의위원회를 개최하고 범행의 잔인성 및 피해의 중대성이 인정되고, 범행 증거가 충분하며 범죄 예방 등 공공의 이익을 위해 필요하다고 판단해 특정범죄가중처벌 등에 관한 법률(보복살인) 혐의를 받는 윤정우 신상정보를 공개하는 것으로 의결했다.
-이에 따라 대구경찰청은 누리집에 윤정우 이름, 나이, 사진을 30일간 공개하기로 했다. 윤정우가 이러한 결정에 이의를 제기하지 않아 신상정보는 다음 달 21일까지 공개된다.
-앞서 지난 10일 오전 3시 30분경 대구 달서구 한 아파트에서 50대 여성이 흉기에 찔린 채 가족에게 발견돼 병원으로 옮겨졌지만 결국 사망했다. 경찰은 윤정우가 폐쇄회로(CC)TV가 설치된 출입문이 아닌, 아파트 외벽 가스 배관을 타고 6층에 올라가 피해자를 살해한 것으로 보고 있다. 범행 직후 윤정우는 세종시 부강면 야산으로 도주했다 나흘 만에 세종시 조치원읍 길가에 있는 컨테이너 창고 앞에서 검거됐다. 윤정우는 피해자가 자신을 경찰에 신고해 보복을 저지른 것이라고 밝혔다.
-앞서 윤정우는 지난 4월 피해자 아파트를 찾아가 흉기로 협박한 바 있다. 당시 경찰은 특수협박 혐의로 구속영장을 신청했지만 법원은 “수사에 응하고 있다”는 이유로 기각했다.
-경찰은 피해자를 안전조치 대상으로 지정하고 집 주변에 지능형 CCTV를 설치하는 등 재발 방지에 나섰지만 피해를 막지 못했다.
-경찰은 윤정우에 대한 조사를 통해 살인 혐의를 적용했으나, 지난 4월 발생한 스토킹 사건에 대한 보복성이 인정된다고 판단해 형량이 더 높은 특정범죄가중처벌 등에 관한 법률(특가법) 위반상 보복살인으로 변경했다. 특가법상 보복살인은 최소 형량이 10년으로 형법상 살인보다 최소 형량이 무겁다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2469,13 +3361,13 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t>대구경찰청은 19일 신상정보공개 심의위원회를 개최하고 범행의 잔인성 및 피해의 중대성이 인정되고, 범행 증거가 충분하며 범죄 예방 등 공공의 이익을 위해 필요하다고 판단해 특정범죄가중처벌 등에 관한 법률(보복살인) 혐의를 받는 윤정우 신상정보를 공개하는 것으로 의결하였다.</t>
-  </si>
-  <si>
-    <t>월급 800만원 넘으면 소비쿠폰 15만원 ‘고정’</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348255</t>
+    <t>서울 집값 상승세가 뚜렷해지면서 강남권에서 한강변 및 기타 지역으로 매수 열기가 확산되고 있으며 하반기 주택시장은 변동성이 커져 변동성이 커져 내 집 마련이나 투자 시 환금성과 가격 하방 경직성을 고려하는 것이 중요하다는 전문가의 조언이 이어지고 있다.</t>
+  </si>
+  <si>
+    <t>'빅데이터 분석' 뉴엔AI  내달 4일 상장 [위클리 마켓]</t>
+  </si>
+  <si>
+    <t>https://www.mk.co.kr/news/economy/11353159</t>
   </si>
   <si>
     <t>똑똑하게 질문하기
@@ -2484,6 +3376,12 @@
 최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
 최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
 AI 검색을 우선 설정합니다.
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+6월 마지막 주와 7월 첫째 주에는 다양한 기술 기업들이 코스닥 상장 절차를 진행하며, 특히 지에프씨생명과학, 뉴엔AI, 아우토크립트가 주요 상장 기업으로 떠오르고 있다.
+지에프씨생명과학은 스킨마이크로바이옴 및 엑소좀 기술을 바탕으로 화장품 소재를 개발하고 있으며, 뉴엔AI는 AI 기반의 데이터 분석 플랫폼을 제공하는 기업으로 2026년부터 해외 시장 진출을 목표로 하고 있다.
+아우토크립트는 자동차 보안을 강화하기 위한 사이버보안 소프트웨어 솔루션을 공급하며, 로열티 매출이 향후 증가할 것으로 기대하고 있다.
+언어변경
 글자크기 설정
 가
 가
@@ -2493,32 +3391,30 @@
 TOP
 댓글
 추천 기사
+뉴스 요약쏙
+AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
+6월 마지막 주와 7월 첫째 주에는 다양한 기술 기업들이 코스닥 상장 절차를 진행하며, 특히 지에프씨생명과학, 뉴엔AI, 아우토크립트가 주요 상장 기업으로 떠오르고 있다.
+지에프씨생명과학은 스킨마이크로바이옴 및 엑소좀 기술을 바탕으로 화장품 소재를 개발하고 있으며, 뉴엔AI는 AI 기반의 데이터 분석 플랫폼을 제공하는 기업으로 2026년부터 해외 시장 진출을 목표로 하고 있다.
+아우토크립트는 자동차 보안을 강화하기 위한 사이버보안 소프트웨어 솔루션을 공급하며, 로열티 매출이 향후 증가할 것으로 기대하고 있다.
+언어변경
 글자크기 설정
 가
 가
 가
 가
 기사 공유
-정부가 2차 추가경정예산(추경)안을 통해 국민 1인당 15~52만원의 민생회복 소비쿠폰을 지급하기로 한 가운데, 10만원 추가 지원 대상에서 제외되는 ‘소득 상위 10%’ 기준이 무엇인지에 대한 관심이 집중되고 있다.
-20일 기획재정부에 따르면 민생회복 소비쿠폰은 1차로 일반 국민 4808만명에게 15만원이 지급된다. 차상위계층 38만명에게는 30만원을, 기초생활보장수급자 271만명에게는 40만원을 지급한다.
-이후 2차로 건강보험료 등 소득 분위를 따진 후 전 국민 90%에게 1인당 10만원을 추가로 지급한다. 소득분위 상위 10%에게는 2차 지원금이 지급되지 않는다.
-이때 소득 분위 상위 10% 기준은 건강보험료 납입액을 기준으로 정해진다. 건강보험 가입자는 직장가입자와 지역가입자로 나뉘고 직장가입자는 근로소득을 기준으로 회사와 본인이 절반씩 보험료를 부담, 지역가입자는 소득 외 부동산, 금융소득까지 포함해 보험료가 산정된다. 가입자 유형이 직장가입자와 지역가입자로 나뉘고 각각의 재산 상황을 종합적으로 고려해야 해 소득상위 10%를 산출하는 기준을 정하기 어려울 것으로 보인다.
-다만 보건복지부가 내놓은 ‘본인부담상한액 기준보험료의 산정기준 등에 관한 고시’를 토대로 유추는 가능하다. 고시에 따르면 지난해 직장·지역가입자 보험료를 반영한 상위 10%는 지역가입자는 20만9970원 초과, 직장가입자는 27만3380원 초과다.
-직장가입자가 이 정도의 건보료를 내기 위해선 월 소득이 대략 800만원 이상이어야 한다. 소득이 없는 지역가입자의 경우 공시가 기준 1억원 공제 후 대략 5억7900만원 이상의 재산을 보유해야 가능하다. 만약 연금 또는 금융, 부동산 소득이 있다면 소득과 재산이 합산돼 보험료가 산정되므로 재산 기준은 더 낮아질 수 있다.
-아직 구체적인 기준은 나오지 않았지만, 직장 가입자는 금융소득이나 주택 등 재산이 건보료에 반영되지 않기 때문에 고가의 주택이나 금융자산이 많은 사람이 월급이 적다는 이유로 지원금 15만원을 더 받을 수 있다는 점은 논란거리가 될 전망이다.
-유병서 기재부 예산실장은 “건보료는 직장가입자는 주로 소득을 보고 지역가입자는 재산 상황까지 같이 감안하기 때문에 2020년(재난지원금 지급)에도 공시지가로 15억원, 시세로 20억원 이상 재산 보유자는 제한했다”며 “그런 부분을 (상위 10% 기준에) 일부 가미하게 될 것”이라고 설명했다.
 이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
+2025-06-26 16:09 기준
+2025-06-26 09:00:00
+2025-06-25 21:26:15
+2025-06-25 17:22:37
+2025-06-25 22:36:17
+2025-06-25 11:02:23
+2025-06-25 09:49:12
+2025-06-26 07:44:40
+2025-06-24 17:22:33
+2025-06-24 23:16:39
+2025-06-25 09:09:03
 로그인하고
 매일경제를 경험해보세요
 매일경제신문
@@ -2529,522 +3425,61 @@
 인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
   </si>
   <si>
-    <t xml:space="preserve">문재인정부가 2차 추가경정예산(추경)안을 통해 국민 1인당 15~52만원의 민생회복 소비쿠폰을 지급하기로 한 가운데, ‘소득 상위 10%’ 기준이 무엇인지에 대한 관심이 집중되고 있다.
-</t>
-  </si>
-  <si>
-    <t>한국 상대로 “1조원 깎아줘”…이번엔 또 다른 나라 기웃거리는 인도네시아</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/world/11348253</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-인도네시아가 KF-21 전투기 개발에 참여하면서 분담금을 대폭 줄인 가운데, 최근 튀르키예와 5세대 전투기 칸(Kaan) 48대 도입 계약을 체결했다.
-이 계약은 약 100억 달러 규모로, 인도네시아는 튀르키예의 차세대 전투기를 첫 번째로 도입하는 나라가 될 예정이다.
-그러나 프라보워 대통령의 무기 현대화 사업 추진과 동시에, 무상급식 사업을 위한 예산 구조조정이 이루어져 추가적인 무기 구입비용 부담에 대한 우려도 커지고 있다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-인도네시아가 KF-21 전투기 개발에 참여하면서 분담금을 대폭 줄인 가운데, 최근 튀르키예와 5세대 전투기 칸(Kaan) 48대 도입 계약을 체결했다.
-이 계약은 약 100억 달러 규모로, 인도네시아는 튀르키예의 차세대 전투기를 첫 번째로 도입하는 나라가 될 예정이다.
-그러나 프라보워 대통령의 무기 현대화 사업 추진과 동시에, 무상급식 사업을 위한 예산 구조조정이 이루어져 추가적인 무기 구입비용 부담에 대한 우려도 커지고 있다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-한국형 초음속 전투기 KF-21 ‘보라매’를 공동 개발하기로 하고선 분담금을 약 1조원이나 깎은 인도네시아가 최근 들어 튀르키예 등 다른 나라의 신형 전투기들을 도입하려고 추진 중이다.
-19일(현지시간) 홍콩 사우스차이나모닝포스트(SCMP)에 따르면 인도네시아는 지난 11∼14일 자카르타에서 열린 방산박람회 ‘IDEX 2025’ 기간에 튀르키예와 5세대 전투기 칸(Kaan) 48대를 도입하는 계약을 맺었다.
-과거 TF-X로 불린 칸 전투기는 튀르키예가 미국에서 도입한 F-16 전투기를 대체하기 위해 2010년 개발에 착수했으며 2028년 본격 양산될 예정이다.
-튀르키예 현지 매체에 따르면 이 계약은 약 100억 달러(약 13조7000억원) 규모이며 향후 10년 동안 해당 전투기 생산과 인도가 진행될 예정이다.
-계획대로 되면 인도네시아는 튀르키예가 독자 개발한 차세대 전투기를 처음 도입하는 나라가 된다.
-앞서 인도네시아는 지난달 말 프랑스산 라팔 전투기와 디젤-전기 추진 잠수함 등을 추가로 도입하는 내용의 국방 협력 의향서(LOI)도 체결했다.
-이 같은 사실은 에마뉘엘 마크롱 프랑스 대통령이 자카르타를 찾아 프라보워 수비안토 인도네시아 대통령과 만난 뒤 공개됐다.
-또 인도네시아는 이달 초에는 중국 J-10 전투기 구매를 검토한다는 보도가, 지난 1월에는 인도와 4억5000만달러(약 6200억원) 규모의 초음속 순항미사일 도입 협상에 착수했다는 보도가 나오기도 했다.
-전문가들은 프라보워 정부가 전임 정부보다 훨씬 빠른 속도로 무기 현대화 사업을 추진하고 있다고 평가했다.
-인도네시아 안보·외교 싱크탱크 키로얀 파트너스의 국방분석가 칼 가딩 사유다는 “인프라와 경제 개발에 중점을 둔 조코 위도도 전 대통령과 달리 프라보워 대통령은 군사력의 중요성을 강하게 믿고 있다”고 분석했다.
-그러나 2016년부터 한국형 초음속 전투기 KF-21 개발에도 참여한 인도네시아는 분담금과 기술이전 문제로 한국과 최근까지 불협화음을 냈다.
-애초 인도네시아의 분담금은 KF-21 개발비의 20%인 약 1조7000억원이었으나 이후 1조6000억원으로 줄었고, 최근에는 기술을 덜 이전받겠다는 인도네시아의 제안을 한국이 받아들여 6000억원으로 줄었다.
-그 사이 인도네시아 정부는 자국 기술진이 KF-21 자료가 담긴 비인가 이동식저장장치(USB)를 외부로 빼돌리려다가 적발돼 한국의 수사를 받게 되자 분담금 개정 논의에 적극적으로 응하지 않기도 했다.
-현재까지 인도네시아가 납부한 분담금은 4000억원 규모다. 남은 분담금의 최종 납부 기한은 협의 후 정해질 예정이다.
-인도네시아는 특정 국가에 의존하지 않으려고 몇 년 전부터 무기 수입국을 다변화하고 있다.
-이는 1990년대 말 ‘동티모르 사태’를 계기로 1999∼2005년 미국으로부터 무기 수입을 금지당한 경험이 있기 때문이다.
-군인출신인 프라보워 대통령은 과거 국방장관으로 재임한 5년 동안 공군과 해군의 첨단 무기 예산을 확보하는 데 집중했다.
-호주 외교·안보 싱크탱크 로위연구소 연구원인 압둘 라흐만 야아콥은 이번 대규모 무기 도입은 프라보워 대통령이 2019년 국방장관으로 재직한 시절부터 추진해온 무기 현대화 사업의 연장선이라며 “이 사업은 그가 대통령으로 선출된 이후에도 유지되고 있다”고 설명했다.
-그러나 인도네시아 정부가 프라보워 대통령의 핵심 공약인 전국 무상급식 사업을 추진하기 위해 대규모 예산 구조조정을 하는 상황에서 늘어나는 무기 구입비를 감당할 수 있을지 우려의 목소리도 나온다.
-실제로 프라보워 대통령의 무상급식 정책 등을 추진하기 위해 올해 1월 해양경비대를 포함한 여러 부처의 예산 160억 달러(21조9000억원)가 삭감된 것으로 알려졌다.
-야아콥은 인도네시아의 정치·국방 엘리트들이 무기 도입비에만 집중하고 부품비와 유지보수비는 무시해 왔다고 지적했다.
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>인도네시아가 KF-21 전투기 개발에 참여하면서 분담금을 대폭 줄인 가운데, 최근 튀르키예와 5세대 전투기 칸(Kaan) 48대 도입 계약을 체결하였는데, 이 계약은 약 100억 달러 규모로, 인도네시아는 튀르키예의 차세대 전투기를 첫 번째로 도입하는 나라가 될 것이고, 프라보워 대통령의 무기 현대화 사업 추진과 동시에 무상급식 사업을 위한 예산 구조조정이 이루어져 추가적인 무기 구입비용 부담에 대한 우려도 커지고 있다.</t>
-  </si>
-  <si>
-    <t>애큐온저축은행  리테일 금융 전문가 김희상 신임 대표 선임</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/economy/11348250</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-애큐온저축은행은 20일 이사회를 열고 김희상 애큐온캐피탈 리테일금융부문장을 신임 대표이사로 선임했다고 밝혔다.
-김 신임 대표는 34년간 금융업에 종사하며 고객 최우선 경영 철학으로 애큐온저축은행의 성장에 기여할 것으로 기대된다.
-애큐온저축은행은 지난해 370억원의 흑자를 기록하며 자산 수익성과 건전성 강화를 목표로 삼고 있다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-애큐온저축은행은 20일 이사회를 열고 김희상 애큐온캐피탈 리테일금융부문장을 신임 대표이사로 선임했다고 밝혔다.
-김 신임 대표는 34년간 금융업에 종사하며 고객 최우선 경영 철학으로 애큐온저축은행의 성장에 기여할 것으로 기대된다.
-애큐온저축은행은 지난해 370억원의 흑자를 기록하며 자산 수익성과 건전성 강화를 목표로 삼고 있다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-애큐온저축은행은 20일 이사회를 열고 신임 대표이사로 김희상 애큐온캐피탈 리테일금융부문장을 선임했다고 밝혔다.
-김 신임 대표는 1964년생으로 고려대 경제학과를 졸업하고 단국대 경영대학원에서 석사 학위를 받았다. 1990년 LG카드에 입사해 리테일금융영업본부장과 영업지원본부장을 지내고, 신한카드에서도 CRM(고객관계관리)본부장과 영업본부장을 역임했다. 이후 BC카드에서 전략기획본부장과 리테일금융 마케팅본부장을 맡았으며, 2018년부터 애큐온캐피탈 리테일금융부문장을 지냈다. 애큐온캐피탈에선 개인신용대출과 사업자 모기지대출 사업을 성공적으로 이끌었다는 평가를 받는다고 회사 측은 밝혔다.
-그간 저축은행을 이끌었던 김정수 대표는 최근 일신상 이유로 사임 의사를 표명한 것으로 알려졌다. 김 전 대표는 2023년 선임됐고, 지난해 8월 재선임된 바 있다.
-애큐온저축은행 임원후보추천위원회는 “김 신임 대표는 34년간 쌓아온 금융 현장 경험과 고객 최우선 경영 철학으로 조직 성장을 이끌어갈 적임자”라며 “새로운 리더십을 통해 애큐온저축은행이 미래 성장 발판을 마련할 것을 기대한다”고 선임 배경을 밝혔다.
-애큐온저축은행은 선제적 리스크 관리를 통한 자산 수익성과 건전성 강화를 목표로 내걸며 작년 370억원 흑자 전환에 성공한 바 있다. 자산도 올해 1분기 기준 5조4000억원으로 저축은행업계 5위 수준이다.
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>김희상 애큐온캐피탈 리테일금융부문장은 34년간 금융업에 종사하며 고객 최우선 경영 철학으로 애큐온저축은행의 성장에 기여할 것으로 기대된다.</t>
-  </si>
-  <si>
-    <t>두산에너빌  한수원과 3300억 규모 양수발전소 주기기 공급계약</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348248</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-두산에너빌리티는 한국수력원자력과 영동양수발전소 1·2호기 주기기 공급 계약을 체결했다.
-영동양수발전소는 500MW 규모로 충북 영동군에 건설되며, 2030년 준공될 예정으로, 국내 최초의 가변속형 설비가 도입된다.
-정연인 부회장은 이번 프로젝트가 재생에너지 확대에 중요한 역할을 할 것이라고 강조했다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-두산에너빌리티는 한국수력원자력과 영동양수발전소 1·2호기 주기기 공급 계약을 체결했다.
-영동양수발전소는 500MW 규모로 충북 영동군에 건설되며, 2030년 준공될 예정으로, 국내 최초의 가변속형 설비가 도입된다.
-정연인 부회장은 이번 프로젝트가 재생에너지 확대에 중요한 역할을 할 것이라고 강조했다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-두산에너빌리티는 한국수력원자력과 3300억원 규모의 영동양수발전소 1·2호기 주기기 공급 계약을 체결했다고 20일 밝혔다.
-영동양수발전소는 충북 영동군에 500MW(250MW급 2기) 규모로 건설되며 2030년 준공 예정이다. 국내 신규 양수발전소 건설은 2011년 예천양수발전소 준공 이후 약 14년 만이다. 영동양수발전소에는 국내 최초로 발전량 조절이 가능한 가변속형 설비를 적용한다.
-두산에너빌리티는 이번 계약을 통해 수차, 발전기, 전기·제어설비를 포함한 전체 기자재의 설계, 제작, 설치 등을 수행한다. 양수발전은 재생에너지의 간헐성을 보완하는 에너지저장시스템(ESS)으로, 잉여 전기로 물을 상부댐으로 끌어올리고 전력이 부족할 땐 물을 다시 하부댐으로 보내 전기를 생산하는 방식이다.
-정연인 두산에너빌리티 부회장은 “국내 최초의 가변속형 양수발전소 건설 사업을 함께 추진할 수 있어 매우 뜻깊다”며 “한수원이 적극적으로 양수발전 사업을 추진해 준 덕분에 재생에너지 확대에 필수적인 양수발전 기자재 국산화의 기반을 마련할 수 있었다”고 말했다.
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한국수력원자력과 영동양수발전소 1·2호기 주기기 공급 계약을 체결한 한국수력원자력은 한국수력원자력과 영동양수발전소 1·2호기 주기기 공급 계약을 체결하였으며, 국내 최초의 가변속형 설비가 도입되어 국내 최초의 가변속형 설비가 도입되어 재생에너지 확대에 중요한 역할을 할 것이라고 밝혔다.
-</t>
-  </si>
-  <si>
-    <t>“GS칼텍스 매경오픈 이후 엄청난 관심…섹튜플 보기 하고 인생 깨달았죠”</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/sports/11348244</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-신용구가 한국프로골프 투어 KPGA선수권대회 2라운드에서 6언더파 65타를 기록하며 중간합계 11언더파로 리더보드에 올라섰다.
-그는 매일 저녁 다음 라운드 이미지 트레이닝을 통해 전략을 세우고, 편안한 경기를 할 수 있었다고 전했다.
-신용구는 지난달 GS칼텍스 매경오픈에서의 실수를 교훈 삼아, 이번 대회에서 차분하게 자신의 플레이에 집중하겠다는 각오를 밝혔다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-신용구가 한국프로골프 투어 KPGA선수권대회 2라운드에서 6언더파 65타를 기록하며 중간합계 11언더파로 리더보드에 올라섰다.
-그는 매일 저녁 다음 라운드 이미지 트레이닝을 통해 전략을 세우고, 편안한 경기를 할 수 있었다고 전했다.
-신용구는 지난달 GS칼텍스 매경오픈에서의 실수를 교훈 삼아, 이번 대회에서 차분하게 자신의 플레이에 집중하겠다는 각오를 밝혔다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-지난달 GS칼텍스 매경오픈 최종일 18번홀에서 기준 타수보다 6타를 더 치는 섹튜플 보기를 범한 뒤 인생을 깨달은 신용구(캐나다)가 한국프로골프(KPGA) 투어 KPGA선수권대회 정상에 오를 절호의 기회를 잡았다.
-신용구는 20일 경남 양산의 에이원 컨트리클럽에서 열린 대회 2라운드에서 6언더파 65타를 쳤다. 중간합계 11언더파 131타를 기록한 그는 리더보드 상단에 이름을 올렸다.
-이틀간 보기 없이 버디만 11개를 잡아낼 수 있었던 비결은 정교한 샷과 퍼트에 있다. 신용구의 드라이버 샷과 아이언 샷은 이날 웬만해서는 페어웨이와 그린을 벗어나지 않았다. 그린 위에서는 남은 거리에 관계없이 버디 퍼트를 쏙쏙 집어넣으며 무결점 플레이를 완성했다.
-신용구는 “큰 실수가 나오지 않은 덕분에 이틀간 편하게 경기를 할 수 있었다. 현재 샷과 퍼트감이 나쁘지 않는 만큼 남은 라운드도 집중해보려고 한다. 이번 대회를 기분 좋게 마무리할 수 있도록 최선을 다해보겠다”고 강조했다.
-지난주 하나은행 인비테이셔널에서 공동 5위를 차지했던 그는 다시 한 번 상위권에 이름을 올리게 된 원동력으로 매일 저녁 다음 라운드 이미지 트레이닝을 한 덕분이라고 설명했다. 그는 “올해부터 달라진 변화 중 하나가 미리 전략을 세우는 것이다. 자기 전에 다음날 핀 위치를 야디지북에 적으면서 어떻게 공략할지 머리로 그리고 있다. 많은 시간을 투자해 다음날 경기를 준비하는 만큼 확실히 도움이 된다”고 설명했다.
-2022년 우성종합건설 오픈 이후 아직까지 승수를 추가하지 못하고 있는 신용구는 차분하게 두 번째 우승에 도전해보겠다는 각오를 전했다. 그는 “지난달 GS칼텍스 매경오픈을 통해 하고 싶다고 할 수 있는 게 우승이 아니라는 것을 제대로 알게 됐다. 공격만 하다가는 최종일 18번홀에서 나왔던 섹튜플 보기와 같은 큰 실수가 나오게 된다. 이번 대회에서 우승 경쟁을 펼치게 된다면 차분하게 내 플레이를 해보려고 한다”고 말했다.
-신용구는 GS칼텍스 매경오픈이 끝난 뒤 팬들이 크게 늘었다고 밝혔다. 그는 “지금 생각해도 마음이 아프지만 섹튜플 보기를 기록한 선수로 엄청난 주목을 받게 됐다. 우승을 놓친 건 아쉽지만 나를 응원해주는 팬들이 늘어나 기쁘다. 앞으로는 멋진 경기력으로 팬들에게 감동을 주는 선수가 되겠다”고 강조했다.
-양산 임정우 기자
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>지난 20일 GS칼텍스 매경오픈에서의 실수를 교훈 삼아 GS칼텍스 매경오픈에서의 실수를 교훈 삼아 GS칼텍스 매경오픈에서의 실수를 교훈 삼아 차분하게 자신의 플레이에 집중하겠다는 각오를 밝혔다.</t>
-  </si>
-  <si>
-    <t>[속보] 법원  홈플러스 인가 전 M&amp;A 신청 허가 결정</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348243</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-법원이 홈플러스의 회생계획 인가 전 인수합병(M&amp;A) 신청을 허가했다.
-서울회생법원 회생4부(정준영 법원장)는 6월 20일 홈플러스의 인가 전 M&amp;A 추진과 매각주간사 선정 허가 결정을 내렸다.
-법원은 “인가전 M&amp;A를 통해 회생담보권과 회생채권을 조기변제하고 채무자 회사의 채권자·근로자 등 이해관계인에게 유리한 조건으로 매각할 예정”이라고 밝혔다. 매각주간사는 삼일회계법이다.
-법원의 승인에 따라 홈플러스는 새 주인(인수자)과 함께 다시 기업 정상화 방안(회생계획안)을 세우게 된다.
-앞서 홈플러스는 지난 6월 13일 법원에 회생계획 인가 전 기업인수합병(M&amp;A)을 신청하겠다고 밝혔다. 서울회생법원이 조사위원으로 지정한 삼일회계법인이 6월 12일 홈플러스의 재무상황을 분석한 조사보고서에서 기업의 청산가치가 계속운영가치보다 높다는 결론을 내리면서다.
-삼일회계법인은 홈플러스의 계속기업가치를 2조5000억원으로 산정했다. 반면 청산가치는 3조7000억원으로 산정해 청산가치가 1조2000억원 더 높았다. 홈플러스가 보유한 부동산 등 총자산이 총 6조8000억원으로 평가되면서 청산가치가 더 높게 나왔다. 청산가치란 회사가 보유한 총 자산에서 부채를 뺀 금액, 계속기업가치란 향후 10년 간 창출 가능한 잉여현금흐름의 예상 합산액이다.
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>6월 20일 서울회생법원은 홈플러스의 회생계획 인가 전 인수합병(M&amp;A) 신청을 허가하였고 매각주간사는 삼일회계법인의 승인에 따라 홈플러스의 회생계획 인가 전 인수합병(M&amp;A)을 신청하겠다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>웅진  말레이시아 법인 설립…동남아 시장 공략 속도</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348241</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-웅진이 말레이시아 쿠알라룸푸르에 현지 법인을 설립하고, 개소식은 지난 17일 아마리 쿠알라룸푸르 호텔에서 열렸다.
-웅진은 현지 렌탈 업체를 대상으로 자사 개발한 렌탈매니지먼트 시스템(WRMS)을 구축할 계획으로, 말레이시아 시장의 잠재력을 높게 평가하고 있다.
-이성기 코트라 쿠알라룸푸르 무역관장은 웅진의 진출이 한국 IT 기업의 위상을 높이는 기회가 될 것이라고 기대를 밝혔다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-웅진이 말레이시아 쿠알라룸푸르에 현지 법인을 설립하고, 개소식은 지난 17일 아마리 쿠알라룸푸르 호텔에서 열렸다.
-웅진은 현지 렌탈 업체를 대상으로 자사 개발한 렌탈매니지먼트 시스템(WRMS)을 구축할 계획으로, 말레이시아 시장의 잠재력을 높게 평가하고 있다.
-이성기 코트라 쿠알라룸푸르 무역관장은 웅진의 진출이 한국 IT 기업의 위상을 높이는 기회가 될 것이라고 기대를 밝혔다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-웅진이 말레이시아 쿠알라룸푸르에 현지 법인을 설립했다고 20일 밝혔다.
-말레이시아 법인 개소식은 지난 17일 아마리 쿠알라룸푸르 호텔에서 열렸다. 이날 현장에는 이수영 웅진 대표와 LG전자, SK매직 등 국내 기업 현지 법인장, 대한무역투자진흥공사(KOTRA) 쿠알라루푸르 무역관장, 말레이시아 한인회 회장 및 말레이시아 한국상공회의소 코참 회장, 한국 유학 말레이시아 동문회 회장 등이 참석했다.
-웅진은 “말레이시아 진출 한국기업 및 현지 렌탈 업체를 대상으로 렌탈매니지먼트 시스템(WRMS)를 통한 렌탈시스템을 구축할 것”이라고 설명했다.
-WRMS는 웅진이 자체 개발한 솔루션으로, 계약·수납·고객관리 등 렌탈 비즈니스에 필요한 모든 서비스를 통합 지원한다. 표준화된 핵심 기능에 고객사 업종과 운영 방식에 따라 기능을 추가하는 구조로 확장성을 갖췄다. 웅진은 말레이시아가 동남아 국가 중에서 소득 수준이 높고 비즈니스 환경이 안정적이라는 점에 주목했다.
-웅진은 현지 글로벌운영센터를 중심으로 해외 파트너십 생태계를 구축한다는 계획이다. 한국 본사에서는 솔루션은 현지화 및 연구개발을 담당하고, 해외 법인은 기술·영업·고객 지원, 파트너사는 라이선스 리셀링과 구축·운영을 맡는다.
-말레이시아 법인은 미국 법인에 이어 웅진이 두 번째로 설립한 해외 거점으로, 아시아 사업 확장을 위한 교두보 역할을 할 수 있다. 렌탈 산업 성장 잠재력이 크고 IT 인프라도 빠르게 확장하고 있어 웅진의 솔루션·운영 역량을 보여주기에 적당한 시장이다.
-이성기 코트라 쿠알라룸푸르 무역관장은 “AI와 클라우드 수요가 증가하는 말레이시아 시장에서 웅진의 솔루션 비즈니스 진출은 매우 시의적절하다”며 “현지에서 한국 IT 기업의 위상을 높이는 계기가 되기를 기대한다”고 말했다.
-이수영 대표는 “말레이시아 법인은 아시아 진출을 위한 제2 본사로, 이번 개소를 통해 한국과 말레이시아 경제에 실질적으로 기여할 것”이라고 밝혔다.
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>지난 17일 말레이시아 쿠알라룸푸르에 현지 법인을 설립하고 개소식을 열었으며 현지 렌탈 업체를 대상으로 자사 개발한 렌탈매니지먼트 시스템(WRMS)을 구축할 계획으로, 말레이시아 시장의 잠재력을 높게 평가하고 있으며 말레이시아 시장의 잠재력을 높게 평가하고 있다.</t>
-  </si>
-  <si>
-    <t>HD현대오일뱅크  에너지기업 쉘과 고성능 윤활기유 시장 진출</t>
-  </si>
-  <si>
-    <t>https://www.mk.co.kr/news/business/11348240</t>
-  </si>
-  <si>
-    <t>똑똑하게 질문하기
-한국 경제성장률 전망 알려줘
-최근 부동산 시장의 주요 트렌드는?
-최근 부동산 시장 동향과 정부의 경제 정책 변화 검색해줘
-최근 발표된 주요 기업들의 실적과 주가 분석 관련 기사 찾아줘
-AI 검색을 우선 설정합니다.
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-HD현대쉘베이스오일이 고성능·고부가가치 윤활기유 시장에 진출하며 2027년부터 윤활기유(그룹 3)의 상업 가동을 시작할 계획이다.
-이 회사는 다양한 품질 요구를 만족시켜온 경험을 바탕으로 프리미엄 제품군을 추가하고 쉘과의 기술 협력을 통해 상업 가동을 준비하고 있다.
-HD현대쉘베이스오일은 2014년 설립 이후 아시아, 유럽, 북미 지역으로 매출을 지속적으로 확대해 현재 50여 개국에 제품을 공급하고 있다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-TOP
-댓글
-추천 기사
-뉴스 요약쏙
-AI 요약은 OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공합니다. 전체 맥락을 이해하려면 기사 본문을 함께 확인하는 것이 좋습니다.
-HD현대쉘베이스오일이 고성능·고부가가치 윤활기유 시장에 진출하며 2027년부터 윤활기유(그룹 3)의 상업 가동을 시작할 계획이다.
-이 회사는 다양한 품질 요구를 만족시켜온 경험을 바탕으로 프리미엄 제품군을 추가하고 쉘과의 기술 협력을 통해 상업 가동을 준비하고 있다.
-HD현대쉘베이스오일은 2014년 설립 이후 아시아, 유럽, 북미 지역으로 매출을 지속적으로 확대해 현재 50여 개국에 제품을 공급하고 있다.
-언어변경
-글자크기 설정
-가
-가
-가
-가
-기사 공유
-HD현대오일뱅크와 쉘(SHELL)의 합작법인인 HD현대쉘베이스오일이 고성능·고부가가치 윤활기유 시장에 새롭게 진출한다.
-20일 HD현대쉘베이스오일은 윤활기유 대산공장 증설 투자를 통해 오는 2027년부터 윤활기유(그룹 3)의 본격적인 상업 가동을 목표로 하고 있다고 밝혔다. 윤활기유는 엔진오일, 산업용 윤활유를 비롯해 다양한 윤활유 제품의 필수 소재다.
-제조공정과 품질 특성에 따라 그룹1부터 그룹3으로 분류하는데, 그룹3 윤활기유는 높은 점도지수(VI), 낮은 황 함량, 우수한 산화 안정성을 갖춘 친환경·고성능 제품이다.
-HD현대쉘베이스오일 관계자는 “다양한 고객사의 품질 요구를 만족시켜온 경험을 바탕으로 프리미엄 제품군을 추가하게 됐다”며 “쉘과의 기술 협력을 통해 계획된 일정에 맞춰 상업 가동할 수 있도록 최선을 다할 것”이라고 말했다.
-HD현대오일뱅크가 쉘과 합작회사로 설립한 HD현대쉘베이스오일은 2014년 공장을 준공해 윤활기유 (그룹2)상업 생산을 시작했다. 이후 아시아, 유럽과 북미 지역을 대상으로 매출 규모를 지속적으로 확대해 현재 전 세계 50여 개국에 제품을 공급 중이다.
-이 기사가 마음에 들었다면, 좋아요를 눌러주세요.
-2025-06-20 16:09 기준
-2025-06-19 21:56:35
-2025-06-20 11:52:00
-2025-06-19 17:04:32
-2025-06-18 11:49:12
-2025-06-19 10:00:13
-2025-06-20 11:16:46
-2025-06-20 14:04:16
-2025-06-20 14:32:12
-2025-06-20 11:23:05
-2025-06-19 22:40:00
-로그인하고
-매일경제를 경험해보세요
-매일경제신문
-주소 : 서울특별시 중구 퇴계로 190(필동1가) | 전화 : 02-2000-2114
-일간신문등록번호 : 가00196 | 등록일자 : 1966.03.08
-매경AX
-주소 : 서울특별시 중구 퇴계로 190(필동1가) 8층 | 전화 : 02-2000-2114
-인터넷신문등록번호 : 서울아01043 | 등록(발행)일자 : 2009.11.30 | 발행/편집인 : 김명수</t>
-  </si>
-  <si>
-    <t>2017년부터 2017년부터 윤활기유 대산공장 증설 투자를 통해 오는 2027년부터 윤활기유(그룹 3)의 본격적인 상업 가동을 목표로 하고 있는 HD현대쉘베이스오일이 윤활기유 대산공장 증설 투자를 통해 오는 2027년부터 윤활기유(그룹 3)의 본격적인 상업 가동을 목표로 하고 있다.</t>
-  </si>
-  <si>
-    <t>한가인  ‘♥연정훈’에게 희생해...타고난 호구 관상 “남편 팔자가 상팔자”</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510195</t>
+    <t>OpenAI의 최신 기술을 활용해 핵심 내용을 빠르고 정확하게 제공하기 위해 지에프씨생명과학, 뉴엔AI, 아우토크립트가 코스닥 상장 절차를 진행하며, 지에프씨생명과학, 뉴엔AI, 아우토크립트가 주요 상장 기업으로 떠오르고 있다.</t>
+  </si>
+  <si>
+    <t>‘11살 연하♥’ 김종민  결혼 2개월 만에 경사 “욕 먹어도 말 못한 이유는..”</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514848</t>
+  </si>
+  <si>
+    <t>관련이슈 이슈플러스
+입력 : 2025-06-26 16:23:58 수정 : 2025-06-26 16:25:15
+인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
+그룹 코요태 겸 방송인 김종민이 결혼 2개월 만에 기쁜 소식을 전했다.
+지난 25일 유튜브 채널 ‘메리고라운드’에서는 ‘김종민이 6개월간 아무 말도 할 수 없었던 이유’라는 제목의 영상이 게재됐다. 공개된 영상에서는 김종민이 직접 출연하며, 그간 조용했던 행보에 대한 궁금증을 해소했다.
+앞서 김종민은 개인 콘텐츠 ‘김종민의 면데이뚜 데면데면’을 통해 꾸준히 팬들과 소통해 왔으나, 작년 12월 ‘히밥 편’을 끝으로 업로드가 중단된 상태였다. 갑작스러운 공백에 일부 시청자들은 별다른 안내도 없이 콘텐츠가 멈춘 데에 아쉬움을 드러내기도 했다.
+이에 대해 제작진은 이날 영상 시작과 동시에 “죄송합니다. 6개월간 ‘데면데면’이 잠적했던 말할 수 없었던 이유 지금 밝힙니다”라는 자막을 내보내며 본격적인 해명에 나섰다.
+공개된 영상에 따르면 김종민은 라면 개발 프로젝트에 집중하느라 콘텐츠를 잠시 멈췄던 것으로 알려졌다. 그는 모 유통업체의 가공식품 담당자, 그리고 유명 라면 제조사의 관계자들과 협업을 논의하며 새로운 제품 출시를 준비 중이었다고.
+결국 신제품 출시를 앞두게 된 김종민은 “먹다가 느끼하지도 않고 너무 괜찮다”고 설명했다. 해당 제품은 오모리 김치 베이스를 활용한 라면으로, 그가 직접 개발에 참여했다.
+이 가운데 김종민은 “꼬꼬면으로 히트를 친 이경규 선배님을 넘는 게 목표”라며 특유의 유쾌함도 잊지 않았다.
+끝으로 제작진은 그간 침묵할 수밖에 없었던 이유에 대해 “댓글로 욕이 달려도 대외비라 말할 수 없었던 지난날. 종민은 열심히 라면 개발을 하고 있었다. N개월 동안 여러 번의 테스트 끝에 나왔다”며 이해를 당부했다.
+한편, 김종민은 지난 4월20일 서울 중구 신라호텔 영빈관에서 11살 연하의 비연예인 사업가와 결혼식을 올렸다. 같은 팀의 멤버 신지도 내년 상반기 7세 연하 가수 문원과 결혼을 앞두고 있다.
+김지수 온라인 뉴스 기자 jisu@segye.com
+[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
+제호 : 세계일보
+서울특별시 용산구 서빙고로 17
+등록번호 : 서울, 아03959
+등록일(발행일) : 2015년 11월 2일
+발행인 : 정희택
+편집인 : 김선교
+전화번호 : 02-2000-1234
+청소년보호 책임자 : 임인섭
+Copyright ⓒ 세계일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>지난 25일 유튜브 채널 ‘메리고라운드’에서는 ‘김종민이 6개월간 아무 말도 할 수 없었던 이유’라는 제목의 영상이 게재되었는데, 김종민은 라면 개발 프로젝트에 집중하느라 콘텐츠를 잠시 멈췄던 것으로 알려졌다.</t>
+  </si>
+  <si>
+    <t>유인영  200만원대 ‘샤넬’ 레인부츠 자랑 “가격이 점점 더 비싸져”</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626512883</t>
   </si>
   <si>
     <t>관련이슈 이슈키워드 , 이슈플러스
-입력 : 2025-06-20 16:15:10 수정 : 2025-06-20 16:19:49
+입력 : 2025-06-26 16:23:43 수정 : 2025-06-26 16:25:32
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-배우 한가인이 자신의 관상과 사주 팔주에 대해 알아봤다.
-지난 19일, 유튜브 채널 ‘자유부인 한가인’에는 ‘관상가가 보는 국보급 코 한가인의 얼굴은?’이라는 제목의 영상이 게재됐다. 공개된 영상에서는 배우 한가인이 관상가를 찾아가 다양한 이야기를 듣는 모습이 담겼다.
-이날 한가인은 “시어머니께서 처음 만났을 때 결혼을 빨리해야 한다고 하셨다”며 “둘이 천생연분이라고 했는데, 정말이었는지 궁금하다”고 질문했다. 이에 역술가는 “둘 사이의 궁합을 보면 남편 분이 잔소리를 듣게 태어났다”고 주장했다.
-한가인은 자신이 연정훈에게 반하게 된 계기도 설명했다. 그는 “항상 여유가 없고 다른 사람을 굉장히 배려하는 편이다”라며 “주변은 좋지만 저는 너무 힘든 게 저를 돌볼 시간이 없다”가 토로했다. 반면 남편은 자신을 잘 돌보기에 삶에 여유 있는 모습이 부러웠다는 것.
-역술가는 “완벽주의 성향이 있고 강박적 스트레스가 있을 것 같다”고 판단했다. 또 굉장히 참는 성격이 강해서 관상적으로 ‘호구상’이라고. 그는 “부지런하게 계속 움직이면서 남을 위해 희생하니까 어떻게 보면 아내나 엄마로서는 최고다”라고 이야기했다.
-다만 한가인은 “남편에게 좋은 아내인지는 잘 모르겠다”며 “결혼하기 전에는 모든 신경이 남편이었지만 지금은 아이들이 우선이라 에너지가 분산된다”고 털어놨다. 역술가는 “그런 의미에서 남편 분이 자유를 얻고 뛰어놀 수 있는 발판을 얻은 느낌이다”라고 풀이했다.
-한가인은 “연정훈의 사주를 보면 ‘남편 팔자가 진짜 상팔자’라고 나온다”고 부연했다. 역술가는 “두 분 사이에는 마음자리의 합이 강하다”며 “마음이 통하고 서로 소통할 수 있는 면들을 가지고 있다”고 털어놨다.
-다만 안에서 모든 걸 정리하는 느낌인 한가인과 달리, 연정훈은 잔소리를 들으면서 밖으로 나가야 하는 느낌이라고 한다. 이에 한가인은 “남편이랑 저는 백년해로 하냐”며 “20년 살았으니까 많이 산 것 같은데 더 많이 사나”라고 너스레를 떨었다.
-이에 역술가는 “한가인 님은 남자가 폭행 또는 외도 이런 것처럼 명확하게 드러나는 나쁜 일을 하지 않은 이상은 이혼이 어렵다”고 웃어 보였다. 한가인은 “이번 생은 연정훈과 함께하는 걸로...”라고 말끝을 흐려 현장을 폭소케 했다.
+배우 유인영이 샤넬 레인부츠를 소개하며 구매한 이유를 털어놨다.
+지난 24일, 유튜브 채널 ‘인영인영’에는 “장마에도 예쁜 인영’s 내돈내산 찐템들”이라는 제목의 영상이 게재됐다. 공개된 영상에서는 배우 유인영이 여름을 맞아 직접 구매한 신발들을 소개하는 모습이 담겼다.
+이날 유인영은 “제가 그동안 비가 오면 신으려고 꼭꼭 모아두었던 신발을 소개하도록 하겠다”며 “전부 다 직접 구매한 제품들이고 한 번도 안 신었던 따끈따끈한 신발들도 있다”고 밝혀 기대를 모았다.
+유인영은 젤리슈즈, 아웃도어 신발 등 여러 여름용 신발을 소개했다. 이에 샤넬 레인부츠가 등장하자 제작진은 “드디어 나온다”고 신나했다. 그는 “내가 왜 레인부츠를 이 돈을 주고 사야 하는가에 대해서 정말 많이 고민했다”고 털어놨다.
+이어 “정말 많이 고민하고 생각을 한 끝에 구매했다”며 “지난해 한 해만 신었고 올해 비가 오기를 기다렸다”고 웃어 보였다. 실제로 해당 레인부츠는 2025년 6월 기준, 매장에서 203만 원에 판매되고 있는 상품이다.
+유인영은 “이 제품은 블로그나 인스타그램만 보더라도 꾸준히 장마철 추천템으로 올라오는 제품이다”라고 설명했다. 다만 자신도 맨 처음에는 ‘아무래도 금액대가 있으니까 유행을 탈 게 분명하다’ 생각하며 사지 않으려고 했다고.
+그는 “한 몇 년을 고민했는데 그래도 매년 비가 오면 이 신발이 거론됐다”며 “비싼 금액이지만 오랫동안 잘 신을 수 있을 것 같다”고 만족감을 표했다. 제작진은 “저런 고가의 명품 브랜드는 기간을 얼마나 고민하고 사냐”고 질문했다.
+유인영은 “레인부츠는 좀 많이 고민했던 이유가 있다”며 “다른 신발은 계절에 영향을 받지 않고 엄청 많이 신을 수 있는데 이건 비가 오거나 눈이 올 때만 신을 수 있다”고 설명했다. 이에 ‘근데 이 가격을 주기엔 너무 비싼데?’ 싶었기 때문.
+그러나 금방 식을 줄 알았던 인기에도 해당 신발은 몇 년간 계속 유행하면서 가격은 점점 더 비싸졌다고 한다. 그는 “내가 하루라도 빨리 저 신발을 샀어야 한다”며 “결국 ‘더 오르기 전에 사자’ 싶어서 샀고 지금은 만족하면서 신고 있다”고 덧붙였다.
 박가연 온라인 뉴스 기자 gpy19@segye.com
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
@@ -3058,25 +3493,25 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>지난 19일, 유튜브 채널 ‘자유부인 한가인’에는 ‘관상가가 보는 국보급 코 한가인의 얼굴은?’이라는 제목의 영상이 게재되어 배우 한가인이 시어머니가 처음 만났을 때 결혼을 빨리해야 한다고 하셨다며 “둘이 천생연분이라고 했는데, 정말이었는지 궁금하다”고 질문했다.</t>
-  </si>
-  <si>
-    <t>“성매매 업주 수사계획 없다” 정보 흘린 경찰…집유 확정</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510011</t>
+    <t>배우 유인영이 장마철 추천템으로 올라오는 샤넬 레인부츠를 소개하며 구매한 이유를 유튜브 채널 ‘인영인영’에는 “장마에도 예쁜 인영’s 내돈내산 찐템들”이라는 제목의 영상이 게재됐다.</t>
+  </si>
+  <si>
+    <t>강진 가금 계류장서 AI 항원 검출… 전남도  초동방역 조치</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514622</t>
   </si>
   <si>
     <t>관련이슈 디지털기획
-입력 : 2025-06-20 16:11:50 수정 : 2025-06-20 16:11:49
+입력 : 2025-06-26 16:21:11 수정 : 2025-06-26 16:21:27
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-수사 계획을 브로커에게 흘린 혐의로 재판에 넘겨진 경찰관들에게 징역형 집행유예가 확정됐다.
-20일 법조계에 따르면 대법원 3부(주심 이숙연 대법관)는 공무상비밀누설과 개인정보보호법 위반 혐의로 기소된 경찰관 A(62)씨와 B(62)씨에게 각각 징역 6개월에 집행유예 2년, 징역 10개월에 집행유예 2년을 선고한 원심판결을 확정했다. 함께 기소된 경찰관 C(56)씨는 선고유예가 확정됐다.
-A씨와 B씨는 2018년 4월 브로커의 부탁을 받고 특정 성매매 업소에 대한 단속과수사 계획 등을 누설한 혐의로 기소됐다. C씨는 브로커에게 해당 업주의 지명수배 여부를 알려준 혐의를 받았다.
-범행 당시 A씨는 서울지방경찰청에, B씨는 일선 경찰서에서 불법 성매매 업소 단속·수사 업무를 맡은 것으로 조사됐다. 이들은 해당 업소와 관련해 단속된 사람들 선에서 수사를 마무리하고 업주에 대한 추가수사 계획이 없다는 취지의 정보를 알린 혐의를 받는다. A씨는 해당 업소가 자신이 팀장으로 있는 팀의 단속을 받게 되었다는 사실을 B씨에게 알려줬고, B씨는 이를 브로커에게 전달한 것으로 파악됐다.
-1심은 혐의를 모두 유죄로 인정해 이들에게 각각 징역 6개월에 집행유예 2년, 징역 10개월에 집행유예 2년을 선고했다.
-2심 재판부는 “통상 수사는 밀행성의 원칙에 따라 비밀리에 진행된다”며 “이 사건 범행의 결과 이른바 ‘바지사장’을 내세워 영업하던 업주가 실제 업주를 찾기 위한 수사가 더 이상 이루어지지 않으리라는 사실을 알고 범행을 지속할 수 있었다”고 지적했다.
-대법원도 2심 판단에 잘못이 없다고 보고 상고를 기각했다.
+전남도는 26일 강진군 한 가금 계류장에서 H5형 조류인플루엔자(AI) 항원이 검출돼 초동방역 조치를 취했다고 밝혔다.
+이 농장은 전통시장에 판매하기 전에 보관하는 계류장으로, 43마리를 사육하고 있다. 시장으로 판매하기 위한 출하 전 정밀검사 결과 H5형 조류인플루엔자로 확인됐다. 최종 고병원성 여부는 농림축산검역본부에서 검사하며, 1∼3일 정도 소요된다.
+전통시장에 출하하는 모든 가금류는 출하 전에 정밀검사를 통해 이상이 없는 경우만 출하할 수 있다.
+전남도는 H5형 조류인플루엔자 항원 검출 즉시 가축위생방역지원본부 초동방역팀 2명을 투입해 해당 계류장 출입통제 및 소독 등 방역 조치를 취했다. 현장에는 지원관을 파견해 주변 환경조사와 발생 원인을 분석하고 있다.
+또 추가 확산 방지를 위해 선제적으로 살처분하고 발생농장 반경 10㎞ 이내를 방역지역으로 설정해 이동 제한과 소독, 예찰을 강화했다. 방역지역 내 가금농장(13호)에 대해 검사하고 전통시장 가금판매소와 계류장에 대해서도 일제 검사를 진행할 예정이다.
+아울러 도내 닭 농장 및 관련 축산시설(도축장·사료공장 등), 축산차량에 대해 이날 오후 3시부터 24시간 동안 일시이동중지 명령을 내리고, 가금농장 및 축산관계 시설에 대한 일제 소독을 한다.
+박현식 전남도 농축산식품국장은 “철새는 북상했지만, 농장 주변 환경에 바이러스가 남아 있어 가금농장에서 차단방역이 실천되지 않으면 추가로 발생할 가능성이 있다”며 “철저한 소독과 기본 방역 수칙을 꼭 실천해 달라”고 당부했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3089,21 +3524,23 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>대법원 3부(주심 이숙연 대법관)는 공무상비밀누설과 개인정보보호법 위반 혐의로 기소된 경찰관 A(62)씨와 B(62)씨에게 각각 징역 6개월에 집행유예 2년, 징역 10개월에 집행유예 2년을 선고한 원심판결을 확정했다.</t>
-  </si>
-  <si>
-    <t>“우리 사회 포용성 깊어지길”… ‘세계난민의 날’ 맞아 인권위원장 성명 발표</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620509570</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획
-입력 : 2025-06-20 16:11:33 수정 : 2025-06-20 16:11:32
+    <t>전라남도는 26일 강진군 한 가금 계류장에서 H5형 조류인플루엔자(AI) 항원이 검출돼 초동방역 조치를 취했다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>충남·대전 행정통합 위한 천안 주민설명회 개최</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514651</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:20:43 수정 : 2025-06-26 16:20:42
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-국가인권위원장이 세계난민의 날을 맞아 성명을 발표했다.
-안창호 인권위원장은 20일 난민을 ‘함께 살아가는 이웃’으로 포용해야 한다고 촉구했다. 안 위원장은 이날 낸 성명에서 “본국에서 박해 등으로 삶의 터전을 잃고 새로운 일상을 꾸려가야 하는 전 세계 난민에게 연대와 지지의 뜻을 전한다”며 이같이 밝혔다. 이어 “난민은 불확실한 미래를 감수하면서도 희망을 품고 삶을 일구려는 우리와 함께 살아가는 이웃”이라며 “우리는 이들을 함께 살아가는 공동체의 일원으로 바라봐야 한다”고 강조했다.
-특히 많은 난민이 한국에서 심사 기간 장기화, 난민 신청자 구금, 생계·의료 지원의 제도적 한계 등으로 최소한의 생활을 누리지 못하고 있는 점을 지적했다. 안 위원장은 “난민이 우리와 함께 안전하고 평등하게 살 수 있도록, 우리 사회의 포용성과 연대가 깊어지기를 바란다”고 덧붙였다.
+충남과 대전을 하나의 광역 행정단위로 묶기 위한 ‘대전·충남 행정통합 주민설명회’가 26일 천안에서 열렸다.
+충청남도와 대전광역시는 수도권 집중과 지방소멸 위기에 대응하고 광역 생활권의 현실을 반영한 효율적 행정 체계를 구축하기 위해 행정통합을 추진하고 있다.
+양 시·도는 행정통합 실현을 위해 각 시·군·구를 순회하며 주민설명회를 열고 있다.
+이날 천안시청 봉서홀에서 열린 설명회에는 천안시민과 시·도 의원, 전문가, 공무원 등 600여 명이 참석한 가운데 추진배경과 향후 계획 등 추진 현황과 행정통합의 당위성, 기대효과에 대한 설명이 있었다.
+또 주민 공감대 확산 방법 등을 주제로 한 토크콘서트가 열렸다. 토크콘서트에는 양경모·신영호 행정통합 민관협의체 소통분과위원장, 박종관 백석대 교수, 이희성 단국대 교수 등이 참여해 행정통합에 대한 다양한 의견을 제시했다.
+토크콘서트 이후에는 참여 주민들과의 소통을 위한 질의응답 시간도 가졌다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3116,26 +3553,22 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>세계난민의 날을 맞아 안창호 인권위원장은 20일 성명을 내고 난민을 '함께 살아가는 이웃'으로 포용해야 한다고 촉구했다.</t>
-  </si>
-  <si>
-    <t>‘강남역 여친 살해’ 의대생  징역 30년 불복해 상고</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620509752</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획
-입력 : 2025-06-20 16:11:27 수정 : 2025-06-20 16:11:26
+    <t>26일 천안 천안에서 천안시민과 시·도 의원, 전문가, 공무원 등 600여 명이 참석한 가운데 천안시민과 시·도 의원, 전문가, 공무원 등 600여 명이 참석한 가운데 천안시민과 시·도 의원, 전문가, 공무원 등 600여 명이 참석한 가운데 천안시민과 시·도 의원, 전문가, 공무원 등 600여 명이 참석한 가운데 추진배경과 향후 계획 등 추진 현황과 행정통합의 당위성, 기대효과에 대한 설명이 담겨졌다.</t>
+  </si>
+  <si>
+    <t>코오롱FnC 볼디스트  ‘스마트안전보건박람회’ 참가</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514603</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:18:33 수정 : 2025-06-26 16:18:32
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-서울 강남역 인근 건물 옥상에서 여자친구에게 흉기를 휘둘러 살해한 혐의로 2심에서 징역 30년을 선고받은 의대생이 상고했다.
-20일 법조계에 따르면 살인 등 혐의로 재판에 넘겨진 최모(26)씨의 변호인은 이날 2심을 심리한 서울고법 형사7부(재판장 이재권)에 상고장을 제출했다.
-앞서 2심 재판부는 1심 징역 26년보다 높은 징역 30년을 선고했다. 또 보호관찰 5년도 명했다. 재판부는 전자장치 부착명령 청구는 기각했다.
-항소심 재판부는 “이 사건 범행 기록을 면밀히 살펴보니 치밀한 계획하에 이뤄졌고 그 수법이 매우 잔혹하다”며 “범행 경위와 방법에서 피해자에 대한 확고한 살의가 분명히 드러났다”고 지적햇다. 이어 “피고인이 이 사건 범행 결과와 책임을 온전히 받아들이고 진정으로 반성하는지, 개전의 정이 있는지 의심스럽고 반성문 제출이나 당심 법정에서의 최후 변론 등만으로는 이와 같은 의구심 해소에 부족하다 판단했다”고 밝혔다.
-한편, 피해자 유족은 최씨가 살인 혐의로만 기소됐다며 이날 오전 서울 서초경찰서에 사체 손괴 혐의로 고소장을 제출했다.
-최씨는 지난해 5월6일 여자친구 A씨와 결별 등 문제로 갈등을 빚다 인근 건물 옥상에서 흉기를 여러 차례 휘둘러 숨지게 한 혐의로 재판에 넘겨졌다. 검찰은 최씨가 중학교 동창인 A씨와 만남을 이어오다 문제 상황이 생기자 살해하기로 계획하고 미리 흉기를 준비한 것으로 보고 있다.
-최씨 측 변호인은 최씨가 불안장애를 겪고 있던 점 등을 언급하며 그에 대한 정신감정을 요청하기도 했다. 하지만 감정 결과 범행 당시 최씨는 심신장애 상태가 아니었던 것으로 조사됐다.
-검찰은 2심에서 최씨에게 1심과 같이 사형을 구형했다. 검찰은 19일 2심 재판부에 상고장을 제출했다.
+코오롱인더스트리FnC부문은 자사 워크웨어(작업복) 브랜드 볼디스트가 내달 7∼10일 일산 킨텍스에서 열리는 ‘스마트안전보건박람회(KISS)’에 참가한다고 26일 밝혔다.
+이번 박람회는 산업안전 및 보호구, 워크웨어와 작업복, 화학 안전 등 8개 분야에 걸쳐 300여개 기업이 참가하고 1000개 부스 규모로 진행된다.
+산업현장의 최신 안전 기술과 제품을 한 자리에서 확인할 수 있는 국내 대표 전시회로, 지난해에는 약 3만5000여명의 기업 및 업계 종사자가 참관한다.
+볼디스트는 이번 박람회에서 불꽃과 열로부터 작업자를 보호하는 방염과 날카로운 도구로부터의 베임을 방지하는 베임방지, 위험한 작업 환경에서 시인성을 확보하는 고가시성 등 주요 연구개발(R&amp;D) 영역 제품들을 선보인다. 다양한 산업 환경에 대응하는 안전화 컬렉션도 전시한다.
+볼디스트 관계자는 “이번 전시는 볼디스트가 구축해온 기술력을 기존 고객에게는 브랜드 정체성과 신뢰도를 재확인시키고, 신규 고객에게는 차별화된 기술력과 시장 경쟁력을 각인시킬 수 있는 중요한 계기가 될 것”이라며, “특히 B2B 고객들과의 접점을 확대하고, 산업안전 분야의 다양한 파트너들과 실질적인 소통이 이뤄질 것으로 기대한다”고 전했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3148,24 +3581,22 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>강남역 인근 건물 옥상에서 여자친구에게 흉기를 휘둘러 살해한 혐의로 2심에서 징역 30년을 선고받은 의대생 최모(26)씨의 변호인은 이날 2심을 심리한 서울고법 형사7부(재판장 이재권)에 상고장을 제출하였으며, 2심 재판부는 1심 징역 26년보다 높은 징역 30년을 선고했다.</t>
-  </si>
-  <si>
-    <t>메시지에 모자이크… 카카오 ‘스포일러 방지’ 기능 추가</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510027</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획
-입력 : 2025-06-20 16:11:14 수정 : 2025-06-20 16:11:13
+    <t>내달 7∼10일 일산 킨텍스에서 열리는 ‘스마트안전보건박람회(KISS)’에 참가하는 볼디스트는 다양한 산업 환경에 대응하는 안전화 컬렉션도 전시한다.</t>
+  </si>
+  <si>
+    <t>G마켓의 세심한 배려…시각장애인 위한 매뉴얼 공개</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514407</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:13:37 수정 : 2025-06-26 16:13:34
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-‘국민 메신저’ 카카오톡에 스포일러(미공개 내용을 알리는 행위) 방지 기능이 추가됐다.
-20일 정보통신기술(ICT) 업계에 따르면 카카오는 이날부터 카카오톡 채팅방에 ‘스포 방지’ 기능을 적용했다.
-이용자가 카카오톡 메시지 입력창에서 가리고 싶은 부분을 선택하면 ‘스포 방지’ 옵션이 뜬다. 이를 적용해 메시지를 전송하면 해당 영역이 가려진 채 채팅방에 전달된다.
-스포일러 방지를 설정한 부분은 채팅방과 채팅방 리스트 등 카카오톡 내부 서비스, 모바일 기기 알림 메시지 등에서 모두 가려진다. 말풍선당 최대 10개까지 ‘스포 방지’ 영역을 설정할 수 있다.
-이 기능을 통해 주소·계좌번호, 스포일러에 민감한 콘텐츠 등을 가릴 수 있고, 친구·연인 등과 소소한 재미를 느낄 수도 있다고 카카오는 설명했다.
-앞서 카카오는 지난달 채팅방에서 상대방이 메시지를 입력하면 노란색 점들이 깜빡여 입력 상황을 실시간으로 알 수 있는 기능을 추가하기도 했다.
+신세계그룹 계열 이커머스 G마켓이 시각장애인 고객의 쇼핑 편의성 향상을 위해 스크린리더 전용 ‘G마켓 이용 매뉴얼’을 공개했다고 26일 밝혔다.
+매뉴얼은 시각장애인이 G마켓 PC 웹사이트를 쉽게 이용할 수 있도록 돕는 실용적인 안내서로 활용될 전망이다. 상품 검색부터 장바구니 담기, 프로모션 확인, 결제 등 쇼핑에 필요한 전 과정을 실제 스크린리더 사용환경을 기준으로 설명한다.
+시각장애인 사용자의 의견을 반영해 실용성과 접근성을 대폭 강화했다. 마우스 클릭이나 스크롤 중심의 설명 대신, 스크린리더 이용자에게 필요한 단축키 및 다양한 키보드 조작법을 중심으로 사용법을 안내하고, 시각장애인 사용자가 각 기능을 단계별로 따라가며 익힐 수 있도록 구성했다.
+매뉴얼은 국내에서 널리 사용되는 윈도우 운영체제 기반의 ‘센스리더’ 스크린리더 최신 버전을 기본으로 설명하며, NVDA 스크린리더도 사용 가능하다. 사용 중 불편함이 있을 경우 ‘접근성 신고센터’를 통해 직접 문의를 남길 수 있도록 소통 창구도 마련했다.
+G마켓 관계자는 “스크린리더는 화면의 텍스트 정보를 음성이나 점자 정보로 전달해주는 중요한 보조 기술”이라며 “시각장애인 고객의 실질적인 이용 편의를 높이기 위한 맞춤형 매뉴얼을 준비하게 됐다”고 밝혔다. 이어 “앞으로 모바일 버전 매뉴얼도 선보일 예정”이라며 “모든 고객이 차별 없이 쇼핑을 즐길 수 있도록 디지털 접근성 확대에 지속적인 노력을 기울이겠다”고 덧붙였다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3178,26 +3609,22 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>카카오는 카카오톡 채팅방에 ‘스포 방지’ 기능을 적용했으며, 이용자가 카카오톡 메시지 입력창에서 가리고 싶은 부분을 선택하면 ‘스포 방지’ 옵션이 뜬다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>에스파  이제 '반지의 여왕'…"'마이'와 결속"</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620511133</t>
-  </si>
-  <si>
-    <t>관련이슈 이슈플러스
-입력 : 2025-06-20 16:10:42 수정 : 2025-06-20 16:10:42
+    <t>이커머스 G마켓이 시각장애인 고객의 쇼핑 편의성 향상을 위해 스크린리더 전용 ‘G마켓 이용 매뉴얼’을 공개했다.</t>
+  </si>
+  <si>
+    <t>‘다시 팔아달라’에 더본코리아 결단…롤링파스타 인기 메뉴 재출시</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514553</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:13:27 수정 : 2025-06-26 16:13:26
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-초신성 걸그룹 '에스파(aespa)'의 새 싱글 '더티 워크(Dirty Work)'가 액세서리로도 만난다.
-20일 소속사 SM엔터테테인먼트에 따르면, 에스파는 오는 7월4일 싱글 '더티 워크' 더티 크루 링 버전을 발매한다.
-SM은 "볼드한 액세서리를 착용하는 이번 곡의 콘셉트와 비주얼적으로 조화를 이루는 액세서리이자, '결속'의 의미를 담아 에스파와 마이(MY·공식 팬클럽명)를 연결해 주는 뜻깊은 매개체가 될 예정"이라고 소개했다.
-또한 한정판으로 선보이는 링 버전은 실버 링, 패키지 박스, 서지컬 스틸 목걸이 줄, QR 카드, 포토카드 5종 등으로 구성된다.
-에스파가 피지컬 음반을 특별한 형태로 선보이는 건 이번이 처음이 아니다.
-앞서 에스파는 지난해 첫 정규 앨범 '아마겟돈(Armageddon)'을 CDP 버전으로 내놨다. 이 버전은 첫 예약판매 오픈 1시간 30분 만에 품절을 기록, 3차 예약판매까지 이어졌다.
-에스파는 오는 27일 오후 1시 음원 플랫폼에 싱글 '더티 워크(Dirty Work)'를 공개한다. 동명의 타이틀 곡을 비롯 미국 래퍼 플로 밀리(Flo Milli) 피처링 버전, 영어 버전, 인스트루멘털(Instrumental)까지 총 네 트랙으로 구성된다. 같은 날 타이틀 곡과 인스트루멘털이 수록된 피지컬로도 발매된다.
-&lt;뉴시스&gt;
+더본코리아의 파스타 전문 브랜드 롤링파스타가 과거 많은 사랑을 받았던 인기 메뉴 4종을 상시 메뉴로 재출시한다고 26일 밝혔다.
+롤링파스타가 선보일 버터갈릭파스타, 우삼겹필라프, 쉬림프필라프, 로제크림 쉬림프도리아 4종은 고객과 가맹점주 모두에게 꾸준히 재출시 요청을 받았다.
+특히 합리적인 가격과 넉넉한 양으로 직장인과 학생층에게 호응이 높았던 만큼 상시 메뉴 전환 후에도 그 인기를 이어가며 가맹점 매출 활성화에 기여할 것으로 기대된다.
+메뉴 4종은 전국 롤링파스타 매장은 물론 배달과 포장 서비스로도 만날 수 있다.
+롤링파스타 관계자는 “고객들의 만족도를 높이기 위해 지속적으로 재출시 요청을 받았던 인기 메뉴를 상시 메뉴로 다시 선보이게 됐다”며 “고객의 취향을 세심하게 반영해 메뉴 선택의 폭을 넓히고, 고객에게는 다채로운 미식 경험을 제공할 수 있도록 노력하겠다”고 말했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3210,26 +3637,31 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>SM엔터테테인먼트에 따르면, 초신성 걸그룹 '에스파'의 새 싱글 '더티 워크'가 실버 링, 패키지 박스, 서지컬 스틸 목걸이 줄, QR 카드, 포토카드 5종 등으로 구성된 한정판으로 발매된다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>국힘 최은석 “與 법사위 '국회=정부 부속실' 선언  야당에 양보하라”</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620511088</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 16:09:21 수정 : 2025-06-20 16:10:26
+    <t>26일 롤더본코리아의 파스타 전문 브랜드 롤링파스타가 과거 많은 사랑을 받았던 인기 메뉴 4종을 고객과 가맹점주 모두에게 꾸준히 재출시 요청을 받았던 만큼 상시 메뉴로 재출시한다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>최태원 SK회장  '실트론 지분 편취' 공정위 과징금 소송 최종 승소</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514266</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:13:21 수정 : 2025-06-26 16:13:20
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-국민의힘 최은석 의원은 20일 “국회 법사위원장은 야당이 맡는 것이 관행”이라며 “민주당이 야당일 때의 합의를 방패 삼아 예결위, 기재위, 운영위, 그리고 법사위까지 4개 주요 상임위를 독식하겠다는 건 국회를 정부 여당의 부속실로 만들겠다는 선언과 다름 없다”고 밝혔다.
-최 의원은 이날 페이스북에서 “국민의힘은 야당이 돼 정부에 대한 건전한 비판과 견제의 책임을 지게 됐다”며 “법사위는 국회 입법 과정의 마지막 관문이자 국회의 균형추 역할을 맡는 중요한 상임위다. 이를 야당이 맡아야만 여야 간의 권력 견제와 상호 감시의 기능이 제대로 작동할 수 있다”고 말했다.
-이어 “(그런데도 법사위를 민주당이 계속 맡겠다는) 발상은 ‘견제와 균형’이라는 헌정의 기본 원칙을 정면으로 거스르는 일”이라고 덧붙였다.
-현재 법사위원장은 직전 위원장인 정청래 민주당 의원이 전당대회 출마를 이유로 물러나면서 공석이 됐다. 민주당은 이에 공석인 법사위원장과 예산결산특별위원장, 기획재정위원장, 운영위원장을 선출하기 위한 본회의를 조속히 열자면서 “상임위원장은 협상 대상이 아니다”고 주장하고 있다.
-22대 국회 개원 당시 여야가 2년 임기로 위원장을 맡기로 한 만큼, 1년 임기를 마친 현 시점에서 민주당이 맡았던 법사위원장을 넘길 수 없다는 것이다.
-국민의힘은 조기 대선으로 중간에 여야가 바뀐 만큼 행정부 견제를 위해 법사위원장을 야당에 넘겨야 한다고 맞서고 있다.
-최 의원은 “국민이 원하는 국회는 ‘힘의 논리’가 아니라 ‘상식의 균형’ 위에 서 있는 국회”라며 “정치는 독식이 아니라 조정이고 협치는 양보와 협력이다. 지금 민주당이 고집하는 독식 정치야 말로 국회 기능을 마비시키고 민생을 뒷전으로 밀어내는 길”이라고 밝혔다.
-이어 “국회법의 정신과 견제 원리에 따라 법사위원장은 제1야당에 양보하시라. 그것이 민의를 반영하는 길이며 국회가 민생을 제대로 논의할 수 있는 출발선”이라고 말했다.
-여야는 오는 23일 본회의 일정과 상임위원장 배분 문제를 다시 논의하기로 했지만 합의점을 찾을 수 있을지는 미지수다.
+최태원 SK그룹 회장과 SK㈜가 ‘SK실트론 사익 편취 의혹’에 대한 공정거래위원회의 제재에 불복해 제기한 소송에서 최종 승소했다.
+대법원 2부(주심 엄상필 대법관)는 26일 최 회장과 SK가 공정위를 상대로 낸 시정명령 및 과징금 부과 처분 등 취소 소송 상고심에서 원심의 원고승소 판결을 확정했다.
+대법원은 SK가 입찰에 참여하지 않고 최 회장으로 하여금 SK실트론 지분을 취득하게 한 행위가 ‘사업기회 제공’에 해당하지 않는다고 본 원심판결이 정당하다고 판단했다.
+대법원은 공정거래법이 사업기회 제공을 금지하는 취지는 “특수관계인을 중심으로 한 경제력 집중의 유지·심화를 방지하기 위한 것”이라면서 “계열회사가 취득 기회를 포기한 소수지분을 특수관계인이 취득했다고 해서 이를 곧바로 사업기회 제공 행위로 판단할 수 없다”고 설명했다.
+대법원은 회사의 '사업기회 제공'의 전제로 “계열회사가 해당 사업기회를 규범적으로 보유하고 있다고 평가할 수 있어야 한다”는 기준을 제시했다.
+계열회사가 사업기회를 보유하고 있는지는 그 사업기회의 내용과 기존 권리·이익 등 여러 사정을 종합적으로 판단해야 하지, 반드시 사업기회를 우선적·배타적으로 지배·보유하고 있어야 하는 것은 아니라는 것이다.
+SK는 2017년 1월 반도체 웨이퍼 생산 회사인 LG실트론(현 SK실트론) 지분 51%를인수한 뒤 같은 해 4월 잔여 지분 49% 가운데 19.6%만 추가 매입했고 나머지 29.4%는 이후 최 회장이 사들였다.
+공정위는 최 회장의 지분 인수가 지주회사 SK의 사업기회를 가로챈 것이라고 보고 지난 2021년 12월 최 회장과 SK에 대해 각각 8억원씩 과징금과 시정명령을 내렸다.
+최 회장이 실트론 잔여 지분 인수 의사를 보이자 SK가 합리적 검토 없이 이를 양보했고 결국 최 회장이 부당한 이익을 얻었다는 게 공정위의 결론이었다.
+이 사건은 공정위가 '지배주주의 사업기회 이용'에 제재를 가한 첫 사건이라는 점에서 주목받았다.
+최 회장과 SK는 공정위 처분에 불복해 소송을 냈다. 공정위 처분 불복소송은 2심제(서울고법·대법원)로 진행된다.
+앞서 서울고법은 SK가 잔여 지분을 추가로 인수하지 않은 것을 '사업기회 제공'으로 단정할 수 없다며 작년 1월 최 회장과 SK측 손을 들었다.
+고법은 당시 SK가 LG실트론의 나머지 49% 지분 중 KTB PE가 보유한 일부 지분(19.6%)만 인수해도 안정적인 경영권 행사가 가능했기 때문에 리스크를 감수하며 지분을 100% 확보할 이유가 없었다는 SK측 주장을 받아들였다.
+입찰과정에서 우리은행 등이 실트론과 공모해 최 회장에게 지분을 취득하게 했다거나, 최 회장이 적격투자자로 선정되는 데 실트론이 직·간접적으로 관여했다고 볼 만한 자료도 없다고 판단했고, 대법원은 고법 판결을 그대로 확정했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3242,19 +3674,51 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>최은석 의원은 20일 페이스북에서 "법사위는 국회 입법 과정의 마지막 관문이자 국회의 균형추 역할을 맡는 중요한 상임위이며 야당이 맡아야만 여야 간의 권력 견제와 상호 감시의 기능이 제대로 작동할 수 있다"고 밝혔다.</t>
-  </si>
-  <si>
-    <t>김문수 "李대통령 들어선 이후 법치주의 위기…당 단합해야"</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620511131</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 16:08:12 수정 : 2025-06-20 16:08:11
+    <t>최태원 SK그룹 회장과 SK(주)가 ‘SK실트론 사익 편취 의혹’에 대한 공정거래위원회의 제재에 불복해 제기한 소송에서 원심의 원고승소 판결을 확정하였다.</t>
+  </si>
+  <si>
+    <t>뷰티 본고장 파리가 인정한 K-뷰티…코스맥스 ‘친환경 메이크업 펜슬’ 뭐길래</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514385</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:13:19 수정 : 2025-06-26 16:13:38
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-국민의힘 김문수 전 대선 후보는 20일 "당과 나라가 위기에 빠져있고, 지금 상황에서 (당이) 단합해야 한다"고 강조했다.  김 전 후보는 이날 서울 여의도의 한 식당에서 대선을 도운 캠프 관계자들과 오찬하며 이같이 말했다고 이충형 전 선거대책위원회 대변인이 기자들에게 전했다.
-이 전 대변인은 "김 전 후보는 이재명 대통령이 들어선 이후 사법 체계에 혼란이 많이 생기고, 헌법이 무너지며 법치주의 위기가 온 것이 아니냐는 지적을 했다"면서 "현 정부의 독주와 집값 폭등 같은 민생 문제도 걱정했다"고 밝혔다.  이어 "김 전 후보는 '우리 당이 앞으로 할 일은 선거보다 나라와 외교, 민생 어려움을 어떻게 극복해나갈 것인가다. 이런 부분에 대해 힘을 같이 모으고 머리를 맞대야 한다'고 말했다"고 전했다.  김 전 후보는 오찬 후 기자들과 만난 자리에서 '전당대회 출마를 생각하는가'라는 물음에 "전혀 생각한 바가 없다"고 답했다.  '대표 추대 여론이 당내에서 만들어지면 의향이 있는가'라는 질문에는 "가정적으로 이야기하기가 조금 그렇다"고 말했다.  대선 후보 당시 본인이 비상대책위원장으로 지명한 김용태 위원장에 대해서는 "혁신을 잘하기 바란다"고 말했다.  이 전 대변인은 기자들에게 "참석자 가운데 상당수가 조기 대선 이후 상황에 대해 많은 걱정을 했다"며 "김 전 후보의 거취에 대해 건의나 요구를 한 분이 상당히 있었다"고 말했다.  이에 김 전 후보는 오찬에서 "저보고 뭘 하라고 하지 말고 지금 나라와 당의 위기를 극복하는데 여러분이 나서서 힘을 합쳐달라"고 했다고 이 전 대변인이 전했다.  참석자들은 김 전 후보에게 "앞으로도 활동해서 나라를 위해 역할을 해달라", "당 대표를 맡아달라", "위기에 빠진 보수 진영 상황을 직시하고 당을 위해 멍에를 져달라" 등의 요구를 한 것으로 전해졌다.  이날 오찬에는 조배숙 의원, 김일윤 전 헌정회장, 심규철 전 의원 등 약 40명이 참석했다.
+글로벌 화장품 ODM(연구·개발·생산) 기업 코스맥스는 지난 18∼19일 프랑스 파리에서 열린 뷰티 박람회 ‘메이크업 인 파리 2025’에서 ‘풀 서비스’(full service) 부문을 수상했다고 26일 밝혔다.
+이번 수상은 코스맥스가 개발한 ‘에코 포멜트 펜슬’에 대한 것으로  트렌드와 지속가능성을 모두 고려해개발한 혁신적인 펜슬 제형이다. 메이크업 펜슬 내용물을 왁스로 감싼 ‘올인원’ 형태로 손에는 묻어나지 않으면서 샤프너 등을 활용해 자유롭게 깎아서 사용할 수 있다. 특히 광택감 높은 글로시한 질감부터 부드러운 매트 질감까지 다양한 텍스처를 적용해 립, 섀도, 블러셔 등 폭넓은 메이크업 표현이 가능하다.
+펜슬 제형은 특히 최근 화장법 트렌드인 ‘중안부 메이크업’이 주목받으며 성장세가 높아지는 카테고리다. 눈과 코 사이의 거리를 의미하는 중안부가 짧아 보일수록 얼굴의 윤곽이 뚜렷하고 작아 보이는 효과가 있어서다.
+눈가 아래는 펄감이 함유된 스틱형 섀도로 밝게 연출하고, 콧대에 하이라이터를 더하고 입술은 립 펜슬로 윤곽 및 볼륨을 강조하는 방식이다.
+코스맥스의 펜슬 제형 매출액은 2020년부터 매년 두 자릿수 이상의 성장률을 기록하고 있다. 아이라이너, 아이브로우, 립 펜슬 외에 최근에는 스틱형 섀도, 컨투어 펜슬(윤곽 메이크업용 펜슬) 등으로 유형이 다양화하는 추세다. 특히 립 펜슬 관련 매출은 2023년 전년 대비 약 2배 이상 증가한데 이어 지난해에도 약 23%의 성장률을 기록했다.
+코스맥스는 펜슬 유형의 성장세 및 글로벌 고객사의 클린 뷰티 제품 개발 수요 증가 추이에 맞춰 친환경 패키지 연구개발도 진행 중이다. 향후 파우더 질감의 발림성을 제공하는 아이브로우 및 섀도 펜슬, 고른 밀착감을 제공하는 포인트 메이크업용 펜슬 등 다양한 유형의 펜슬 제품을 선보일 예정이다.
+코스맥스 관계자는 “이번 수상은 글로벌 시장에서 코스맥스의 품질력과 혁신성이 널리 인정받은 결과라 무척 뜻깊다”며 “국내외 소비자들의 다양한 요구에 부응해 지속가능성까지 높인 혁신 제형을 선보이며 K-뷰티의 위상을 지속적으로 강화해 나가겠다”고 말했다.
+[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
+제호 : 세계일보
+서울특별시 용산구 서빙고로 17
+등록번호 : 서울, 아03959
+등록일(발행일) : 2015년 11월 2일
+발행인 : 정희택
+편집인 : 김선교
+전화번호 : 02-2000-1234
+청소년보호 책임자 : 임인섭
+Copyright ⓒ 세계일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>코스맥스는 메이크업 펜슬 내용물을 왁스로 감싼 ‘올인원’ 형태로 손에는 묻어나지 않으면서 샤프너 등을 활용해 자유롭게 깎아서 사용할 수 있는 ‘풀 서비스’(full service) 부문을 수상했다.</t>
+  </si>
+  <si>
+    <t>정부  7월 초 서울 집값 급등지역 규제지역 확대…대출도 강화</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514286</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:09:56 수정 : 2025-06-26 16:09:54
+인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
+서울 강남 아파트값 급등세가 비강남권으로 확산하면서 정부가 다음 달 초 주택시장 안정화 대책을 발표한다.  다음달 3단계 스트레스 DSR(총부채원리금상환비율) 시행과 함께 규제지역을 확대하고, 대출 규제를 대폭 강화하는 등 금융·세제 중심의 종합 대책이 나올 전망이다.
+26일 관가에 따르면 국토교통부와 기획재정부, 금융위원회 등 관계부처는 투기과열지구, 조정정대상지역 등 규제지역 확대 및 대출 강화 방안을 논의중이다.  국토부는 현재 집값 상승세의 심각성을 고려해 이르면 다음주 주거정책심의원회(주정심) 회의를 열어 규제지역 확대안을 확정할 방침이다.  이와 별도로 서울시는 현재 강남3구와 용산구 아파트에 지정한 토지거래허가구역을 한강벨트 일대로 확대하는 방안도 검토중이다.  정부는 지난주 국정기획위원회에 업무보고를 할 때까지만 해도 최근 아파트값 상승세가 다음 달 3단계 스트레스 DSR 시행 전 '막차 수요'가 몰린 측면이 큰 만큼 DSR 강화 효과를 지켜본 후 추가 대책을 마련할 계획이었다.
+그러나 한국부동산원이 발표한 이번주 서울 아파트 매매가격이 0.43% 올라 6년 9개월 만에 최대치를 기록하는 등 가파른 상승세를 보이자 발등에 불이 떨어졌다.  특히 강남권에서 시작된 가격 상승세가 '마용성'(마포·용산·성동구)은 물론, 서울지역 전방위로 확산할 조짐을 보이자 대책 발표를 서두르고 있다.  이번주 성동구의 아파트값은 0.99%, 마포구는 0.98% 올라 2013년 1월 한국부동산원이 주간 아파트 가격 통계 공표를 시작한 후 역대 최대의 상승폭을 기록했다.  국토부 관계자는 "서울 아파트값 상승폭이 커진 것은 물론, 선행지표인 거래량도 서울 주요 지역의 경우 5년 평균치보다 높아진 상황이라 대책 마련을 서두를 필요가 있다"고 말했다.  정부는 내달 초 주정심에서 현재 서울 강남3구와 용산구에만 묶여 있는 투기과열지구와 조정대상지역을 집값 급등 지역으로 확대할 방침이다.  일단 아파트값이 크게 오른 마포·성동구를 비롯해 강동구와 동작구, 광진구, 영등포구, 양천구 등 비강남 '한강벨트' 지역이 규제지역으로 묶일 가능성이 크다.  다만 서울 아파트값 상승세가 규제지역 외로 옮겨붙는 '풍선효과'를 차단하기 위해 서울 전역과 최근 아파트값이 크게 오른 과천·분당신도시 등을 규제지역으로 묶는 방안도 논의되고 있다.  이와 함께 금융위원회는 내달 3단계 DSR 시행을 앞두고 대출 규제를 강화하는 방안을 검토하는 것으로 전해졌다.  윤석열 정부의 규제완화를 거치며 풀려 있는 주택담보대출비율(LTV)과 총부채상환비율(DTI) 등 대출 규제를 다시 강화하는 것이다.  과거 투기과열지구 내에서 작동하던 15억원 초과 대출 금지는 2023년 1월 서울 규제지역 해제와 함께 폐지됐고, LTV 규제는 무주택 50%, 유주택 30%로 투기과열지구와 조정대상지역이 동일해졌다. DTI만 투기과열지구 40%, 조정대상지역 50%로 차등 적용되고 있다.
+정부는 현재 15억원 초과 등 고가주택 대출 금지를 부활할 것으로 전해졌다.  정부 관계자는 "과거 15억원 고가주택 대출 금지를 현 상황에 맞게 조정해 다시 시행하는 방안이 필요해 보인다"고 말했다.  금융당국은 앞서 시중은행 은행장들을 불러 2주택 이상 주택담보대출 금지와 40·50년짜리 주담대 만기 축소를 지시했다. 또 가계부채 증가 요인 중 하나인 전세자금대출에 총부채원리금상환비율(DSR)을 적용해 대출 규모를 축소하는 방안 등을 추가로 검토중이다.  조정대상지역이 확대되면 세금 규제도 종전보다 강화된다. 우선 취득세가 2주택자는 8%, 3주택 이상자는 12%로 중과된다. 양도소득세도 2주택 이상자는 20∼30%포인트 중과되고, 장기보유 특별공제가 배제된다.  다만 양도세 중과는 윤석열 정부에서 내년 5월까지 한시 배제를 해놔 현재는 작동하지 않는다.  이 때문에 정부는 이번 규제지역 확대와 함께 유예된 양도세 중과를 즉각 시행하거나, 내년 5월 종료후 추가 유예가 없다는 입장을 밝힐 것이라는 관측이 나온다.  이재명 대통령의 공약을 담은 주택 공급 확대 방안은 이르면 내달 말이나 8월 중에 발표될 것으로 전해졌다.  공급 대책에는 용적률 확대 등을 통해 재건축·재개발 사업을 활성화하되, 한국토지주택공사(LH) 등 공공의 공급을 강화하는 방안 등이 담길 것으로 보인다.
 &lt;연합&gt;
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
@@ -3268,19 +3732,78 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>김문수 전 대선 후보는 20일 서울 여의도의 한 식당에서 열린 캠프 관계자들과 오찬에서 현 정부의 독주와 집값 폭등 같은 민생 문제를 걱정하며 당과 나라가 위기에 빠져있고 지금 상황에서 단합해야 한다고 말했다.</t>
-  </si>
-  <si>
-    <t>수도권·강원에 호우 특보…중대본 1단계 가동</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510302</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 16:08:00 수정 : 2025-06-20 16:07:59
+    <t>국토교통부와 기획재정부, 금융위원회 등 관계부처는 투기과열지구, 조정정대상지역 등 규제지역 확대 및 대출 강화 방안을 논의중이며 이르면 다음주 주거정책심의원회(주정심) 회의를 열어 규제지역 확대 및 대출 강화 방안을 확정할 방침이다.</t>
+  </si>
+  <si>
+    <t>기초과학 후원 나선 삼성…“올림피아드 수상자 별도 장학금”</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514248</t>
+  </si>
+  <si>
+    <t>관련이슈 디지털기획
+입력 : 2025-06-26 16:06:23 수정 : 2025-06-26 16:06:22
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-행정안전부는 수도권과 강원도에 호우특보가 발효됨에 따라 20일 오후 2시 30분 부로 중앙재난안전대책본부 1단계를 가동했다고 밝혔다.  기상청에 따르면 현재 정체전선의 영향으로 수도권과 강원도를 중심으로 시간당 30㎜ 내외의 매우 강하고 많은 비가 내리고 있다.
-이날 밤부터 이튿날 오후 사이에는 정체전선이 남쪽으로 이동해 충청권과 전라권을 중심으로 많은 비가 내릴 것으로 전망된다.  20∼21일 예상 강수량은 수도권 30∼80㎜(많은 곳 120㎜ 이상), 강원 내륙·산지 50∼100㎜(많은 곳 120㎜ 이상), 충청권 50∼100㎜(많은 곳 180㎜ 이상), 전북 50∼100㎜(많은 곳 180㎜ 이상) 등이다.  중대본은 호우 피해를 최소화할 수 있도록 재난 문자와 마을 방송을 활용해 기상정보와 국민행동요령을 홍보해달라고 강조했다.  또 과거 산불 피해지역이나 산사태 우려지역 등 취약지역에 대한 예찰을 강화하고, 위험 우려 시에는 신속하게 출입을 통제하도록 당부했다.
+삼성전자가 기초 과학의 중요성에 대한 사회적 인식을 높이고 미래 과학인재를 양성하기 위해 국제수학·물리올림피아드 한국대표단을 후원하기로 했다고 26일 밝혔다.
+삼성전자는 이날 서울 강남구에 있는 한국과학기술회관에서 한국과학창의재단 및 대한수학회, 한국물리학회와 함께 이같은 후원협약(MOU)를 체결했다. 협약식에는 삼성전자 DX부문 피플팀장 조시정 부사장, DS부문 피플팀장 최완우 부사장, 한국과학창의재단 정우성 이사장, 대한수학회 곽시종 회장, 한국물리학회 윤진희 회장 등이 참석했다.
+국제수학·물리올림피아드는 매년 전 세계 고등학생들이 한자리에 모여 고난도 문제를 풀며 실력을 겨루는 대회로, 한국대표단은 매년 우수한 성적을 거두고 있다. 삼성전자는 한국대표단의 선발, 교육, 대회 참가를 지원하고 대회 수상자에게는 별도 장학금도 전달할 계획이다.
+삼성전자는 “앞으로도 대한민국 이공계 인재들의 역량 강화와 과학기술 발전을 위한 노력을 지속해 나갈 방침”이라고 말했다.
+[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
+제호 : 세계일보
+서울특별시 용산구 서빙고로 17
+등록번호 : 서울, 아03959
+등록일(발행일) : 2015년 11월 2일
+발행인 : 정희택
+편집인 : 김선교
+전화번호 : 02-2000-1234
+청소년보호 책임자 : 임인섭
+Copyright ⓒ 세계일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>삼성전자와 삼성전자 DX부문 피플팀장 조시정 부사장, DS부문 피플팀장 최완우 부사장, 한국과학창의재단 및 대한수학회 곽시종 회장, 한국물리학회 윤진희 회장 등이 참가한 가운데 국제수학·물리올림피아드 한국대표단을 후원하기로 했다.</t>
+  </si>
+  <si>
+    <t>[단독] ‘김건희 일가 요양원’  특검 이첩 안 했다… 경찰이 수사할 듯</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626514085</t>
+  </si>
+  <si>
+    <t>관련이슈 디지털기획
+입력 : 2025-06-26 16:05:24 수정 : 2025-06-26 16:05:23
+인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
+윤석열 전 대통령 부인 김건희씨 일가가 운영한 요양원을 둘러싼 의혹 사건은 민중기 특별검사팀에 이첩되지 않은 것으로 확인됐다.
+26일 세계일보 취재를 종합하면 경기북부경찰청은 김건희 특검에 김씨의 어머니 최은순씨와 오빠 김진우씨가 운영에 관여한 경기 남양주시의 요양원 관련 여러 의혹 사건을 이첩하지 않았다. 특검의 이첩 요청도 따로 없었던 것으로 파악됐다.
+해당 사건은 김건희 특검법에 수사 대상으로는 명시되지 않았다. 그러나 특검법상 ‘수사 과정에서 인지한 관련 범죄행위’도 수사 대상에 포함돼 있어 특검이 이첩을 요구할 가능성이 제기됐다. 다만 특검이 추후 해당 사건을 이첩 받을 수도 있다. 수사기관은 사건의 주요 피의자, 증거 등이 겹치면 관련 사건으로 판단한다. 김건희 특검팀이 아직 수사를 본격 개시하지 않은 만큼, 특검법에 명시된 사건을 먼저 수사하면서 관련성을 살필 것으로 보인다.
+경기 남양주에 있는 요양원은 김씨 일가가 운영 중인 것으로 알려졌다. 해당 요양원 등기를 보면 김씨의 어머니 최씨가 1992년부터 건물 소유권을 가지고 있다가 2017년 김진우씨가 대표를 맡고 있는 부동산 개발회사에 양도했다. 노인복지시설로 건물 용도를 바꾼 때다.
+조국혁신당은 지난달 1일 해당 요양원에서 80대 입소자가 제대로 된 의료 조치를 받지 못한 채 숨졌다며 최씨와 김진우씨를 유기치사 및 노인복지법 위반 혐의로 고발했다. 이 요양원이 3주 넘게 설사하던 80대 입소자를 뒤늦게 병원으로 이송해 결국 숨지게 했다는 내용이다.
+요양원의 요양급여 부정 수급 의혹도 경찰 수사 중이다. 국민건강보험공단은 22일 요양원이 장기요양급여 비용 14억4000만원을 부당하게 청구한 것을 확인하고 환수를 통보했다. 월 기준 근무 시간을 채우지 못했지만 시간을 늘려 장기요양급여 비용을 청구하거나, 인력이 추가되지 않았는데 추가 급여 비용을 받은 것으로 조사됐다.
+민 특검은 24일 언론 공지를 통해 “전날(23일) 대검찰청, 경찰청 국가수사본부, 고위공직자범죄수사처(공수처)에 관련 사건의 이첩을 요청했다”고 밝혔다. 민 특검은 19일 김씨 일가 소유 부동산 관련 서울∼양평 고속도로 노선 변경 및 양평 공흥지구 개발 관련 인허가 특혜 의혹을 수사 중인 경기남부경찰청을 방문해 관련 사건 이첩에 대해 논의했지만, 아직 경기북부청은 방문하지 않았다.
+[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
+제호 : 세계일보
+서울특별시 용산구 서빙고로 17
+등록번호 : 서울, 아03959
+등록일(발행일) : 2015년 11월 2일
+발행인 : 정희택
+편집인 : 김선교
+전화번호 : 02-2000-1234
+청소년보호 책임자 : 임인섭
+Copyright ⓒ 세계일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>경기북부경찰청은 김건희 특검에 김씨의 어머니 최은순씨와 오빠 김진우씨가 운영에 관여한 경기 남양주시의 요양원 관련 여러 의혹 사건을 이첩하지 않은 것으로 알려졌다.</t>
+  </si>
+  <si>
+    <t>尹변호인단  '비화폰 기록 임의제출' 경호처 간부들 검찰 고발</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513619</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 16:00:24 수정 : 2025-06-26 16:00:24
+인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
+윤석열 전 대통령의 변호인단은 26일 대통령경호처 간부들이 비화폰 통화기록을 경찰에 임의 제출해 불법 반출했다며 검찰에 고발장과 증거보전 신청을 냈다.
+윤 전 대통령의 법률대리인인 송진호·김계리 변호사는 이날 오후 서울 서초구 서울중앙지검에서 기자회견을 열고 "경호처 기조실장을 포함해 지휘부 4명과 비화폰 포렌식에 관여한 경찰청 중대범죄수사과 간부 및 수사관 4명 등 총 8명을 대통령기록물관리법 위반, 군사기밀보호법 위반, 경호법상 직권남용 등 혐의로 고발한다"고 밝혔다.  변호인단은 "경찰이 경호처부터 임의제출 받은 윤 전 대통령 비화폰 통화내역은 군사기밀이면서 대통령기록물관리법에 규정된 기록물에 해당해 임의로 제출될 수 없다"며 "그런데도 경찰이 경호처와 합의해 통화목록을 별도의 하드디스크에 카피해 외부로 반출한 것"이라고 주장했다.  그러면서 "비화폰 통화목록은 군사기밀이라 기밀 해제 절차를 별도로 거쳐야 하고, 해제 절차 이후에도 대통령기록물 생산기관의 장이 공개 여부를 결정해야 한다"며 "이런 절차가 모두 무시됐다"고 덧붙였다.  변호인단은 또 전날 내란 특검팀이 윤 전 대통령에게 오는 28일 조사 출석을 요구한 데 대해서도 "체포영장이 기각되자마자 특검팀이 문자로 소환 요청을 했다"며 "혐의나 담당 검사도 적혀 있지 않고 시간과 장소만 적혀있었다"고 말했다.  그러면서 "문서를 요청해 새벽에 이메일이 왔는데 혐의는 특수공무집행방해만 기재돼 있었고, 국무회의 관련 내용을 조사하겠다는 내용도 포함됐다"고 덧붙였다.  변호인단은 앞서 윤 전 대통령의 비공개 출석을 요청한 것과 관련해 "특검팀이 부정적인 의사 표현을 했다"며 "출석 일자가 남았기 때문에 그때까지 협의해볼 예정"이라고 전했다.
 &lt;연합&gt;
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
@@ -3294,20 +3817,26 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>기상청에 따르면 현재 정체전선의 영향으로 수도권과 강원도를 중심으로 시간당 30mm 내외의 매우 강하고 많은 비가 내리고 충청권과 전라권을 중심으로 많은 비가 내릴 것으로 전망된다.</t>
-  </si>
-  <si>
-    <t>이스라엘  8일째 이란 공습…비밀 핵개발 본부 등 파괴</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510082</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 16:05:32 수정 : 2025-06-20 16:05:32
+    <t>윤석열 전 대통령의 법률대리인인 송진호·김계리 변호사는 26일 오후 서울 서초구 서울중앙지검에서 기자회견을 열고 "경호처 기조실장을 포함해 지휘부 4명과 비화폰 포렌식에 관여한 경찰청 중대범죄수사과 간부 및 수사관 4명 등 총 8명을 대통령기록물관리법 위반, 군사기밀보호법 위반, 경호법상 직권남용 등 혐의로 고발한다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>덱스  '고급 남성美' 장착하고 명품 시계 갈라 디너 행사 참석</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513894</t>
+  </si>
+  <si>
+    <t>관련이슈 이슈키워드 , 이슈플러스
+입력 : 2025-06-26 15:59:16 수정 : 2025-06-26 16:03:56
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-이스라엘이 핵무기 개발 저지를 명분으로 내건 숙적 이란과의 전쟁에서 8일째 대규모 공습을 이어갔다.  이스라엘군은 20일(현지시간) 이란의 수도 테헤란에 있는 핵무기 연구소와 미사일 생산시설을 공습했다고 텔레그램 성명을 통해 밝혔다.
-이스라엘군은 "60대 이상의 전투기가 이란 내 수십 곳의 군사 목표물을 타격했다"며 "약 120발의 정밀 유도탄이 사용됐다"고 설명했다.  공습 대상은 테헤란 지역의 여러 미사일 생산용 산업 시설과 미사일 구성 부품과 미사일 엔진 주조용 원자재를 생산하는 시설이었다.  이스라엘군은 특히 이란의 핵무기 연구·개발 기관인 '방어혁신연구기구(SPND)' 본부도 타격했다고 밝혔다.  SPND는 2020년 살해된 이란의 핵과학자 모센 파크리자데가 만들었으며, 이스라엘은 이 곳이 과거 이란의 비밀 핵무기 프로그램 '아마드 프로젝트'의 연장선에 있다면서 교전 초기 공습 대상으로 지목했다.  이스라엘군은 SPND 등에 대한 타격을 거론하며 "테헤란의 심장에 일련의 타격을 완성했다"고 자평했다.  이란 정권의 핵무기 프로그램에 필수적인 부품을 생산하는 시설도 타격 대상이었다는 설명이 뒤따랐다.  AFP 통신과 리아 노보스티 통신에 따르면 이번 공습은 현지시간으로 19일 심야부터 이뤄졌다.  이스라엘은 이란이 핵무기를 제조하기 직전에 이르렀다며 그 위협을 제거하기 위한 선제타격을 단행한다며 지난 13일 공습을 시작했다.
-&lt;연합&gt;
+덱스가 고급스러운 비주얼로 행사 현장을 빛냈다.
+덱스는 지난 25일 서울 마포구 문화비축기지에서 열린 스위스 럭셔리 워치메이커 '태그호이어(TAG Heuer) 갈라 디너 이벤트'에 참석했다.
+해당 행사는 태그호이어가 오랜 시간 쌓아온 모터스포츠 레이싱 DNA와 브랜드 철학을 오감으로 경험할 수 있도록 구성됐다.
+이날 덱스는 검은 수트 차림에 태그호이어 시계 '모나코 칼리버 11 크로노그래프'를 착용하고 행사 현장에 나타났다.
+평소 방송에서 보이는 프리한 모습과 달리 영화배우 같은 근사한 비주얼에 팬들과 취재진의 시선이 집중됐다.
+덱스는 취재진 카메라를 향해 시계가 돋보이는 포즈와 '볼 콕' '볼 하트' 등 다양한 포즈를 취하며 포토콜 행사에 임했다.
+이날 행사에는 덱스를 비롯해 축구선수 황희찬, 야구선수 추신수, 전 스피드스케이팅 선수 이상화, 전 리듬체조 선수 손연재, 스켈레톤 선수 윤성빈, 모델 송해나, 배우 한효주 등 다양한 분야의 인물들이 참석했다.
+박지현 온라인 뉴스 기자 jullsjh@segye.com
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3320,24 +3849,21 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>이스라엘이 20일(현지시간) 이란의 수도 테헤란에 있는 핵무기 연구소와 미사일 생산시설을 공습했다고 텔레그램 성명을 통해 밝혔으며 공습 대상은 테헤란 지역의 여러 미사일 생산용 산업 시설과 미사일 구성 부품과 미사일 엔진 주조용 원자재를 생산하는 시설이라고 말했다.</t>
-  </si>
-  <si>
-    <t>‘임성근 구명 로비 의혹’ 제보자  특검 면담 불발… “제보 왜곡돼”</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510897</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 16:01:24 수정 : 2025-06-20 16:01:23
+    <t>지난 25일 서울 마포구 문화비축기지에서 열린 스위스 럭셔리 워치메이커 '태그호이어(TAG Heuer) 갈라 디너 이벤트'에 참가한해당 행사는 태그호이어가 오랜 시간 쌓아온 모터스포츠 레이싱 DNA와 브랜드 철학을 오감으로 경험할 수 있도록 마련된 이벤트가 진행됐다.</t>
+  </si>
+  <si>
+    <t>인천공항  휴가철 안전여행 캠페인 열어</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513584</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 15:59:11 수정 : 2025-06-26 15:59:10
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-임성근 전 해병대 제1사단장 구명로비 의혹 공익제보자로 알려진 전직 해병이 20일 이명현 채해병 특별검사와 면담을 요청하면서 “내가 제보한 부분이 진실과 왜곡돼 있어 양심과 소신에 따라 잘못 뿌린 씨앗을 거둬야 한다는 생각으로 행동했다”고 밝혔다. 그러나 이 특검과 면담은 불발됐고, 특검 측은 제보자가 들고 온 자료도 받아들지 않았다
-전직 해병 이관형씨는 이날 오전 서울 서초구에 위치한 이 특검의 사무실을 찾아 면담을 요청했다. 그는 자신의 제보 내용이 왜곡됐다고 주장하며 “결정적으로 특검에 우려하는 부분이 특검 수사라는 건 정치적 수사이고 검찰 수사라는 게 ‘사람이 죽는 게 죄가 있어 죽는 게 아니다, 프레임을 어떻게 짜느냐’의 문제”라고 했다. 이씨는 “제가 제보했던 내용들과 상당히 다른 부분으로 왜곡됐고 정치권과 일부 언론을 보고 그게 사실 관계가 다르다는 이상한 생각이 들어 진실을 파헤치기 시작했다”며 “이 사건은 구명로비 의혹이 아니라 무리한 제보 조작 의혹”이라고 덧붙였다.
-이씨는 임 전 사단장이 이 특검에 문제를 삼고 있는 부분이 있는지 묻자 “김정민 변호사가 아무래도 임 (전) 사단장에 대한 구명로비 의혹이라든가 직권남용에 대해서 문제 제기를 많이 하신 분이고, 대척점에 있었던 박정훈 대령(전 해병대 수사단장)의 변호인이기도 했다”며 “그런 분을 특검보로 임명하려 했던 움직임이라든가 해병대 수사단을 특검에 포함시키려는 것들이 너무 편향돼 우려하는 걸로 안다”고 답했다.
-그러면서 이씨는 “(문제가 된) 골프 단톡방에 지인이 있었고, 그를 통해 알게 된 정보를 지난해 6월 언론과 국회에 제보했다”며 “그러나 제보 내용이 왜곡돼 사실 관계와 다르다는 생각이 들어 단톡방 멤버였던 이종호·송호종씨 등과 접촉해 확보한 통신 자료와 카카오톡 자료를 고위공직자범죄수사처(공수처)에도 제출했다”고 했다. 그는 이 특검에게 자신의 입장문과 임 전 사단장의 자료 등을 전달하려 했으나 거부당했다.
-이 특검 측 관계자는 “지금 공수처로부터도 기록을 하나도 받지 않았다”며 “공식적으로 절차를 밟아야 하고, 지금은 정식으로 접수할 데도 없어 일단 돌려보낸 것”이라고 설명했다. 이 특검은 이날 사무실에서 이씨를 만날 의향이 있느냔 취재진의 질문에 “들은 바가 없기 때문에 나중에 필요하면 하겠다”고 했다.
-순직 해병 외압 사건을 수사하는 이 특검은 이날 오전까지 특별검사보 임명 통보를 아직 받지 못했다고 밝혔다. 앞서 이 특검은 18일 특검보 후보자 8명을 추천했다. 특검법에 따라 이재명 대통령은 추천 3일 이내에 특검보를 임명해야 한다.
-이 특검은 관련 사건을 수사 중인 공수처와 대구지검으로부터 수사 기록을 인계받는 일정에 대해서는 “특검보가 발표 나고 진행할 예정”이라고 말했다. 공수처로부터 파견받을 인력 규모에 대해서는 “나중에 알려드리겠다”고만 했다. 그는 내란·김건희 특검팀보다 준비 속도가 느린 것 아니냐는 물음에는 “물밑 작업을 하고 있다”며 “그렇지 않다”고 일축했다.
+인천공항공사는 휴가철을 앞두고 안전여행 캠페인을 벌였다.  인천국제공항공사는 26일 여름 휴가철을 앞두고 감염병 예방 등 안전여행 수칙을 안내하기 위해 인천공항 제2여객터미널에서 ‘여름 휴가철 맞이 대국민 안전여행 캠페인’을 진행했다.
+이번 행사는 여름 해외여행 성수기를 앞두고 전 세계 각지에서 코로나19, 동물인플루엔자 인체감염증, 메르스(MERS) 등 각종 신‧변종 감염병의 확산 우려가 높아지고 있는 상황에서 해외 여행객들에게 올바른 손 씻기 방법 등 안전한 해외여행 수칙을 안내하기 위해 마련됐다.
+인천국제공항공사 이학재 사장, 국립인천공항검역소 윤현덕 소장 및 양 기관 참석자들은 제2여객터미널 출국장에 마련된 이벤트 부스에서 여객들에게 안전여행 홍보문구가 담긴 여행용품과 올바른 손 씻기 요령 등이 담긴 안내 자료를 나눠주며 안전한 해외여행을 위한 준수사항을 안내했다.
+이학재 인천국제공항공사 사장은 “건강하고 안전한 해외여행을 위해 개인위생 준수 등 안전수칙 준수를 당부드린다”며 “인천공항 역시 여객 분들의 안전하고 편리한 해외여행을 위해 여름 휴가철 공항 안전관리에 최선을 다하겠다”고 말했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3350,23 +3876,23 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>임성근 전 해병대 제1사단장 구명로비 의혹 공익제보자로 알려진 전직 해병이 20일 이명현 채해병 특별검사와 면담을 요청하면서 “내가 제보한 부분이 진실과 왜곡돼 있어 양심과 소신에 따라 잘못 뿌린 씨앗을 거둬야 한다는 생각으로 행동했다”고 밝혔다.</t>
-  </si>
-  <si>
-    <t>“고공농성자 건강 위기”…보건의료계  정부에 긴급 해결 촉구</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510522</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획
-입력 : 2025-06-20 15:57:20 수정 : 2025-06-20 15:57:19
+    <t>인천국제공항공사는 26일 여름 해외여행 성수기를 앞두고 전 세계 각지에서 코로나19, 동물인플루엔자 인체감염증, 메르스(MERS) 등 각종 신‧변종 감염병의 확산 우려가 높아지고 있는 상황에서 해외 여행객들에게 올바른 손 씻기 방법 등 안전한 해외여행 수칙을 안내하기 위해 인천공항 제2여객터미널에서 ‘여름 휴가철 맞이 대국민 안전여행 캠페인’을 펼쳤다.</t>
+  </si>
+  <si>
+    <t>서초구  국제사법 중심지로… ‘HCCH 아시아·태평양 주간 서울 2025’ 개최 [지금 우리 동네는]</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513722</t>
+  </si>
+  <si>
+    <t>관련이슈 디지털기획 , 지금 우리 동네는
+입력 : 2025-06-26 15:59:03 수정 : 2025-06-26 15:59:02
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-의사와 간호사, 약사 등 보건의료인들이 장기 고공 농성 중인 노동자들의 건강 위기를 염려하며 정부의 즉각적인 개입을 촉구했다.
-건강권 실현을 위한 보건의료단체연합은 20일 오후 용산 대통령실 앞에서 기자회견을 열고 한국옵티칼하이테크와 세종호텔을 상대로 고공농성을 벌이고 있는 박정혜씨와 고진수씨 건강이 악화했다며 조속한 해결이 필요하다고 호소했다. 이번 기자회견에는 의사와 간호사, 약사, 심리상담사 등 다양한 보건의료인과 연구자 및 학생들이 참여했다.
-이날 회견 현장에는 해당 농성장을 직접 방문해 진료와 상담을 진행해온 김동은 계명대학교 교수와 오춘상 참의료실현청년한의사회 회원, 이승욱 정신분석가, 최규진 인하대학교 교수 등이 고공농성자들의 건강과 심리상태를 설명하고, 문제 해결의 긴급성을 강조했다.
-박정혜씨는 경북 구미시 한국옵티칼하이테크의 불에 탄 공장 옥상에서 500일 넘게 고공농성을 이어가고 있다. 현장 온도는 40도에 육박하고 있는 상황으로 알려졌다. 고진수씨 또한 세종호텔 인근 광고탑 위에서 120일 넘게 농성을 지속 중이다. 양측 모두 자리를 벗어나기 어려운 공간에서 버티고 있어 신체·정신적 위험이 극심한 것으로 전해졌다.
-수백명이 서명한 보건의료계 선언문도 발표됐다. 이들은 “윤석열 정권과 단절을 선언하며 출범한 이재명 정부가 이 문제를 더는 외면해선 안 된다”며 “하루라도 빨리 고공에서 내려올 수 있도록 정부가 해결에 나서야 한다”고 밝혔다.
+서울 세빛섬에서 ‘HCCH 아시아·태평양 주간 서울 2025’이 개최됐다.
+서초구에 따르면 25일부터 27일까지 3일간 개최되는 이번 행사는 서초구와 헤이그국제사법회의(HCCH), 대한민국 법무부, 사법정책연구원, 보건복지부, 아동권리보장원, 국제사법학회, 한국형사법무정책연구원이 공동 주최한 국제행사다. 아시아·태평양 주요국 대표단과 국제기구 관계자, 법률 전문가 등 150여명이 참석해 HCCH 주요 협약의 이행 현황을 점검하고 국제사법 협력의 발전 방향을 논의하는 한편, 각국의 경험을 공유하며 실질적 협력 방안을 모색할 예정이다.
+전성수 서초구청장은 행사 첫날 개회식에서 “국제사법과 인류 공동체 연대를 위한 뜻깊은 자리에 함께하게 되어 영광”이라며 “서초구는 대법원과 대검찰청, 대한변호사협회 등 핵심 사법기관이 집약된 법조 클러스터로, 헤이그를 롤모델 삼아 아시아·태평양 사법정의의 메카로 도약하려 한다”고 밝혔다. 이어 “이번 행사가 국제사법제도의 미래를 그려나가는 이정표가 되길 기대한다”고 덧붙였다.
+27일에는 전 구청장이 직접 발표자로 나서 서초가 역점 추진 중인 ‘아·태 사법정의 허브’를 국제 법률의 중심지로 조성하는 비전 발표를 진행한다. 발표에서는 구가 국내외 학술대회와 교육·문화 프로그램을 통해 법률 접근성을 높이고, 서초의 법조 인프라를 활용해 문화·경제적 가치를 창출하며 나아가 국제법률기구 유치를 통한 아시아·태평양 사법정의 중심지로 도약하겠다는 구상을 밝힐 계획이다. 이와 함께 AI 산업을 기반으로 한 리걸 테크 산업 육성, 법률·관광·문화를 융합한 마이스 산업 발전 등 미래 발전 전략도 함께 제시한다.
+전 구청장은 “이번 HCCH 아·태 주간을 계기로 법무부, 외교부 등 유관기관과의 협력을 강화하고 국제행사 유치, 사법문화 교류 프로그램 등을 지속 추진해 아·태 사법정의 허브가 실질적인 법률 허브로 자리매김할 수 있도록 최선을 다하겠다”고 말했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3379,20 +3905,23 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>보건의료단체연합은 20일 오후 용산 대통령실 앞에서 기자회견을 열고 한국옵티칼하이테크와 세종호텔을 상대로 고공농성을 벌이고 있는 박정혜씨와 고진수씨의 건강이 악화했다며 조속한 해결이 필요하다고 호소했다.</t>
-  </si>
-  <si>
-    <t>GKL과 함께하는 ‘나눔옷장 시즌3’ 열려</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620509147</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 15:55:42 수정 : 2025-06-20 15:55:40
+    <t>서초구와 헤이그국제사법회의(HCCH), 대한민국 법무부, 사법정책연구원, 보건복지부, 아동권리보장원, 국제사법학회, 한국형사법무정책연구원이 공동 주최한 ‘HCCH 아시아·태평양 주간 서울 2025’이 25일부터 27일까지 3일간 개최되며 서초구는 대법원과 대검찰청, 대한변호사협회 등 핵심 사법기관이 집약된 법조 클러스터로, 헤이그를 롤모델 삼아 아시아·태평양 사법정의의 메카로 도약하려 한다.</t>
+  </si>
+  <si>
+    <t>27일 농해수위 당정협의…'유임' 송미령  ‘농업4법’ 입장 밝힐 듯</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513863</t>
+  </si>
+  <si>
+    <t>관련이슈 디지털기획
+입력 : 2025-06-26 15:58:58 수정 : 2025-06-26 15:58:58
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-버려지는 옷을 줄여 지구를 살리자는 취지의 의류순환 캠페인 '나눔옷장'이 시즌3을 맞아 더욱 확대된 규모로 돌아왔다.
-기후솔루션 독립언론인 뉴스펭귄과 외국인 전용 카지노 세븐럭을 운영하는 공기업 GKL(그랜드코리아레저)이 20일 서울 용산구 한강대로 공간오즈에서 나눔옷장 시즌3을 열었다. 나눔옷장은 옷장 속 묵혀둔 의류를 기부하고, 기부한 만큼 다른 옷으로 교환하는 자원순환 방식의 환경캠페인이다. 이 캠페인은 사놓고서는 잘 입지 않는 옷을 나눠 입자는 게 기본 개념이다.
-2023년 첫 행사 때 1000여명이 참가해 2100벌이 넘는 옷이 교환됐고 지난해 시즌2에서는 2500여명이 참가에 교환의류가 1만2000여벌에 달했다. 나눔옷장 시즌3은 21일까지 열린다.
+더불어민주당 소속 국회 농림축산식품해양수산위원회 위원들이 27일 송미령 농림축산식품부 장관을 국회로 불러 당정협의회를 연다. 윤석열정부 시절 민주당의 숙원 입법 과제인 양곡관리법 개정안 등 ‘농업 4법’을 “농망 4법”으로 폄훼했던 송 장관이 이재명정부에서 유임된 만큼 전향된 입장을 내놓을지가 주목된다.
+민주당 김현정 원내대변인은 26일 취재진에 “내일 (여당 소속) 농해수위 위원들과 송 장관이 당정협의를 할 예정이다. 오후 3시쯤 열릴 가능성이 높다”고 전했다. 민주당은 이 자리에서 농업 4법에 대한 송 장관의 견해가 무엇인지를 따져 물을 것으로 보인다.
+민주당 내부와 지지층 사이에선 이재명 대통령이 윤 정부 출신인 송 장관을 유임시키기로 한 데 대한 의구심이 크다. 윤석열 전 대통령이 재임 시절 민주당의 양곡법 개정안 등 농어민 지원 법안을 번번이 재의요구권(거부권) 행사로 폐기시켰기 때문이다. 송 장관은 윤 정부 기조에 맞춰 이들 법안을 반대하는 의견을 고수해왔다. 이 때문에 여권 내부에선 정부 기조에 따라 개인적인 소신과 철학도 오락가락할 수 있는 것이냐며 송 장관을 불신하는 시각이 있다.
+농업 4법은 양곡법과 농어업재해대책법·농어업재해보험법·농수산물 유통 및 가격안정법(농안법) 개정안이다. 양곡법 개정안은 쌀값 급락 시 정부가 초과생산량을 매입하는 것이 골자다. 농어업재해대책법 개정안은 재해 이전 생산에 투입된 비용 전부 또는 일부를 국가·지방자치단체가 보조하는 내용이다. 농어업재해보험법 개정안은 정부와 지자체의 보험료 지원비율 산정 시 보험가입자의 의견을 청취하도록 규정하고 있다. 농안법 개정안은 농산물 시장가격이 기준치 밑으로 내릴 경우 차액의 전부 또는 일부를 보전해주자는 것이다.
+송 장관은 전날 농해수위 전체회의에서 과거 농망법 발언에 대해 “(법 개정시) 부작용을 낼 수 있는 측면이 있기 때문에 재고하자는 취지의 절실한 표현이었다”며 “절실함이 거친 표현으로 된 데 대해 사과 말씀드린다”고 고개를 숙였다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3405,32 +3934,23 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>뉴스펭귄과 외국인 전용 카지노 세븐럭을 운영하는 공기업 GKL이 20일 서울 용산구 한강대로 공간오즈에서 나눔옷장 시즌3을 열고 옷장 속 묵혀둔 의류를 기부하고, 기부한 만큼 다른 옷으로 교환하는 자원순환 방식의 환경캠페인 '나눔옷장'이 시즌3을 맞아 더욱 확대된 규모로 나눔옷장 시즌3을 열었다.</t>
-  </si>
-  <si>
-    <t>KTL  디지털 제품 여권 도입 위한 국제표준 기반 구축에 앞장</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620509059</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 15:55:29 수정 : 2025-06-20 15:55:27
+    <t>윤석열정부 시절 민주당의 숙원 입법 과제인 양곡관리법 개정안 등 ‘농업 4법’을 “농망 4법”으로 폄훼했던 송 장관이 27일 송미령 농림축산식품부 장관을 국회로 불러 당정협의회를 연다.</t>
+  </si>
+  <si>
+    <t>이웃이 이웃을 돌본다… 동작구  ‘동행네트워크’로 돌봄 사각지대 해소 [지금 우리 동네는]</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513933</t>
+  </si>
+  <si>
+    <t>관련이슈 디지털기획 , 지금 우리 동네는
+입력 : 2025-06-26 15:58:27 수정 : 2025-06-26 15:58:26
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-한국산업기술시험원(KTL)은 산업통상자원부 국가기술표준원의 지원을 받아 ‘자동인식 및 데이터 캡처 분과(SC31) 국제표준회의 총회’를 개최했다고 20일 밝혔다.
-최근 유럽연합(EU)을 중심으로 디지털 제품 여권(DPP) 도입이 본격화되면서 제품의 전 생애주기 정보를 투명하게 관리하고 추적할 수 있는 국제 표준화의 중요성이 커지고 있다.
-특히 제품에 내장되는 전자태그(RFID), 바코드, QR코드 등 자동인식 기술은 DPP 구현의 핵심 기반으로 관련 기술 표준을 논의하는 국제무대에 전 세계의 이목이 집중되고 있다.
-이에 발맞춰 이번 총회에서는 DPP의 글로벌 도입에 대비한 국제표준 논의가 핵심 의제로 다뤄졌다.
-총회에는 미국, 중국, 오스트리아, 독일 등 다양한 국가가 참석했다.
-이 자리에서 KTL은 RFID 관련 국제표준을 DPP 요구사항 관점으로 분석하며 △제품의 생애주기 단계별 데이터 연계 △정보의 상호 운용성 확보 △지속가능성 관련 정보 제공 등 기존 표준의 보완 및 개정 필요성을 강조했다.
-또 △RFID 기반 제품 식별정보 구조 개선 △DPP 요구사항과의 정합성 검토 등의 표준화 우선 과제를 도출했다.
-나아가 국제표준 개발 주도권 확보 및 국내 산업의 대응력 강화를 위한 ‘표준 로드맵 임시 연구 그룹’ 신설 제안에도 나서며 표준화 기반 구축 마련에 속도를 냈다.
-송태승 KTL 디지털산업본부장은 “이번 총회를 통해 우리나라가 디지털 식별 국제표준 논의를 주도하고, 국제 공급망의 투명성과 지속가능성 확보에 기여할 수 있을 것으로 기대한다”며 “ DPP는 ESG 경영과 산업의 디지털 전환을 뒷받침하는 핵심 기반으로, 앞으로도 국제표준화를 통해 기술 호환성을 높이고 국내 기업이 세계 시장에서 우수한 경쟁력을 확보할 수 있도록 지원하겠다”고 밝혔다.
-KTL은 자동인식 및 데이터 캡처 분야에서 국제표준화 활동을 지속적으로 선도하고 있다.
-지난 1월에는 스포츠용품에 적용되는 RFID의 환경 특성 평가 방법에 관한 국제표준(ISO/IEC 18046-5)을 한국 주도로 제정했다.
-해당 표준은 충격, 열화 등 환경 변화가 잦은 스포츠 현장에서 RFID의 반복적인 고장 문제를 해결하기 위한 것이다.
-KTL은 국내 RFID 제조사들과 협력하여 신뢰성 평가 기준을 마련하고 고(高)신뢰성 제품 개발을 이끌었다.
-그 결과 제품의 내구성과 성능이 크게 향상시켰으며, 일부 기업은 이를 바탕으로 해외 시장 진출 성공 사례를 남겼다.
-KTL은 국제표준화 활동을 통해 글로벌 기술 규범 마련에 앞장서며 국내 기업의 산업기술 경쟁력 강화와 해외 진출을 적극 지원하고 있다.
+서울 동작구가 추진 중인 주민이 직접 이웃을 돌보는 ‘동행 네트워크’ 사업이 복지 사각지대를 해소하며 지역사회에서 호응을 얻고 있다.
+26일 동작구에 따르면 동행 네트워크는 2023년부터 시작된 지역 밀착형 돌봄 사업으로, 법정 서비스 지원이 어렵거나 돌봄 공백 우려가 있는 위기·취약가구와 주민 동행인을 1:1로 연결해 안전망을 구축하는 제도다. 현재 1977명의 동행인이 1866가구와 결연을 유지하며 정기적인 안부 확인, 일상생활 지원, 서비스 연계 등 맞춤형 돌봄 활동을 이어가고 있다.
+구는 올해부터 동행인에게 자원봉사 실비를 지급해 활동의 지속성을 높이고 동주민센터 및 자원봉사센터와 연계해 체계적으로 실적을 관리하고 있다. 아울러 전 동행인을 대상으로 오픈채팅방을 운영하며 구정 복지·문화 등의 정보를 실시간으로 제공해 결연가구에도 전달되도록 했다. 동별로 최대 20명 규모의 ‘동행추진단’을 구성해 동 단위 추진체계도 마련했다.
+지난 5월부터는 동행인이 결연가구를 직접 방문해 반찬 나눔, 청소 등을 돕는 ‘1:1 가사 지원’을 도입했으며 현재까지 32가구가 참여하고 있다. 구는 결연가구와 동행인이 함께하는 문화 이벤트인 동행시네마 프로그램도 하반기 중 운영할 예정이다.
+박일하 구청장은 “동작구만의 동행 네트워크 사업을 통해 도움이 필요한 위기 가구를 선제적으로 발굴해 지원하고 있다”며 “앞으로도 복지 사각지대 없는 촘촘한 돌봄 체계를 유지할 수 있도록 최선을 다하겠다”고 말했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3443,25 +3963,26 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>한국산업기술시험원(KTL)은 20일 산업통상자원부 국가기술표준원의 지원을 받아 ‘자동인식 및 데이터 캡처 분과(SC31) 국제표준회의 총회’를 개최하여 제품의 전 생애주기 정보를 투명하게 관리하고 추적할 수 있는 국제 표준화의 중요성이 커지고 있으며 제품에 내장되는 전자태그(RFID), 바코드, QR코드 등 자동인식 기술은 DPP 구현의 핵심 기반으로 관련 기술 표준을 논의하는 국제무대에 전 세계의 이목이 집중되고 있다.
-이에 발맞춰 이번 총회에서는 DPP의 글로벌 도입에 대비한 국제표준 논의가 핵심 의제로 다뤄졌다.</t>
-  </si>
-  <si>
-    <t>‘스토킹 여성 살해’ 윤정우 구속 송치…보복살인 혐의 적용 [사건수첩]</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620509099</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획 , 사건수첩
-입력 : 2025-06-20 15:55:21 수정 : 2025-06-20 16:00:11
+    <t xml:space="preserve">동작구가 2023년부터 시작된 지역 밀착형 돌봄 사업인 '동행 네트워크' 사업이 복지 사각지대를 해소하며 지역사회에서 호응을 얻고 있다.
+</t>
+  </si>
+  <si>
+    <t>물 만난 고기처럼…네이버스토어서 컨템포러리 브랜드 거래액 증가</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513877</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 15:57:29 수정 : 2025-06-26 15:57:29
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-스토킹하던 여성을 살해한 뒤 달아났다 나흘 만에 붙잡힌 윤정우(48)가 경찰에서 검찰로 넘겨졌다.
-대구 성서경찰서는 자신이 스토킹하던 여성을 흉기로 찔러 숨지게 한 혐의(특정범죄 가중처벌 등에 관한 법률 위반)로 윤씨를 구속 송치했다고 20일 밝혔다.
-경찰에 따르면 윤씨는 지난 10일 오전 3시 30분쯤 대구 달서구 한 아파트에서 가스 배관을 타고 6층에 올라가 자신이 스토킹하던 여성(50대)에게 흉기를 휘둘러 살해하고 달아난 혐의를 받는다.
-그는 야산에서 숨어지내다가 지난 14일 오후 10시 45분쯤 세종시 조치원읍 길가에 있는 컨테이너 창고 앞에서 검거됐다. 이후 윤씨는 지난 16일 살인 혐의로 구속됐다.
-경찰은 범행동기 등 사건을 수사한 후 혐의를 특가법상 보복살인으로 변경해 적용했다. 특가법상 보복살인은 최소 형량이 10년으로 형법상 살인보다 형량이 무겁다.
-앞서 경찰은 한 달여 전에도 피해자를 찾아가 흉기로 협박한 혐의(스토킹 범죄 처벌법 위반 등)로 윤씨에 대해 구속 영장을 신청했으나 법원이 기각한 바 있다. 당시 경찰은 피해자 집 앞에 지능형 CCTV를 설치하는 등 안전조치를 하기도 했다.
+네이버는 20·30 세대 선호도가 높은 국내외 컨템포러리 브랜드의 올해 네이버플러스 스토어 누적 거래액이 지난해 같은 기간 보다 두 배 이상 오른 것으로 나타났다고 26일 밝혔다.
+네이버는 라이브커머스 솔루션 ‘쇼핑라이브’와 컨템포러리 브랜드 간의 결합이 강한 시너지를 만든 것으로 분석했다.
+트렌드에 가장 민감하고 유행을 빠르게 선도하는 컨템포러리 브랜드 판매자에게는 관심도 높은 타겟 이용자와의 마케팅 채널 확보가 매우 중요한데, 생생한 정보를 전달하는 쇼핑라이브가 브랜드 성장을 가속화한 것으로 보고 있다.
+여성 컨템포러리 브랜드 ‘다이닛’과 ‘유메르’는 올해 1월, 3월 진행한 입점 기념 쇼핑라이브에서 100만 조회수와 기록적인 거래액을 달성했다. 지난해 네이버 팝업으로 화제성을 일으키고 이후 입점까지 진행한 디자이너 브랜드 ‘파사드패턴’은 겨울 시즌을 겨냥한 쇼핑라이브로 2주간 총 18억원의 거래액을 기록했다.
+이와 함께 규모가 작은 신진 브랜드도 네이버 생태계 내에서 사업을 확장할 수 있도록 고도화된 기술 솔루션을 제공 중이다. 정확하고 빠른 배송을 돕는 ‘N배송’, 마케팅 접점을 확대하는 어필리에이트 솔루션 ‘쇼핑 커넥트’ 등이 대표적이다.
+네이버플러스 스토어 내 ‘하이퍼클로바X’ 기반 추천 기술의 고도화로 판매자와 단골 고객 간 매칭률이 향상되는 등 취향과 맥락에 따라 추천 받는 AI 쇼핑의 만족도가 높아지면서, 판매자 성장의 기회를 확대했다.
+네이버는 성장 가능성이 높은 신규 브랜드를 발굴하고 화제성 높은 판매자와의 협업을 강화하며, 커머스 생태계의 다양성을 확대하고 20·30 세대에게 더욱 만족도 높은 쇼핑 경험을 제공할 계획이다.
+네이버 관계자는 “경쟁력 있는 브랜드들의 데이터베이스가 풍부해짐에 따라 네이버 패션 카테고리의 역량도 한층 강화될 것으로 기대된다”고 말했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3474,20 +3995,23 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>대구 달서경찰서는 지난 10일 오전 3시 30분쯤 대구 달서구 한 아파트에서 가스 배관을 타고 6층에 올라가 스토킹하던 여성을 흉기로 찔러 숨지게 한 혐의(특정범죄 가중처벌 등에 관한 법률 위반)로 윤정우(48)를 구속 송치했다고 20일 밝혔다.</t>
-  </si>
-  <si>
-    <t>코스피  1.5% 급등 3 000선 마감…3년 6개월만</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510591</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 15:54:13 수정 : 2025-06-20 15:54:13
+    <t>26일 네이버네이버는 20·30 세대 선호도가 높은 국내외 컨템포러리 브랜드의 올해 네이버플러스 스토어 누적 거래액이 지난해 같은 기간 보다 두 배 이상 오른 것으로 나타났다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>BBQ  호국보훈의 달 맞아 ‘국방부유해발굴감식단’에 치킨 나눔</t>
+  </si>
+  <si>
+    <t>https://www.segye.com/newsView/20250626513992</t>
+  </si>
+  <si>
+    <t>입력 : 2025-06-26 15:57:26 수정 : 2025-06-26 15:57:25
 인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-코스피가 20일 닷새 연속 올라 3년 6개월 만에 3,000선 위로 올라섰다.  이날 코스피는 전장보다 44.10포인트(1.48%) 오른 3,021.84에 장을 마쳤다.
-지수는 전장보다 8.78포인트(0.29%) 오른 2,986.52로 출발해 보합권 내 등락하다 상승 전환한 뒤 오름폭을 키워 오전 10시 45분께 3,000.46을 기록하며 3,000선을 넘어섰다.  한국거래소에 따르면 지수가 장중 3,000 위로 올라선 것은 지난 2022년 1월 3일(3,010.77) 이후 처음이다.  마감가로는 지난 2021년 12월 28일(3,020.24) 이후 3년 6개월 만에 3,000선에서 장을 마쳤다.  코스닥지수는 전장보다 9.02포인트(1.15%) 오른 791.53에 거래를 마쳤다.
-&lt;연합&gt;
+BBQ가 6·25전쟁 75주년과 호국보훈의 달을 맞아 국군 전사자 유해발굴 업무를 수행하는 군 장병들에게 치킨을 전달했다.
+제너시스BBQ 그룹은 지난 24일 서울 동작구 현충원에 위치한 ‘국방부유해발굴감식단(국유단)’에 300인분의 치킨 세트를 기부했다고 26일 밝혔다.
+국유단은 국군 전사자 유해를 발굴, 수습, 감식해 유가족의 품으로 돌려보내는 임무를 수행하고 있다. 유해 발굴 전문기관으로 지난 24년간 1만1000여구의 국군 유해를 발굴하는 등 국민의 안보와 호국 정신 계승에 핵심적인 역할을 하고 있다.
+BBQ는 6·25전쟁 75주년을 기리며 이들의 묵묵한 헌신에 깊은 감사와 응원을 전하고자 대표 사회공헌 활동인 ‘찾아가는 치킨 릴레이’를 통해 이번 치킨 나눔 행사를 준비했다. BBQ는 시그니처 메뉴인 황금올리브 치킨과 레몬보이 세트 300인분을 준비해 국유단 소속 장병과 관계자들에게 제공했다.
+2022년 시작된 ‘찾아가는 치킨릴레이’는 치킨대학의 ‘착한기부’를 전국적으로 확대한 사회공헌 활동이다. 이는 전국 곳곳 도움이 필요한 분들께 직접 찾아가 치킨으로 행복을 나누는 업계의 모범적 사회공헌 활동으로도 꼽힌다.
+BBQ 관계자는 “이름 모를 산야에 묻혀 있는 호국영웅들을 찾아 가족의 품에 돌려드리는 고귀한 임무를 수행하고 있는 국유단 장병들께 깊은 감사의 마음을 전하고자 이번 나눔 행사를 마련했다”고 말했다.
 [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
 제호 : 세계일보
 서울특별시 용산구 서빙고로 17
@@ -3500,124 +4024,7 @@
 Copyright ⓒ 세계일보 All rights reserved.</t>
   </si>
   <si>
-    <t>20일 코스피 코스피가 닷새 연속 올라 3년 6개월 만에 3,000선 위로 올라섰으며 한국거래소에 따르면 지수가 장중 3,000 위로 올라선 것은 지난 2022년 1월 3일(3,010.77) 이후 처음이다.</t>
-  </si>
-  <si>
-    <t>경남도  광역단체로는 첫 프랑스 파리사무소 개소</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620508924</t>
-  </si>
-  <si>
-    <t>입력 : 2025-06-20 15:47:35 수정 : 2025-06-20 15:47:34
-인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-경남도는 유럽 시장 진출 확대를 위한 교두보로 프랑스 파리에 ‘유럽 경상남도 파리사무소’를 공식 개소했다고 20일 밝혔다.
-박완수 경남지사를 단장으로 한 경남대표단이 참석한 가운데 파리사무소 개소식이 열렸다.
-박 지사는 개소식에서 “유럽은 선진 기술과 자본을 보유한 기업이 많은 만큼, 도내 기업에 대한 투자 확대와 산학연 협력이 기대된다”며 “파리사무소가 경상남도와 유럽을 잇는 새로운 교두보로서, 투자․통상․문화․관광 등 실질적인 성과를 창출하는 데 중추적 역할을 하게 될 것”이라고 강조했다.
-김병준 주프랑스대한민국대사관 총영사는 “경남도 파리사무소 개소는 대한민국이 우주항공, 방산 등 고부가가치 산업의 유럽 공략을 강화하는 시점에 매우 적절한 조치”라며 “앞으로 프랑스 대사관과 경남 파리사무소가 원팀이 돼 통상, 기술 교류 등에서 협력해 나갈 것이며, 프랑스 대사관도 적극적으로 돕겠다”고 밝혔다.
-경남도는 파리사무소를 통해 우주항공·방산·원전 등 도의 주력산업의 유럽 시장 진출을 본격화하고, 주요 국가별 맞춤형 투자유치와 무역‧통상 확대 등 경제교류, 관광객 유치, 인력양성 협력 등 다양한 분야의 국제교류를 추진할 계획이다.
-이번 파리사무소 개소로 경남도는 미국, 중국(2개소), 일본, 인도네시아, 베트남에 이어 총 7곳의 해외사무소를 운영하게 됐다.
-프랑스 파리에 해외사무소를 설치한 것은 광역지방자치단체 가운데 경남도가 처음이다.
-유럽은 미국, 중국에 이어 세계 3위의 경제권으로, 경남도의 우주항공, 방산, 원전 산업과 밀접한 연관을 가지고 있어 전략적 중요성이 커지고 있다.
-특히 프랑스는 에어버스 본사와 유럽우주국(ESA) 본부가 있는 유럽 우주항공 산업의 중심지로, 경남의 주력 산업의 유럽 진출 거점으로서 중요한 역할을 할 것으로 기대된다.
-경남도는 파리사무소를 중심으로 유럽 시장을 겨냥한 세일즈 활동을 강화해 나갈 계획이다. 파리사무소는 △유럽 내 주요 기업 및 유관기관과의 협력 네트워크 구축 △국제전시회 참가 및 무역사절단 파견 등 통상 확대 지원 △선진지역과의 산학연 교류 및 기술·인력 양성 협력 연계 △경남 기업의 유럽 시장 진출 지원 △유럽 주요 도시 대상 경남 전통문화·관광자원 홍보 등 다양한 역할을 맡게 된다.
-[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
-제호 : 세계일보
-서울특별시 용산구 서빙고로 17
-등록번호 : 서울, 아03959
-등록일(발행일) : 2015년 11월 2일
-발행인 : 정희택
-편집인 : 김선교
-전화번호 : 02-2000-1234
-청소년보호 책임자 : 임인섭
-Copyright ⓒ 세계일보 All rights reserved.</t>
-  </si>
-  <si>
-    <t>20일,박완수 경남지사를 단장으로 한 경남대표단이 참석한 가운데 프랑스 파리에 '유럽 경상남도 파리사무소'를 공식 개소했다고 밝히며, 파리사무소가 경상남도와 유럽을 잇는 새로운 교두보로서 투자.통상.문화.관광 등 실질적인 성과를 창출하는 데 중추적 역할을 하게 될 것이라고 말했다.</t>
-  </si>
-  <si>
-    <t>주진우 “김민석  현금 6억 집에 쌓아두고 썼다니 충격적”</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510625</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획
-입력 : 2025-06-20 15:45:12 수정 : 2025-06-20 15:45:12
-인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-국민의힘 주진우 의원이 20일 김민석 국무총리 후보자를 향해 “8회에 걸쳐 범법행위를 했다”며 “총리 자격이 없다”고 비판했다.
-김 후보자 인사청문특별위원회 위원인 주 의원은 이날 자신의 페이스북에서 “김 후보자가 경조사비, 출판기념회에서 받은 돈봉투를 모아 현금 6억원을 집에 쌓아두고 썼다니 충격적”이라며 “김 후보자의 변명은 한마디로 ‘6억원 정도는 나 같은 유력 정치인에게는 흔히 들어오는 통상적인 현금’이라는 말”이라고 꼬집었다.
-김 후보자는 이날 오전 BBS 라디오에 출연해 ‘세비로 따지면 수입이 약 5억2000만원인데 지출이 약 13억원이라 8억원 정도 빈다는 얘기가 있다’는 질문에 “강연도 있었고, 경조사도 있었고, 출판기념회도 두 번 있었다”고 해명한 바 있다.
-주 의원은 “현금 짬짜미를 막기 위해, 공직자윤리법은 현금도 등록·공개하도록 엄격히 규정한다”며 “2019년 12월12일 결혼 축의금은 같은달 31일에 정확한 현금 보유액을 재산에 등록·공개했어야 맞다”고 지적했다. 주 의원은 김 후보자가 2020년 11월 빙부상 조의금과 2022년 4월, 2023년 11월에 열린 출판기념회 수입도 등록하지 않은 점을 추가로 지목했다.
-주 의원은 김 후보자를 향해 “두 차례 총선에서 후보자 재산 공개에 현금을 고의로 누락, 허위사실을 공표했다”며 공직자윤리법과 더불어 공직선거법을 위반한 것이라고 주장했다.
-주 의원은 그러면서 “따져보니 공직자윤리법을 6차례, 공직선거법을 2차례 위반했다”며 “과거 사례에 비추어 당연히 낙마 사유”라고 강조했다.
-[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
-제호 : 세계일보
-서울특별시 용산구 서빙고로 17
-등록번호 : 서울, 아03959
-등록일(발행일) : 2015년 11월 2일
-발행인 : 정희택
-편집인 : 김선교
-전화번호 : 02-2000-1234
-청소년보호 책임자 : 임인섭
-Copyright ⓒ 세계일보 All rights reserved.</t>
-  </si>
-  <si>
-    <t>주진우 의원이 20일 김민석 국무총리 후보자를 향해 “김 후보자가 경조사비, 출판기념회에서 받은 돈봉투를 모아 현금 6억원을 집에 쌓아두고 썼다니 충격적”이라며 “김 후보자의 변명은 한마디로 ‘6억원 정도는 나 같은 유력 정치인에게는 흔히 들어오는 통상적인 현금’이라는 말”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>‘플래툰 시스템’ 적용받으면서도 3할 후반대 고타율…김혜성  3경기 연속 안타  만나기만 으르렁거리는 다저스-샌디에이고는 벤치클리어링</t>
-  </si>
-  <si>
-    <t>https://www.segye.com/newsView/20250620510621</t>
-  </si>
-  <si>
-    <t>관련이슈 디지털기획
-입력 : 2025-06-20 15:43:14 수정 : 2025-06-20 15:43:13
-인쇄 메일 페이스북 공유 트위터 공유 url 공유 - +
-미국 메이저리그 로스앤젤레스 다저스의 김혜성(27)이 좌완 투수가 나오면 빠지는 ‘플래툰 시스템’을 적용받으면서도 타격감을 이어가고 있다. 3경기 연속 안타로 존재감을 드러냈다.
-김혜성은 20일(한국시간) 미국 캘리포니아주 로스앤젤레스 다저스타디움에서 열린 2025 MLB 샌디에이고 파드리스와 홈 경기에 9번 타자 중견수로 선발 출전해 4타수 1안타 1타점을 올렸다. 시즌 타율은 0.386에서 0.378(74타수 28안타)로 떨어지긴 했지만, 김혜성은 왼손 선발 투수가 등판하면 라인업에서 빠지는 어려운 상황에서도 높은 타율을 유지하고 있다.
-3회 첫 번째 타석에서 헛스윙 삼진을 당한 김혜성은 두 번째 타석에서 안타를 때려냈다. 김혜성은 5회말 2사 1루, 상대 오른손 선발 라이언 버거트의 시속 141㎞ 낮은 슬라이더를 잡아 당겨 우전 안타를 쳤다. 지난 15일 샌프란시스코 자이언츠전(4타수 1안타), 19일 샌디에이고전(2타수 1안타)에 이어 3경기 연속 안타.
-김혜성은 7회 2사 2, 3루에서 오른손 불펜 제러마이아 에스트라다와 풀 카운트(3볼-2스트라이크) 승부 끝에 시속 157㎞ 직구를 받아쳤으나 2루 근처에 자리 잡고 있던 유격수 잰더 보가츠에게 걸려 땅볼로 돌아섰다. 9회말 1사 2, 3루에서는 샌디에이고 마무리 로베르트 수아레스의 시속 159㎞ 빠른 공을 받아 쳐 유격수 땅볼을 쳤다. 안타는 만들지 못했지만, 3루 주자 맥스 먼시가 홈을 밟아 김혜성은 시즌 12번째 타점을 수확했다.
-다저스는 샌디에이고에 3-5로 패해 5연승 행진을 멈췄다. 다저스 일본인 선발 투수 야마모토 요시노부는 6.1이닝 7피안타 3실점 하고, 팀타선의 도움도 받지 못해 시즌 6패(6승)째를 당했다.
-9회초에는 감독을 포함한 양 팀 선수단이 그라운드로 나와 대치하는 벤치 클리어링이 발생했다. 다저스 오른손 불펜 잭 리틀의 투구에 페르난도 타티스 주니어가 팔 쪽을 맞았다. 마이크 실트 샌디에이고 감독이 더그아웃을 박차고 나와 다저스 벤치를 향해 불만을 표했고, 데이브 로버츠 다저스 감독은 타티스 주니어가 스윙 동작을 하다가 공에 맞았다는 걸 강조하며 강하게 맞섰다. 로버츠 감독이 실트 감독을 밀치면서 두 사령탑은 몸싸움을 벌이기도 했다.
-상황이 정리된 뒤에 심판진은 양 팀 감독 모두에게 퇴장 명령을 내렸다. 타티스 주니어가 11일, 18일에 이어 최근 열흘 사이에 다저스와 경기에서 3번이나 투수 공에 맞는 등 올 시즌 다저스와 샌디에이고는 위태로운 장면을 자주 연출하고 있다. 로버츠 감독은 18일 샌디에이고전에 이어 이틀 만에 다시 몸 맞는 공 문제로 항의하다가 퇴장당했다. 9회말 2사 후에는 수아레스의 시속 161㎞ 빠른 공이 오타니 쇼헤이(다저스)를 강타했다. 다저스 더그아웃이 뜨겁게 달아올랐지만, 오타니는 손을 들어 동료들을 자제시켰다. 마빈 허드슨 주심은 수아레스의 공에 의도가 담겼다고 판단해 수아레스를 퇴장 조처했다. 급하게 마운드에 오른 마쓰이 유키는 9회말 2사 2, 3루에서 미겔 로하스에게 볼넷을 내줘 만루 위기에 몰리고, 돌턴 러싱의 타석에서 공이 포수 마르틴 말도나도의 보호 장구 속으로 들어가 3루 주자의 득점을 허용했다. 하지만, 마쓰이는 러싱을 삼진 처리하며 MLB 첫 세이브를 올렸다.
-[ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지]
-제호 : 세계일보
-서울특별시 용산구 서빙고로 17
-등록번호 : 서울, 아03959
-등록일(발행일) : 2015년 11월 2일
-발행인 : 정희택
-편집인 : 김선교
-전화번호 : 02-2000-1234
-청소년보호 책임자 : 임인섭
-Copyright ⓒ 세계일보 All rights reserved.</t>
-  </si>
-  <si>
-    <t>20일(한국시간) 미국 캘리포니아주 로스앤젤레스 다저스타디움에서 열린 2025 MLB 샌디에이고 파드리스와 홈 경기에 9번 타자 중견수로 선발 출전한 김혜성은 왼손 선발 투수가 등판하면 라인업에서 빠지는 어려운 상황에서도 높은 타율을 유지하고 있다.</t>
-  </si>
-  <si>
-    <t>페이스북
-X(트위터)
-메일
-URL 복사
-작게
-보통
-크게
-오라클이 일론 머스크의 인공지능(AI) 기업 'xAI'와 협업한다.
-오라클은 오라클 클라우드 인프라스트럭처(OCI) 생성형 AI 서비스에서 xAI의 생성형 AI 모델 '그록'을 제공한다. xAI는 그록 모델의 추론 훈련 등을 위해 확장성과 성능, 비용 효율성이 뛰어난 OCI의 AI 인프라를 활용한다.
-오라클 관계자는 “xAI의 모델은 OCI의 엔터프라이즈급 기능으로 보강돼 기업 고객에 강력한 데이터 거버넌스와 관리·보안을 제공한다”며 “오라클이 그록 모델로 전송한 모든 데이터는 데이터가 저장되지 않는 엔드포인트에서 처리돼 추가적인 보호 계층을 제공한다”고 설명했다.
-오라클에 따르면, 미국 통신 서비스 제공업체인 윈드스트림은 보다 유연한 워크스트림을 구축하고 직원들의 역량을 강화하기 위해 OCI를 통해 xAI의 멀티모달 모델을 활용하는 옵션을 고려하고 있는 중이다.
-지미 바(Jimmy Ba) xAI 공동 설립자는 “오라클의 선진화된 데이터 플랫폼은 그록 3의 기업 대상 영향력을 가속화할 것”이라며 “xAI와 오라클의 협업은 엔터프라이즈급 AI의 개념을 재정의할 것”이라고 말했다.
-그렉 파블릭(Greg Pavlik) 오라클 OCI AI 및 데이터 관리 서비스 담당 총괄 부사장은 “오라클은 기업 고객에게 xAI의 최첨단 그록 모델을 제공하여 AI 활용 가능성을 확장하고 있다”며 “이번 협력은 양사의 가장 선진화된 AI 솔루션을 제공하기 위한 노력의 일환으로, 최신 AI 기술을 배포하고자 하는 기업에게 더 많은 선택권과 유연성을 제공한다”고 말했다.
-현대인 기자 modernman@etnews.com
-노르마, 84큐비트 양자 클라우드 서비스 정식 출시
-사업자명 : 전자신문인터넷
-사업자번호 : 107-81-80959
-발행·편집인: 심규호
-청소년보호책임자: 김태권
-Copyright © Electronic Times Internet. All Rights Reserved.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>6·25전쟁 75주년과 호국보훈의 달을 맞아 치킨대학의 ‘착한기부’를 전국적으로 확대한 사회공헌 활동인 ‘찾아가는 치킨 릴레이’를 통해 군 장병들에게 치킨 세트를 기부했다.</t>
   </si>
 </sst>
 </file>
@@ -4592,10 +4999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D21A0-C8E1-4909-8CA4-88E6127A70FE}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -4622,16 +5029,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4639,16 +5046,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4656,16 +5063,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4673,16 +5080,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4690,16 +5097,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4707,16 +5114,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4724,16 +5131,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4741,16 +5148,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4758,16 +5165,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4775,16 +5182,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4792,16 +5199,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4809,16 +5216,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4826,16 +5233,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4843,16 +5250,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4860,16 +5267,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4877,16 +5284,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4894,16 +5301,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4911,16 +5318,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4928,16 +5335,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4945,16 +5352,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4962,16 +5369,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4979,16 +5386,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -4996,16 +5403,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5013,16 +5420,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5030,16 +5437,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5047,16 +5454,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5064,16 +5471,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5081,16 +5488,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5098,16 +5505,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5115,16 +5522,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5132,16 +5539,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5149,16 +5556,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5166,16 +5573,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5183,16 +5590,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5200,16 +5607,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5217,16 +5624,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5234,16 +5641,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5251,16 +5658,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5268,16 +5675,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5285,33 +5692,33 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5319,16 +5726,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5336,16 +5743,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5353,16 +5760,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5370,16 +5777,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5387,16 +5794,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5404,16 +5811,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5421,16 +5828,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5438,33 +5845,33 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" t="s">
         <v>209</v>
-      </c>
-      <c r="C50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5472,16 +5879,16 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5489,16 +5896,16 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5506,16 +5913,16 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5523,16 +5930,16 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5540,16 +5947,16 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5557,16 +5964,16 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5574,322 +5981,322 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C68" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
+      </c>
+      <c r="E72" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+      <c r="E74" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5897,16 +6304,16 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
+      </c>
+      <c r="E77" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5914,16 +6321,16 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5931,16 +6338,16 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
@@ -5948,387 +6355,713 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E80" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C81" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C82" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E82" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C83" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E84" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E85" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E86" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E89" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E90" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E92" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E93" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
+      </c>
+      <c r="E95" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E96" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E97" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E98" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E99" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E100" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
       <c r="B102" t="s">
-        <v>14</v>
+        <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>409</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E103" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" t="s">
+        <v>417</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E104" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>420</v>
+      </c>
+      <c r="C105" t="s">
+        <v>421</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C106" t="s">
+        <v>425</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>428</v>
+      </c>
+      <c r="C107" t="s">
+        <v>429</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E107" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" t="s">
+        <v>433</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E108" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>436</v>
+      </c>
+      <c r="C109" t="s">
+        <v>437</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>440</v>
+      </c>
+      <c r="C110" t="s">
+        <v>441</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E110" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" t="s">
+        <v>445</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E111" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>448</v>
+      </c>
+      <c r="C112" t="s">
+        <v>449</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113" t="s">
+        <v>453</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E113" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>456</v>
+      </c>
+      <c r="C114" t="s">
+        <v>457</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E114" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>460</v>
+      </c>
+      <c r="C115" t="s">
+        <v>461</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E115" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" t="s">
+        <v>465</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E116" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>468</v>
+      </c>
+      <c r="C117" t="s">
+        <v>469</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E117" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>472</v>
+      </c>
+      <c r="C118" t="s">
+        <v>473</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E118" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>476</v>
+      </c>
+      <c r="C119" t="s">
+        <v>477</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>480</v>
+      </c>
+      <c r="C120" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E120" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="409.5" x14ac:dyDescent="0.6">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>484</v>
+      </c>
+      <c r="C121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E121" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/kobart_news_summarized.xlsx
+++ b/kobart_news_summarized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareEdu2025\mini project\KEB_5team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683EB1D-CD74-45BD-911F-EBF1E6B09046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2605BD7-5A3B-419E-9330-6C20A561768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{70AF54E5-8580-435B-89B2-7990398A032E}"/>
   </bookViews>
@@ -3214,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D21A0-C8E1-4909-8CA4-88E6127A70FE}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
